--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="elite" sheetId="2" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <t>DOTA_UNIT_CAP_MELEE_ATTACK</t>
   </si>
   <si>
-    <t>creatur_elite</t>
+    <t>unit_elite</t>
   </si>
   <si>
     <t>DOTA_HULL_SIZE_SMALL</t>
@@ -1716,9 +1716,9 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J4" sqref="J4"/>
+      <selection pane="topRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="140">
   <si>
     <t>主键</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>models/items/courier/mighty_chicken/mighty_chicken.vmdl</t>
+  </si>
+  <si>
+    <t>public_creature</t>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
@@ -1716,9 +1719,9 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="X1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U10" sqref="U10"/>
+      <selection pane="topRight" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1989,7 +1992,9 @@
       <c r="R3" s="25">
         <v>170</v>
       </c>
-      <c r="S3" s="13"/>
+      <c r="S3" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13">
@@ -1999,13 +2004,13 @@
         <v>180</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA3" s="13">
         <v>0</v>
@@ -2014,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="13">
         <v>20000</v>
@@ -2035,13 +2040,13 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A4" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="15">
         <v>2</v>
@@ -2080,7 +2085,7 @@
         <v>55</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P4" s="13">
         <v>1.4</v>
@@ -2091,7 +2096,9 @@
       <c r="R4" s="27">
         <v>170</v>
       </c>
-      <c r="S4" s="15"/>
+      <c r="S4" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="13">
@@ -2101,13 +2108,13 @@
         <v>180</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z4" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA4" s="15">
         <v>0</v>
@@ -2116,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="AC4" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE4" s="15">
         <v>20000</v>
@@ -2137,13 +2144,13 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A5" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="13">
         <v>3</v>
@@ -2182,7 +2189,7 @@
         <v>55</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P5" s="13">
         <v>1.4</v>
@@ -2193,7 +2200,9 @@
       <c r="R5" s="25">
         <v>170</v>
       </c>
-      <c r="S5" s="13"/>
+      <c r="S5" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13">
@@ -2203,13 +2212,13 @@
         <v>180</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA5" s="13">
         <v>0</v>
@@ -2218,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE5" s="13">
         <v>20000</v>
@@ -2239,13 +2248,13 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A6" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="15">
         <v>4</v>
@@ -2284,7 +2293,7 @@
         <v>55</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P6" s="13">
         <v>1.4</v>
@@ -2295,7 +2304,9 @@
       <c r="R6" s="27">
         <v>170</v>
       </c>
-      <c r="S6" s="15"/>
+      <c r="S6" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="13">
@@ -2305,13 +2316,13 @@
         <v>180</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA6" s="15">
         <v>0</v>
@@ -2320,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="AC6" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE6" s="15">
         <v>20000</v>
@@ -2341,13 +2352,13 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A7" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="13">
         <v>5</v>
@@ -2386,7 +2397,7 @@
         <v>55</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P7" s="13">
         <v>1.4</v>
@@ -2397,7 +2408,9 @@
       <c r="R7" s="25">
         <v>170</v>
       </c>
-      <c r="S7" s="13"/>
+      <c r="S7" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
       <c r="V7" s="13">
@@ -2407,13 +2420,13 @@
         <v>180</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y7" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA7" s="13">
         <v>0</v>
@@ -2422,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD7" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE7" s="13">
         <v>20000</v>
@@ -2443,13 +2456,13 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A8" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="15">
         <v>6</v>
@@ -2488,7 +2501,7 @@
         <v>55</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P8" s="13">
         <v>1.4</v>
@@ -2499,7 +2512,9 @@
       <c r="R8" s="27">
         <v>170</v>
       </c>
-      <c r="S8" s="15"/>
+      <c r="S8" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="13">
@@ -2509,13 +2524,13 @@
         <v>180</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA8" s="15">
         <v>0</v>
@@ -2524,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="AC8" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD8" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE8" s="15">
         <v>20000</v>
@@ -2545,13 +2560,13 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A9" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="13">
         <v>7</v>
@@ -2590,7 +2605,7 @@
         <v>55</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P9" s="13">
         <v>1.4</v>
@@ -2601,7 +2616,9 @@
       <c r="R9" s="25">
         <v>190</v>
       </c>
-      <c r="S9" s="13"/>
+      <c r="S9" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13">
@@ -2611,13 +2628,13 @@
         <v>180</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y9" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z9" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA9" s="13">
         <v>0</v>
@@ -2626,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD9" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE9" s="13">
         <v>20000</v>
@@ -2647,13 +2664,13 @@
     </row>
     <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A10" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="15">
         <v>8</v>
@@ -2692,7 +2709,7 @@
         <v>55</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P10" s="13">
         <v>1.4</v>
@@ -2703,7 +2720,9 @@
       <c r="R10" s="27">
         <v>190</v>
       </c>
-      <c r="S10" s="15"/>
+      <c r="S10" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="13">
@@ -2713,13 +2732,13 @@
         <v>180</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y10" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z10" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA10" s="15">
         <v>0</v>
@@ -2728,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="AC10" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD10" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE10" s="15">
         <v>20000</v>
@@ -2749,13 +2768,13 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A11" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" s="13">
         <v>9</v>
@@ -2794,7 +2813,7 @@
         <v>55</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P11" s="13">
         <v>1.4</v>
@@ -2805,7 +2824,9 @@
       <c r="R11" s="25">
         <v>180</v>
       </c>
-      <c r="S11" s="13"/>
+      <c r="S11" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13">
@@ -2815,13 +2836,13 @@
         <v>180</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y11" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z11" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA11" s="13">
         <v>0</v>
@@ -2830,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD11" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE11" s="13">
         <v>20000</v>
@@ -2851,13 +2872,13 @@
     </row>
     <row r="12" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A12" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12" s="15">
         <v>10</v>
@@ -2896,7 +2917,7 @@
         <v>55</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P12" s="13">
         <v>1.4</v>
@@ -2907,7 +2928,9 @@
       <c r="R12" s="27">
         <v>190</v>
       </c>
-      <c r="S12" s="15"/>
+      <c r="S12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
       <c r="V12" s="13">
@@ -2917,13 +2940,13 @@
         <v>180</v>
       </c>
       <c r="X12" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y12" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z12" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA12" s="15">
         <v>0</v>
@@ -2932,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="AC12" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD12" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE12" s="15">
         <v>20000</v>
@@ -2953,13 +2976,13 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A13" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="13">
         <v>11</v>
@@ -2998,7 +3021,7 @@
         <v>55</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P13" s="13">
         <v>1.4</v>
@@ -3009,7 +3032,9 @@
       <c r="R13" s="25">
         <v>195</v>
       </c>
-      <c r="S13" s="13"/>
+      <c r="S13" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
       <c r="V13" s="13">
@@ -3019,13 +3044,13 @@
         <v>180</v>
       </c>
       <c r="X13" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y13" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z13" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA13" s="13">
         <v>0</v>
@@ -3034,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD13" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE13" s="13">
         <v>20000</v>
@@ -3055,13 +3080,13 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A14" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14" s="15">
         <v>12</v>
@@ -3100,7 +3125,7 @@
         <v>55</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P14" s="13">
         <v>1.4</v>
@@ -3111,7 +3136,9 @@
       <c r="R14" s="27">
         <v>210</v>
       </c>
-      <c r="S14" s="15"/>
+      <c r="S14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
       <c r="V14" s="13">
@@ -3121,13 +3148,13 @@
         <v>180</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y14" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z14" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA14" s="15">
         <v>0</v>
@@ -3136,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="AC14" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD14" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE14" s="15">
         <v>20000</v>
@@ -3157,13 +3184,13 @@
     </row>
     <row r="15" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A15" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D15" s="13">
         <v>13</v>
@@ -3202,7 +3229,7 @@
         <v>55</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P15" s="13">
         <v>1.4</v>
@@ -3213,7 +3240,9 @@
       <c r="R15" s="25">
         <v>210</v>
       </c>
-      <c r="S15" s="13"/>
+      <c r="S15" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13">
@@ -3223,13 +3252,13 @@
         <v>180</v>
       </c>
       <c r="X15" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y15" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA15" s="13">
         <v>0</v>
@@ -3238,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD15" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE15" s="13">
         <v>20000</v>
@@ -3259,13 +3288,13 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A16" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" s="15">
         <v>14</v>
@@ -3304,7 +3333,7 @@
         <v>55</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="13">
         <v>1.4</v>
@@ -3315,7 +3344,9 @@
       <c r="R16" s="27">
         <v>210</v>
       </c>
-      <c r="S16" s="15"/>
+      <c r="S16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
       <c r="V16" s="13">
@@ -3325,13 +3356,13 @@
         <v>180</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y16" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA16" s="15">
         <v>0</v>
@@ -3340,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="AC16" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE16" s="15">
         <v>20000</v>
@@ -3361,13 +3392,13 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A17" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="13">
         <v>15</v>
@@ -3406,7 +3437,7 @@
         <v>55</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P17" s="13">
         <v>1.4</v>
@@ -3417,7 +3448,9 @@
       <c r="R17" s="25">
         <v>210</v>
       </c>
-      <c r="S17" s="13"/>
+      <c r="S17" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13">
@@ -3427,13 +3460,13 @@
         <v>180</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z17" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA17" s="13">
         <v>0</v>
@@ -3442,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD17" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE17" s="13">
         <v>20000</v>
@@ -3463,13 +3496,13 @@
     </row>
     <row r="18" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A18" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D18" s="15">
         <v>16</v>
@@ -3508,7 +3541,7 @@
         <v>55</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="13">
         <v>1.4</v>
@@ -3519,7 +3552,9 @@
       <c r="R18" s="27">
         <v>220</v>
       </c>
-      <c r="S18" s="15"/>
+      <c r="S18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
       <c r="V18" s="13">
@@ -3529,13 +3564,13 @@
         <v>180</v>
       </c>
       <c r="X18" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y18" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Z18" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA18" s="15">
         <v>0</v>
@@ -3544,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="AC18" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD18" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE18" s="15">
         <v>20000</v>
@@ -3565,13 +3600,13 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A19" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D19" s="13">
         <v>17</v>
@@ -3610,7 +3645,7 @@
         <v>55</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P19" s="13">
         <v>1.4</v>
@@ -3621,7 +3656,9 @@
       <c r="R19" s="25">
         <v>330</v>
       </c>
-      <c r="S19" s="13"/>
+      <c r="S19" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13">
@@ -3631,13 +3668,13 @@
         <v>180</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y19" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA19" s="13">
         <v>0</v>
@@ -3646,10 +3683,10 @@
         <v>0</v>
       </c>
       <c r="AC19" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD19" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE19" s="13">
         <v>20000</v>
@@ -3667,13 +3704,13 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A20" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D20" s="15">
         <v>18</v>
@@ -3712,7 +3749,7 @@
         <v>55</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="13">
         <v>1.4</v>
@@ -3723,7 +3760,9 @@
       <c r="R20" s="27">
         <v>240</v>
       </c>
-      <c r="S20" s="15"/>
+      <c r="S20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="13">
@@ -3733,13 +3772,13 @@
         <v>180</v>
       </c>
       <c r="X20" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y20" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA20" s="15">
         <v>0</v>
@@ -3748,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="AC20" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE20" s="15">
         <v>20000</v>
@@ -3769,13 +3808,13 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A21" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D21" s="13">
         <v>19</v>
@@ -3814,7 +3853,7 @@
         <v>55</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P21" s="13">
         <v>1.4</v>
@@ -3825,7 +3864,9 @@
       <c r="R21" s="25">
         <v>210</v>
       </c>
-      <c r="S21" s="13"/>
+      <c r="S21" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13">
@@ -3835,13 +3876,13 @@
         <v>180</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y21" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z21" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA21" s="13">
         <v>0</v>
@@ -3850,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="AC21" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD21" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE21" s="13">
         <v>20000</v>
@@ -3871,13 +3912,13 @@
     </row>
     <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A22" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D22" s="15">
         <v>20</v>
@@ -3916,7 +3957,7 @@
         <v>55</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P22" s="13">
         <v>1.4</v>
@@ -3927,7 +3968,9 @@
       <c r="R22" s="27">
         <v>210</v>
       </c>
-      <c r="S22" s="15"/>
+      <c r="S22" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" s="13">
@@ -3937,13 +3980,13 @@
         <v>180</v>
       </c>
       <c r="X22" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y22" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z22" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA22" s="15">
         <v>0</v>
@@ -3952,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="AC22" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD22" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE22" s="15">
         <v>20000</v>

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="elite" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
   <si>
     <t>主键</t>
   </si>
@@ -106,6 +106,9 @@
 [绿色2点经验|紫色5点经验|橙色10点经验]</t>
   </si>
   <si>
+    <t>击杀获得灵魂</t>
+  </si>
+  <si>
     <t>警戒范围</t>
   </si>
   <si>
@@ -178,7 +181,10 @@
     <t>BoundsHullName</t>
   </si>
   <si>
-    <t>KillSoulDrop</t>
+    <t>KillExpDrop</t>
+  </si>
+  <si>
+    <t>KillSoul</t>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
@@ -187,10 +193,7 @@
     <t>npc_monster_elite_1</t>
   </si>
   <si>
-    <t>精英怪物lv1</t>
-  </si>
-  <si>
-    <t>第1波怪物</t>
+    <t>黑暗巨魔召唤法师</t>
   </si>
   <si>
     <t>0|0|0|0</t>
@@ -199,7 +202,7 @@
     <t>npc_dota_creature</t>
   </si>
   <si>
-    <t>models/items/courier/mighty_chicken/mighty_chicken.vmdl</t>
+    <t>models/creeps/neutral_creeps/n_creep_troll_dark_b/n_creep_troll_dark_b.vmdl</t>
   </si>
   <si>
     <t>public_creature</t>
@@ -223,232 +226,64 @@
     <t>npc_monster_elite_2</t>
   </si>
   <si>
-    <t>精英怪物lv2</t>
-  </si>
-  <si>
-    <t>第2波怪物</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/furion_treant_nelum_red/furion_treant_nelum_red.vmdl</t>
+    <t>萨特苦难行者</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_satyr_a/n_creep_satyr_a.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_3</t>
   </si>
   <si>
-    <t>精英怪物lv3</t>
-  </si>
-  <si>
-    <t>第3波怪物</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/fungal_lord_shroomthing/fungal_lord_shroomthing.vmdl</t>
+    <t>远古黑龙</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_black_dragon/n_creep_black_dragon.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_4</t>
   </si>
   <si>
-    <t>精英怪物lv4</t>
-  </si>
-  <si>
-    <t>第4波怪物</t>
-  </si>
-  <si>
-    <t>models/items/warlock/golem/greevil_master_greevil_golem/greevil_master_greevil_golem.vmdl</t>
+    <t>冰霜之魂</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_ghost_b/n_creep_ghost_frost.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_5</t>
   </si>
   <si>
-    <t>精英怪物lv5</t>
-  </si>
-  <si>
-    <t>第5波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_beast/n_creep_beast.vmdl</t>
+    <t>肉山幼崽</t>
+  </si>
+  <si>
+    <t>models/creeps/baby_rosh_halloween/baby_rosh_dire/baby_rosh_dire.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_6</t>
   </si>
   <si>
-    <t>精英怪物lv6</t>
-  </si>
-  <si>
-    <t>第6波怪物</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/shroomling_treant/shroomling_treant.vmdl</t>
+    <t>变异肉山幼崽</t>
+  </si>
+  <si>
+    <t>models/creeps/baby_rosh_halloween/baby_rosh_radiant/baby_rosh_radiant.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_7</t>
   </si>
   <si>
-    <t>精英怪物lv7</t>
-  </si>
-  <si>
-    <t>第7波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/ti9_chameleon_radiant/ti9_chameleon_radiant_melee_mega.vmdl</t>
+    <t>远古雷肤兽</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_thunder_lizard/n_creep_thunder_lizard_big.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_8</t>
   </si>
   <si>
-    <t>精英怪物lv8</t>
-  </si>
-  <si>
-    <t>第8波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/ti9_crocodilian_dire/ti9_crocodilian_dire_melee_mega.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_9</t>
-  </si>
-  <si>
-    <t>精英怪物lv9</t>
-  </si>
-  <si>
-    <t>第9波怪物</t>
-  </si>
-  <si>
-    <t>models/items/warlock/golem/doom_of_ithogoaki/doom_of_ithogoaki.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_10</t>
-  </si>
-  <si>
-    <t>精英怪物lv10</t>
-  </si>
-  <si>
-    <t>第10波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_2021_radiant/creep_2021_radiant_flagbearer_melee_mega.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_11</t>
-  </si>
-  <si>
-    <t>精英怪物lv11</t>
-  </si>
-  <si>
-    <t>第11波怪物</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/allfather_of_nature_treant/allfather_of_nature_treant.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_12</t>
-  </si>
-  <si>
-    <t>精英怪物lv12</t>
-  </si>
-  <si>
-    <t>第12波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_golem_b/n_creep_golem_b.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_13</t>
-  </si>
-  <si>
-    <t>精英怪物lv13</t>
-  </si>
-  <si>
-    <t>第13波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/ice_biome/undeadtusk/undead_tuskskeleton01.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_14</t>
-  </si>
-  <si>
-    <t>精英怪物lv14</t>
-  </si>
-  <si>
-    <t>第14波怪物</t>
-  </si>
-  <si>
-    <t>models/items/warlock/golem/hellsworn_golem/hellsworn_golem.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_15</t>
-  </si>
-  <si>
-    <t>精英怪物lv15</t>
-  </si>
-  <si>
-    <t>第15波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/ice_biome/frostbitten/n_creep_frostbitten_swollen01.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_16</t>
-  </si>
-  <si>
-    <t>精英怪物lv16</t>
-  </si>
-  <si>
-    <t>第16波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_2021_radiant/creep_2021_radiant_ranged_mega.vmdl</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_RANGED_ATTACK</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_17</t>
-  </si>
-  <si>
-    <t>精英怪物lv17</t>
-  </si>
-  <si>
-    <t>第17波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_golem_a/neutral_creep_golem_a.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_18</t>
-  </si>
-  <si>
-    <t>精英怪物lv18</t>
-  </si>
-  <si>
-    <t>第18波怪物</t>
-  </si>
-  <si>
-    <t>models/items/warlock/golem/mdl_warlock_golem/mdl_warlock_golem.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_19</t>
-  </si>
-  <si>
-    <t>精英怪物lv19</t>
-  </si>
-  <si>
-    <t>第19波怪物</t>
-  </si>
-  <si>
-    <t>models/items/warlock/golem/warlock_the_infernal_master_golem/warlock_the_infernal_master_golem.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_20</t>
-  </si>
-  <si>
-    <t>精英怪物lv20</t>
-  </si>
-  <si>
-    <t>第20波怪物</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/np_desert_traveller_treant/np_desert_traveller_treant.vmdl</t>
+    <t>远古萨满潜行者</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_satyr_spawn_a/n_creep_satyr_spawn_a.vmdl</t>
   </si>
 </sst>
 </file>
@@ -1716,12 +1551,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="Z1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Z10" sqref="Z10"/>
+      <selection pane="topRight" activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1755,14 +1590,14 @@
     <col min="27" max="27" width="14.625" customWidth="1"/>
     <col min="28" max="28" width="17.675" customWidth="1"/>
     <col min="29" max="29" width="27.0083333333333" customWidth="1"/>
-    <col min="30" max="30" width="20.375" customWidth="1"/>
-    <col min="31" max="31" width="14.625" customWidth="1"/>
-    <col min="32" max="33" width="7.00833333333333" customWidth="1"/>
-    <col min="34" max="34" width="18.625" customWidth="1"/>
-    <col min="35" max="35" width="15" customWidth="1"/>
+    <col min="30" max="31" width="20.375" customWidth="1"/>
+    <col min="32" max="32" width="14.625" customWidth="1"/>
+    <col min="33" max="34" width="7.00833333333333" customWidth="1"/>
+    <col min="35" max="35" width="18.625" customWidth="1"/>
+    <col min="36" max="36" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="77" customHeight="1" spans="1:33">
+    <row r="1" s="1" customFormat="1" ht="77" customHeight="1" spans="1:34">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1846,12 +1681,15 @@
       <c r="AE1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="29"/>
+      <c r="AF1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="29"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:33">
+    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1859,90 +1697,93 @@
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W2" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="30"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="3" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A3" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="13">
         <v>1</v>
@@ -1951,14 +1792,14 @@
         <v>15</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" ref="F3:F9" si="0">E3</f>
+        <f t="shared" ref="F3:F10" si="0">E3</f>
         <v>15</v>
       </c>
       <c r="G3" s="14">
         <v>0</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3" s="13">
         <f>F3*10</f>
@@ -1968,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="13">
-        <f>J3</f>
+        <f t="shared" ref="K3:K10" si="1">J3</f>
         <v>1</v>
       </c>
       <c r="L3" s="13">
@@ -1978,10 +1819,10 @@
         <v>125</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P3" s="13">
         <v>1.4</v>
@@ -1993,7 +1834,7 @@
         <v>170</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
@@ -2004,13 +1845,13 @@
         <v>180</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA3" s="13">
         <v>0</v>
@@ -2019,31 +1860,34 @@
         <v>0</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE3" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="13">
         <v>20000</v>
       </c>
-      <c r="AF3" s="13">
+      <c r="AG3" s="13">
         <v>10</v>
       </c>
-      <c r="AG3" s="31">
+      <c r="AH3" s="31">
         <v>10</v>
       </c>
-      <c r="AH3" s="32" t="str">
-        <f>IF(AF3&lt;=AG3,"","数据出错")</f>
+      <c r="AI3" s="32" t="str">
+        <f t="shared" ref="AI3:AI10" si="2">IF(AG3&lt;=AH3,"","数据出错")</f>
         <v/>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A4" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>65</v>
@@ -2062,17 +1906,17 @@
         <v>0</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I4" s="13">
-        <f t="shared" ref="I4:I22" si="1">F4*10</f>
+        <f t="shared" ref="I4:I22" si="3">F4*10</f>
         <v>200</v>
       </c>
       <c r="J4" s="15">
         <v>6</v>
       </c>
       <c r="K4" s="15">
-        <f>J4</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L4" s="15">
@@ -2082,7 +1926,7 @@
         <v>125</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O4" s="20" t="s">
         <v>66</v>
@@ -2097,7 +1941,7 @@
         <v>170</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
@@ -2108,13 +1952,13 @@
         <v>180</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z4" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA4" s="15">
         <v>0</v>
@@ -2123,26 +1967,29 @@
         <v>0</v>
       </c>
       <c r="AC4" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE4" s="15">
+        <v>63</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="15">
         <v>20000</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AG4" s="15">
         <v>10</v>
       </c>
-      <c r="AG4" s="33">
+      <c r="AH4" s="33">
         <v>10</v>
       </c>
-      <c r="AH4" s="32" t="str">
-        <f t="shared" ref="AH4:AH32" si="2">IF(AF4&lt;=AG4,"","数据出错")</f>
+      <c r="AI4" s="32" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="5" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A5" s="12" t="s">
         <v>67</v>
       </c>
@@ -2150,7 +1997,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="13">
         <v>3</v>
@@ -2166,17 +2013,17 @@
         <v>0</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I5" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="J5" s="13">
         <v>9</v>
       </c>
       <c r="K5" s="13">
-        <f t="shared" ref="K5:K32" si="3">J5</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L5" s="13">
@@ -2186,10 +2033,10 @@
         <v>125</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P5" s="13">
         <v>1.4</v>
@@ -2201,7 +2048,7 @@
         <v>170</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
@@ -2212,13 +2059,13 @@
         <v>180</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA5" s="13">
         <v>0</v>
@@ -2227,34 +2074,37 @@
         <v>0</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE5" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="13">
         <v>20000</v>
       </c>
-      <c r="AF5" s="13">
+      <c r="AG5" s="13">
         <v>10</v>
       </c>
-      <c r="AG5" s="31">
+      <c r="AH5" s="31">
         <v>10</v>
       </c>
-      <c r="AH5" s="32" t="str">
+      <c r="AI5" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="6" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="C6" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="15">
         <v>4</v>
@@ -2270,17 +2120,17 @@
         <v>0</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I6" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="J6" s="15">
         <v>10</v>
       </c>
       <c r="K6" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L6" s="15">
@@ -2290,10 +2140,10 @@
         <v>125</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P6" s="13">
         <v>1.4</v>
@@ -2305,7 +2155,7 @@
         <v>170</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
@@ -2316,13 +2166,13 @@
         <v>180</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA6" s="15">
         <v>0</v>
@@ -2331,34 +2181,37 @@
         <v>0</v>
       </c>
       <c r="AC6" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE6" s="15">
+        <v>63</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="15">
         <v>20000</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AG6" s="15">
         <v>10</v>
       </c>
-      <c r="AG6" s="33">
+      <c r="AH6" s="33">
         <v>10</v>
       </c>
-      <c r="AH6" s="32" t="str">
+      <c r="AI6" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A7" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" s="13">
         <v>5</v>
@@ -2374,17 +2227,17 @@
         <v>0</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2500</v>
       </c>
       <c r="J7" s="13">
         <v>20</v>
       </c>
       <c r="K7" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="L7" s="13">
@@ -2394,10 +2247,10 @@
         <v>125</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P7" s="13">
         <v>1.4</v>
@@ -2409,7 +2262,7 @@
         <v>170</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
@@ -2420,13 +2273,13 @@
         <v>180</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y7" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA7" s="13">
         <v>0</v>
@@ -2435,34 +2288,37 @@
         <v>0</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD7" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE7" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="13">
         <v>20000</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AG7" s="13">
         <v>1</v>
       </c>
-      <c r="AG7" s="31">
+      <c r="AH7" s="31">
         <v>1</v>
       </c>
-      <c r="AH7" s="32" t="str">
+      <c r="AI7" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A8" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D8" s="15">
         <v>6</v>
@@ -2478,17 +2334,17 @@
         <v>0</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I8" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3710</v>
       </c>
       <c r="J8" s="15">
         <v>22</v>
       </c>
       <c r="K8" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="L8" s="15">
@@ -2498,10 +2354,10 @@
         <v>125</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P8" s="13">
         <v>1.4</v>
@@ -2513,7 +2369,7 @@
         <v>170</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
@@ -2524,13 +2380,13 @@
         <v>180</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA8" s="15">
         <v>0</v>
@@ -2539,34 +2395,37 @@
         <v>0</v>
       </c>
       <c r="AC8" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE8" s="15">
+        <v>63</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="15">
         <v>20000</v>
       </c>
-      <c r="AF8" s="15">
+      <c r="AG8" s="15">
         <v>11</v>
       </c>
-      <c r="AG8" s="33">
+      <c r="AH8" s="33">
         <v>11</v>
       </c>
-      <c r="AH8" s="32" t="str">
+      <c r="AI8" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A9" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D9" s="13">
         <v>7</v>
@@ -2582,17 +2441,17 @@
         <v>0</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5890</v>
       </c>
       <c r="J9" s="13">
         <v>25</v>
       </c>
       <c r="K9" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="L9" s="13">
@@ -2602,10 +2461,10 @@
         <v>125</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P9" s="13">
         <v>1.4</v>
@@ -2617,7 +2476,7 @@
         <v>190</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
@@ -2628,13 +2487,13 @@
         <v>180</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y9" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z9" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA9" s="13">
         <v>0</v>
@@ -2643,34 +2502,37 @@
         <v>0</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD9" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE9" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="13">
         <v>20000</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AG9" s="13">
         <v>11</v>
       </c>
-      <c r="AG9" s="31">
+      <c r="AH9" s="31">
         <v>11</v>
       </c>
-      <c r="AH9" s="32" t="str">
+      <c r="AI9" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A10" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D10" s="15">
         <v>8</v>
@@ -2679,24 +2541,24 @@
         <v>862</v>
       </c>
       <c r="F10" s="14">
-        <f t="shared" ref="F10:F32" si="4">E10</f>
+        <f t="shared" si="0"/>
         <v>862</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8620</v>
       </c>
       <c r="J10" s="15">
         <v>28</v>
       </c>
       <c r="K10" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="L10" s="15">
@@ -2706,10 +2568,10 @@
         <v>125</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P10" s="13">
         <v>1.4</v>
@@ -2721,7 +2583,7 @@
         <v>190</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
@@ -2732,13 +2594,13 @@
         <v>180</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y10" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z10" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA10" s="15">
         <v>0</v>
@@ -2747,1275 +2609,30 @@
         <v>0</v>
       </c>
       <c r="AC10" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE10" s="15">
+        <v>63</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF10" s="15">
         <v>20000</v>
       </c>
-      <c r="AF10" s="15">
+      <c r="AG10" s="15">
         <v>11</v>
       </c>
-      <c r="AG10" s="33">
+      <c r="AH10" s="33">
         <v>11</v>
       </c>
-      <c r="AH10" s="32" t="str">
+      <c r="AI10" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A11" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="13">
-        <v>9</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1050</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="4"/>
-        <v>1050</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" si="1"/>
-        <v>10500</v>
-      </c>
-      <c r="J11" s="13">
-        <v>31</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="L11" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="M11" s="13">
-        <v>125</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>2</v>
-      </c>
-      <c r="R11" s="25">
-        <v>180</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13">
-        <v>300</v>
-      </c>
-      <c r="W11" s="26">
-        <v>180</v>
-      </c>
-      <c r="X11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE11" s="13">
-        <v>20000</v>
-      </c>
-      <c r="AF11" s="13">
-        <v>11</v>
-      </c>
-      <c r="AG11" s="31">
-        <v>11</v>
-      </c>
-      <c r="AH11" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A12" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="15">
-        <v>10</v>
-      </c>
-      <c r="E12" s="16">
-        <v>1500</v>
-      </c>
-      <c r="F12" s="14">
-        <f t="shared" si="4"/>
-        <v>1500</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-      <c r="J12" s="15">
-        <v>34</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="L12" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="M12" s="15">
-        <v>125</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>2</v>
-      </c>
-      <c r="R12" s="27">
-        <v>190</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="13">
-        <v>300</v>
-      </c>
-      <c r="W12" s="28">
-        <v>180</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y12" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD12" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE12" s="15">
-        <v>20000</v>
-      </c>
-      <c r="AF12" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="33">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A13" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="13">
-        <v>11</v>
-      </c>
-      <c r="E13" s="14">
-        <v>2000</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" si="4"/>
-        <v>2000</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="1"/>
-        <v>20000</v>
-      </c>
-      <c r="J13" s="13">
-        <v>37</v>
-      </c>
-      <c r="K13" s="13">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="L13" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="M13" s="13">
-        <v>125</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="P13" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>2</v>
-      </c>
-      <c r="R13" s="25">
-        <v>195</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13">
-        <v>300</v>
-      </c>
-      <c r="W13" s="26">
-        <v>180</v>
-      </c>
-      <c r="X13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE13" s="13">
-        <v>20000</v>
-      </c>
-      <c r="AF13" s="13">
-        <v>12</v>
-      </c>
-      <c r="AG13" s="31">
-        <v>12</v>
-      </c>
-      <c r="AH13" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A14" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="15">
-        <v>12</v>
-      </c>
-      <c r="E14" s="16">
-        <v>2800</v>
-      </c>
-      <c r="F14" s="14">
-        <f t="shared" si="4"/>
-        <v>2800</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" si="1"/>
-        <v>28000</v>
-      </c>
-      <c r="J14" s="15">
-        <v>40</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="L14" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="M14" s="15">
-        <v>125</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>2</v>
-      </c>
-      <c r="R14" s="27">
-        <v>210</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="13">
-        <v>300</v>
-      </c>
-      <c r="W14" s="28">
-        <v>180</v>
-      </c>
-      <c r="X14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y14" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD14" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE14" s="15">
-        <v>20000</v>
-      </c>
-      <c r="AF14" s="15">
-        <v>12</v>
-      </c>
-      <c r="AG14" s="33">
-        <v>12</v>
-      </c>
-      <c r="AH14" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="13">
-        <v>13</v>
-      </c>
-      <c r="E15" s="14">
-        <v>3500</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="4"/>
-        <v>3500</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="1"/>
-        <v>35000</v>
-      </c>
-      <c r="J15" s="13">
-        <v>43</v>
-      </c>
-      <c r="K15" s="13">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="L15" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="M15" s="13">
-        <v>125</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="P15" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>2</v>
-      </c>
-      <c r="R15" s="25">
-        <v>210</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13">
-        <v>300</v>
-      </c>
-      <c r="W15" s="26">
-        <v>180</v>
-      </c>
-      <c r="X15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE15" s="13">
-        <v>20000</v>
-      </c>
-      <c r="AF15" s="13">
-        <v>12</v>
-      </c>
-      <c r="AG15" s="31">
-        <v>12</v>
-      </c>
-      <c r="AH15" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A16" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="15">
-        <v>14</v>
-      </c>
-      <c r="E16" s="16">
-        <v>4200</v>
-      </c>
-      <c r="F16" s="14">
-        <f t="shared" si="4"/>
-        <v>4200</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="13">
-        <f t="shared" si="1"/>
-        <v>42000</v>
-      </c>
-      <c r="J16" s="15">
-        <v>46</v>
-      </c>
-      <c r="K16" s="15">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="L16" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="M16" s="15">
-        <v>125</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="P16" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>2</v>
-      </c>
-      <c r="R16" s="27">
-        <v>210</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="13">
-        <v>300</v>
-      </c>
-      <c r="W16" s="28">
-        <v>180</v>
-      </c>
-      <c r="X16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y16" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE16" s="15">
-        <v>20000</v>
-      </c>
-      <c r="AF16" s="15">
-        <v>12</v>
-      </c>
-      <c r="AG16" s="33">
-        <v>12</v>
-      </c>
-      <c r="AH16" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A17" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="13">
-        <v>15</v>
-      </c>
-      <c r="E17" s="14">
-        <v>5000</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="13">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-      <c r="J17" s="13">
-        <v>49</v>
-      </c>
-      <c r="K17" s="13">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="L17" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="M17" s="13">
-        <v>125</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P17" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>2</v>
-      </c>
-      <c r="R17" s="25">
-        <v>210</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13">
-        <v>300</v>
-      </c>
-      <c r="W17" s="26">
-        <v>180</v>
-      </c>
-      <c r="X17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA17" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE17" s="13">
-        <v>20000</v>
-      </c>
-      <c r="AF17" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="31">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A18" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="15">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16">
-        <v>6200</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" si="4"/>
-        <v>6200</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="13">
-        <f t="shared" si="1"/>
-        <v>62000</v>
-      </c>
-      <c r="J18" s="15">
-        <v>52</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="L18" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="M18" s="15">
-        <v>125</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P18" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>2</v>
-      </c>
-      <c r="R18" s="27">
-        <v>220</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="13">
-        <v>300</v>
-      </c>
-      <c r="W18" s="28">
-        <v>180</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y18" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD18" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE18" s="15">
-        <v>20000</v>
-      </c>
-      <c r="AF18" s="15">
-        <v>13</v>
-      </c>
-      <c r="AG18" s="33">
-        <v>13</v>
-      </c>
-      <c r="AH18" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A19" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="13">
-        <v>17</v>
-      </c>
-      <c r="E19" s="14">
-        <v>7349</v>
-      </c>
-      <c r="F19" s="14">
-        <f t="shared" si="4"/>
-        <v>7349</v>
-      </c>
-      <c r="G19" s="16">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="13">
-        <f t="shared" si="1"/>
-        <v>73490</v>
-      </c>
-      <c r="J19" s="13">
-        <v>55</v>
-      </c>
-      <c r="K19" s="13">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="L19" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="M19" s="13">
-        <v>125</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="P19" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>2</v>
-      </c>
-      <c r="R19" s="25">
-        <v>330</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13">
-        <v>300</v>
-      </c>
-      <c r="W19" s="26">
-        <v>180</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y19" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE19" s="13">
-        <v>20000</v>
-      </c>
-      <c r="AF19" s="13">
-        <v>13</v>
-      </c>
-      <c r="AG19" s="31">
-        <v>13</v>
-      </c>
-      <c r="AH19" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A20" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="15">
-        <v>18</v>
-      </c>
-      <c r="E20" s="16">
-        <v>9200</v>
-      </c>
-      <c r="F20" s="14">
-        <f t="shared" si="4"/>
-        <v>9200</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="13">
-        <f t="shared" si="1"/>
-        <v>92000</v>
-      </c>
-      <c r="J20" s="15">
-        <v>58</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="L20" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="M20" s="15">
-        <v>125</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="P20" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>2</v>
-      </c>
-      <c r="R20" s="27">
-        <v>240</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="13">
-        <v>300</v>
-      </c>
-      <c r="W20" s="28">
-        <v>180</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD20" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE20" s="15">
-        <v>20000</v>
-      </c>
-      <c r="AF20" s="15">
-        <v>13</v>
-      </c>
-      <c r="AG20" s="33">
-        <v>13</v>
-      </c>
-      <c r="AH20" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A21" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="13">
-        <v>19</v>
-      </c>
-      <c r="E21" s="14">
-        <v>12000</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" si="4"/>
-        <v>12000</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="13">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="J21" s="13">
-        <v>61</v>
-      </c>
-      <c r="K21" s="13">
-        <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="L21" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="M21" s="13">
-        <v>125</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="P21" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>2</v>
-      </c>
-      <c r="R21" s="25">
-        <v>210</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13">
-        <v>300</v>
-      </c>
-      <c r="W21" s="26">
-        <v>180</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD21" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE21" s="13">
-        <v>20000</v>
-      </c>
-      <c r="AF21" s="13">
-        <v>13</v>
-      </c>
-      <c r="AG21" s="31">
-        <v>13</v>
-      </c>
-      <c r="AH21" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A22" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="15">
-        <v>20</v>
-      </c>
-      <c r="E22" s="16">
-        <v>15000</v>
-      </c>
-      <c r="F22" s="14">
-        <f t="shared" si="4"/>
-        <v>15000</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="13">
-        <f t="shared" si="1"/>
-        <v>150000</v>
-      </c>
-      <c r="J22" s="15">
-        <v>64</v>
-      </c>
-      <c r="K22" s="15">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="L22" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="M22" s="15">
-        <v>125</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="P22" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q22" s="13">
-        <v>2</v>
-      </c>
-      <c r="R22" s="27">
-        <v>210</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="13">
-        <v>300</v>
-      </c>
-      <c r="W22" s="28">
-        <v>180</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE22" s="15">
-        <v>20000</v>
-      </c>
-      <c r="AF22" s="15">
-        <v>13</v>
-      </c>
-      <c r="AG22" s="33">
-        <v>13</v>
-      </c>
-      <c r="AH22" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="AH3">
+  <conditionalFormatting sqref="AI3">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="elite" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
   <si>
     <t>主键</t>
   </si>
@@ -112,9 +112,15 @@
     <t>警戒范围</t>
   </si>
   <si>
+    <t>AI</t>
+  </si>
+  <si>
     <t>UnitName</t>
   </si>
   <si>
+    <t>#Loc{}</t>
+  </si>
+  <si>
     <t>CArmor</t>
   </si>
   <si>
@@ -190,6 +196,9 @@
     <t>AttackAcquisitionRange</t>
   </si>
   <si>
+    <t>vscripts</t>
+  </si>
+  <si>
     <t>npc_monster_elite_1</t>
   </si>
   <si>
@@ -221,6 +230,9 @@
   </si>
   <si>
     <t>0|70|30</t>
+  </si>
+  <si>
+    <t>ai/ai_elite.lua</t>
   </si>
   <si>
     <t>npc_monster_elite_2</t>
@@ -1551,12 +1563,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AD3" sqref="AD3"/>
+      <selection pane="topRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1576,28 +1588,28 @@
     <col min="13" max="13" width="16.175" customWidth="1"/>
     <col min="14" max="14" width="21.675" customWidth="1"/>
     <col min="15" max="15" width="50.625" customWidth="1"/>
-    <col min="16" max="16" width="7.34166666666667" customWidth="1"/>
-    <col min="17" max="17" width="15.175" customWidth="1"/>
-    <col min="18" max="18" width="21.0083333333333" customWidth="1"/>
-    <col min="19" max="19" width="16.5083333333333" customWidth="1"/>
-    <col min="20" max="20" width="27.375" customWidth="1"/>
-    <col min="21" max="21" width="11.675" customWidth="1"/>
-    <col min="22" max="22" width="21.8416666666667" customWidth="1"/>
-    <col min="23" max="23" width="24.3416666666667" customWidth="1"/>
-    <col min="24" max="24" width="32.5083333333333" customWidth="1"/>
-    <col min="25" max="25" width="33.5083333333333" customWidth="1"/>
-    <col min="26" max="26" width="17.175" customWidth="1"/>
-    <col min="27" max="27" width="14.625" customWidth="1"/>
-    <col min="28" max="28" width="17.675" customWidth="1"/>
-    <col min="29" max="29" width="27.0083333333333" customWidth="1"/>
-    <col min="30" max="31" width="20.375" customWidth="1"/>
-    <col min="32" max="32" width="14.625" customWidth="1"/>
-    <col min="33" max="34" width="7.00833333333333" customWidth="1"/>
-    <col min="35" max="35" width="18.625" customWidth="1"/>
-    <col min="36" max="36" width="15" customWidth="1"/>
+    <col min="16" max="16" width="15.175" customWidth="1"/>
+    <col min="17" max="17" width="21.0083333333333" customWidth="1"/>
+    <col min="18" max="18" width="16.5083333333333" customWidth="1"/>
+    <col min="19" max="19" width="27.375" customWidth="1"/>
+    <col min="20" max="20" width="11.675" customWidth="1"/>
+    <col min="21" max="21" width="21.8416666666667" customWidth="1"/>
+    <col min="22" max="22" width="24.3416666666667" customWidth="1"/>
+    <col min="23" max="23" width="32.5083333333333" customWidth="1"/>
+    <col min="24" max="24" width="33.5083333333333" customWidth="1"/>
+    <col min="25" max="25" width="17.175" customWidth="1"/>
+    <col min="26" max="26" width="14.625" customWidth="1"/>
+    <col min="27" max="27" width="17.675" customWidth="1"/>
+    <col min="28" max="28" width="27.0083333333333" customWidth="1"/>
+    <col min="29" max="30" width="20.375" customWidth="1"/>
+    <col min="31" max="31" width="14.625" customWidth="1"/>
+    <col min="32" max="32" width="10.375" customWidth="1"/>
+    <col min="33" max="33" width="7.00833333333333" customWidth="1"/>
+    <col min="34" max="34" width="18.625" customWidth="1"/>
+    <col min="35" max="35" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="77" customHeight="1" spans="1:34">
+    <row r="1" s="1" customFormat="1" ht="77" customHeight="1" spans="1:33">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1641,149 +1653,153 @@
       <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>17</v>
       </c>
+      <c r="W1" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="X1" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="29"/>
+        <v>27</v>
+      </c>
+      <c r="AG1" s="29"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:33">
       <c r="A2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="P2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="S2" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="30"/>
+        <v>55</v>
+      </c>
+      <c r="AG2" s="30"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
+    <row r="3" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A3" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D3" s="13">
         <v>1</v>
@@ -1799,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" s="13">
         <f>F3*10</f>
@@ -1819,78 +1835,70 @@
         <v>125</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P3" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>2</v>
-      </c>
-      <c r="R3" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="Q3" s="25">
         <v>170</v>
       </c>
-      <c r="S3" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="R3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="13"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13">
+      <c r="U3" s="13">
         <v>300</v>
       </c>
-      <c r="W3" s="26">
+      <c r="V3" s="26">
         <v>180</v>
       </c>
+      <c r="W3" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="X3" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>0</v>
       </c>
       <c r="AA3" s="13">
         <v>0</v>
       </c>
-      <c r="AB3" s="13">
-        <v>0</v>
+      <c r="AB3" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>10</v>
       </c>
       <c r="AE3" s="13">
-        <v>10</v>
-      </c>
-      <c r="AF3" s="13">
         <v>20000</v>
       </c>
-      <c r="AG3" s="13">
-        <v>10</v>
-      </c>
-      <c r="AH3" s="31">
-        <v>10</v>
-      </c>
-      <c r="AI3" s="32" t="str">
-        <f t="shared" ref="AI3:AI10" si="2">IF(AG3&lt;=AH3,"","数据出错")</f>
-        <v/>
-      </c>
+      <c r="AF3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="32"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
+    <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A4" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D4" s="15">
         <v>2</v>
@@ -1906,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I4" s="13">
-        <f t="shared" ref="I4:I22" si="3">F4*10</f>
+        <f t="shared" ref="I4:I22" si="2">F4*10</f>
         <v>200</v>
       </c>
       <c r="J4" s="15">
@@ -1926,78 +1934,70 @@
         <v>125</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P4" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>2</v>
-      </c>
-      <c r="R4" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="Q4" s="27">
         <v>170</v>
       </c>
-      <c r="S4" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="R4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="15"/>
       <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="13">
+      <c r="U4" s="13">
         <v>300</v>
       </c>
-      <c r="W4" s="28">
+      <c r="V4" s="28">
         <v>180</v>
       </c>
+      <c r="W4" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="X4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>0</v>
       </c>
       <c r="AA4" s="15">
         <v>0</v>
       </c>
-      <c r="AB4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE4" s="13">
+      <c r="AB4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD4" s="13">
         <v>10</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AE4" s="15">
         <v>20000</v>
       </c>
-      <c r="AG4" s="15">
-        <v>10</v>
-      </c>
-      <c r="AH4" s="33">
-        <v>10</v>
-      </c>
-      <c r="AI4" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="AF4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="32"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
+    <row r="5" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A5" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D5" s="13">
         <v>3</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
       <c r="J5" s="13">
@@ -2033,78 +2033,70 @@
         <v>125</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P5" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>2</v>
-      </c>
-      <c r="R5" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="Q5" s="25">
         <v>170</v>
       </c>
-      <c r="S5" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="R5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="13"/>
       <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13">
+      <c r="U5" s="13">
         <v>300</v>
       </c>
-      <c r="W5" s="26">
+      <c r="V5" s="26">
         <v>180</v>
       </c>
+      <c r="W5" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="X5" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>0</v>
       </c>
       <c r="AA5" s="13">
         <v>0</v>
       </c>
-      <c r="AB5" s="13">
-        <v>0</v>
+      <c r="AB5" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD5" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>10</v>
       </c>
       <c r="AE5" s="13">
-        <v>10</v>
-      </c>
-      <c r="AF5" s="13">
         <v>20000</v>
       </c>
-      <c r="AG5" s="13">
-        <v>10</v>
-      </c>
-      <c r="AH5" s="31">
-        <v>10</v>
-      </c>
-      <c r="AI5" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="AF5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="32"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
+    <row r="6" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A6" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" s="15">
         <v>4</v>
@@ -2120,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I6" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="J6" s="15">
@@ -2140,78 +2132,70 @@
         <v>125</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P6" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>2</v>
-      </c>
-      <c r="R6" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="Q6" s="27">
         <v>170</v>
       </c>
-      <c r="S6" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="R6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="15"/>
       <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="13">
+      <c r="U6" s="13">
         <v>300</v>
       </c>
-      <c r="W6" s="28">
+      <c r="V6" s="28">
         <v>180</v>
       </c>
+      <c r="W6" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="X6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0</v>
       </c>
       <c r="AA6" s="15">
         <v>0</v>
       </c>
-      <c r="AB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE6" s="13">
+      <c r="AB6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD6" s="13">
         <v>10</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AE6" s="15">
         <v>20000</v>
       </c>
-      <c r="AG6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AH6" s="33">
-        <v>10</v>
-      </c>
-      <c r="AI6" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="AF6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="32"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
+    <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A7" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D7" s="13">
         <v>5</v>
@@ -2227,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I7" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="J7" s="13">
@@ -2247,78 +2231,70 @@
         <v>125</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P7" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>2</v>
-      </c>
-      <c r="R7" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="Q7" s="25">
         <v>170</v>
       </c>
-      <c r="S7" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="R7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="13"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13">
+      <c r="U7" s="13">
         <v>300</v>
       </c>
-      <c r="W7" s="26">
+      <c r="V7" s="26">
         <v>180</v>
       </c>
+      <c r="W7" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="X7" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Y7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z7" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>0</v>
       </c>
       <c r="AA7" s="13">
         <v>0</v>
       </c>
-      <c r="AB7" s="13">
-        <v>0</v>
+      <c r="AB7" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD7" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>10</v>
       </c>
       <c r="AE7" s="13">
-        <v>10</v>
-      </c>
-      <c r="AF7" s="13">
         <v>20000</v>
       </c>
-      <c r="AG7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="31">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="AF7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="32"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
+    <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A8" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D8" s="15">
         <v>6</v>
@@ -2334,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I8" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3710</v>
       </c>
       <c r="J8" s="15">
@@ -2354,78 +2330,70 @@
         <v>125</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P8" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>2</v>
-      </c>
-      <c r="R8" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="Q8" s="27">
         <v>170</v>
       </c>
-      <c r="S8" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="R8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="15"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="13">
+      <c r="U8" s="13">
         <v>300</v>
       </c>
-      <c r="W8" s="28">
+      <c r="V8" s="28">
         <v>180</v>
       </c>
+      <c r="W8" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="X8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z8" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>0</v>
       </c>
       <c r="AA8" s="15">
         <v>0</v>
       </c>
-      <c r="AB8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE8" s="13">
+      <c r="AB8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD8" s="13">
         <v>10</v>
       </c>
-      <c r="AF8" s="15">
+      <c r="AE8" s="15">
         <v>20000</v>
       </c>
-      <c r="AG8" s="15">
-        <v>11</v>
-      </c>
-      <c r="AH8" s="33">
-        <v>11</v>
-      </c>
-      <c r="AI8" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="AF8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="32"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
+    <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A9" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D9" s="13">
         <v>7</v>
@@ -2441,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I9" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5890</v>
       </c>
       <c r="J9" s="13">
@@ -2461,78 +2429,70 @@
         <v>125</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P9" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>2</v>
-      </c>
-      <c r="R9" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="Q9" s="25">
         <v>190</v>
       </c>
-      <c r="S9" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="R9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="13"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13">
+      <c r="U9" s="13">
         <v>300</v>
       </c>
-      <c r="W9" s="26">
+      <c r="V9" s="26">
         <v>180</v>
       </c>
+      <c r="W9" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="X9" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Y9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z9" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>0</v>
       </c>
       <c r="AA9" s="13">
         <v>0</v>
       </c>
-      <c r="AB9" s="13">
-        <v>0</v>
+      <c r="AB9" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD9" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>10</v>
       </c>
       <c r="AE9" s="13">
-        <v>10</v>
-      </c>
-      <c r="AF9" s="13">
         <v>20000</v>
       </c>
-      <c r="AG9" s="13">
-        <v>11</v>
-      </c>
-      <c r="AH9" s="31">
-        <v>11</v>
-      </c>
-      <c r="AI9" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="AF9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="32"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
+    <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A10" s="12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D10" s="15">
         <v>8</v>
@@ -2548,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I10" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8620</v>
       </c>
       <c r="J10" s="15">
@@ -2568,71 +2528,63 @@
         <v>125</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P10" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>2</v>
-      </c>
-      <c r="R10" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="27">
         <v>190</v>
       </c>
-      <c r="S10" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="R10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="15"/>
       <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="13">
+      <c r="U10" s="13">
         <v>300</v>
       </c>
-      <c r="W10" s="28">
+      <c r="V10" s="28">
         <v>180</v>
       </c>
+      <c r="W10" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="X10" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z10" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>0</v>
       </c>
       <c r="AA10" s="15">
         <v>0</v>
       </c>
-      <c r="AB10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE10" s="13">
+      <c r="AB10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD10" s="13">
         <v>10</v>
       </c>
-      <c r="AF10" s="15">
+      <c r="AE10" s="15">
         <v>20000</v>
       </c>
-      <c r="AG10" s="15">
-        <v>11</v>
-      </c>
-      <c r="AH10" s="33">
-        <v>11</v>
-      </c>
-      <c r="AI10" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="AF10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="32"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AI3">
+  <conditionalFormatting sqref="AH3">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="23145" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="elite" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
   <si>
     <t>主键</t>
   </si>
@@ -47,7 +47,8 @@
     <t>自定义基础元素抗性</t>
   </si>
   <si>
-    <t>抗性</t>
+    <t>抗性
+火|冰|雷|风</t>
   </si>
   <si>
     <t>基础生命值</t>
@@ -87,6 +88,9 @@
   </si>
   <si>
     <t>攻击类型</t>
+  </si>
+  <si>
+    <t>特殊说明</t>
   </si>
   <si>
     <t>标签</t>
@@ -1563,12 +1567,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P8" sqref="P8"/>
+      <selection pane="topRight" activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1596,20 +1600,20 @@
     <col min="21" max="21" width="21.8416666666667" customWidth="1"/>
     <col min="22" max="22" width="24.3416666666667" customWidth="1"/>
     <col min="23" max="23" width="32.5083333333333" customWidth="1"/>
-    <col min="24" max="24" width="33.5083333333333" customWidth="1"/>
-    <col min="25" max="25" width="17.175" customWidth="1"/>
-    <col min="26" max="26" width="14.625" customWidth="1"/>
-    <col min="27" max="27" width="17.675" customWidth="1"/>
-    <col min="28" max="28" width="27.0083333333333" customWidth="1"/>
-    <col min="29" max="30" width="20.375" customWidth="1"/>
-    <col min="31" max="31" width="14.625" customWidth="1"/>
-    <col min="32" max="32" width="10.375" customWidth="1"/>
-    <col min="33" max="33" width="7.00833333333333" customWidth="1"/>
-    <col min="34" max="34" width="18.625" customWidth="1"/>
-    <col min="35" max="35" width="15" customWidth="1"/>
+    <col min="24" max="25" width="33.5083333333333" customWidth="1"/>
+    <col min="26" max="26" width="17.175" customWidth="1"/>
+    <col min="27" max="27" width="14.625" customWidth="1"/>
+    <col min="28" max="28" width="17.675" customWidth="1"/>
+    <col min="29" max="29" width="27.0083333333333" customWidth="1"/>
+    <col min="30" max="31" width="20.375" customWidth="1"/>
+    <col min="32" max="32" width="14.625" customWidth="1"/>
+    <col min="33" max="33" width="10.375" customWidth="1"/>
+    <col min="34" max="34" width="7.00833333333333" customWidth="1"/>
+    <col min="35" max="35" width="18.625" customWidth="1"/>
+    <col min="36" max="36" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="77" customHeight="1" spans="1:33">
+    <row r="1" s="1" customFormat="1" ht="77" customHeight="1" spans="1:34">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1698,76 +1702,77 @@
       <c r="AF1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="29"/>
+      <c r="AG1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="29"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:33">
+    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="Y2" s="10"/>
       <c r="Z2" s="10" t="s">
         <v>49</v>
       </c>
@@ -1789,17 +1794,20 @@
       <c r="AF2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="30"/>
+      <c r="AG2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="30"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="3" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A3" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13">
         <v>1</v>
@@ -1815,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" s="13">
         <f>F3*10</f>
@@ -1835,10 +1843,10 @@
         <v>125</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P3" s="13">
         <v>1.2</v>
@@ -1847,7 +1855,7 @@
         <v>170</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -1858,47 +1866,48 @@
         <v>180</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" s="13">
-        <v>0</v>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="AA3" s="13">
         <v>0</v>
       </c>
-      <c r="AB3" s="13" t="s">
-        <v>65</v>
+      <c r="AB3" s="13">
+        <v>0</v>
       </c>
       <c r="AC3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="13">
+      <c r="AD3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE3" s="13">
         <v>10</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AF3" s="13">
         <v>20000</v>
       </c>
-      <c r="AF3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="32"/>
+      <c r="AG3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="32"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A4" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="15">
         <v>2</v>
@@ -1914,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I4" s="13">
         <f t="shared" ref="I4:I22" si="2">F4*10</f>
@@ -1934,10 +1943,10 @@
         <v>125</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P4" s="13">
         <v>1.2</v>
@@ -1946,7 +1955,7 @@
         <v>170</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
@@ -1957,47 +1966,48 @@
         <v>180</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Z4" s="15">
-        <v>0</v>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="AA4" s="15">
         <v>0</v>
       </c>
-      <c r="AB4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AB4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AD4" s="13">
+      <c r="AD4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE4" s="13">
         <v>10</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="AF4" s="15">
         <v>20000</v>
       </c>
-      <c r="AF4" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="32"/>
+      <c r="AG4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="32"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="5" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A5" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="13">
         <v>3</v>
@@ -2013,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="2"/>
@@ -2033,10 +2043,10 @@
         <v>125</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="13">
         <v>1.2</v>
@@ -2045,7 +2055,7 @@
         <v>170</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
@@ -2056,47 +2066,48 @@
         <v>180</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Z5" s="13">
-        <v>0</v>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="AA5" s="13">
         <v>0</v>
       </c>
-      <c r="AB5" s="13" t="s">
-        <v>65</v>
+      <c r="AB5" s="13">
+        <v>0</v>
       </c>
       <c r="AC5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AD5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE5" s="13">
         <v>10</v>
       </c>
-      <c r="AE5" s="13">
+      <c r="AF5" s="13">
         <v>20000</v>
       </c>
-      <c r="AF5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="32"/>
+      <c r="AG5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="32"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="6" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A6" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="15">
         <v>4</v>
@@ -2112,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
@@ -2132,10 +2143,10 @@
         <v>125</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="13">
         <v>1.2</v>
@@ -2144,7 +2155,7 @@
         <v>170</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
@@ -2155,47 +2166,48 @@
         <v>180</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Z6" s="15">
-        <v>0</v>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="AA6" s="15">
         <v>0</v>
       </c>
-      <c r="AB6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC6" s="13" t="s">
+      <c r="AB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AD6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE6" s="13">
         <v>10</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AF6" s="15">
         <v>20000</v>
       </c>
-      <c r="AF6" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="32"/>
+      <c r="AG6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="32"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A7" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="13">
         <v>5</v>
@@ -2211,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I7" s="13">
         <f t="shared" si="2"/>
@@ -2231,10 +2243,10 @@
         <v>125</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P7" s="13">
         <v>1.2</v>
@@ -2243,7 +2255,7 @@
         <v>170</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -2254,47 +2266,48 @@
         <v>180</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y7" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Z7" s="13">
-        <v>0</v>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="AA7" s="13">
         <v>0</v>
       </c>
-      <c r="AB7" s="13" t="s">
-        <v>65</v>
+      <c r="AB7" s="13">
+        <v>0</v>
       </c>
       <c r="AC7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE7" s="13">
         <v>10</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AF7" s="13">
         <v>20000</v>
       </c>
-      <c r="AF7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="32"/>
+      <c r="AG7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="32"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A8" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="15">
         <v>6</v>
@@ -2310,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I8" s="13">
         <f t="shared" si="2"/>
@@ -2330,10 +2343,10 @@
         <v>125</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P8" s="13">
         <v>1.2</v>
@@ -2342,7 +2355,7 @@
         <v>170</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -2353,47 +2366,48 @@
         <v>180</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Z8" s="15">
-        <v>0</v>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="AA8" s="15">
         <v>0</v>
       </c>
-      <c r="AB8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC8" s="13" t="s">
+      <c r="AB8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE8" s="13">
         <v>10</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AF8" s="15">
         <v>20000</v>
       </c>
-      <c r="AF8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="32"/>
+      <c r="AG8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="32"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A9" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="13">
         <v>7</v>
@@ -2409,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" s="13">
         <f t="shared" si="2"/>
@@ -2429,10 +2443,10 @@
         <v>125</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P9" s="13">
         <v>1.2</v>
@@ -2441,7 +2455,7 @@
         <v>190</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
@@ -2452,47 +2466,48 @@
         <v>180</v>
       </c>
       <c r="W9" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Z9" s="13">
-        <v>0</v>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="AA9" s="13">
         <v>0</v>
       </c>
-      <c r="AB9" s="13" t="s">
-        <v>65</v>
+      <c r="AB9" s="13">
+        <v>0</v>
       </c>
       <c r="AC9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AD9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE9" s="13">
         <v>10</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AF9" s="13">
         <v>20000</v>
       </c>
-      <c r="AF9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="32"/>
+      <c r="AG9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="32"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A10" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="15">
         <v>8</v>
@@ -2508,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" s="13">
         <f t="shared" si="2"/>
@@ -2528,10 +2543,10 @@
         <v>125</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P10" s="13">
         <v>1.2</v>
@@ -2540,7 +2555,7 @@
         <v>190</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
@@ -2551,40 +2566,41 @@
         <v>180</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Z10" s="15">
-        <v>0</v>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="AA10" s="15">
         <v>0</v>
       </c>
-      <c r="AB10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC10" s="13" t="s">
+      <c r="AB10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AD10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE10" s="13">
         <v>10</v>
       </c>
-      <c r="AE10" s="15">
+      <c r="AF10" s="15">
         <v>20000</v>
       </c>
-      <c r="AF10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="32"/>
+      <c r="AG10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="32"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH3">
+  <conditionalFormatting sqref="AI3">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="elite" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
   <si>
     <t>主键</t>
   </si>
@@ -300,6 +300,66 @@
   </si>
   <si>
     <t>models/creeps/neutral_creeps/n_creep_satyr_spawn_a/n_creep_satyr_spawn_a.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_9</t>
+  </si>
+  <si>
+    <t>地狱火精灵</t>
+  </si>
+  <si>
+    <t>models/items/warlock/golem/warlock_the_infernal_master_golem/warlock_the_infernal_master_golem.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_10</t>
+  </si>
+  <si>
+    <t>地狱领主</t>
+  </si>
+  <si>
+    <t>models/monster/monster0122/monster0122.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_11</t>
+  </si>
+  <si>
+    <t>熔融巨龙</t>
+  </si>
+  <si>
+    <t>models/monster/monster0130/monster0130.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_12</t>
+  </si>
+  <si>
+    <t>冥火剑圣</t>
+  </si>
+  <si>
+    <t>models/monster/monster0192/monster0192.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_13</t>
+  </si>
+  <si>
+    <t>双斧狂战</t>
+  </si>
+  <si>
+    <t>models/monster/monster0235/monster0235.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_14</t>
+  </si>
+  <si>
+    <t>熔岩卫兵</t>
+  </si>
+  <si>
+    <t>models/monster/monster0228/monster0228.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_15</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_16</t>
   </si>
 </sst>
 </file>
@@ -314,7 +374,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,14 +395,27 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -512,7 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5A5A5A"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF5A5A5A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,12 +788,124 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -731,49 +916,6 @@
         <color rgb="FFFFFFFF"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
       </bottom>
@@ -796,23 +938,19 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1" tint="0.6"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF5A5A5A"/>
       </right>
@@ -824,8 +962,19 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1" tint="0.6"/>
       </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF5A5A5A"/>
       </right>
@@ -838,9 +987,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF5A5A5A"/>
       </right>
@@ -849,6 +996,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,28 +1132,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,123 +1153,132 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,19 +1315,46 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,12 +1363,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1177,31 +1390,52 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1257,7 +1491,7 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 4" xfId="49"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1265,8 +1499,351 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{655F73E3-B45C-4DE5-BCFE-1873FEFFF402}">
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="firstColumn" dxfId="9"/>
+      <tableStyleElement type="lastColumn" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="5"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="4"/>
+      <tableStyleElement type="lastHeaderCell" dxfId="3"/>
+      <tableStyleElement type="firstTotalCell" dxfId="2"/>
+      <tableStyleElement type="lastTotalCell" dxfId="1"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="00FFFF00"/>
@@ -1567,53 +2144,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Y14" sqref="Y14"/>
+      <selection pane="topRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.5083333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.675" customWidth="1"/>
-    <col min="4" max="4" width="12.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.5083333333333" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.5083333333333" customWidth="1"/>
-    <col min="8" max="8" width="24.3416666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.175" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="23.675" customWidth="1"/>
-    <col min="12" max="12" width="14.5083333333333" customWidth="1"/>
-    <col min="13" max="13" width="16.175" customWidth="1"/>
-    <col min="14" max="14" width="21.675" customWidth="1"/>
+    <col min="1" max="1" width="27.675" customWidth="1"/>
+    <col min="2" max="3" width="23.675" customWidth="1"/>
+    <col min="4" max="4" width="15.0083333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.5083333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.0083333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="19.0083333333333" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26.8416666666667" customWidth="1"/>
+    <col min="11" max="11" width="27.3416666666667" customWidth="1"/>
+    <col min="12" max="12" width="17.3416666666667" customWidth="1"/>
+    <col min="13" max="13" width="19.175" customWidth="1"/>
+    <col min="14" max="14" width="25.175" customWidth="1"/>
     <col min="15" max="15" width="50.625" customWidth="1"/>
-    <col min="16" max="16" width="15.175" customWidth="1"/>
-    <col min="17" max="17" width="21.0083333333333" customWidth="1"/>
-    <col min="18" max="18" width="16.5083333333333" customWidth="1"/>
-    <col min="19" max="19" width="27.375" customWidth="1"/>
-    <col min="20" max="20" width="11.675" customWidth="1"/>
-    <col min="21" max="21" width="21.8416666666667" customWidth="1"/>
-    <col min="22" max="22" width="24.3416666666667" customWidth="1"/>
-    <col min="23" max="23" width="32.5083333333333" customWidth="1"/>
-    <col min="24" max="25" width="33.5083333333333" customWidth="1"/>
-    <col min="26" max="26" width="17.175" customWidth="1"/>
-    <col min="27" max="27" width="14.625" customWidth="1"/>
-    <col min="28" max="28" width="17.675" customWidth="1"/>
-    <col min="29" max="29" width="27.0083333333333" customWidth="1"/>
-    <col min="30" max="31" width="20.375" customWidth="1"/>
-    <col min="32" max="32" width="14.625" customWidth="1"/>
-    <col min="33" max="33" width="10.375" customWidth="1"/>
+    <col min="16" max="16" width="18.3416666666667" customWidth="1"/>
+    <col min="17" max="17" width="24.3416666666667" customWidth="1"/>
+    <col min="18" max="18" width="20.5083333333333" customWidth="1"/>
+    <col min="19" max="20" width="14.0083333333333" customWidth="1"/>
+    <col min="21" max="21" width="25.5083333333333" customWidth="1"/>
+    <col min="22" max="22" width="16.625" customWidth="1"/>
+    <col min="23" max="23" width="37.175" customWidth="1"/>
+    <col min="24" max="24" width="36.3416666666667" customWidth="1"/>
+    <col min="25" max="25" width="15.0083333333333" customWidth="1"/>
+    <col min="26" max="26" width="16.0083333333333" customWidth="1"/>
+    <col min="27" max="27" width="16.625" customWidth="1"/>
+    <col min="28" max="28" width="23.675" customWidth="1"/>
+    <col min="29" max="29" width="29.3416666666667" customWidth="1"/>
+    <col min="30" max="30" width="26.625" customWidth="1"/>
+    <col min="31" max="31" width="19.0083333333333" customWidth="1"/>
+    <col min="32" max="32" width="17.625" customWidth="1"/>
+    <col min="33" max="33" width="18.5083333333333" customWidth="1"/>
     <col min="34" max="34" width="7.00833333333333" customWidth="1"/>
     <col min="35" max="35" width="18.625" customWidth="1"/>
     <col min="36" max="36" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="77" customHeight="1" spans="1:34">
+    <row r="1" s="1" customFormat="1" ht="83" customHeight="1" spans="1:34">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +2213,7 @@
       <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="7" t="s">
@@ -1660,7 +2237,7 @@
       <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="33" t="s">
         <v>15</v>
       </c>
       <c r="R1" s="7"/>
@@ -1669,7 +2246,7 @@
       <c r="U1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="34" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="7" t="s">
@@ -1702,12 +2279,12 @@
       <c r="AF1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="29"/>
+      <c r="AH1" s="44"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="2" s="2" customFormat="1" ht="48.5" customHeight="1" spans="1:34">
       <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
@@ -1724,7 +2301,7 @@
       <c r="H2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="27" t="s">
         <v>33</v>
       </c>
       <c r="J2" s="10" t="s">
@@ -1748,7 +2325,7 @@
       <c r="P2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="35" t="s">
         <v>41</v>
       </c>
       <c r="R2" s="10" t="s">
@@ -1763,7 +2340,7 @@
       <c r="U2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="36" t="s">
         <v>46</v>
       </c>
       <c r="W2" s="10" t="s">
@@ -1794,12 +2371,12 @@
       <c r="AF2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AG2" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" s="30"/>
+      <c r="AH2" s="46"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
+    <row r="3" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -1845,13 +2422,13 @@
       <c r="N3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="28" t="s">
         <v>61</v>
       </c>
       <c r="P3" s="13">
         <v>1.2</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="37">
         <v>170</v>
       </c>
       <c r="R3" s="13" t="s">
@@ -1862,7 +2439,7 @@
       <c r="U3" s="13">
         <v>300</v>
       </c>
-      <c r="V3" s="26">
+      <c r="V3" s="38">
         <v>180</v>
       </c>
       <c r="W3" s="13" t="s">
@@ -1893,711 +2470,1493 @@
       <c r="AF3" s="13">
         <v>20000</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AG3" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="32"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
+      <c r="A4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>20</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="13">
-        <f t="shared" ref="I4:I22" si="2">F4*10</f>
+      <c r="I4" s="16">
+        <f>F4*10</f>
         <v>200</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="16">
         <v>6</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="16">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="16">
         <v>1.5</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="16">
         <v>125</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="16">
         <v>1.2</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="39">
         <v>170</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="13">
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16">
         <v>300</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="40">
         <v>180</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="X4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="13" t="s">
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AA4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AD4" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AE4" s="13">
+      <c r="AE4" s="16">
         <v>10</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AF4" s="16">
         <v>20000</v>
       </c>
-      <c r="AG4" s="14" t="s">
+      <c r="AG4" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="32"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="49"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
+      <c r="A5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="16">
         <v>3</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="17">
         <v>45</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="17">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="13">
-        <f t="shared" si="2"/>
+      <c r="I5" s="16">
+        <f>F5*10</f>
         <v>450</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="16">
         <v>9</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="16">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="16">
         <v>1.5</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="16">
         <v>125</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="16">
         <v>1.2</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="39">
         <v>170</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13">
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16">
         <v>300</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="40">
         <v>180</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13" t="s">
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AA5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AA5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AD5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AE5" s="13">
+      <c r="AE5" s="16">
         <v>10</v>
       </c>
-      <c r="AF5" s="13">
+      <c r="AF5" s="16">
         <v>20000</v>
       </c>
-      <c r="AG5" s="14" t="s">
+      <c r="AG5" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="32"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="49"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A6" s="12" t="s">
+    <row r="6" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
+      <c r="A6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <v>4</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <v>100</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="13">
-        <f t="shared" si="2"/>
+      <c r="I6" s="16">
+        <f>F6*10</f>
         <v>1000</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="16">
         <v>10</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="16">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="16">
         <v>1.5</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="16">
         <v>125</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="16">
         <v>1.2</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="39">
         <v>170</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="13">
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16">
         <v>300</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="40">
         <v>180</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="X6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="13" t="s">
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AA6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="15" t="s">
+      <c r="AA6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="13" t="s">
+      <c r="AD6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AE6" s="13">
+      <c r="AE6" s="16">
         <v>10</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AF6" s="16">
         <v>20000</v>
       </c>
-      <c r="AG6" s="14" t="s">
+      <c r="AG6" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="32"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="49"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A7" s="12" t="s">
+    <row r="7" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
+      <c r="A7" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="16">
         <v>5</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="17">
         <v>250</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="13">
-        <f t="shared" si="2"/>
+      <c r="I7" s="16">
+        <f>F7*10</f>
         <v>2500</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="16">
         <v>20</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="16">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="16">
         <v>1.5</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="16">
         <v>125</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="16">
         <v>1.2</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="39">
         <v>170</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13">
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16">
         <v>300</v>
       </c>
-      <c r="V7" s="26">
+      <c r="V7" s="40">
         <v>180</v>
       </c>
-      <c r="W7" s="13" t="s">
+      <c r="W7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="X7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13" t="s">
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="13" t="s">
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AD7" s="13" t="s">
+      <c r="AD7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AE7" s="16">
         <v>10</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AF7" s="16">
         <v>20000</v>
       </c>
-      <c r="AG7" s="14" t="s">
+      <c r="AG7" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="32"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="49"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A8" s="12" t="s">
+    <row r="8" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
+      <c r="A8" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <v>6</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="17">
         <v>371</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="13">
-        <f t="shared" si="2"/>
+      <c r="I8" s="16">
+        <f>F8*10</f>
         <v>3710</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="16">
         <v>22</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="16">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="16">
         <v>1.5</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="16">
         <v>125</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="16">
         <v>1.2</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="39">
         <v>170</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="13">
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16">
         <v>300</v>
       </c>
-      <c r="V8" s="28">
+      <c r="V8" s="40">
         <v>180</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="W8" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="X8" s="15" t="s">
+      <c r="X8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="13" t="s">
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AA8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AD8" s="13" t="s">
+      <c r="AD8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AE8" s="16">
         <v>10</v>
       </c>
-      <c r="AF8" s="15">
+      <c r="AF8" s="16">
         <v>20000</v>
       </c>
-      <c r="AG8" s="14" t="s">
+      <c r="AG8" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="32"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="49"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
+      <c r="A9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="16">
         <v>7</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="17">
         <v>589</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>589</v>
       </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="13">
-        <f t="shared" si="2"/>
+      <c r="I9" s="16">
+        <f>F9*10</f>
         <v>5890</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="16">
         <v>25</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="16">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="16">
         <v>1.5</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="16">
         <v>125</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="16">
         <v>1.2</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="39">
         <v>190</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13">
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16">
         <v>300</v>
       </c>
-      <c r="V9" s="26">
+      <c r="V9" s="40">
         <v>180</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="W9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="X9" s="13" t="s">
+      <c r="X9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13" t="s">
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AA9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="13" t="s">
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AD9" s="13" t="s">
+      <c r="AD9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AE9" s="16">
         <v>10</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AF9" s="16">
         <v>20000</v>
       </c>
-      <c r="AG9" s="14" t="s">
+      <c r="AG9" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="32"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="49"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
+      <c r="A10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="16">
         <v>8</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="17">
         <v>862</v>
       </c>
-      <c r="F10" s="14">
-        <f t="shared" si="0"/>
+      <c r="F10" s="17">
+        <f>E10</f>
         <v>862</v>
       </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="13">
-        <f t="shared" si="2"/>
+      <c r="I10" s="16">
+        <f>F10*10</f>
         <v>8620</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="16">
         <v>28</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="16">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="16">
         <v>1.5</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="16">
         <v>125</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="16">
         <v>1.2</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="39">
         <v>190</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="13">
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16">
         <v>300</v>
       </c>
-      <c r="V10" s="28">
+      <c r="V10" s="40">
         <v>180</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="X10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="13" t="s">
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AA10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="15" t="s">
+      <c r="AA10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AD10" s="13" t="s">
+      <c r="AD10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="AE10" s="16">
         <v>10</v>
       </c>
-      <c r="AF10" s="15">
+      <c r="AF10" s="16">
         <v>20000</v>
       </c>
-      <c r="AG10" s="14" t="s">
+      <c r="AG10" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="32"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="49"/>
+    </row>
+    <row r="11" ht="47" customHeight="1" spans="1:34">
+      <c r="A11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="17">
+        <v>863</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" ref="F11:F18" si="2">E11</f>
+        <v>863</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" ref="I11:I18" si="3">F11*10</f>
+        <v>8630</v>
+      </c>
+      <c r="J11" s="16">
+        <v>28</v>
+      </c>
+      <c r="K11" s="16">
+        <f t="shared" ref="K11:K18" si="4">J11</f>
+        <v>28</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="16">
+        <v>125</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>190</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16">
+        <v>300</v>
+      </c>
+      <c r="V11" s="40">
+        <v>180</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG11" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH11" s="51"/>
+    </row>
+    <row r="12" ht="30.5" customHeight="1" spans="1:34">
+      <c r="A12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="17">
+        <v>864</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="2"/>
+        <v>864</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="3"/>
+        <v>8640</v>
+      </c>
+      <c r="J12" s="16">
+        <v>28</v>
+      </c>
+      <c r="K12" s="16">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="16">
+        <v>125</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="39">
+        <v>190</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16">
+        <v>300</v>
+      </c>
+      <c r="V12" s="40">
+        <v>180</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG12" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH12" s="51"/>
+    </row>
+    <row r="13" ht="30.5" customHeight="1" spans="1:34">
+      <c r="A13" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="17">
+        <v>865</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="2"/>
+        <v>865</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="3"/>
+        <v>8650</v>
+      </c>
+      <c r="J13" s="16">
+        <v>28</v>
+      </c>
+      <c r="K13" s="16">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="L13" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M13" s="16">
+        <v>125</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="39">
+        <v>190</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16">
+        <v>300</v>
+      </c>
+      <c r="V13" s="40">
+        <v>180</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE13" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH13" s="51"/>
+    </row>
+    <row r="14" ht="30.5" customHeight="1" spans="1:34">
+      <c r="A14" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="17">
+        <v>866</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="2"/>
+        <v>866</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="3"/>
+        <v>8660</v>
+      </c>
+      <c r="J14" s="16">
+        <v>28</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M14" s="16">
+        <v>125</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="Q14" s="39">
+        <v>190</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16">
+        <v>300</v>
+      </c>
+      <c r="V14" s="40">
+        <v>180</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG14" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH14" s="51"/>
+    </row>
+    <row r="15" ht="30.5" customHeight="1" spans="1:34">
+      <c r="A15" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="17">
+        <v>867</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="2"/>
+        <v>867</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="3"/>
+        <v>8670</v>
+      </c>
+      <c r="J15" s="16">
+        <v>28</v>
+      </c>
+      <c r="K15" s="16">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M15" s="16">
+        <v>125</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="Q15" s="39">
+        <v>190</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16">
+        <v>300</v>
+      </c>
+      <c r="V15" s="40">
+        <v>180</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE15" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF15" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG15" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH15" s="51"/>
+    </row>
+    <row r="16" ht="30.5" customHeight="1" spans="1:34">
+      <c r="A16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="17">
+        <v>868</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="2"/>
+        <v>868</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="3"/>
+        <v>8680</v>
+      </c>
+      <c r="J16" s="16">
+        <v>28</v>
+      </c>
+      <c r="K16" s="16">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="L16" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M16" s="16">
+        <v>125</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="Q16" s="39">
+        <v>190</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16">
+        <v>300</v>
+      </c>
+      <c r="V16" s="40">
+        <v>180</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE16" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF16" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG16" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH16" s="51"/>
+    </row>
+    <row r="17" ht="47" customHeight="1" spans="1:34">
+      <c r="A17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="17">
+        <v>869</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="2"/>
+        <v>869</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="3"/>
+        <v>8690</v>
+      </c>
+      <c r="J17" s="16">
+        <v>28</v>
+      </c>
+      <c r="K17" s="16">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="L17" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M17" s="16">
+        <v>125</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="Q17" s="39">
+        <v>190</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16">
+        <v>300</v>
+      </c>
+      <c r="V17" s="40">
+        <v>180</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE17" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF17" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG17" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH17" s="51"/>
+    </row>
+    <row r="18" ht="30.5" customHeight="1" spans="1:34">
+      <c r="A18" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23">
+        <v>870</v>
+      </c>
+      <c r="F18" s="23">
+        <f t="shared" si="2"/>
+        <v>870</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" si="3"/>
+        <v>8700</v>
+      </c>
+      <c r="J18" s="31">
+        <v>28</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="L18" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="31">
+        <v>125</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="Q18" s="41">
+        <v>190</v>
+      </c>
+      <c r="R18" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31">
+        <v>300</v>
+      </c>
+      <c r="V18" s="42">
+        <v>180</v>
+      </c>
+      <c r="W18" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="X18" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD18" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE18" s="31">
+        <v>10</v>
+      </c>
+      <c r="AF18" s="31">
+        <v>20000</v>
+      </c>
+      <c r="AG18" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH18" s="51"/>
+    </row>
+    <row r="19" ht="39" customHeight="1" spans="1:1">
+      <c r="A19" s="24"/>
+    </row>
+    <row r="20" ht="39" customHeight="1" spans="1:1">
+      <c r="A20" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AI3">

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="134">
   <si>
     <t>主键</t>
   </si>
@@ -38,7 +38,7 @@
     <t>怪物介绍</t>
   </si>
   <si>
-    <t>怪物等级</t>
+    <t>卡片ID</t>
   </si>
   <si>
     <t>未计算的血量</t>
@@ -125,6 +125,9 @@
     <t>#Loc{}</t>
   </si>
   <si>
+    <t>card_id</t>
+  </si>
+  <si>
     <t>CArmor</t>
   </si>
   <si>
@@ -323,7 +326,7 @@
     <t>npc_monster_elite_11</t>
   </si>
   <si>
-    <t>熔融巨龙</t>
+    <t>熔融巨龙（远程）</t>
   </si>
   <si>
     <t>models/monster/monster0130/monster0130.vmdl</t>
@@ -360,6 +363,75 @@
   </si>
   <si>
     <t>npc_monster_elite_16</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_17</t>
+  </si>
+  <si>
+    <t>雷霆领主</t>
+  </si>
+  <si>
+    <t>models/monster/monster0101/monster0101.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_18</t>
+  </si>
+  <si>
+    <t>青眼雷龙</t>
+  </si>
+  <si>
+    <t>models/monster/monster0102/monster0102.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_19</t>
+  </si>
+  <si>
+    <t>霹雳怪泥</t>
+  </si>
+  <si>
+    <t>models/monster/monster0103/monster0103.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_20</t>
+  </si>
+  <si>
+    <t>雷霆战蜥</t>
+  </si>
+  <si>
+    <t>models/monster/monster0106/monster0106.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_21</t>
+  </si>
+  <si>
+    <t>霹雳女妖</t>
+  </si>
+  <si>
+    <t>models/monster/monster0199/monster0199.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_22</t>
+  </si>
+  <si>
+    <t>雷压巨兽</t>
+  </si>
+  <si>
+    <t>models/monster/monster0230/monster0230.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_23</t>
+  </si>
+  <si>
+    <t>雷压射手(远程）</t>
+  </si>
+  <si>
+    <t>雷压射手（远程）</t>
+  </si>
+  <si>
+    <t>models/monster/monster0128/monster0128.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_24</t>
   </si>
 </sst>
 </file>
@@ -407,15 +479,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -576,12 +648,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -591,13 +675,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5A5A5A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +884,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -905,34 +1001,6 @@
       </top>
       <bottom style="thin">
         <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,7 +1221,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,55 +1233,43 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,11 +1330,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,151 +1359,190 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1829,7 +1936,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{655F73E3-B45C-4DE5-BCFE-1873FEFFF402}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{D25975D2-CDA5-4900-A380-7E829271CB92}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -2144,24 +2251,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H20" sqref="H20"/>
+      <selection pane="topRight" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.675" customWidth="1"/>
-    <col min="2" max="3" width="23.675" customWidth="1"/>
+    <col min="2" max="3" width="23.675" style="6" customWidth="1"/>
     <col min="4" max="4" width="15.0083333333333" customWidth="1"/>
     <col min="5" max="5" width="19.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="10.5083333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5083333333333" style="7" customWidth="1"/>
     <col min="7" max="7" width="27.0083333333333" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="19.0083333333333" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19.0083333333333" style="8" customWidth="1"/>
     <col min="10" max="10" width="26.8416666666667" customWidth="1"/>
     <col min="11" max="11" width="27.3416666666667" customWidth="1"/>
     <col min="12" max="12" width="17.3416666666667" customWidth="1"/>
@@ -2191,1773 +2298,2553 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="83" customHeight="1" spans="1:34">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="43" t="s">
+      <c r="AG1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="44"/>
+      <c r="AH1" s="53"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="48.5" customHeight="1" spans="1:34">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="H2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="Q2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="R2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="S2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="T2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="36" t="s">
+      <c r="U2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="V2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="W2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10" t="s">
+      <c r="X2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AA2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AB2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AC2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AD2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AE2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AF2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" s="46"/>
+      <c r="AG2" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH2" s="55"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="B3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="17">
         <v>15</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="17">
         <f t="shared" ref="F3:F10" si="0">E3</f>
         <v>15</v>
       </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="13">
-        <f>F3*10</f>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="16">
+        <f t="shared" ref="I3:I10" si="1">F3*10</f>
         <v>150</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="16">
         <v>1</v>
       </c>
-      <c r="K3" s="13">
-        <f t="shared" ref="K3:K10" si="1">J3</f>
+      <c r="K3" s="16">
+        <f t="shared" ref="K3:K10" si="2">J3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="16">
         <v>1.5</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="16">
         <v>125</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="13">
+      <c r="O3" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="16">
         <v>1.2</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="42">
         <v>170</v>
       </c>
-      <c r="R3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13">
+      <c r="R3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16">
         <v>300</v>
       </c>
-      <c r="V3" s="38">
+      <c r="V3" s="43">
         <v>180</v>
       </c>
-      <c r="W3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" s="13" t="s">
+      <c r="W3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13" t="s">
+      <c r="X3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="13" t="s">
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AA3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AD3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE3" s="16">
         <v>10</v>
       </c>
-      <c r="AF3" s="13">
+      <c r="AF3" s="16">
         <v>20000</v>
       </c>
-      <c r="AG3" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
+      <c r="AG3" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="58"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="B4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="19">
         <v>2</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="20">
         <v>20</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="16">
-        <f>F4*10</f>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="19">
         <v>6</v>
       </c>
-      <c r="K4" s="16">
-        <f t="shared" si="1"/>
+      <c r="K4" s="19">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="19">
         <v>1.5</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="19">
         <v>125</v>
       </c>
-      <c r="N4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="16">
+      <c r="N4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="19">
         <v>1.2</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="44">
         <v>170</v>
       </c>
-      <c r="R4" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16">
+      <c r="R4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19">
         <v>300</v>
       </c>
-      <c r="V4" s="40">
+      <c r="V4" s="45">
         <v>180</v>
       </c>
-      <c r="W4" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" s="16" t="s">
+      <c r="W4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16" t="s">
+      <c r="X4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="16" t="s">
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AD4" s="16" t="s">
+      <c r="AA4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AD4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE4" s="19">
         <v>10</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="19">
         <v>20000</v>
       </c>
-      <c r="AG4" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="49"/>
+      <c r="AG4" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="58"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="19">
         <v>3</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="20">
         <v>45</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="16">
-        <f>F5*10</f>
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="19">
         <v>9</v>
       </c>
-      <c r="K5" s="16">
-        <f t="shared" si="1"/>
+      <c r="K5" s="19">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="19">
         <v>1.5</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="19">
         <v>125</v>
       </c>
-      <c r="N5" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="16">
+      <c r="N5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="19">
         <v>1.2</v>
       </c>
-      <c r="Q5" s="39">
+      <c r="Q5" s="44">
         <v>170</v>
       </c>
-      <c r="R5" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16">
+      <c r="R5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19">
         <v>300</v>
       </c>
-      <c r="V5" s="40">
+      <c r="V5" s="45">
         <v>180</v>
       </c>
-      <c r="W5" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X5" s="16" t="s">
+      <c r="W5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16" t="s">
+      <c r="X5" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="AA5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="16" t="s">
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" s="16" t="s">
+      <c r="AA5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AE5" s="16">
+      <c r="AD5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE5" s="19">
         <v>10</v>
       </c>
-      <c r="AF5" s="16">
+      <c r="AF5" s="19">
         <v>20000</v>
       </c>
-      <c r="AG5" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="49"/>
+      <c r="AG5" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="58"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="B6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="19">
         <v>4</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="20">
         <v>100</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="16">
-        <f>F6*10</f>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="19">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="19">
         <v>10</v>
       </c>
-      <c r="K6" s="16">
-        <f t="shared" si="1"/>
+      <c r="K6" s="19">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="19">
         <v>1.5</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="19">
         <v>125</v>
       </c>
-      <c r="N6" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="16">
+      <c r="N6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="19">
         <v>1.2</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="44">
         <v>170</v>
       </c>
-      <c r="R6" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16">
+      <c r="R6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19">
         <v>300</v>
       </c>
-      <c r="V6" s="40">
+      <c r="V6" s="45">
         <v>180</v>
       </c>
-      <c r="W6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X6" s="16" t="s">
+      <c r="W6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16" t="s">
+      <c r="X6" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="AA6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="16" t="s">
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="16" t="s">
+      <c r="AA6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AE6" s="16">
+      <c r="AD6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" s="19">
         <v>10</v>
       </c>
-      <c r="AF6" s="16">
+      <c r="AF6" s="19">
         <v>20000</v>
       </c>
-      <c r="AG6" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="49"/>
+      <c r="AG6" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="58"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="B7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="19">
         <v>5</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="20">
         <v>250</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="16">
-        <f>F7*10</f>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="19">
         <v>20</v>
       </c>
-      <c r="K7" s="16">
-        <f t="shared" si="1"/>
+      <c r="K7" s="19">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="19">
         <v>1.5</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="19">
         <v>125</v>
       </c>
-      <c r="N7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="16">
+      <c r="N7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="19">
         <v>1.2</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="44">
         <v>170</v>
       </c>
-      <c r="R7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16">
+      <c r="R7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19">
         <v>300</v>
       </c>
-      <c r="V7" s="40">
+      <c r="V7" s="45">
         <v>180</v>
       </c>
-      <c r="W7" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X7" s="16" t="s">
+      <c r="W7" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16" t="s">
+      <c r="X7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="16" t="s">
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AD7" s="16" t="s">
+      <c r="AA7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AE7" s="16">
+      <c r="AD7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE7" s="19">
         <v>10</v>
       </c>
-      <c r="AF7" s="16">
+      <c r="AF7" s="19">
         <v>20000</v>
       </c>
-      <c r="AG7" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="49"/>
+      <c r="AG7" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="58"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="19">
         <v>6</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="20">
         <v>371</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="16">
-        <f>F8*10</f>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" si="1"/>
         <v>3710</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="19">
         <v>22</v>
       </c>
-      <c r="K8" s="16">
-        <f t="shared" si="1"/>
+      <c r="K8" s="19">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="19">
         <v>1.5</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="19">
         <v>125</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="16">
+      <c r="N8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="19">
         <v>1.2</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="44">
         <v>170</v>
       </c>
-      <c r="R8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16">
+      <c r="R8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19">
         <v>300</v>
       </c>
-      <c r="V8" s="40">
+      <c r="V8" s="45">
         <v>180</v>
       </c>
-      <c r="W8" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X8" s="16" t="s">
+      <c r="W8" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16" t="s">
+      <c r="X8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="AA8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="16" t="s">
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AD8" s="16" t="s">
+      <c r="AA8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AE8" s="16">
+      <c r="AD8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE8" s="19">
         <v>10</v>
       </c>
-      <c r="AF8" s="16">
+      <c r="AF8" s="19">
         <v>20000</v>
       </c>
-      <c r="AG8" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="49"/>
+      <c r="AG8" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="58"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A9" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="B9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="19">
         <v>7</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="20">
         <v>589</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>589</v>
       </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="16">
-        <f>F9*10</f>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" si="1"/>
         <v>5890</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="19">
         <v>25</v>
       </c>
-      <c r="K9" s="16">
-        <f t="shared" si="1"/>
+      <c r="K9" s="19">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="19">
         <v>1.5</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="19">
         <v>125</v>
       </c>
-      <c r="N9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="16">
+      <c r="N9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" s="19">
         <v>1.2</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="44">
         <v>190</v>
       </c>
-      <c r="R9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16">
+      <c r="R9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19">
         <v>300</v>
       </c>
-      <c r="V9" s="40">
+      <c r="V9" s="45">
         <v>180</v>
       </c>
-      <c r="W9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X9" s="16" t="s">
+      <c r="W9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16" t="s">
+      <c r="X9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="AA9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="16" t="s">
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AD9" s="16" t="s">
+      <c r="AA9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AE9" s="16">
+      <c r="AD9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE9" s="19">
         <v>10</v>
       </c>
-      <c r="AF9" s="16">
+      <c r="AF9" s="19">
         <v>20000</v>
       </c>
-      <c r="AG9" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="49"/>
+      <c r="AG9" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="58"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="B10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="19">
         <v>8</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="20">
         <v>862</v>
       </c>
-      <c r="F10" s="17">
-        <f>E10</f>
+      <c r="F10" s="20">
+        <f t="shared" si="0"/>
         <v>862</v>
       </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="16">
-        <f>F10*10</f>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="1"/>
         <v>8620</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="19">
         <v>28</v>
       </c>
-      <c r="K10" s="16">
-        <f t="shared" si="1"/>
+      <c r="K10" s="19">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="19">
         <v>1.5</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="19">
         <v>125</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>190</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19">
+        <v>300</v>
+      </c>
+      <c r="V10" s="45">
+        <v>180</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE10" s="19">
+        <v>10</v>
+      </c>
+      <c r="AF10" s="19">
+        <v>20000</v>
+      </c>
+      <c r="AG10" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="58"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="47" customHeight="1" spans="1:34">
+      <c r="A11" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23">
+        <v>863</v>
+      </c>
+      <c r="F11" s="23">
+        <f t="shared" ref="F11:F26" si="3">E11</f>
+        <v>863</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" s="16">
+      <c r="I11" s="22">
+        <f t="shared" ref="I11:I26" si="4">F11*10</f>
+        <v>8630</v>
+      </c>
+      <c r="J11" s="22">
+        <v>28</v>
+      </c>
+      <c r="K11" s="22">
+        <f t="shared" ref="K11:K26" si="5">J11</f>
+        <v>28</v>
+      </c>
+      <c r="L11" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="22">
+        <v>125</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" s="22">
         <v>1.2</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q11" s="46">
         <v>190</v>
       </c>
-      <c r="R10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16">
+      <c r="R11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22">
         <v>300</v>
       </c>
-      <c r="V10" s="40">
+      <c r="V11" s="47">
         <v>180</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="W11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="X11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE11" s="22">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="22">
+        <v>20000</v>
+      </c>
+      <c r="AG11" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH11" s="62"/>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
+      <c r="A12" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23">
+        <v>864</v>
+      </c>
+      <c r="F12" s="23">
+        <f t="shared" si="3"/>
+        <v>864</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="4"/>
+        <v>8640</v>
+      </c>
+      <c r="J12" s="22">
+        <v>28</v>
+      </c>
+      <c r="K12" s="22">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L12" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="22">
+        <v>125</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="46">
+        <v>190</v>
+      </c>
+      <c r="R12" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="X10" s="16" t="s">
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22">
+        <v>300</v>
+      </c>
+      <c r="V12" s="47">
+        <v>180</v>
+      </c>
+      <c r="W12" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16" t="s">
+      <c r="X12" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AA10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="16" t="s">
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AD10" s="16" t="s">
+      <c r="AA12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AE10" s="16">
+      <c r="AD12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE12" s="22">
         <v>10</v>
       </c>
-      <c r="AF10" s="16">
+      <c r="AF12" s="22">
         <v>20000</v>
       </c>
-      <c r="AG10" s="50" t="s">
+      <c r="AG12" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH12" s="62"/>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
+      <c r="A13" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23">
+        <v>865</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="3"/>
+        <v>865</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" si="4"/>
+        <v>8650</v>
+      </c>
+      <c r="J13" s="22">
+        <v>28</v>
+      </c>
+      <c r="K13" s="22">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L13" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M13" s="22">
+        <v>125</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>190</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22">
+        <v>300</v>
+      </c>
+      <c r="V13" s="47">
+        <v>180</v>
+      </c>
+      <c r="W13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="X13" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD13" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="49"/>
+      <c r="AE13" s="22">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="22">
+        <v>20000</v>
+      </c>
+      <c r="AG13" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH13" s="62"/>
     </row>
-    <row r="11" ht="47" customHeight="1" spans="1:34">
-      <c r="A11" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="17">
+    <row r="14" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
+      <c r="A14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23">
+        <v>866</v>
+      </c>
+      <c r="F14" s="23">
+        <f t="shared" si="3"/>
+        <v>866</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="22">
+        <f t="shared" si="4"/>
+        <v>8660</v>
+      </c>
+      <c r="J14" s="22">
+        <v>28</v>
+      </c>
+      <c r="K14" s="22">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L14" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M14" s="22">
+        <v>125</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="Q14" s="46">
+        <v>190</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22">
+        <v>300</v>
+      </c>
+      <c r="V14" s="47">
+        <v>180</v>
+      </c>
+      <c r="W14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="X14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE14" s="22">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="22">
+        <v>20000</v>
+      </c>
+      <c r="AG14" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH14" s="62"/>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
+      <c r="A15" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23">
+        <v>867</v>
+      </c>
+      <c r="F15" s="23">
+        <f t="shared" si="3"/>
+        <v>867</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="22">
+        <f t="shared" si="4"/>
+        <v>8670</v>
+      </c>
+      <c r="J15" s="22">
+        <v>28</v>
+      </c>
+      <c r="K15" s="22">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L15" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M15" s="22">
+        <v>125</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="Q15" s="46">
+        <v>190</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22">
+        <v>300</v>
+      </c>
+      <c r="V15" s="47">
+        <v>180</v>
+      </c>
+      <c r="W15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="X15" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE15" s="22">
+        <v>10</v>
+      </c>
+      <c r="AF15" s="22">
+        <v>20000</v>
+      </c>
+      <c r="AG15" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH15" s="62"/>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
+      <c r="A16" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23">
+        <v>868</v>
+      </c>
+      <c r="F16" s="23">
+        <f t="shared" si="3"/>
+        <v>868</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="22">
+        <f t="shared" si="4"/>
+        <v>8680</v>
+      </c>
+      <c r="J16" s="22">
+        <v>28</v>
+      </c>
+      <c r="K16" s="22">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L16" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M16" s="22">
+        <v>125</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>190</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22">
+        <v>300</v>
+      </c>
+      <c r="V16" s="47">
+        <v>180</v>
+      </c>
+      <c r="W16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="X16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE16" s="22">
+        <v>10</v>
+      </c>
+      <c r="AF16" s="22">
+        <v>20000</v>
+      </c>
+      <c r="AG16" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH16" s="62"/>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="47" customHeight="1" spans="1:34">
+      <c r="A17" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23">
+        <v>869</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" si="3"/>
+        <v>869</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="22">
+        <f t="shared" si="4"/>
+        <v>8690</v>
+      </c>
+      <c r="J17" s="22">
+        <v>28</v>
+      </c>
+      <c r="K17" s="22">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L17" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M17" s="22">
+        <v>125</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>190</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22">
+        <v>300</v>
+      </c>
+      <c r="V17" s="47">
+        <v>180</v>
+      </c>
+      <c r="W17" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="X17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE17" s="22">
+        <v>10</v>
+      </c>
+      <c r="AF17" s="22">
+        <v>20000</v>
+      </c>
+      <c r="AG17" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH17" s="62"/>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
+      <c r="A18" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26">
+        <v>870</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="3"/>
+        <v>870</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="25">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="J18" s="25">
+        <v>28</v>
+      </c>
+      <c r="K18" s="25">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L18" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="25">
+        <v>125</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="Q18" s="48">
+        <v>190</v>
+      </c>
+      <c r="R18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25">
+        <v>300</v>
+      </c>
+      <c r="V18" s="49">
+        <v>180</v>
+      </c>
+      <c r="W18" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="X18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD18" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE18" s="25">
+        <v>10</v>
+      </c>
+      <c r="AF18" s="25">
+        <v>20000</v>
+      </c>
+      <c r="AG18" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH18" s="62"/>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="39" customHeight="1" spans="1:34">
+      <c r="A19" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30">
         <v>863</v>
       </c>
-      <c r="F11" s="17">
-        <f t="shared" ref="F11:F18" si="2">E11</f>
+      <c r="F19" s="30">
+        <f t="shared" si="3"/>
         <v>863</v>
       </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="16">
-        <f t="shared" ref="I11:I18" si="3">F11*10</f>
+      <c r="G19" s="30">
+        <v>0</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="29">
+        <f t="shared" si="4"/>
         <v>8630</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J19" s="29">
         <v>28</v>
       </c>
-      <c r="K11" s="16">
-        <f t="shared" ref="K11:K18" si="4">J11</f>
+      <c r="K19" s="29">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L19" s="29">
         <v>1.5</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M19" s="29">
         <v>125</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N19" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="Q19" s="50">
+        <v>190</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29">
+        <v>300</v>
+      </c>
+      <c r="V19" s="51">
+        <v>180</v>
+      </c>
+      <c r="W19" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="X19" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA19" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD19" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE19" s="29">
+        <v>10</v>
+      </c>
+      <c r="AF19" s="29">
+        <v>20000</v>
+      </c>
+      <c r="AG19" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH19" s="65"/>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="39" customHeight="1" spans="1:34">
+      <c r="A20" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30">
+        <v>864</v>
+      </c>
+      <c r="F20" s="30">
+        <f t="shared" si="3"/>
+        <v>864</v>
+      </c>
+      <c r="G20" s="30">
+        <v>0</v>
+      </c>
+      <c r="H20" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P11" s="16">
+      <c r="I20" s="29">
+        <f t="shared" si="4"/>
+        <v>8640</v>
+      </c>
+      <c r="J20" s="29">
+        <v>28</v>
+      </c>
+      <c r="K20" s="29">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L20" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="M20" s="29">
+        <v>125</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="29">
         <v>1.2</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q20" s="50">
         <v>190</v>
       </c>
-      <c r="R11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16">
+      <c r="R20" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29">
         <v>300</v>
       </c>
-      <c r="V11" s="40">
+      <c r="V20" s="51">
         <v>180</v>
       </c>
-      <c r="W11" s="16" t="s">
+      <c r="W20" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="X20" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD20" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE20" s="29">
+        <v>10</v>
+      </c>
+      <c r="AF20" s="29">
+        <v>20000</v>
+      </c>
+      <c r="AG20" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH20" s="65"/>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="16.5" spans="1:34">
+      <c r="A21" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30">
+        <v>865</v>
+      </c>
+      <c r="F21" s="30">
+        <f t="shared" si="3"/>
+        <v>865</v>
+      </c>
+      <c r="G21" s="30">
+        <v>0</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="29">
+        <f t="shared" si="4"/>
+        <v>8650</v>
+      </c>
+      <c r="J21" s="29">
+        <v>28</v>
+      </c>
+      <c r="K21" s="29">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L21" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="M21" s="29">
+        <v>125</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="Q21" s="50">
+        <v>190</v>
+      </c>
+      <c r="R21" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="X11" s="16" t="s">
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29">
+        <v>300</v>
+      </c>
+      <c r="V21" s="51">
+        <v>180</v>
+      </c>
+      <c r="W21" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16" t="s">
+      <c r="X21" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AA11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="16" t="s">
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AD11" s="16" t="s">
+      <c r="AA21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AE11" s="16">
+      <c r="AD21" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE21" s="29">
         <v>10</v>
       </c>
-      <c r="AF11" s="16">
+      <c r="AF21" s="29">
         <v>20000</v>
       </c>
-      <c r="AG11" s="50" t="s">
+      <c r="AG21" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH21" s="65"/>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="16.5" spans="1:34">
+      <c r="A22" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30">
+        <v>866</v>
+      </c>
+      <c r="F22" s="30">
+        <f t="shared" si="3"/>
+        <v>866</v>
+      </c>
+      <c r="G22" s="30">
+        <v>0</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="29">
+        <f t="shared" si="4"/>
+        <v>8660</v>
+      </c>
+      <c r="J22" s="29">
+        <v>28</v>
+      </c>
+      <c r="K22" s="29">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L22" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="M22" s="29">
+        <v>125</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="Q22" s="50">
+        <v>190</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29">
+        <v>300</v>
+      </c>
+      <c r="V22" s="51">
+        <v>180</v>
+      </c>
+      <c r="W22" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="X22" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA22" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD22" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AH11" s="51"/>
+      <c r="AE22" s="29">
+        <v>10</v>
+      </c>
+      <c r="AF22" s="29">
+        <v>20000</v>
+      </c>
+      <c r="AG22" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH22" s="65"/>
     </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:34">
-      <c r="A12" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="17">
+    <row r="23" s="5" customFormat="1" ht="16.5" spans="1:34">
+      <c r="A23" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30">
+        <v>867</v>
+      </c>
+      <c r="F23" s="30">
+        <f t="shared" si="3"/>
+        <v>867</v>
+      </c>
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="29">
+        <f t="shared" si="4"/>
+        <v>8670</v>
+      </c>
+      <c r="J23" s="29">
+        <v>28</v>
+      </c>
+      <c r="K23" s="29">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L23" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="M23" s="29">
+        <v>125</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="Q23" s="50">
+        <v>190</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29">
+        <v>300</v>
+      </c>
+      <c r="V23" s="51">
+        <v>180</v>
+      </c>
+      <c r="W23" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="X23" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD23" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE23" s="29">
+        <v>10</v>
+      </c>
+      <c r="AF23" s="29">
+        <v>20000</v>
+      </c>
+      <c r="AG23" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH23" s="65"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="16.5" spans="1:34">
+      <c r="A24" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30">
+        <v>868</v>
+      </c>
+      <c r="F24" s="30">
+        <f t="shared" si="3"/>
+        <v>868</v>
+      </c>
+      <c r="G24" s="30">
+        <v>0</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="29">
+        <f t="shared" si="4"/>
+        <v>8680</v>
+      </c>
+      <c r="J24" s="29">
+        <v>28</v>
+      </c>
+      <c r="K24" s="29">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L24" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="M24" s="29">
+        <v>125</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="P24" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="Q24" s="50">
+        <v>190</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29">
+        <v>300</v>
+      </c>
+      <c r="V24" s="51">
+        <v>180</v>
+      </c>
+      <c r="W24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="X24" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA24" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD24" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE24" s="29">
+        <v>10</v>
+      </c>
+      <c r="AF24" s="29">
+        <v>20000</v>
+      </c>
+      <c r="AG24" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH24" s="65"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="16.5" spans="1:34">
+      <c r="A25" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30">
+        <v>869</v>
+      </c>
+      <c r="F25" s="30">
+        <f t="shared" si="3"/>
+        <v>869</v>
+      </c>
+      <c r="G25" s="30">
+        <v>0</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="29">
+        <f t="shared" si="4"/>
+        <v>8690</v>
+      </c>
+      <c r="J25" s="29">
+        <v>28</v>
+      </c>
+      <c r="K25" s="29">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L25" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="M25" s="29">
+        <v>125</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="Q25" s="50">
+        <v>190</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29">
+        <v>300</v>
+      </c>
+      <c r="V25" s="51">
+        <v>180</v>
+      </c>
+      <c r="W25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="X25" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA25" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE25" s="29">
+        <v>10</v>
+      </c>
+      <c r="AF25" s="29">
+        <v>20000</v>
+      </c>
+      <c r="AG25" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH25" s="65"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="39" customHeight="1" spans="1:34">
+      <c r="A26" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30">
         <v>864</v>
       </c>
-      <c r="F12" s="17">
-        <f t="shared" si="2"/>
+      <c r="F26" s="30">
+        <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="16">
-        <f t="shared" si="3"/>
+      <c r="G26" s="30">
+        <v>0</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="29">
+        <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J26" s="29">
         <v>28</v>
       </c>
-      <c r="K12" s="16">
-        <f t="shared" si="4"/>
+      <c r="K26" s="29">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L26" s="29">
         <v>1.5</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M26" s="29">
         <v>125</v>
       </c>
-      <c r="N12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" s="16">
+      <c r="N26" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="P26" s="29">
         <v>1.2</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q26" s="50">
         <v>190</v>
       </c>
-      <c r="R12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16">
+      <c r="R26" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29">
         <v>300</v>
       </c>
-      <c r="V12" s="40">
+      <c r="V26" s="51">
         <v>180</v>
       </c>
-      <c r="W12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X12" s="16" t="s">
+      <c r="W26" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16" t="s">
+      <c r="X26" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AA12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="16" t="s">
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AD12" s="16" t="s">
+      <c r="AA26" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AE12" s="16">
+      <c r="AD26" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE26" s="29">
         <v>10</v>
       </c>
-      <c r="AF12" s="16">
+      <c r="AF26" s="29">
         <v>20000</v>
       </c>
-      <c r="AG12" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH12" s="51"/>
+      <c r="AG26" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH26" s="65"/>
     </row>
-    <row r="13" ht="30.5" customHeight="1" spans="1:34">
-      <c r="A13" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="17">
-        <v>865</v>
-      </c>
-      <c r="F13" s="17">
-        <f t="shared" si="2"/>
-        <v>865</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="16">
-        <f t="shared" si="3"/>
-        <v>8650</v>
-      </c>
-      <c r="J13" s="16">
-        <v>28</v>
-      </c>
-      <c r="K13" s="16">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="L13" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="M13" s="16">
-        <v>125</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="Q13" s="39">
-        <v>190</v>
-      </c>
-      <c r="R13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16">
-        <v>300</v>
-      </c>
-      <c r="V13" s="40">
-        <v>180</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE13" s="16">
-        <v>10</v>
-      </c>
-      <c r="AF13" s="16">
-        <v>20000</v>
-      </c>
-      <c r="AG13" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH13" s="51"/>
-    </row>
-    <row r="14" ht="30.5" customHeight="1" spans="1:34">
-      <c r="A14" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="17">
-        <v>866</v>
-      </c>
-      <c r="F14" s="17">
-        <f t="shared" si="2"/>
-        <v>866</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="16">
-        <f t="shared" si="3"/>
-        <v>8660</v>
-      </c>
-      <c r="J14" s="16">
-        <v>28</v>
-      </c>
-      <c r="K14" s="16">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="L14" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="M14" s="16">
-        <v>125</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P14" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="Q14" s="39">
-        <v>190</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16">
-        <v>300</v>
-      </c>
-      <c r="V14" s="40">
-        <v>180</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE14" s="16">
-        <v>10</v>
-      </c>
-      <c r="AF14" s="16">
-        <v>20000</v>
-      </c>
-      <c r="AG14" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH14" s="51"/>
-    </row>
-    <row r="15" ht="30.5" customHeight="1" spans="1:34">
-      <c r="A15" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="17">
-        <v>867</v>
-      </c>
-      <c r="F15" s="17">
-        <f t="shared" si="2"/>
-        <v>867</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="16">
-        <f t="shared" si="3"/>
-        <v>8670</v>
-      </c>
-      <c r="J15" s="16">
-        <v>28</v>
-      </c>
-      <c r="K15" s="16">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="L15" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="M15" s="16">
-        <v>125</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="P15" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="Q15" s="39">
-        <v>190</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16">
-        <v>300</v>
-      </c>
-      <c r="V15" s="40">
-        <v>180</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE15" s="16">
-        <v>10</v>
-      </c>
-      <c r="AF15" s="16">
-        <v>20000</v>
-      </c>
-      <c r="AG15" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH15" s="51"/>
-    </row>
-    <row r="16" ht="30.5" customHeight="1" spans="1:34">
-      <c r="A16" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="17">
-        <v>868</v>
-      </c>
-      <c r="F16" s="17">
-        <f t="shared" si="2"/>
-        <v>868</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="16">
-        <f t="shared" si="3"/>
-        <v>8680</v>
-      </c>
-      <c r="J16" s="16">
-        <v>28</v>
-      </c>
-      <c r="K16" s="16">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="L16" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="M16" s="16">
-        <v>125</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="P16" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="Q16" s="39">
-        <v>190</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16">
-        <v>300</v>
-      </c>
-      <c r="V16" s="40">
-        <v>180</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X16" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE16" s="16">
-        <v>10</v>
-      </c>
-      <c r="AF16" s="16">
-        <v>20000</v>
-      </c>
-      <c r="AG16" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH16" s="51"/>
-    </row>
-    <row r="17" ht="47" customHeight="1" spans="1:34">
-      <c r="A17" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="17">
-        <v>869</v>
-      </c>
-      <c r="F17" s="17">
-        <f t="shared" si="2"/>
-        <v>869</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="16">
-        <f t="shared" si="3"/>
-        <v>8690</v>
-      </c>
-      <c r="J17" s="16">
-        <v>28</v>
-      </c>
-      <c r="K17" s="16">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="L17" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="M17" s="16">
-        <v>125</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O17" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P17" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="Q17" s="39">
-        <v>190</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16">
-        <v>300</v>
-      </c>
-      <c r="V17" s="40">
-        <v>180</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE17" s="16">
-        <v>10</v>
-      </c>
-      <c r="AF17" s="16">
-        <v>20000</v>
-      </c>
-      <c r="AG17" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH17" s="51"/>
-    </row>
-    <row r="18" ht="30.5" customHeight="1" spans="1:34">
-      <c r="A18" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23">
-        <v>870</v>
-      </c>
-      <c r="F18" s="23">
-        <f t="shared" si="2"/>
-        <v>870</v>
-      </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="31">
-        <f t="shared" si="3"/>
-        <v>8700</v>
-      </c>
-      <c r="J18" s="31">
-        <v>28</v>
-      </c>
-      <c r="K18" s="31">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="L18" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="M18" s="31">
-        <v>125</v>
-      </c>
-      <c r="N18" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="P18" s="31">
-        <v>1.2</v>
-      </c>
-      <c r="Q18" s="41">
-        <v>190</v>
-      </c>
-      <c r="R18" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31">
-        <v>300</v>
-      </c>
-      <c r="V18" s="42">
-        <v>180</v>
-      </c>
-      <c r="W18" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="X18" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD18" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE18" s="31">
-        <v>10</v>
-      </c>
-      <c r="AF18" s="31">
-        <v>20000</v>
-      </c>
-      <c r="AG18" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH18" s="51"/>
-    </row>
-    <row r="19" ht="39" customHeight="1" spans="1:1">
-      <c r="A19" s="24"/>
-    </row>
-    <row r="20" ht="39" customHeight="1" spans="1:1">
-      <c r="A20" s="25"/>
-    </row>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="AI3">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -657,7 +657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFF48D8D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFF48D8D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1954,6 +1954,7 @@
   <colors>
     <mruColors>
       <color rgb="00FFFF00"/>
+      <color rgb="00F48D8D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2253,10 +2254,10 @@
   <sheetPr/>
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P36" sqref="P36"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="169">
   <si>
     <t>主键</t>
   </si>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>卡片ID</t>
+  </si>
+  <si>
+    <t>元素类型
+1火2雷3冰4风</t>
   </si>
   <si>
     <t>未计算的血量</t>
@@ -332,6 +336,9 @@
     <t>models/monster/monster0130/monster0130.vmdl</t>
   </si>
   <si>
+    <t>creature_normal_1</t>
+  </si>
+  <si>
     <t>npc_monster_elite_12</t>
   </si>
   <si>
@@ -432,6 +439,105 @@
   </si>
   <si>
     <t>npc_monster_elite_24</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_25</t>
+  </si>
+  <si>
+    <t>冰甲战熊</t>
+  </si>
+  <si>
+    <t>models/items/lone_druid/bear/elemental_curse_set_elemental_curse_spirit_bear/elemental_curse_set_elemental_curse_spirit_bear.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_26</t>
+  </si>
+  <si>
+    <t>极地熊战士</t>
+  </si>
+  <si>
+    <t>models/items/lone_druid/true_form/iron_claw_true_form/iron_claw_true_form.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_27</t>
+  </si>
+  <si>
+    <t>冰原猩猩兽</t>
+  </si>
+  <si>
+    <t>models/monster/monster0185/monster0185.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_28</t>
+  </si>
+  <si>
+    <t>极地巨人</t>
+  </si>
+  <si>
+    <t>models/monster/monster0104/monster0104.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_29</t>
+  </si>
+  <si>
+    <t>极地四脚兽</t>
+  </si>
+  <si>
+    <t>models/heroes/leshrac/leshrac.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_30</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_31</t>
+  </si>
+  <si>
+    <t>冰原巨兽(远程）</t>
+  </si>
+  <si>
+    <t>冰原巨兽（远程）</t>
+  </si>
+  <si>
+    <t>models/monster/monster0229/monster0229.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_32</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_33</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_34</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_35</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_36</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_37</t>
+  </si>
+  <si>
+    <t>冰原巨兽</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_38</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_39</t>
+  </si>
+  <si>
+    <t>极地飞翼兽(远程）</t>
+  </si>
+  <si>
+    <t>极地飞翼兽（远程）</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_40</t>
+  </si>
+  <si>
+    <t>models/heroes/visage/visage.vmdl</t>
   </si>
 </sst>
 </file>
@@ -669,19 +775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF48D8D"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,7 +1452,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,6 +1471,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1374,36 +1486,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1413,40 +1567,34 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1455,28 +1603,46 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1491,31 +1657,19 @@
     <xf numFmtId="177" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1524,6 +1678,27 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1534,15 +1709,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1936,7 +2102,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{D25975D2-CDA5-4900-A380-7E829271CB92}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{478E2632-D0CF-4227-A4CD-ED0A94A37A37}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -2252,2602 +2418,4263 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+      <selection pane="topRight" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.675" customWidth="1"/>
-    <col min="2" max="3" width="23.675" style="6" customWidth="1"/>
+    <col min="2" max="3" width="23.675" style="8" customWidth="1"/>
     <col min="4" max="4" width="15.0083333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="10.5083333333333" style="7" customWidth="1"/>
-    <col min="7" max="7" width="27.0083333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="19.0083333333333" style="8" customWidth="1"/>
-    <col min="10" max="10" width="26.8416666666667" customWidth="1"/>
-    <col min="11" max="11" width="27.3416666666667" customWidth="1"/>
-    <col min="12" max="12" width="17.3416666666667" customWidth="1"/>
-    <col min="13" max="13" width="19.175" customWidth="1"/>
-    <col min="14" max="14" width="25.175" customWidth="1"/>
-    <col min="15" max="15" width="50.625" customWidth="1"/>
-    <col min="16" max="16" width="18.3416666666667" customWidth="1"/>
-    <col min="17" max="17" width="24.3416666666667" customWidth="1"/>
-    <col min="18" max="18" width="20.5083333333333" customWidth="1"/>
-    <col min="19" max="20" width="14.0083333333333" customWidth="1"/>
-    <col min="21" max="21" width="25.5083333333333" customWidth="1"/>
-    <col min="22" max="22" width="16.625" customWidth="1"/>
-    <col min="23" max="23" width="37.175" customWidth="1"/>
-    <col min="24" max="24" width="36.3416666666667" customWidth="1"/>
-    <col min="25" max="25" width="15.0083333333333" customWidth="1"/>
-    <col min="26" max="26" width="16.0083333333333" customWidth="1"/>
-    <col min="27" max="27" width="16.625" customWidth="1"/>
-    <col min="28" max="28" width="23.675" customWidth="1"/>
-    <col min="29" max="29" width="29.3416666666667" customWidth="1"/>
-    <col min="30" max="30" width="26.625" customWidth="1"/>
-    <col min="31" max="31" width="19.0083333333333" customWidth="1"/>
-    <col min="32" max="32" width="17.625" customWidth="1"/>
-    <col min="33" max="33" width="18.5083333333333" customWidth="1"/>
-    <col min="34" max="34" width="7.00833333333333" customWidth="1"/>
-    <col min="35" max="35" width="18.625" customWidth="1"/>
-    <col min="36" max="36" width="15" customWidth="1"/>
+    <col min="5" max="6" width="19.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.5083333333333" style="9" customWidth="1"/>
+    <col min="8" max="8" width="27.0083333333333" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="19.0083333333333" style="10" customWidth="1"/>
+    <col min="11" max="11" width="26.8416666666667" customWidth="1"/>
+    <col min="12" max="12" width="27.3416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="19.175" customWidth="1"/>
+    <col min="15" max="15" width="25.175" customWidth="1"/>
+    <col min="16" max="16" width="50.625" customWidth="1"/>
+    <col min="17" max="17" width="18.3416666666667" customWidth="1"/>
+    <col min="18" max="18" width="24.3416666666667" customWidth="1"/>
+    <col min="19" max="19" width="20.5083333333333" customWidth="1"/>
+    <col min="20" max="20" width="17.5" customWidth="1"/>
+    <col min="21" max="21" width="14.0083333333333" customWidth="1"/>
+    <col min="22" max="22" width="25.5083333333333" customWidth="1"/>
+    <col min="23" max="23" width="16.625" customWidth="1"/>
+    <col min="24" max="24" width="37.175" customWidth="1"/>
+    <col min="25" max="25" width="36.3416666666667" customWidth="1"/>
+    <col min="26" max="26" width="15.0083333333333" customWidth="1"/>
+    <col min="27" max="27" width="16.0083333333333" customWidth="1"/>
+    <col min="28" max="28" width="16.625" customWidth="1"/>
+    <col min="29" max="29" width="23.675" customWidth="1"/>
+    <col min="30" max="30" width="29.3416666666667" customWidth="1"/>
+    <col min="31" max="31" width="26.625" customWidth="1"/>
+    <col min="32" max="32" width="19.0083333333333" customWidth="1"/>
+    <col min="33" max="33" width="17.625" customWidth="1"/>
+    <col min="34" max="34" width="18.5083333333333" customWidth="1"/>
+    <col min="35" max="35" width="7.00833333333333" customWidth="1"/>
+    <col min="36" max="36" width="18.625" customWidth="1"/>
+    <col min="37" max="37" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="83" customHeight="1" spans="1:34">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" s="1" customFormat="1" ht="83" customHeight="1" spans="1:35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10" t="s">
+      <c r="R1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="52" t="s">
+      <c r="AG1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="53"/>
+      <c r="AH1" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="69"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="48.5" customHeight="1" spans="1:34">
-      <c r="A2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" s="2" customFormat="1" ht="48.5" customHeight="1" spans="1:35">
+      <c r="A2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13" t="s">
+      <c r="Y2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AF2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="54" t="s">
+      <c r="AG2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="55"/>
+      <c r="AH2" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" s="71"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A3" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="16" t="s">
+    <row r="3" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
+      <c r="A3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="B3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="18">
         <v>1</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19">
         <v>15</v>
       </c>
-      <c r="F3" s="17">
-        <f t="shared" ref="F3:F10" si="0">E3</f>
+      <c r="G3" s="19">
+        <f t="shared" ref="G3:G10" si="0">F3</f>
         <v>15</v>
       </c>
-      <c r="G3" s="17">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="16">
-        <f t="shared" ref="I3:I10" si="1">F3*10</f>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="18">
+        <f t="shared" ref="J3:J10" si="1">G3*10</f>
         <v>150</v>
       </c>
-      <c r="J3" s="16">
+      <c r="K3" s="18">
         <v>1</v>
       </c>
-      <c r="K3" s="16">
-        <f t="shared" ref="K3:K10" si="2">J3</f>
+      <c r="L3" s="18">
+        <f t="shared" ref="L3:L10" si="2">K3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="16">
+      <c r="M3" s="18">
         <v>1.5</v>
       </c>
-      <c r="M3" s="16">
+      <c r="N3" s="18">
         <v>125</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="18">
         <v>1.2</v>
       </c>
-      <c r="Q3" s="42">
+      <c r="R3" s="54">
         <v>170</v>
       </c>
-      <c r="R3" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16">
+      <c r="S3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18">
         <v>300</v>
       </c>
-      <c r="V3" s="43">
+      <c r="W3" s="55">
         <v>180</v>
       </c>
-      <c r="W3" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16" t="s">
+      <c r="Y3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="16" t="s">
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AB3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AE3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="18">
         <v>10</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AG3" s="18">
         <v>20000</v>
       </c>
-      <c r="AG3" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="58"/>
+      <c r="AH3" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="74"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A4" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="19" t="s">
+    <row r="4" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
+      <c r="A4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="B4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="21">
         <v>2</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22">
         <v>20</v>
       </c>
-      <c r="F4" s="20">
+      <c r="G4" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G4" s="20">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="19">
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="21">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="J4" s="19">
+      <c r="K4" s="21">
         <v>6</v>
       </c>
-      <c r="K4" s="19">
+      <c r="L4" s="21">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L4" s="19">
+      <c r="M4" s="21">
         <v>1.5</v>
       </c>
-      <c r="M4" s="19">
+      <c r="N4" s="21">
         <v>125</v>
       </c>
-      <c r="N4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" s="19">
+      <c r="O4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="21">
         <v>1.2</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="R4" s="56">
         <v>170</v>
       </c>
-      <c r="R4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19">
+      <c r="S4" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21">
         <v>300</v>
       </c>
-      <c r="V4" s="45">
+      <c r="W4" s="57">
         <v>180</v>
       </c>
-      <c r="W4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" s="19" t="s">
+      <c r="X4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19" t="s">
+      <c r="Y4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="19" t="s">
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AB4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AE4" s="19">
+      <c r="AE4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF4" s="21">
         <v>10</v>
       </c>
-      <c r="AF4" s="19">
+      <c r="AG4" s="21">
         <v>20000</v>
       </c>
-      <c r="AG4" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="58"/>
+      <c r="AH4" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="74"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A5" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="19" t="s">
+    <row r="5" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
+      <c r="A5" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="B5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="21">
         <v>3</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22">
         <v>45</v>
       </c>
-      <c r="F5" s="20">
+      <c r="G5" s="22">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="19">
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="21">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="J5" s="19">
+      <c r="K5" s="21">
         <v>9</v>
       </c>
-      <c r="K5" s="19">
+      <c r="L5" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L5" s="19">
+      <c r="M5" s="21">
         <v>1.5</v>
       </c>
-      <c r="M5" s="19">
+      <c r="N5" s="21">
         <v>125</v>
       </c>
-      <c r="N5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" s="19">
+      <c r="O5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="21">
         <v>1.2</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="R5" s="56">
         <v>170</v>
       </c>
-      <c r="R5" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19">
+      <c r="S5" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21">
         <v>300</v>
       </c>
-      <c r="V5" s="45">
+      <c r="W5" s="57">
         <v>180</v>
       </c>
-      <c r="W5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="X5" s="19" t="s">
+      <c r="X5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19" t="s">
+      <c r="Y5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="19" t="s">
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AD5" s="19" t="s">
+      <c r="AB5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AE5" s="19">
+      <c r="AE5" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF5" s="21">
         <v>10</v>
       </c>
-      <c r="AF5" s="19">
+      <c r="AG5" s="21">
         <v>20000</v>
       </c>
-      <c r="AG5" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="58"/>
+      <c r="AH5" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="74"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="19" t="s">
+    <row r="6" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
+      <c r="A6" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="B6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="21">
         <v>4</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22">
         <v>100</v>
       </c>
-      <c r="F6" s="20">
+      <c r="G6" s="22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G6" s="20">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="19">
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="21">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="J6" s="19">
+      <c r="K6" s="21">
         <v>10</v>
       </c>
-      <c r="K6" s="19">
+      <c r="L6" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L6" s="19">
+      <c r="M6" s="21">
         <v>1.5</v>
       </c>
-      <c r="M6" s="19">
+      <c r="N6" s="21">
         <v>125</v>
       </c>
-      <c r="N6" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="19">
+      <c r="O6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="21">
         <v>1.2</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="R6" s="56">
         <v>170</v>
       </c>
-      <c r="R6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19">
+      <c r="S6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21">
         <v>300</v>
       </c>
-      <c r="V6" s="45">
+      <c r="W6" s="57">
         <v>180</v>
       </c>
-      <c r="W6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19" t="s">
+      <c r="Y6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AA6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="19" t="s">
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AB6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AE6" s="19">
+      <c r="AE6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF6" s="21">
         <v>10</v>
       </c>
-      <c r="AF6" s="19">
+      <c r="AG6" s="21">
         <v>20000</v>
       </c>
-      <c r="AG6" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="58"/>
+      <c r="AH6" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="74"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A7" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="19" t="s">
+    <row r="7" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
+      <c r="A7" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="B7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="21">
         <v>5</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22">
         <v>250</v>
       </c>
-      <c r="F7" s="20">
+      <c r="G7" s="22">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="19">
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="21">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="J7" s="19">
+      <c r="K7" s="21">
         <v>20</v>
       </c>
-      <c r="K7" s="19">
+      <c r="L7" s="21">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L7" s="19">
+      <c r="M7" s="21">
         <v>1.5</v>
       </c>
-      <c r="M7" s="19">
+      <c r="N7" s="21">
         <v>125</v>
       </c>
-      <c r="N7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="19">
+      <c r="O7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="21">
         <v>1.2</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="R7" s="56">
         <v>170</v>
       </c>
-      <c r="R7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19">
+      <c r="S7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21">
         <v>300</v>
       </c>
-      <c r="V7" s="45">
+      <c r="W7" s="57">
         <v>180</v>
       </c>
-      <c r="W7" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="X7" s="19" t="s">
+      <c r="X7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19" t="s">
+      <c r="Y7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AA7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="19" t="s">
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="19" t="s">
+      <c r="AB7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AE7" s="19">
+      <c r="AE7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF7" s="21">
         <v>10</v>
       </c>
-      <c r="AF7" s="19">
+      <c r="AG7" s="21">
         <v>20000</v>
       </c>
-      <c r="AG7" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="58"/>
+      <c r="AH7" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="74"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A8" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="19" t="s">
+    <row r="8" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
+      <c r="A8" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="B8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="21">
         <v>6</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22">
         <v>371</v>
       </c>
-      <c r="F8" s="20">
+      <c r="G8" s="22">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="19">
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="21">
         <f t="shared" si="1"/>
         <v>3710</v>
       </c>
-      <c r="J8" s="19">
+      <c r="K8" s="21">
         <v>22</v>
       </c>
-      <c r="K8" s="19">
+      <c r="L8" s="21">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="L8" s="19">
+      <c r="M8" s="21">
         <v>1.5</v>
       </c>
-      <c r="M8" s="19">
+      <c r="N8" s="21">
         <v>125</v>
       </c>
-      <c r="N8" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="19">
+      <c r="O8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="21">
         <v>1.2</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="R8" s="56">
         <v>170</v>
       </c>
-      <c r="R8" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19">
+      <c r="S8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21">
         <v>300</v>
       </c>
-      <c r="V8" s="45">
+      <c r="W8" s="57">
         <v>180</v>
       </c>
-      <c r="W8" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="X8" s="19" t="s">
+      <c r="X8" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19" t="s">
+      <c r="Y8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AA8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="19" t="s">
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AD8" s="19" t="s">
+      <c r="AB8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AE8" s="19">
+      <c r="AE8" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF8" s="21">
         <v>10</v>
       </c>
-      <c r="AF8" s="19">
+      <c r="AG8" s="21">
         <v>20000</v>
       </c>
-      <c r="AG8" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="58"/>
+      <c r="AH8" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="74"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A9" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="19" t="s">
+    <row r="9" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
+      <c r="A9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="B9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="21">
         <v>7</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>589</v>
       </c>
-      <c r="F9" s="20">
+      <c r="G9" s="22">
         <f t="shared" si="0"/>
         <v>589</v>
       </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="19">
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="21">
         <f t="shared" si="1"/>
         <v>5890</v>
       </c>
-      <c r="J9" s="19">
+      <c r="K9" s="21">
         <v>25</v>
       </c>
-      <c r="K9" s="19">
+      <c r="L9" s="21">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="L9" s="19">
+      <c r="M9" s="21">
         <v>1.5</v>
       </c>
-      <c r="M9" s="19">
+      <c r="N9" s="21">
         <v>125</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="P9" s="19">
+      <c r="O9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="21">
         <v>1.2</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="R9" s="56">
         <v>190</v>
       </c>
-      <c r="R9" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19">
+      <c r="S9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21">
         <v>300</v>
       </c>
-      <c r="V9" s="45">
+      <c r="W9" s="57">
         <v>180</v>
       </c>
-      <c r="W9" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="X9" s="19" t="s">
+      <c r="X9" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19" t="s">
+      <c r="Y9" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AA9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="19" t="s">
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AB9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AE9" s="19">
+      <c r="AE9" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF9" s="21">
         <v>10</v>
       </c>
-      <c r="AF9" s="19">
+      <c r="AG9" s="21">
         <v>20000</v>
       </c>
-      <c r="AG9" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="58"/>
+      <c r="AH9" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="74"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A10" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="19" t="s">
+    <row r="10" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
+      <c r="A10" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="B10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="21">
         <v>8</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
         <v>862</v>
       </c>
-      <c r="F10" s="20">
+      <c r="G10" s="22">
         <f t="shared" si="0"/>
         <v>862</v>
       </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="19">
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="21">
         <f t="shared" si="1"/>
         <v>8620</v>
       </c>
-      <c r="J10" s="19">
+      <c r="K10" s="21">
         <v>28</v>
       </c>
-      <c r="K10" s="19">
+      <c r="L10" s="21">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="L10" s="19">
+      <c r="M10" s="21">
         <v>1.5</v>
       </c>
-      <c r="M10" s="19">
+      <c r="N10" s="21">
         <v>125</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="O10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="R10" s="56">
+        <v>190</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21">
+        <v>300</v>
+      </c>
+      <c r="W10" s="57">
+        <v>180</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE10" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF10" s="21">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="21">
+        <v>20000</v>
+      </c>
+      <c r="AH10" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="74"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="47" customHeight="1" spans="1:35">
+      <c r="A11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="25">
+        <v>863</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" ref="G11:G42" si="3">F11</f>
+        <v>863</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" s="19">
+      <c r="J11" s="24">
+        <f t="shared" ref="J11:J42" si="4">G11*10</f>
+        <v>8630</v>
+      </c>
+      <c r="K11" s="24">
+        <v>28</v>
+      </c>
+      <c r="L11" s="24">
+        <f t="shared" ref="L11:L42" si="5">K11</f>
+        <v>28</v>
+      </c>
+      <c r="M11" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="N11" s="24">
+        <v>125</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="24">
         <v>1.2</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="R11" s="58">
         <v>190</v>
       </c>
-      <c r="R10" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19">
+      <c r="S11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24">
         <v>300</v>
       </c>
-      <c r="V10" s="45">
+      <c r="W11" s="59">
         <v>180</v>
       </c>
-      <c r="W10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="X10" s="19" t="s">
+      <c r="X11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19" t="s">
+      <c r="Y11" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AA10" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="19" t="s">
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AD10" s="19" t="s">
+      <c r="AB11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AE10" s="19">
+      <c r="AE11" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF11" s="24">
         <v>10</v>
       </c>
-      <c r="AF10" s="19">
+      <c r="AG11" s="24">
         <v>20000</v>
       </c>
-      <c r="AG10" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="58"/>
+      <c r="AH11" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI11" s="78"/>
     </row>
-    <row r="11" s="4" customFormat="1" ht="47" customHeight="1" spans="1:34">
-      <c r="A11" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23">
-        <v>863</v>
-      </c>
-      <c r="F11" s="23">
-        <f t="shared" ref="F11:F26" si="3">E11</f>
-        <v>863</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="22">
-        <f t="shared" ref="I11:I26" si="4">F11*10</f>
-        <v>8630</v>
-      </c>
-      <c r="J11" s="22">
-        <v>28</v>
-      </c>
-      <c r="K11" s="22">
-        <f t="shared" ref="K11:K26" si="5">J11</f>
-        <v>28</v>
-      </c>
-      <c r="L11" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="M11" s="22">
-        <v>125</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="Q11" s="46">
-        <v>190</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22">
-        <v>300</v>
-      </c>
-      <c r="V11" s="47">
-        <v>180</v>
-      </c>
-      <c r="W11" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="X11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD11" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE11" s="22">
-        <v>10</v>
-      </c>
-      <c r="AF11" s="22">
-        <v>20000</v>
-      </c>
-      <c r="AG11" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH11" s="62"/>
-    </row>
-    <row r="12" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
-      <c r="A12" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="22" t="s">
+    <row r="12" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
+      <c r="A12" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23">
+      <c r="B12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25">
         <v>864</v>
       </c>
-      <c r="F12" s="23">
+      <c r="G12" s="25">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="22">
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="24">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="J12" s="22">
+      <c r="K12" s="24">
         <v>28</v>
       </c>
-      <c r="K12" s="22">
+      <c r="L12" s="24">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L12" s="22">
+      <c r="M12" s="24">
         <v>1.5</v>
       </c>
-      <c r="M12" s="22">
+      <c r="N12" s="24">
         <v>125</v>
       </c>
-      <c r="N12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="P12" s="22">
+      <c r="O12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12" s="24">
         <v>1.2</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="R12" s="58">
         <v>190</v>
       </c>
-      <c r="R12" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22">
+      <c r="S12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24">
         <v>300</v>
       </c>
-      <c r="V12" s="47">
+      <c r="W12" s="59">
         <v>180</v>
       </c>
-      <c r="W12" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="X12" s="22" t="s">
+      <c r="X12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22" t="s">
+      <c r="Y12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AA12" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="22" t="s">
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AD12" s="22" t="s">
+      <c r="AB12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AE12" s="22">
+      <c r="AE12" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF12" s="24">
         <v>10</v>
       </c>
-      <c r="AF12" s="22">
+      <c r="AG12" s="24">
         <v>20000</v>
       </c>
-      <c r="AG12" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH12" s="62"/>
+      <c r="AH12" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI12" s="78"/>
     </row>
-    <row r="13" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
-      <c r="A13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="22" t="s">
+    <row r="13" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
+      <c r="A13" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23">
+      <c r="B13" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25">
         <v>865</v>
       </c>
-      <c r="F13" s="23">
+      <c r="G13" s="25">
         <f t="shared" si="3"/>
         <v>865</v>
       </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="22">
+      <c r="H13" s="25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="24">
         <f t="shared" si="4"/>
         <v>8650</v>
       </c>
-      <c r="J13" s="22">
+      <c r="K13" s="24">
         <v>28</v>
       </c>
-      <c r="K13" s="22">
+      <c r="L13" s="24">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L13" s="22">
+      <c r="M13" s="24">
         <v>1.5</v>
       </c>
-      <c r="M13" s="22">
-        <v>125</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="P13" s="22">
+      <c r="N13" s="24">
+        <v>500</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="24">
         <v>1.2</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="R13" s="58">
         <v>190</v>
       </c>
-      <c r="R13" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22">
+      <c r="S13" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24">
         <v>300</v>
       </c>
-      <c r="V13" s="47">
+      <c r="W13" s="59">
         <v>180</v>
       </c>
-      <c r="W13" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="X13" s="22" t="s">
+      <c r="X13" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22" t="s">
+      <c r="Y13" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AA13" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="22" t="s">
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AD13" s="22" t="s">
+      <c r="AB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AE13" s="22">
+      <c r="AE13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF13" s="24">
         <v>10</v>
       </c>
-      <c r="AF13" s="22">
+      <c r="AG13" s="24">
         <v>20000</v>
       </c>
-      <c r="AG13" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH13" s="62"/>
+      <c r="AH13" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI13" s="78"/>
     </row>
-    <row r="14" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
-      <c r="A14" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23">
+    <row r="14" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
+      <c r="A14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25">
         <v>866</v>
       </c>
-      <c r="F14" s="23">
+      <c r="G14" s="25">
         <f t="shared" si="3"/>
         <v>866</v>
       </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="24">
         <f t="shared" si="4"/>
         <v>8660</v>
       </c>
-      <c r="J14" s="22">
+      <c r="K14" s="24">
         <v>28</v>
       </c>
-      <c r="K14" s="22">
+      <c r="L14" s="24">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L14" s="22">
+      <c r="M14" s="24">
         <v>1.5</v>
       </c>
-      <c r="M14" s="22">
+      <c r="N14" s="24">
         <v>125</v>
       </c>
-      <c r="N14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="P14" s="22">
+      <c r="O14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="24">
         <v>1.2</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="R14" s="58">
         <v>190</v>
       </c>
-      <c r="R14" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22">
+      <c r="S14" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24">
         <v>300</v>
       </c>
-      <c r="V14" s="47">
+      <c r="W14" s="59">
         <v>180</v>
       </c>
-      <c r="W14" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="X14" s="22" t="s">
+      <c r="X14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22" t="s">
+      <c r="Y14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AA14" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="22" t="s">
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AD14" s="22" t="s">
+      <c r="AB14" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AE14" s="22">
+      <c r="AE14" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF14" s="24">
         <v>10</v>
       </c>
-      <c r="AF14" s="22">
+      <c r="AG14" s="24">
         <v>20000</v>
       </c>
-      <c r="AG14" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH14" s="62"/>
+      <c r="AH14" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI14" s="78"/>
     </row>
-    <row r="15" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
-      <c r="A15" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23">
+    <row r="15" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
+      <c r="A15" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25">
         <v>867</v>
       </c>
-      <c r="F15" s="23">
+      <c r="G15" s="25">
         <f t="shared" si="3"/>
         <v>867</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="22">
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="24">
         <f t="shared" si="4"/>
         <v>8670</v>
       </c>
-      <c r="J15" s="22">
+      <c r="K15" s="24">
         <v>28</v>
       </c>
-      <c r="K15" s="22">
+      <c r="L15" s="24">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L15" s="22">
+      <c r="M15" s="24">
         <v>1.5</v>
       </c>
-      <c r="M15" s="22">
+      <c r="N15" s="24">
         <v>125</v>
       </c>
-      <c r="N15" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="P15" s="22">
+      <c r="O15" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q15" s="24">
         <v>1.2</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="R15" s="58">
         <v>190</v>
       </c>
-      <c r="R15" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22">
+      <c r="S15" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24">
         <v>300</v>
       </c>
-      <c r="V15" s="47">
+      <c r="W15" s="59">
         <v>180</v>
       </c>
-      <c r="W15" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="X15" s="22" t="s">
+      <c r="X15" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22" t="s">
+      <c r="Y15" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AA15" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="22" t="s">
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AD15" s="22" t="s">
+      <c r="AB15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AE15" s="22">
+      <c r="AE15" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF15" s="24">
         <v>10</v>
       </c>
-      <c r="AF15" s="22">
+      <c r="AG15" s="24">
         <v>20000</v>
       </c>
-      <c r="AG15" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH15" s="62"/>
+      <c r="AH15" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI15" s="78"/>
     </row>
-    <row r="16" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
-      <c r="A16" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23">
+    <row r="16" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
+      <c r="A16" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25">
         <v>868</v>
       </c>
-      <c r="F16" s="23">
+      <c r="G16" s="25">
         <f t="shared" si="3"/>
         <v>868</v>
       </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="22">
+      <c r="H16" s="25">
+        <v>0</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="24">
         <f t="shared" si="4"/>
         <v>8680</v>
       </c>
-      <c r="J16" s="22">
+      <c r="K16" s="24">
         <v>28</v>
       </c>
-      <c r="K16" s="22">
+      <c r="L16" s="24">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L16" s="22">
+      <c r="M16" s="24">
         <v>1.5</v>
       </c>
-      <c r="M16" s="22">
+      <c r="N16" s="24">
         <v>125</v>
       </c>
-      <c r="N16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="P16" s="22">
+      <c r="O16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="24">
         <v>1.2</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="R16" s="58">
         <v>190</v>
       </c>
-      <c r="R16" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22">
+      <c r="S16" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24">
         <v>300</v>
       </c>
-      <c r="V16" s="47">
+      <c r="W16" s="59">
         <v>180</v>
       </c>
-      <c r="W16" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="X16" s="22" t="s">
+      <c r="X16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22" t="s">
+      <c r="Y16" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AA16" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="22" t="s">
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AD16" s="22" t="s">
+      <c r="AB16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AE16" s="22">
+      <c r="AE16" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF16" s="24">
         <v>10</v>
       </c>
-      <c r="AF16" s="22">
+      <c r="AG16" s="24">
         <v>20000</v>
       </c>
-      <c r="AG16" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH16" s="62"/>
+      <c r="AH16" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI16" s="78"/>
     </row>
-    <row r="17" s="4" customFormat="1" ht="47" customHeight="1" spans="1:34">
-      <c r="A17" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23">
+    <row r="17" s="4" customFormat="1" ht="47" customHeight="1" spans="1:35">
+      <c r="A17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25">
         <v>869</v>
       </c>
-      <c r="F17" s="23">
+      <c r="G17" s="25">
         <f t="shared" si="3"/>
         <v>869</v>
       </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="22">
+      <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="24">
         <f t="shared" si="4"/>
         <v>8690</v>
       </c>
-      <c r="J17" s="22">
+      <c r="K17" s="24">
         <v>28</v>
       </c>
-      <c r="K17" s="22">
+      <c r="L17" s="24">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L17" s="22">
+      <c r="M17" s="24">
         <v>1.5</v>
       </c>
-      <c r="M17" s="22">
+      <c r="N17" s="24">
         <v>125</v>
       </c>
-      <c r="N17" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="P17" s="22">
+      <c r="O17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="24">
         <v>1.2</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="R17" s="58">
         <v>190</v>
       </c>
-      <c r="R17" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22">
+      <c r="S17" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24">
         <v>300</v>
       </c>
-      <c r="V17" s="47">
+      <c r="W17" s="59">
         <v>180</v>
       </c>
-      <c r="W17" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="X17" s="22" t="s">
+      <c r="X17" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22" t="s">
+      <c r="Y17" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AA17" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="22" t="s">
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AD17" s="22" t="s">
+      <c r="AB17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AE17" s="22">
+      <c r="AE17" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF17" s="24">
         <v>10</v>
       </c>
-      <c r="AF17" s="22">
+      <c r="AG17" s="24">
         <v>20000</v>
       </c>
-      <c r="AG17" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH17" s="62"/>
+      <c r="AH17" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI17" s="78"/>
     </row>
-    <row r="18" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:34">
-      <c r="A18" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26">
+    <row r="18" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
+      <c r="A18" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="25">
+        <v>1</v>
+      </c>
+      <c r="F18" s="28">
         <v>870</v>
       </c>
-      <c r="F18" s="26">
+      <c r="G18" s="28">
         <f t="shared" si="3"/>
         <v>870</v>
       </c>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="25">
+      <c r="H18" s="28">
+        <v>0</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="27">
         <f t="shared" si="4"/>
         <v>8700</v>
       </c>
-      <c r="J18" s="25">
+      <c r="K18" s="27">
         <v>28</v>
       </c>
-      <c r="K18" s="25">
+      <c r="L18" s="27">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L18" s="25">
+      <c r="M18" s="27">
         <v>1.5</v>
       </c>
-      <c r="M18" s="25">
+      <c r="N18" s="27">
         <v>125</v>
       </c>
-      <c r="N18" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="P18" s="25">
+      <c r="O18" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q18" s="27">
         <v>1.2</v>
       </c>
-      <c r="Q18" s="48">
+      <c r="R18" s="60">
         <v>190</v>
       </c>
-      <c r="R18" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25">
+      <c r="S18" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27">
         <v>300</v>
       </c>
-      <c r="V18" s="49">
+      <c r="W18" s="61">
         <v>180</v>
       </c>
-      <c r="W18" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="X18" s="25" t="s">
+      <c r="X18" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25" t="s">
+      <c r="Y18" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="25" t="s">
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AD18" s="25" t="s">
+      <c r="AB18" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AE18" s="25">
+      <c r="AE18" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF18" s="27">
         <v>10</v>
       </c>
-      <c r="AF18" s="25">
+      <c r="AG18" s="27">
         <v>20000</v>
       </c>
-      <c r="AG18" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH18" s="62"/>
+      <c r="AH18" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI18" s="78"/>
     </row>
-    <row r="19" s="5" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A19" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30">
+    <row r="19" s="5" customFormat="1" ht="39" customHeight="1" spans="1:35">
+      <c r="A19" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32">
+        <v>2</v>
+      </c>
+      <c r="F19" s="32">
         <v>863</v>
       </c>
-      <c r="F19" s="30">
+      <c r="G19" s="32">
         <f t="shared" si="3"/>
         <v>863</v>
       </c>
-      <c r="G19" s="30">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="29">
+      <c r="H19" s="32">
+        <v>0</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="31">
         <f t="shared" si="4"/>
         <v>8630</v>
       </c>
-      <c r="J19" s="29">
+      <c r="K19" s="31">
         <v>28</v>
       </c>
-      <c r="K19" s="29">
+      <c r="L19" s="31">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L19" s="29">
+      <c r="M19" s="31">
         <v>1.5</v>
       </c>
-      <c r="M19" s="29">
+      <c r="N19" s="31">
         <v>125</v>
       </c>
-      <c r="N19" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="29">
+      <c r="O19" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q19" s="31">
         <v>1.2</v>
       </c>
-      <c r="Q19" s="50">
+      <c r="R19" s="62">
         <v>190</v>
       </c>
-      <c r="R19" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29">
+      <c r="S19" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31">
         <v>300</v>
       </c>
-      <c r="V19" s="51">
+      <c r="W19" s="63">
         <v>180</v>
       </c>
-      <c r="W19" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="X19" s="29" t="s">
+      <c r="X19" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29" t="s">
+      <c r="Y19" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AA19" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="29" t="s">
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="AD19" s="29" t="s">
+      <c r="AB19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AE19" s="29">
+      <c r="AE19" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF19" s="31">
         <v>10</v>
       </c>
-      <c r="AF19" s="29">
+      <c r="AG19" s="31">
         <v>20000</v>
       </c>
-      <c r="AG19" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH19" s="65"/>
+      <c r="AH19" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI19" s="81"/>
     </row>
-    <row r="20" s="5" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A20" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30">
+    <row r="20" s="5" customFormat="1" ht="39" customHeight="1" spans="1:35">
+      <c r="A20" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32">
+        <v>2</v>
+      </c>
+      <c r="F20" s="32">
         <v>864</v>
       </c>
-      <c r="F20" s="30">
+      <c r="G20" s="32">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="G20" s="30">
-        <v>0</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="29">
+      <c r="H20" s="32">
+        <v>0</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="31">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="J20" s="29">
+      <c r="K20" s="31">
         <v>28</v>
       </c>
-      <c r="K20" s="29">
+      <c r="L20" s="31">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L20" s="29">
+      <c r="M20" s="31">
         <v>1.5</v>
       </c>
-      <c r="M20" s="29">
+      <c r="N20" s="31">
         <v>125</v>
       </c>
-      <c r="N20" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="O20" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="29">
+      <c r="O20" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="31">
         <v>1.2</v>
       </c>
-      <c r="Q20" s="50">
+      <c r="R20" s="62">
         <v>190</v>
       </c>
-      <c r="R20" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29">
+      <c r="S20" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31">
         <v>300</v>
       </c>
-      <c r="V20" s="51">
+      <c r="W20" s="63">
         <v>180</v>
       </c>
-      <c r="W20" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="X20" s="29" t="s">
+      <c r="X20" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29" t="s">
+      <c r="Y20" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AA20" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="29" t="s">
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="AD20" s="29" t="s">
+      <c r="AB20" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AE20" s="29">
+      <c r="AE20" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF20" s="31">
         <v>10</v>
       </c>
-      <c r="AF20" s="29">
+      <c r="AG20" s="31">
         <v>20000</v>
       </c>
-      <c r="AG20" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH20" s="65"/>
+      <c r="AH20" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI20" s="81"/>
     </row>
-    <row r="21" s="5" customFormat="1" ht="16.5" spans="1:34">
-      <c r="A21" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30">
+    <row r="21" s="5" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A21" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32">
+        <v>2</v>
+      </c>
+      <c r="F21" s="32">
         <v>865</v>
       </c>
-      <c r="F21" s="30">
+      <c r="G21" s="32">
         <f t="shared" si="3"/>
         <v>865</v>
       </c>
-      <c r="G21" s="30">
-        <v>0</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="29">
+      <c r="H21" s="32">
+        <v>0</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="31">
         <f t="shared" si="4"/>
         <v>8650</v>
       </c>
-      <c r="J21" s="29">
+      <c r="K21" s="31">
         <v>28</v>
       </c>
-      <c r="K21" s="29">
+      <c r="L21" s="31">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L21" s="29">
+      <c r="M21" s="31">
         <v>1.5</v>
       </c>
-      <c r="M21" s="29">
+      <c r="N21" s="31">
         <v>125</v>
       </c>
-      <c r="N21" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="O21" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="P21" s="29">
+      <c r="O21" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" s="31">
         <v>1.2</v>
       </c>
-      <c r="Q21" s="50">
+      <c r="R21" s="62">
         <v>190</v>
       </c>
-      <c r="R21" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29">
+      <c r="S21" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31">
         <v>300</v>
       </c>
-      <c r="V21" s="51">
+      <c r="W21" s="63">
         <v>180</v>
       </c>
-      <c r="W21" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="X21" s="29" t="s">
+      <c r="X21" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29" t="s">
+      <c r="Y21" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AA21" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="29" t="s">
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="AD21" s="29" t="s">
+      <c r="AB21" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AE21" s="29">
+      <c r="AE21" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF21" s="31">
         <v>10</v>
       </c>
-      <c r="AF21" s="29">
+      <c r="AG21" s="31">
         <v>20000</v>
       </c>
-      <c r="AG21" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH21" s="65"/>
+      <c r="AH21" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI21" s="81"/>
     </row>
-    <row r="22" s="5" customFormat="1" ht="16.5" spans="1:34">
-      <c r="A22" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30">
+    <row r="22" s="5" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A22" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32">
+        <v>2</v>
+      </c>
+      <c r="F22" s="32">
         <v>866</v>
       </c>
-      <c r="F22" s="30">
+      <c r="G22" s="32">
         <f t="shared" si="3"/>
         <v>866</v>
       </c>
-      <c r="G22" s="30">
-        <v>0</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="29">
+      <c r="H22" s="32">
+        <v>0</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="31">
         <f t="shared" si="4"/>
         <v>8660</v>
       </c>
-      <c r="J22" s="29">
+      <c r="K22" s="31">
         <v>28</v>
       </c>
-      <c r="K22" s="29">
+      <c r="L22" s="31">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L22" s="29">
+      <c r="M22" s="31">
         <v>1.5</v>
       </c>
-      <c r="M22" s="29">
+      <c r="N22" s="31">
         <v>125</v>
       </c>
-      <c r="N22" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="O22" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="P22" s="29">
+      <c r="O22" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="31">
         <v>1.2</v>
       </c>
-      <c r="Q22" s="50">
+      <c r="R22" s="62">
         <v>190</v>
       </c>
-      <c r="R22" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29">
+      <c r="S22" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31">
         <v>300</v>
       </c>
-      <c r="V22" s="51">
+      <c r="W22" s="63">
         <v>180</v>
       </c>
-      <c r="W22" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="X22" s="29" t="s">
+      <c r="X22" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29" t="s">
+      <c r="Y22" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AA22" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="29" t="s">
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="AD22" s="29" t="s">
+      <c r="AB22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AE22" s="29">
+      <c r="AE22" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF22" s="31">
         <v>10</v>
       </c>
-      <c r="AF22" s="29">
+      <c r="AG22" s="31">
         <v>20000</v>
       </c>
-      <c r="AG22" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH22" s="65"/>
+      <c r="AH22" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI22" s="81"/>
     </row>
-    <row r="23" s="5" customFormat="1" ht="16.5" spans="1:34">
-      <c r="A23" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30">
+    <row r="23" s="5" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A23" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32">
+        <v>2</v>
+      </c>
+      <c r="F23" s="32">
         <v>867</v>
       </c>
-      <c r="F23" s="30">
+      <c r="G23" s="32">
         <f t="shared" si="3"/>
         <v>867</v>
       </c>
-      <c r="G23" s="30">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="29">
+      <c r="H23" s="32">
+        <v>0</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="31">
         <f t="shared" si="4"/>
         <v>8670</v>
       </c>
-      <c r="J23" s="29">
+      <c r="K23" s="31">
         <v>28</v>
       </c>
-      <c r="K23" s="29">
+      <c r="L23" s="31">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L23" s="29">
+      <c r="M23" s="31">
         <v>1.5</v>
       </c>
-      <c r="M23" s="29">
+      <c r="N23" s="31">
         <v>125</v>
       </c>
-      <c r="N23" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="O23" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="P23" s="29">
+      <c r="O23" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q23" s="31">
         <v>1.2</v>
       </c>
-      <c r="Q23" s="50">
+      <c r="R23" s="62">
         <v>190</v>
       </c>
-      <c r="R23" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29">
+      <c r="S23" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31">
         <v>300</v>
       </c>
-      <c r="V23" s="51">
+      <c r="W23" s="63">
         <v>180</v>
       </c>
-      <c r="W23" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="X23" s="29" t="s">
+      <c r="X23" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29" t="s">
+      <c r="Y23" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AA23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="29" t="s">
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="AD23" s="29" t="s">
+      <c r="AB23" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AE23" s="29">
+      <c r="AE23" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF23" s="31">
         <v>10</v>
       </c>
-      <c r="AF23" s="29">
+      <c r="AG23" s="31">
         <v>20000</v>
       </c>
-      <c r="AG23" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH23" s="65"/>
+      <c r="AH23" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI23" s="81"/>
     </row>
-    <row r="24" s="5" customFormat="1" ht="16.5" spans="1:34">
-      <c r="A24" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30">
+    <row r="24" s="5" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A24" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32">
+        <v>2</v>
+      </c>
+      <c r="F24" s="32">
         <v>868</v>
       </c>
-      <c r="F24" s="30">
+      <c r="G24" s="32">
         <f t="shared" si="3"/>
         <v>868</v>
       </c>
-      <c r="G24" s="30">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="29">
+      <c r="H24" s="32">
+        <v>0</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="31">
         <f t="shared" si="4"/>
         <v>8680</v>
       </c>
-      <c r="J24" s="29">
+      <c r="K24" s="31">
         <v>28</v>
       </c>
-      <c r="K24" s="29">
+      <c r="L24" s="31">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L24" s="29">
+      <c r="M24" s="31">
         <v>1.5</v>
       </c>
-      <c r="M24" s="29">
+      <c r="N24" s="31">
         <v>125</v>
       </c>
-      <c r="N24" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="O24" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="P24" s="29">
+      <c r="O24" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q24" s="31">
         <v>1.2</v>
       </c>
-      <c r="Q24" s="50">
+      <c r="R24" s="62">
         <v>190</v>
       </c>
-      <c r="R24" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29">
+      <c r="S24" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31">
         <v>300</v>
       </c>
-      <c r="V24" s="51">
+      <c r="W24" s="63">
         <v>180</v>
       </c>
-      <c r="W24" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="X24" s="29" t="s">
+      <c r="X24" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29" t="s">
+      <c r="Y24" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AA24" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="29" t="s">
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="AD24" s="29" t="s">
+      <c r="AB24" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AE24" s="29">
+      <c r="AE24" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF24" s="31">
         <v>10</v>
       </c>
-      <c r="AF24" s="29">
+      <c r="AG24" s="31">
         <v>20000</v>
       </c>
-      <c r="AG24" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH24" s="65"/>
+      <c r="AH24" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI24" s="81"/>
     </row>
-    <row r="25" s="5" customFormat="1" ht="16.5" spans="1:34">
-      <c r="A25" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="28" t="s">
+    <row r="25" s="5" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A25" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30">
+      <c r="B25" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32">
+        <v>2</v>
+      </c>
+      <c r="F25" s="32">
         <v>869</v>
       </c>
-      <c r="F25" s="30">
+      <c r="G25" s="32">
         <f t="shared" si="3"/>
         <v>869</v>
       </c>
-      <c r="G25" s="30">
-        <v>0</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="29">
+      <c r="H25" s="32">
+        <v>0</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="31">
         <f t="shared" si="4"/>
         <v>8690</v>
       </c>
-      <c r="J25" s="29">
+      <c r="K25" s="31">
         <v>28</v>
       </c>
-      <c r="K25" s="29">
+      <c r="L25" s="31">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L25" s="29">
+      <c r="M25" s="31">
         <v>1.5</v>
       </c>
-      <c r="M25" s="29">
-        <v>125</v>
-      </c>
-      <c r="N25" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="O25" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="P25" s="29">
+      <c r="N25" s="31">
+        <v>500</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="31">
         <v>1.2</v>
       </c>
-      <c r="Q25" s="50">
+      <c r="R25" s="62">
         <v>190</v>
       </c>
-      <c r="R25" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29">
+      <c r="S25" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T25" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31">
         <v>300</v>
       </c>
-      <c r="V25" s="51">
+      <c r="W25" s="63">
         <v>180</v>
       </c>
-      <c r="W25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="X25" s="29" t="s">
+      <c r="X25" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29" t="s">
+      <c r="Y25" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AA25" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="29" t="s">
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="AD25" s="29" t="s">
+      <c r="AB25" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AE25" s="29">
+      <c r="AE25" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF25" s="31">
         <v>10</v>
       </c>
-      <c r="AF25" s="29">
+      <c r="AG25" s="31">
         <v>20000</v>
       </c>
-      <c r="AG25" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH25" s="65"/>
+      <c r="AH25" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI25" s="81"/>
     </row>
-    <row r="26" s="5" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A26" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30">
+    <row r="26" s="5" customFormat="1" ht="39" customHeight="1" spans="1:35">
+      <c r="A26" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32">
+        <v>2</v>
+      </c>
+      <c r="F26" s="32">
         <v>864</v>
       </c>
-      <c r="F26" s="30">
+      <c r="G26" s="32">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="G26" s="30">
-        <v>0</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="29">
+      <c r="H26" s="32">
+        <v>0</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="31">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="J26" s="29">
+      <c r="K26" s="31">
         <v>28</v>
       </c>
-      <c r="K26" s="29">
+      <c r="L26" s="31">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L26" s="29">
+      <c r="M26" s="31">
         <v>1.5</v>
       </c>
-      <c r="M26" s="29">
+      <c r="N26" s="31">
         <v>125</v>
       </c>
-      <c r="N26" s="29" t="s">
+      <c r="O26" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="R26" s="62">
+        <v>190</v>
+      </c>
+      <c r="S26" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31">
+        <v>300</v>
+      </c>
+      <c r="W26" s="63">
+        <v>180</v>
+      </c>
+      <c r="X26" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y26" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB26" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE26" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF26" s="31">
+        <v>10</v>
+      </c>
+      <c r="AG26" s="31">
+        <v>20000</v>
+      </c>
+      <c r="AH26" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI26" s="81"/>
+    </row>
+    <row r="27" s="6" customFormat="1" ht="49.5" spans="1:35">
+      <c r="A27" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36">
+        <v>3</v>
+      </c>
+      <c r="F27" s="36">
+        <v>863</v>
+      </c>
+      <c r="G27" s="36">
+        <f t="shared" si="3"/>
+        <v>863</v>
+      </c>
+      <c r="H27" s="36">
+        <v>0</v>
+      </c>
+      <c r="I27" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="O26" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="P26" s="29">
+      <c r="J27" s="35">
+        <f t="shared" si="4"/>
+        <v>8630</v>
+      </c>
+      <c r="K27" s="35">
+        <v>28</v>
+      </c>
+      <c r="L27" s="35">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M27" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="N27" s="35">
+        <v>125</v>
+      </c>
+      <c r="O27" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q27" s="35">
         <v>1.2</v>
       </c>
-      <c r="Q26" s="50">
+      <c r="R27" s="64">
         <v>190</v>
       </c>
-      <c r="R26" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29">
+      <c r="S27" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35">
         <v>300</v>
       </c>
-      <c r="V26" s="51">
+      <c r="W27" s="65">
         <v>180</v>
       </c>
-      <c r="W26" s="29" t="s">
+      <c r="X27" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y27" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB27" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE27" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF27" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG27" s="35">
+        <v>20000</v>
+      </c>
+      <c r="AH27" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI27" s="83"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="39" customHeight="1" spans="1:35">
+      <c r="A28" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36">
+        <v>3</v>
+      </c>
+      <c r="F28" s="36">
+        <v>864</v>
+      </c>
+      <c r="G28" s="36">
+        <f t="shared" si="3"/>
+        <v>864</v>
+      </c>
+      <c r="H28" s="36">
+        <v>0</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="35">
+        <f t="shared" si="4"/>
+        <v>8640</v>
+      </c>
+      <c r="K28" s="35">
+        <v>28</v>
+      </c>
+      <c r="L28" s="35">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M28" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="N28" s="35">
+        <v>125</v>
+      </c>
+      <c r="O28" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q28" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="R28" s="64">
+        <v>190</v>
+      </c>
+      <c r="S28" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="X26" s="29" t="s">
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35">
+        <v>300</v>
+      </c>
+      <c r="W28" s="65">
+        <v>180</v>
+      </c>
+      <c r="X28" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29" t="s">
+      <c r="Y28" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="AA26" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="29" t="s">
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="AD26" s="29" t="s">
+      <c r="AB28" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="AE26" s="29">
+      <c r="AE28" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF28" s="35">
         <v>10</v>
       </c>
-      <c r="AF26" s="29">
+      <c r="AG28" s="35">
         <v>20000</v>
       </c>
-      <c r="AG26" s="64" t="s">
+      <c r="AH28" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI28" s="83"/>
+    </row>
+    <row r="29" s="6" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A29" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36">
+        <v>3</v>
+      </c>
+      <c r="F29" s="36">
+        <v>865</v>
+      </c>
+      <c r="G29" s="36">
+        <f t="shared" si="3"/>
+        <v>865</v>
+      </c>
+      <c r="H29" s="36">
+        <v>0</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="35">
+        <f t="shared" si="4"/>
+        <v>8650</v>
+      </c>
+      <c r="K29" s="35">
+        <v>28</v>
+      </c>
+      <c r="L29" s="35">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M29" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="N29" s="35">
+        <v>125</v>
+      </c>
+      <c r="O29" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q29" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="R29" s="64">
+        <v>190</v>
+      </c>
+      <c r="S29" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35">
+        <v>300</v>
+      </c>
+      <c r="W29" s="65">
+        <v>180</v>
+      </c>
+      <c r="X29" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y29" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB29" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE29" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="AH26" s="65"/>
+      <c r="AF29" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG29" s="35">
+        <v>20000</v>
+      </c>
+      <c r="AH29" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI29" s="83"/>
     </row>
-    <row r="27" customFormat="1"/>
-    <row r="28" customFormat="1"/>
-    <row r="29" customFormat="1"/>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
-    <row r="32" customFormat="1"/>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
+    <row r="30" s="6" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A30" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36">
+        <v>3</v>
+      </c>
+      <c r="F30" s="36">
+        <v>866</v>
+      </c>
+      <c r="G30" s="36">
+        <f t="shared" si="3"/>
+        <v>866</v>
+      </c>
+      <c r="H30" s="36">
+        <v>0</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="35">
+        <f t="shared" si="4"/>
+        <v>8660</v>
+      </c>
+      <c r="K30" s="35">
+        <v>28</v>
+      </c>
+      <c r="L30" s="35">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M30" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="N30" s="35">
+        <v>125</v>
+      </c>
+      <c r="O30" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q30" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="R30" s="64">
+        <v>190</v>
+      </c>
+      <c r="S30" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35">
+        <v>300</v>
+      </c>
+      <c r="W30" s="65">
+        <v>180</v>
+      </c>
+      <c r="X30" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y30" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB30" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE30" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF30" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG30" s="35">
+        <v>20000</v>
+      </c>
+      <c r="AH30" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI30" s="83"/>
+    </row>
+    <row r="31" s="6" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A31" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36">
+        <v>3</v>
+      </c>
+      <c r="F31" s="36">
+        <v>867</v>
+      </c>
+      <c r="G31" s="36">
+        <f t="shared" si="3"/>
+        <v>867</v>
+      </c>
+      <c r="H31" s="36">
+        <v>0</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="35">
+        <f t="shared" si="4"/>
+        <v>8670</v>
+      </c>
+      <c r="K31" s="35">
+        <v>28</v>
+      </c>
+      <c r="L31" s="35">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M31" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="N31" s="35">
+        <v>125</v>
+      </c>
+      <c r="O31" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q31" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="R31" s="64">
+        <v>190</v>
+      </c>
+      <c r="S31" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35">
+        <v>300</v>
+      </c>
+      <c r="W31" s="65">
+        <v>180</v>
+      </c>
+      <c r="X31" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y31" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB31" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE31" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF31" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG31" s="35">
+        <v>20000</v>
+      </c>
+      <c r="AH31" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI31" s="83"/>
+    </row>
+    <row r="32" s="6" customFormat="1" ht="49.5" spans="1:35">
+      <c r="A32" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36">
+        <v>3</v>
+      </c>
+      <c r="F32" s="36">
+        <v>868</v>
+      </c>
+      <c r="G32" s="36">
+        <f t="shared" si="3"/>
+        <v>868</v>
+      </c>
+      <c r="H32" s="36">
+        <v>0</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="35">
+        <f t="shared" si="4"/>
+        <v>8680</v>
+      </c>
+      <c r="K32" s="35">
+        <v>28</v>
+      </c>
+      <c r="L32" s="35">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M32" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="N32" s="35">
+        <v>125</v>
+      </c>
+      <c r="O32" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q32" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="R32" s="64">
+        <v>190</v>
+      </c>
+      <c r="S32" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35">
+        <v>300</v>
+      </c>
+      <c r="W32" s="65">
+        <v>180</v>
+      </c>
+      <c r="X32" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y32" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB32" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE32" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF32" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG32" s="35">
+        <v>20000</v>
+      </c>
+      <c r="AH32" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI32" s="83"/>
+    </row>
+    <row r="33" s="6" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A33" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36">
+        <v>3</v>
+      </c>
+      <c r="F33" s="36">
+        <v>869</v>
+      </c>
+      <c r="G33" s="36">
+        <f t="shared" si="3"/>
+        <v>869</v>
+      </c>
+      <c r="H33" s="36">
+        <v>0</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="35">
+        <f t="shared" si="4"/>
+        <v>8690</v>
+      </c>
+      <c r="K33" s="35">
+        <v>28</v>
+      </c>
+      <c r="L33" s="35">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M33" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="N33" s="35">
+        <v>500</v>
+      </c>
+      <c r="O33" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q33" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="R33" s="64">
+        <v>190</v>
+      </c>
+      <c r="S33" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="T33" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35">
+        <v>300</v>
+      </c>
+      <c r="W33" s="65">
+        <v>180</v>
+      </c>
+      <c r="X33" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y33" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB33" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE33" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF33" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG33" s="35">
+        <v>20000</v>
+      </c>
+      <c r="AH33" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI33" s="83"/>
+    </row>
+    <row r="34" s="6" customFormat="1" ht="39" customHeight="1" spans="1:35">
+      <c r="A34" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36">
+        <v>3</v>
+      </c>
+      <c r="F34" s="36">
+        <v>864</v>
+      </c>
+      <c r="G34" s="36">
+        <f t="shared" si="3"/>
+        <v>864</v>
+      </c>
+      <c r="H34" s="36">
+        <v>0</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="35">
+        <f t="shared" si="4"/>
+        <v>8640</v>
+      </c>
+      <c r="K34" s="35">
+        <v>28</v>
+      </c>
+      <c r="L34" s="35">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M34" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="N34" s="35">
+        <v>125</v>
+      </c>
+      <c r="O34" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q34" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="R34" s="64">
+        <v>190</v>
+      </c>
+      <c r="S34" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35">
+        <v>300</v>
+      </c>
+      <c r="W34" s="65">
+        <v>180</v>
+      </c>
+      <c r="X34" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y34" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB34" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE34" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF34" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG34" s="35">
+        <v>20000</v>
+      </c>
+      <c r="AH34" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI34" s="83"/>
+    </row>
+    <row r="35" s="7" customFormat="1" ht="49.5" spans="1:35">
+      <c r="A35" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40">
+        <v>4</v>
+      </c>
+      <c r="F35" s="40">
+        <v>863</v>
+      </c>
+      <c r="G35" s="40">
+        <f t="shared" si="3"/>
+        <v>863</v>
+      </c>
+      <c r="H35" s="40">
+        <v>0</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="39">
+        <f t="shared" si="4"/>
+        <v>8630</v>
+      </c>
+      <c r="K35" s="39">
+        <v>28</v>
+      </c>
+      <c r="L35" s="39">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M35" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="N35" s="39">
+        <v>125</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q35" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="R35" s="66">
+        <v>190</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39">
+        <v>300</v>
+      </c>
+      <c r="W35" s="67">
+        <v>180</v>
+      </c>
+      <c r="X35" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y35" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB35" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE35" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF35" s="39">
+        <v>10</v>
+      </c>
+      <c r="AG35" s="39">
+        <v>20000</v>
+      </c>
+      <c r="AH35" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI35" s="85"/>
+    </row>
+    <row r="36" s="7" customFormat="1" ht="39" customHeight="1" spans="1:35">
+      <c r="A36" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40">
+        <v>4</v>
+      </c>
+      <c r="F36" s="40">
+        <v>864</v>
+      </c>
+      <c r="G36" s="40">
+        <f t="shared" si="3"/>
+        <v>864</v>
+      </c>
+      <c r="H36" s="40">
+        <v>0</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="39">
+        <f t="shared" si="4"/>
+        <v>8640</v>
+      </c>
+      <c r="K36" s="39">
+        <v>28</v>
+      </c>
+      <c r="L36" s="39">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M36" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="N36" s="39">
+        <v>125</v>
+      </c>
+      <c r="O36" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q36" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="R36" s="66">
+        <v>190</v>
+      </c>
+      <c r="S36" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39">
+        <v>300</v>
+      </c>
+      <c r="W36" s="67">
+        <v>180</v>
+      </c>
+      <c r="X36" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y36" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB36" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE36" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF36" s="39">
+        <v>10</v>
+      </c>
+      <c r="AG36" s="39">
+        <v>20000</v>
+      </c>
+      <c r="AH36" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI36" s="85"/>
+    </row>
+    <row r="37" s="7" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A37" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40">
+        <v>4</v>
+      </c>
+      <c r="F37" s="40">
+        <v>865</v>
+      </c>
+      <c r="G37" s="40">
+        <f t="shared" si="3"/>
+        <v>865</v>
+      </c>
+      <c r="H37" s="40">
+        <v>0</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="39">
+        <f t="shared" si="4"/>
+        <v>8650</v>
+      </c>
+      <c r="K37" s="39">
+        <v>28</v>
+      </c>
+      <c r="L37" s="39">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M37" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="N37" s="39">
+        <v>125</v>
+      </c>
+      <c r="O37" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q37" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="R37" s="66">
+        <v>190</v>
+      </c>
+      <c r="S37" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39">
+        <v>300</v>
+      </c>
+      <c r="W37" s="67">
+        <v>180</v>
+      </c>
+      <c r="X37" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y37" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB37" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE37" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF37" s="39">
+        <v>10</v>
+      </c>
+      <c r="AG37" s="39">
+        <v>20000</v>
+      </c>
+      <c r="AH37" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI37" s="85"/>
+    </row>
+    <row r="38" s="7" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A38" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="40">
+        <v>4</v>
+      </c>
+      <c r="F38" s="40">
+        <v>866</v>
+      </c>
+      <c r="G38" s="40">
+        <f t="shared" si="3"/>
+        <v>866</v>
+      </c>
+      <c r="H38" s="40">
+        <v>0</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" s="39">
+        <f t="shared" si="4"/>
+        <v>8660</v>
+      </c>
+      <c r="K38" s="39">
+        <v>28</v>
+      </c>
+      <c r="L38" s="39">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M38" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="N38" s="39">
+        <v>125</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q38" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="R38" s="66">
+        <v>190</v>
+      </c>
+      <c r="S38" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39">
+        <v>300</v>
+      </c>
+      <c r="W38" s="67">
+        <v>180</v>
+      </c>
+      <c r="X38" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y38" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB38" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE38" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF38" s="39">
+        <v>10</v>
+      </c>
+      <c r="AG38" s="39">
+        <v>20000</v>
+      </c>
+      <c r="AH38" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI38" s="85"/>
+    </row>
+    <row r="39" s="7" customFormat="1" ht="33" spans="1:35">
+      <c r="A39" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="39"/>
+      <c r="E39" s="40">
+        <v>4</v>
+      </c>
+      <c r="F39" s="40">
+        <v>867</v>
+      </c>
+      <c r="G39" s="40">
+        <f t="shared" si="3"/>
+        <v>867</v>
+      </c>
+      <c r="H39" s="40">
+        <v>0</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" s="39">
+        <f t="shared" si="4"/>
+        <v>8670</v>
+      </c>
+      <c r="K39" s="39">
+        <v>28</v>
+      </c>
+      <c r="L39" s="39">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M39" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="N39" s="39">
+        <v>125</v>
+      </c>
+      <c r="O39" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q39" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="R39" s="66">
+        <v>190</v>
+      </c>
+      <c r="S39" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39">
+        <v>300</v>
+      </c>
+      <c r="W39" s="67">
+        <v>180</v>
+      </c>
+      <c r="X39" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y39" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB39" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE39" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF39" s="39">
+        <v>10</v>
+      </c>
+      <c r="AG39" s="39">
+        <v>20000</v>
+      </c>
+      <c r="AH39" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI39" s="85"/>
+    </row>
+    <row r="40" s="7" customFormat="1" ht="49.5" spans="1:35">
+      <c r="A40" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40">
+        <v>4</v>
+      </c>
+      <c r="F40" s="40">
+        <v>868</v>
+      </c>
+      <c r="G40" s="40">
+        <f t="shared" si="3"/>
+        <v>868</v>
+      </c>
+      <c r="H40" s="40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="39">
+        <f t="shared" si="4"/>
+        <v>8680</v>
+      </c>
+      <c r="K40" s="39">
+        <v>28</v>
+      </c>
+      <c r="L40" s="39">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M40" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="N40" s="39">
+        <v>125</v>
+      </c>
+      <c r="O40" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q40" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="R40" s="66">
+        <v>190</v>
+      </c>
+      <c r="S40" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39">
+        <v>300</v>
+      </c>
+      <c r="W40" s="67">
+        <v>180</v>
+      </c>
+      <c r="X40" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y40" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB40" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE40" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF40" s="39">
+        <v>10</v>
+      </c>
+      <c r="AG40" s="39">
+        <v>20000</v>
+      </c>
+      <c r="AH40" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI40" s="85"/>
+    </row>
+    <row r="41" s="7" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A41" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40">
+        <v>4</v>
+      </c>
+      <c r="F41" s="40">
+        <v>869</v>
+      </c>
+      <c r="G41" s="40">
+        <f t="shared" si="3"/>
+        <v>869</v>
+      </c>
+      <c r="H41" s="40">
+        <v>0</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" s="39">
+        <f t="shared" si="4"/>
+        <v>8690</v>
+      </c>
+      <c r="K41" s="39">
+        <v>28</v>
+      </c>
+      <c r="L41" s="39">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M41" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="N41" s="39">
+        <v>500</v>
+      </c>
+      <c r="O41" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q41" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="R41" s="66">
+        <v>190</v>
+      </c>
+      <c r="S41" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="T41" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39">
+        <v>300</v>
+      </c>
+      <c r="W41" s="67">
+        <v>180</v>
+      </c>
+      <c r="X41" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y41" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB41" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE41" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF41" s="39">
+        <v>10</v>
+      </c>
+      <c r="AG41" s="39">
+        <v>20000</v>
+      </c>
+      <c r="AH41" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI41" s="85"/>
+    </row>
+    <row r="42" s="7" customFormat="1" ht="39" customHeight="1" spans="1:35">
+      <c r="A42" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40">
+        <v>4</v>
+      </c>
+      <c r="F42" s="40">
+        <v>864</v>
+      </c>
+      <c r="G42" s="40">
+        <f t="shared" si="3"/>
+        <v>864</v>
+      </c>
+      <c r="H42" s="40">
+        <v>0</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" s="39">
+        <f t="shared" si="4"/>
+        <v>8640</v>
+      </c>
+      <c r="K42" s="39">
+        <v>28</v>
+      </c>
+      <c r="L42" s="39">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M42" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="N42" s="39">
+        <v>125</v>
+      </c>
+      <c r="O42" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q42" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="R42" s="66">
+        <v>190</v>
+      </c>
+      <c r="S42" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39">
+        <v>300</v>
+      </c>
+      <c r="W42" s="67">
+        <v>180</v>
+      </c>
+      <c r="X42" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y42" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB42" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE42" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF42" s="39">
+        <v>10</v>
+      </c>
+      <c r="AG42" s="39">
+        <v>20000</v>
+      </c>
+      <c r="AH42" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI42" s="85"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="AI3">
+  <conditionalFormatting sqref="AJ3">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="23145" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="elite" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="178">
   <si>
     <t>主键</t>
   </si>
@@ -330,10 +330,10 @@
     <t>npc_monster_elite_11</t>
   </si>
   <si>
-    <t>熔融巨龙（远程）</t>
-  </si>
-  <si>
-    <t>models/monster/monster0130/monster0130.vmdl</t>
+    <t>熔岩飞翼兽（远程）</t>
+  </si>
+  <si>
+    <t>models/items/courier/vaal_the_animated_constructdire/vaal_the_animated_constructdire_flying.vmdl</t>
   </si>
   <si>
     <t>creature_normal_1</t>
@@ -507,19 +507,46 @@
     <t>npc_monster_elite_33</t>
   </si>
   <si>
+    <t>风沙狼</t>
+  </si>
+  <si>
+    <t>models/items/lycan/wolves/ambry_summon/ambry_summon.vmdl</t>
+  </si>
+  <si>
     <t>npc_monster_elite_34</t>
   </si>
   <si>
+    <t>风沙狮</t>
+  </si>
+  <si>
+    <t>models/items/lycan/wolves/hunter_kings_wolves/hunter_kings_wolves.vmdl</t>
+  </si>
+  <si>
     <t>npc_monster_elite_35</t>
   </si>
   <si>
+    <t>风沙战熊</t>
+  </si>
+  <si>
+    <t>models/items/lone_druid/bear/dark_wood_bear_white/dark_wood_bear_white.vmdl</t>
+  </si>
+  <si>
     <t>npc_monster_elite_36</t>
   </si>
   <si>
+    <t>绿洲守卫</t>
+  </si>
+  <si>
+    <t>models/monster/monster0147/monster0147.vmdl</t>
+  </si>
+  <si>
     <t>npc_monster_elite_37</t>
   </si>
   <si>
-    <t>冰原巨兽</t>
+    <t>风沙刺鼬</t>
+  </si>
+  <si>
+    <t>models/monster/monster0098/monster0098.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_38</t>
@@ -528,16 +555,16 @@
     <t>npc_monster_elite_39</t>
   </si>
   <si>
-    <t>极地飞翼兽(远程）</t>
-  </si>
-  <si>
-    <t>极地飞翼兽（远程）</t>
+    <t>绿洲女巫(远程）</t>
+  </si>
+  <si>
+    <t>绿洲女巫（远程）</t>
+  </si>
+  <si>
+    <t>models/monster/monster0143/monster0143.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_40</t>
-  </si>
-  <si>
-    <t>models/heroes/visage/visage.vmdl</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2129,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{478E2632-D0CF-4227-A4CD-ED0A94A37A37}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{760FDDF2-4DB8-4A76-BF05-5A29F84CEA9A}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -2420,10 +2447,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O32" sqref="O32"/>
+      <selection pane="topRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3475,7 +3502,9 @@
       <c r="C11" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="24">
+        <v>10</v>
+      </c>
       <c r="E11" s="25">
         <v>1</v>
       </c>
@@ -4077,7 +4106,9 @@
       <c r="C17" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="24">
+        <v>10</v>
+      </c>
       <c r="E17" s="25">
         <v>1</v>
       </c>
@@ -5871,15 +5902,15 @@
       </c>
       <c r="AI34" s="83"/>
     </row>
-    <row r="35" s="7" customFormat="1" ht="49.5" spans="1:35">
+    <row r="35" s="7" customFormat="1" ht="33" spans="1:35">
       <c r="A35" s="37" t="s">
         <v>157</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="40">
@@ -5919,7 +5950,7 @@
         <v>62</v>
       </c>
       <c r="P35" s="49" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="Q35" s="39">
         <v>1.2</v>
@@ -5973,13 +6004,13 @@
     </row>
     <row r="36" s="7" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A36" s="37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="40">
@@ -6019,7 +6050,7 @@
         <v>62</v>
       </c>
       <c r="P36" s="49" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="Q36" s="39">
         <v>1.2</v>
@@ -6071,15 +6102,15 @@
       </c>
       <c r="AI36" s="85"/>
     </row>
-    <row r="37" s="7" customFormat="1" ht="16.5" spans="1:35">
+    <row r="37" s="7" customFormat="1" ht="33" spans="1:35">
       <c r="A37" s="37" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="40">
@@ -6119,7 +6150,7 @@
         <v>62</v>
       </c>
       <c r="P37" s="49" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="Q37" s="39">
         <v>1.2</v>
@@ -6173,13 +6204,13 @@
     </row>
     <row r="38" s="7" customFormat="1" ht="16.5" spans="1:35">
       <c r="A38" s="37" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="40">
@@ -6219,7 +6250,7 @@
         <v>62</v>
       </c>
       <c r="P38" s="49" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="Q38" s="39">
         <v>1.2</v>
@@ -6271,15 +6302,15 @@
       </c>
       <c r="AI38" s="85"/>
     </row>
-    <row r="39" s="7" customFormat="1" ht="33" spans="1:35">
+    <row r="39" s="7" customFormat="1" ht="16.5" spans="1:35">
       <c r="A39" s="37" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="40">
@@ -6319,7 +6350,7 @@
         <v>62</v>
       </c>
       <c r="P39" s="49" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="Q39" s="39">
         <v>1.2</v>
@@ -6371,15 +6402,15 @@
       </c>
       <c r="AI39" s="85"/>
     </row>
-    <row r="40" s="7" customFormat="1" ht="49.5" spans="1:35">
+    <row r="40" s="7" customFormat="1" ht="33" spans="1:35">
       <c r="A40" s="37" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="40">
@@ -6419,7 +6450,7 @@
         <v>62</v>
       </c>
       <c r="P40" s="49" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="Q40" s="39">
         <v>1.2</v>
@@ -6473,13 +6504,13 @@
     </row>
     <row r="41" s="7" customFormat="1" ht="16.5" spans="1:35">
       <c r="A41" s="37" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="40">
@@ -6519,7 +6550,7 @@
         <v>62</v>
       </c>
       <c r="P41" s="49" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="Q41" s="39">
         <v>1.2</v>
@@ -6575,13 +6606,13 @@
     </row>
     <row r="42" s="7" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A42" s="37" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="40">
@@ -6621,7 +6652,7 @@
         <v>62</v>
       </c>
       <c r="P42" s="49" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q42" s="39">
         <v>1.2</v>

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="elite" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="180">
   <si>
     <t>主键</t>
   </si>
@@ -312,7 +312,7 @@
     <t>npc_monster_elite_9</t>
   </si>
   <si>
-    <t>地狱火精灵</t>
+    <t>炼狱火精灵</t>
   </si>
   <si>
     <t>models/items/warlock/golem/warlock_the_infernal_master_golem/warlock_the_infernal_master_golem.vmdl</t>
@@ -321,7 +321,7 @@
     <t>npc_monster_elite_10</t>
   </si>
   <si>
-    <t>地狱领主</t>
+    <t>炼狱领主</t>
   </si>
   <si>
     <t>models/monster/monster0122/monster0122.vmdl</t>
@@ -444,61 +444,67 @@
     <t>npc_monster_elite_25</t>
   </si>
   <si>
+    <t>冰原巨兽</t>
+  </si>
+  <si>
+    <t>models/monster/monster0229/monster0229.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_26</t>
+  </si>
+  <si>
+    <t>极地熊战士</t>
+  </si>
+  <si>
+    <t>models/items/lone_druid/true_form/iron_claw_true_form/iron_claw_true_form.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_27</t>
+  </si>
+  <si>
+    <t>冰原猩猩兽</t>
+  </si>
+  <si>
+    <t>models/monster/monster0185/monster0185.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_28</t>
+  </si>
+  <si>
+    <t>极地巨人</t>
+  </si>
+  <si>
+    <t>models/monster/monster0104/monster0104.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_29</t>
+  </si>
+  <si>
+    <t>极地四脚兽</t>
+  </si>
+  <si>
+    <t>models/heroes/leshrac/leshrac.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_30</t>
+  </si>
+  <si>
     <t>冰甲战熊</t>
   </si>
   <si>
     <t>models/items/lone_druid/bear/elemental_curse_set_elemental_curse_spirit_bear/elemental_curse_set_elemental_curse_spirit_bear.vmdl</t>
   </si>
   <si>
-    <t>npc_monster_elite_26</t>
-  </si>
-  <si>
-    <t>极地熊战士</t>
-  </si>
-  <si>
-    <t>models/items/lone_druid/true_form/iron_claw_true_form/iron_claw_true_form.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_27</t>
-  </si>
-  <si>
-    <t>冰原猩猩兽</t>
-  </si>
-  <si>
-    <t>models/monster/monster0185/monster0185.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_28</t>
-  </si>
-  <si>
-    <t>极地巨人</t>
-  </si>
-  <si>
-    <t>models/monster/monster0104/monster0104.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_29</t>
-  </si>
-  <si>
-    <t>极地四脚兽</t>
-  </si>
-  <si>
-    <t>models/heroes/leshrac/leshrac.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_30</t>
-  </si>
-  <si>
     <t>npc_monster_elite_31</t>
   </si>
   <si>
-    <t>冰原巨兽(远程）</t>
-  </si>
-  <si>
-    <t>冰原巨兽（远程）</t>
-  </si>
-  <si>
-    <t>models/monster/monster0229/monster0229.vmdl</t>
+    <t>极地飞翼兽(远程）</t>
+  </si>
+  <si>
+    <t>极地飞翼兽（远程）</t>
+  </si>
+  <si>
+    <t>models/heroes/visage/visage.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_32</t>
@@ -2129,7 +2135,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{760FDDF2-4DB8-4A76-BF05-5A29F84CEA9A}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{84636FF3-335A-44C9-A78D-CA1F4E8E1199}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -2447,10 +2453,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B41" sqref="B41"/>
+      <selection pane="topRight" activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4202,10 +4208,10 @@
       <c r="A18" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="24" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="27"/>
@@ -5100,7 +5106,7 @@
       </c>
       <c r="AI26" s="81"/>
     </row>
-    <row r="27" s="6" customFormat="1" ht="49.5" spans="1:35">
+    <row r="27" s="6" customFormat="1" ht="16.5" spans="1:35">
       <c r="A27" s="33" t="s">
         <v>136</v>
       </c>
@@ -5605,10 +5611,10 @@
         <v>151</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="36">
@@ -5648,7 +5654,7 @@
         <v>62</v>
       </c>
       <c r="P32" s="48" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="Q32" s="35">
         <v>1.2</v>
@@ -5702,13 +5708,13 @@
     </row>
     <row r="33" s="6" customFormat="1" ht="16.5" spans="1:35">
       <c r="A33" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="36">
@@ -5748,7 +5754,7 @@
         <v>62</v>
       </c>
       <c r="P33" s="48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q33" s="35">
         <v>1.2</v>
@@ -5804,7 +5810,7 @@
     </row>
     <row r="34" s="6" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A34" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>140</v>
@@ -5904,13 +5910,13 @@
     </row>
     <row r="35" s="7" customFormat="1" ht="33" spans="1:35">
       <c r="A35" s="37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="40">
@@ -5950,7 +5956,7 @@
         <v>62</v>
       </c>
       <c r="P35" s="49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q35" s="39">
         <v>1.2</v>
@@ -6004,13 +6010,13 @@
     </row>
     <row r="36" s="7" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A36" s="37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="40">
@@ -6050,7 +6056,7 @@
         <v>62</v>
       </c>
       <c r="P36" s="49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q36" s="39">
         <v>1.2</v>
@@ -6104,13 +6110,13 @@
     </row>
     <row r="37" s="7" customFormat="1" ht="33" spans="1:35">
       <c r="A37" s="37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="40">
@@ -6150,7 +6156,7 @@
         <v>62</v>
       </c>
       <c r="P37" s="49" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q37" s="39">
         <v>1.2</v>
@@ -6204,13 +6210,13 @@
     </row>
     <row r="38" s="7" customFormat="1" ht="16.5" spans="1:35">
       <c r="A38" s="37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="40">
@@ -6250,7 +6256,7 @@
         <v>62</v>
       </c>
       <c r="P38" s="49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q38" s="39">
         <v>1.2</v>
@@ -6304,13 +6310,13 @@
     </row>
     <row r="39" s="7" customFormat="1" ht="16.5" spans="1:35">
       <c r="A39" s="37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="40">
@@ -6350,7 +6356,7 @@
         <v>62</v>
       </c>
       <c r="P39" s="49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q39" s="39">
         <v>1.2</v>
@@ -6404,13 +6410,13 @@
     </row>
     <row r="40" s="7" customFormat="1" ht="33" spans="1:35">
       <c r="A40" s="37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="40">
@@ -6450,7 +6456,7 @@
         <v>62</v>
       </c>
       <c r="P40" s="49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q40" s="39">
         <v>1.2</v>
@@ -6504,13 +6510,13 @@
     </row>
     <row r="41" s="7" customFormat="1" ht="16.5" spans="1:35">
       <c r="A41" s="37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="40">
@@ -6550,7 +6556,7 @@
         <v>62</v>
       </c>
       <c r="P41" s="49" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q41" s="39">
         <v>1.2</v>
@@ -6606,13 +6612,13 @@
     </row>
     <row r="42" s="7" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A42" s="37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="40">
@@ -6652,7 +6658,7 @@
         <v>62</v>
       </c>
       <c r="P42" s="49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q42" s="39">
         <v>1.2</v>

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="elite" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="161">
   <si>
     <t>主键</t>
   </si>
@@ -213,7 +213,7 @@
     <t>npc_monster_elite_1</t>
   </si>
   <si>
-    <t>黑暗巨魔召唤法师</t>
+    <t>炼狱火精灵</t>
   </si>
   <si>
     <t>0|0|0|0</t>
@@ -222,7 +222,7 @@
     <t>npc_dota_creature</t>
   </si>
   <si>
-    <t>models/creeps/neutral_creeps/n_creep_troll_dark_b/n_creep_troll_dark_b.vmdl</t>
+    <t>models/items/warlock/golem/warlock_the_infernal_master_golem/warlock_the_infernal_master_golem.vmdl</t>
   </si>
   <si>
     <t>public_creature</t>
@@ -249,88 +249,76 @@
     <t>npc_monster_elite_2</t>
   </si>
   <si>
-    <t>萨特苦难行者</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_satyr_a/n_creep_satyr_a.vmdl</t>
+    <t>炼狱领主</t>
+  </si>
+  <si>
+    <t>models/monster/monster0122/monster0122.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_3</t>
   </si>
   <si>
-    <t>远古黑龙</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_black_dragon/n_creep_black_dragon.vmdl</t>
+    <t>雷霆领主</t>
+  </si>
+  <si>
+    <t>models/monster/monster0101/monster0101.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_4</t>
   </si>
   <si>
-    <t>冰霜之魂</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_ghost_b/n_creep_ghost_frost.vmdl</t>
+    <t>青眼雷龙</t>
+  </si>
+  <si>
+    <t>models/monster/monster0102/monster0102.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_5</t>
   </si>
   <si>
-    <t>肉山幼崽</t>
-  </si>
-  <si>
-    <t>models/creeps/baby_rosh_halloween/baby_rosh_dire/baby_rosh_dire.vmdl</t>
+    <t>冰原巨兽</t>
+  </si>
+  <si>
+    <t>models/monster/monster0229/monster0229.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_6</t>
   </si>
   <si>
-    <t>变异肉山幼崽</t>
-  </si>
-  <si>
-    <t>models/creeps/baby_rosh_halloween/baby_rosh_radiant/baby_rosh_radiant.vmdl</t>
+    <t>极地熊战士</t>
+  </si>
+  <si>
+    <t>models/items/lone_druid/true_form/iron_claw_true_form/iron_claw_true_form.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_7</t>
   </si>
   <si>
-    <t>远古雷肤兽</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_thunder_lizard/n_creep_thunder_lizard_big.vmdl</t>
+    <t>风沙狼</t>
+  </si>
+  <si>
+    <t>models/items/lycan/wolves/ambry_summon/ambry_summon.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_8</t>
   </si>
   <si>
-    <t>远古萨满潜行者</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_satyr_spawn_a/n_creep_satyr_spawn_a.vmdl</t>
+    <t>风沙狮</t>
+  </si>
+  <si>
+    <t>models/items/lycan/wolves/hunter_kings_wolves/hunter_kings_wolves.vmdl</t>
   </si>
   <si>
     <t>npc_monster_elite_9</t>
   </si>
   <si>
-    <t>炼狱火精灵</t>
-  </si>
-  <si>
-    <t>models/items/warlock/golem/warlock_the_infernal_master_golem/warlock_the_infernal_master_golem.vmdl</t>
-  </si>
-  <si>
     <t>npc_monster_elite_10</t>
   </si>
   <si>
-    <t>炼狱领主</t>
-  </si>
-  <si>
-    <t>models/monster/monster0122/monster0122.vmdl</t>
-  </si>
-  <si>
     <t>npc_monster_elite_11</t>
   </si>
   <si>
-    <t>熔岩飞翼兽（远程）</t>
+    <t>熔岩飞翼兽</t>
   </si>
   <si>
     <t>models/items/courier/vaal_the_animated_constructdire/vaal_the_animated_constructdire_flying.vmdl</t>
@@ -375,21 +363,9 @@
     <t>npc_monster_elite_17</t>
   </si>
   <si>
-    <t>雷霆领主</t>
-  </si>
-  <si>
-    <t>models/monster/monster0101/monster0101.vmdl</t>
-  </si>
-  <si>
     <t>npc_monster_elite_18</t>
   </si>
   <si>
-    <t>青眼雷龙</t>
-  </si>
-  <si>
-    <t>models/monster/monster0102/monster0102.vmdl</t>
-  </si>
-  <si>
     <t>npc_monster_elite_19</t>
   </si>
   <si>
@@ -429,10 +405,7 @@
     <t>npc_monster_elite_23</t>
   </si>
   <si>
-    <t>雷压射手(远程）</t>
-  </si>
-  <si>
-    <t>雷压射手（远程）</t>
+    <t>雷压射手</t>
   </si>
   <si>
     <t>models/monster/monster0128/monster0128.vmdl</t>
@@ -444,21 +417,9 @@
     <t>npc_monster_elite_25</t>
   </si>
   <si>
-    <t>冰原巨兽</t>
-  </si>
-  <si>
-    <t>models/monster/monster0229/monster0229.vmdl</t>
-  </si>
-  <si>
     <t>npc_monster_elite_26</t>
   </si>
   <si>
-    <t>极地熊战士</t>
-  </si>
-  <si>
-    <t>models/items/lone_druid/true_form/iron_claw_true_form/iron_claw_true_form.vmdl</t>
-  </si>
-  <si>
     <t>npc_monster_elite_27</t>
   </si>
   <si>
@@ -498,10 +459,7 @@
     <t>npc_monster_elite_31</t>
   </si>
   <si>
-    <t>极地飞翼兽(远程）</t>
-  </si>
-  <si>
-    <t>极地飞翼兽（远程）</t>
+    <t>极地飞翼兽</t>
   </si>
   <si>
     <t>models/heroes/visage/visage.vmdl</t>
@@ -513,21 +471,9 @@
     <t>npc_monster_elite_33</t>
   </si>
   <si>
-    <t>风沙狼</t>
-  </si>
-  <si>
-    <t>models/items/lycan/wolves/ambry_summon/ambry_summon.vmdl</t>
-  </si>
-  <si>
     <t>npc_monster_elite_34</t>
   </si>
   <si>
-    <t>风沙狮</t>
-  </si>
-  <si>
-    <t>models/items/lycan/wolves/hunter_kings_wolves/hunter_kings_wolves.vmdl</t>
-  </si>
-  <si>
     <t>npc_monster_elite_35</t>
   </si>
   <si>
@@ -561,10 +507,7 @@
     <t>npc_monster_elite_39</t>
   </si>
   <si>
-    <t>绿洲女巫(远程）</t>
-  </si>
-  <si>
-    <t>绿洲女巫（远程）</t>
+    <t>绿洲女巫</t>
   </si>
   <si>
     <t>models/monster/monster0143/monster0143.vmdl</t>
@@ -1085,7 +1028,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color theme="1" tint="0.6"/>
       </left>
       <right style="thin">
         <color theme="1" tint="0.6"/>
@@ -1100,7 +1043,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.6"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color theme="1" tint="0.6"/>
@@ -1485,7 +1428,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1540,28 +1483,37 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1573,40 +1525,31 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1615,27 +1558,21 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1654,16 +1591,16 @@
     <xf numFmtId="177" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1672,22 +1609,22 @@
     <xf numFmtId="177" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2135,7 +2072,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{84636FF3-335A-44C9-A78D-CA1F4E8E1199}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{CBC2B07A-C42A-4C42-8C07-D1723A48CB87}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -2453,10 +2390,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R32" sqref="R32"/>
+      <selection pane="topRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2548,7 +2485,7 @@
       <c r="Q1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="48" t="s">
         <v>16</v>
       </c>
       <c r="S1" s="12"/>
@@ -2557,7 +2494,7 @@
       <c r="V1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="49" t="s">
         <v>18</v>
       </c>
       <c r="X1" s="12" t="s">
@@ -2590,10 +2527,10 @@
       <c r="AG1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="68" t="s">
+      <c r="AH1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="69"/>
+      <c r="AI1" s="67"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="48.5" customHeight="1" spans="1:35">
       <c r="A2" s="14" t="s">
@@ -2639,7 +2576,7 @@
       <c r="Q2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="50" t="s">
         <v>43</v>
       </c>
       <c r="S2" s="15" t="s">
@@ -2654,7 +2591,7 @@
       <c r="V2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="53" t="s">
+      <c r="W2" s="51" t="s">
         <v>48</v>
       </c>
       <c r="X2" s="15" t="s">
@@ -2685,10 +2622,10 @@
       <c r="AG2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="70" t="s">
+      <c r="AH2" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" s="71"/>
+      <c r="AI2" s="69"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
       <c r="A3" s="17" t="s">
@@ -2700,3223 +2637,3223 @@
       <c r="C3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20">
         <v>15</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="20">
         <f t="shared" ref="G3:G10" si="0">F3</f>
         <v>15</v>
       </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="19">
         <f t="shared" ref="J3:J10" si="1">G3*10</f>
         <v>150</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="19">
         <v>1</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="19">
         <f t="shared" ref="L3:L10" si="2">K3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="19">
         <v>1.5</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="19">
         <v>125</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="19" t="s">
         <v>62</v>
       </c>
       <c r="P3" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="19">
         <v>1.2</v>
       </c>
-      <c r="R3" s="54">
+      <c r="R3" s="52">
         <v>170</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18">
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19">
         <v>300</v>
       </c>
-      <c r="W3" s="55">
+      <c r="W3" s="53">
         <v>180</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="X3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18" t="s">
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AB3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="18" t="s">
+      <c r="AB3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AE3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AF3" s="19">
         <v>10</v>
       </c>
-      <c r="AG3" s="18">
+      <c r="AG3" s="19">
         <v>20000</v>
       </c>
-      <c r="AH3" s="72" t="s">
+      <c r="AH3" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="74"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="72"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="22">
         <v>2</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
         <v>20</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H4" s="22">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="22">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="22">
         <v>6</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="22">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="22">
         <v>1.5</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="22">
         <v>125</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="22">
         <v>1.2</v>
       </c>
-      <c r="R4" s="56">
+      <c r="R4" s="54">
         <v>170</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21">
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22">
         <v>300</v>
       </c>
-      <c r="W4" s="57">
+      <c r="W4" s="55">
         <v>180</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="X4" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="Y4" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21" t="s">
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="21" t="s">
+      <c r="AB4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AE4" s="21" t="s">
+      <c r="AE4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AF4" s="21">
+      <c r="AF4" s="22">
         <v>10</v>
       </c>
-      <c r="AG4" s="21">
+      <c r="AG4" s="22">
         <v>20000</v>
       </c>
-      <c r="AH4" s="75" t="s">
+      <c r="AH4" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="72"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>3</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23">
         <v>45</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="23">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H5" s="22">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22" t="s">
+      <c r="H5" s="23">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="22">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="22">
         <v>9</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="22">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="22">
         <v>1.5</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="22">
         <v>125</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="22" t="s">
         <v>62</v>
       </c>
       <c r="P5" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="22">
         <v>1.2</v>
       </c>
-      <c r="R5" s="56">
+      <c r="R5" s="54">
         <v>170</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21">
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22">
         <v>300</v>
       </c>
-      <c r="W5" s="57">
+      <c r="W5" s="55">
         <v>180</v>
       </c>
-      <c r="X5" s="21" t="s">
+      <c r="X5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Y5" s="21" t="s">
+      <c r="Y5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21" t="s">
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="21" t="s">
+      <c r="AB5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AE5" s="21" t="s">
+      <c r="AE5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AF5" s="21">
+      <c r="AF5" s="22">
         <v>10</v>
       </c>
-      <c r="AG5" s="21">
+      <c r="AG5" s="22">
         <v>20000</v>
       </c>
-      <c r="AH5" s="75" t="s">
+      <c r="AH5" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="AI5" s="73"/>
-      <c r="AJ5" s="74"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="72"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>4</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
         <v>100</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="23">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H6" s="22">
-        <v>0</v>
-      </c>
-      <c r="I6" s="22" t="s">
+      <c r="H6" s="23">
+        <v>0</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="22">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="22">
         <v>10</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="22">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="22">
         <v>1.5</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="22">
         <v>125</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="22" t="s">
         <v>62</v>
       </c>
       <c r="P6" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="22">
         <v>1.2</v>
       </c>
-      <c r="R6" s="56">
+      <c r="R6" s="54">
         <v>170</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="S6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21">
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22">
         <v>300</v>
       </c>
-      <c r="W6" s="57">
+      <c r="W6" s="55">
         <v>180</v>
       </c>
-      <c r="X6" s="21" t="s">
+      <c r="X6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Y6" s="21" t="s">
+      <c r="Y6" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21" t="s">
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="21" t="s">
+      <c r="AB6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AE6" s="21" t="s">
+      <c r="AE6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AF6" s="21">
+      <c r="AF6" s="22">
         <v>10</v>
       </c>
-      <c r="AG6" s="21">
+      <c r="AG6" s="22">
         <v>20000</v>
       </c>
-      <c r="AH6" s="75" t="s">
+      <c r="AH6" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="74"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="72"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>5</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23">
         <v>250</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="H7" s="22">
-        <v>0</v>
-      </c>
-      <c r="I7" s="22" t="s">
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="22">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="22">
         <v>20</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="22">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="22">
         <v>1.5</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="22">
         <v>125</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="P7" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="22">
         <v>1.2</v>
       </c>
-      <c r="R7" s="56">
+      <c r="R7" s="54">
         <v>170</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21">
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22">
         <v>300</v>
       </c>
-      <c r="W7" s="57">
+      <c r="W7" s="55">
         <v>180</v>
       </c>
-      <c r="X7" s="21" t="s">
+      <c r="X7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="21" t="s">
+      <c r="Y7" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21" t="s">
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="21" t="s">
+      <c r="AB7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AE7" s="21" t="s">
+      <c r="AE7" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AF7" s="21">
+      <c r="AF7" s="22">
         <v>10</v>
       </c>
-      <c r="AG7" s="21">
+      <c r="AG7" s="22">
         <v>20000</v>
       </c>
-      <c r="AH7" s="75" t="s">
+      <c r="AH7" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="74"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="72"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>6</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23">
         <v>371</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="H8" s="22">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="22">
         <f t="shared" si="1"/>
         <v>3710</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="22">
         <v>22</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="22">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="22">
         <v>1.5</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="22">
         <v>125</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="44" t="s">
+      <c r="P8" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="22">
         <v>1.2</v>
       </c>
-      <c r="R8" s="56">
+      <c r="R8" s="54">
         <v>170</v>
       </c>
-      <c r="S8" s="21" t="s">
+      <c r="S8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21">
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22">
         <v>300</v>
       </c>
-      <c r="W8" s="57">
+      <c r="W8" s="55">
         <v>180</v>
       </c>
-      <c r="X8" s="21" t="s">
+      <c r="X8" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Y8" s="21" t="s">
+      <c r="Y8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21" t="s">
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="21" t="s">
+      <c r="AB8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AE8" s="21" t="s">
+      <c r="AE8" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AF8" s="21">
+      <c r="AF8" s="22">
         <v>10</v>
       </c>
-      <c r="AG8" s="21">
+      <c r="AG8" s="22">
         <v>20000</v>
       </c>
-      <c r="AH8" s="75" t="s">
+      <c r="AH8" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="72"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>7</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <v>589</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>589</v>
       </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="s">
+      <c r="H9" s="23">
+        <v>0</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="22">
         <f t="shared" si="1"/>
         <v>5890</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="22">
         <v>25</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="22">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="22">
         <v>1.5</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="22">
         <v>125</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="44" t="s">
+      <c r="P9" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="22">
         <v>1.2</v>
       </c>
-      <c r="R9" s="56">
+      <c r="R9" s="54">
         <v>190</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21">
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>300</v>
       </c>
-      <c r="W9" s="57">
+      <c r="W9" s="55">
         <v>180</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="X9" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="21" t="s">
+      <c r="Y9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21" t="s">
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB9" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="21" t="s">
+      <c r="AB9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AE9" s="21" t="s">
+      <c r="AE9" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AF9" s="21">
+      <c r="AF9" s="22">
         <v>10</v>
       </c>
-      <c r="AG9" s="21">
+      <c r="AG9" s="22">
         <v>20000</v>
       </c>
-      <c r="AH9" s="75" t="s">
+      <c r="AH9" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="74"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="72"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>8</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23">
         <v>862</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>862</v>
       </c>
-      <c r="H10" s="22">
-        <v>0</v>
-      </c>
-      <c r="I10" s="22" t="s">
+      <c r="H10" s="23">
+        <v>0</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="22">
         <f t="shared" si="1"/>
         <v>8620</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="22">
         <v>28</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="22">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="22">
         <v>1.5</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="22">
         <v>125</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="44" t="s">
+      <c r="P10" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="22">
         <v>1.2</v>
       </c>
-      <c r="R10" s="56">
+      <c r="R10" s="54">
         <v>190</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="S10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21">
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22">
         <v>300</v>
       </c>
-      <c r="W10" s="57">
+      <c r="W10" s="55">
         <v>180</v>
       </c>
-      <c r="X10" s="21" t="s">
+      <c r="X10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Y10" s="21" t="s">
+      <c r="Y10" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21" t="s">
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB10" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="21" t="s">
+      <c r="AB10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AE10" s="21" t="s">
+      <c r="AE10" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AF10" s="21">
+      <c r="AF10" s="22">
         <v>10</v>
       </c>
-      <c r="AG10" s="21">
+      <c r="AG10" s="22">
         <v>20000</v>
       </c>
-      <c r="AH10" s="75" t="s">
+      <c r="AH10" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="72"/>
     </row>
     <row r="11" s="4" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="24">
+      <c r="B11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="18">
         <v>10</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="28">
         <v>1</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="28">
         <v>863</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="28">
         <f t="shared" ref="G11:G42" si="3">F11</f>
         <v>863</v>
       </c>
-      <c r="H11" s="25">
-        <v>0</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="28">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="18">
         <f t="shared" ref="J11:J42" si="4">G11*10</f>
         <v>8630</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="18">
         <v>28</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="18">
         <f t="shared" ref="L11:L42" si="5">K11</f>
         <v>28</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="18">
         <v>1.5</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="18">
         <v>125</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="24">
+      <c r="P11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="18">
         <v>1.2</v>
       </c>
-      <c r="R11" s="58">
+      <c r="R11" s="56">
         <v>190</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24">
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18">
         <v>300</v>
       </c>
-      <c r="W11" s="59">
+      <c r="W11" s="57">
         <v>180</v>
       </c>
-      <c r="X11" s="24" t="s">
+      <c r="X11" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Y11" s="24" t="s">
+      <c r="Y11" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24" t="s">
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AB11" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="24" t="s">
+      <c r="AB11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE11" s="24" t="s">
+      <c r="AE11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AF11" s="24">
+      <c r="AF11" s="18">
         <v>10</v>
       </c>
-      <c r="AG11" s="24">
+      <c r="AG11" s="18">
         <v>20000</v>
       </c>
-      <c r="AH11" s="77" t="s">
+      <c r="AH11" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="AI11" s="78"/>
+      <c r="AI11" s="76"/>
     </row>
     <row r="12" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A12" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25">
+      <c r="A12" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="28">
         <v>1</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="28">
         <v>864</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="28">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="H12" s="25">
-        <v>0</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="28">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="18">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="18">
         <v>28</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="18">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="18">
         <v>1.5</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="18">
         <v>125</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="P12" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="24">
+      <c r="P12" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="18">
         <v>1.2</v>
       </c>
-      <c r="R12" s="58">
+      <c r="R12" s="56">
         <v>190</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24">
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18">
         <v>300</v>
       </c>
-      <c r="W12" s="59">
+      <c r="W12" s="57">
         <v>180</v>
       </c>
-      <c r="X12" s="24" t="s">
+      <c r="X12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Y12" s="24" t="s">
+      <c r="Y12" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24" t="s">
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AB12" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="24" t="s">
+      <c r="AB12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE12" s="24" t="s">
+      <c r="AE12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AF12" s="24">
+      <c r="AF12" s="18">
         <v>10</v>
       </c>
-      <c r="AG12" s="24">
+      <c r="AG12" s="18">
         <v>20000</v>
       </c>
-      <c r="AH12" s="77" t="s">
+      <c r="AH12" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="AI12" s="78"/>
+      <c r="AI12" s="76"/>
     </row>
     <row r="13" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A13" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25">
+      <c r="A13" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="28">
         <v>1</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="28">
         <v>865</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="28">
         <f t="shared" si="3"/>
         <v>865</v>
       </c>
-      <c r="H13" s="25">
-        <v>0</v>
-      </c>
-      <c r="I13" s="25" t="s">
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="18">
         <f t="shared" si="4"/>
         <v>8650</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="18">
         <v>28</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="18">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="18">
         <v>1.5</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="18">
         <v>500</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="24">
+      <c r="P13" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13" s="18">
         <v>1.2</v>
       </c>
-      <c r="R13" s="58">
+      <c r="R13" s="56">
         <v>190</v>
       </c>
-      <c r="S13" s="24" t="s">
+      <c r="S13" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="T13" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24">
+      <c r="T13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18">
         <v>300</v>
       </c>
-      <c r="W13" s="59">
+      <c r="W13" s="57">
         <v>180</v>
       </c>
-      <c r="X13" s="24" t="s">
+      <c r="X13" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Y13" s="24" t="s">
+      <c r="Y13" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24" t="s">
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AB13" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="24" t="s">
+      <c r="AB13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE13" s="24" t="s">
+      <c r="AE13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AF13" s="24">
+      <c r="AF13" s="18">
         <v>10</v>
       </c>
-      <c r="AG13" s="24">
+      <c r="AG13" s="18">
         <v>20000</v>
       </c>
-      <c r="AH13" s="77" t="s">
+      <c r="AH13" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="AI13" s="78"/>
+      <c r="AI13" s="76"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A14" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25">
+      <c r="A14" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="28">
         <v>1</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="28">
         <v>866</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="28">
         <f t="shared" si="3"/>
         <v>866</v>
       </c>
-      <c r="H14" s="25">
-        <v>0</v>
-      </c>
-      <c r="I14" s="25" t="s">
+      <c r="H14" s="28">
+        <v>0</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="18">
         <f t="shared" si="4"/>
         <v>8660</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="18">
         <v>28</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="18">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="18">
         <v>1.5</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="18">
         <v>125</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="O14" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="24">
+      <c r="P14" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="18">
         <v>1.2</v>
       </c>
-      <c r="R14" s="58">
+      <c r="R14" s="56">
         <v>190</v>
       </c>
-      <c r="S14" s="24" t="s">
+      <c r="S14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24">
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18">
         <v>300</v>
       </c>
-      <c r="W14" s="59">
+      <c r="W14" s="57">
         <v>180</v>
       </c>
-      <c r="X14" s="24" t="s">
+      <c r="X14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Y14" s="24" t="s">
+      <c r="Y14" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24" t="s">
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AB14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="24" t="s">
+      <c r="AB14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE14" s="24" t="s">
+      <c r="AE14" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AF14" s="24">
+      <c r="AF14" s="18">
         <v>10</v>
       </c>
-      <c r="AG14" s="24">
+      <c r="AG14" s="18">
         <v>20000</v>
       </c>
-      <c r="AH14" s="77" t="s">
+      <c r="AH14" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="AI14" s="78"/>
+      <c r="AI14" s="76"/>
     </row>
     <row r="15" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A15" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25">
+      <c r="A15" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="28">
         <v>1</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="28">
         <v>867</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="28">
         <f t="shared" si="3"/>
         <v>867</v>
       </c>
-      <c r="H15" s="25">
-        <v>0</v>
-      </c>
-      <c r="I15" s="25" t="s">
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="18">
         <f t="shared" si="4"/>
         <v>8670</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="18">
         <v>28</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="18">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="18">
         <v>1.5</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="18">
         <v>125</v>
       </c>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q15" s="24">
+      <c r="P15" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="18">
         <v>1.2</v>
       </c>
-      <c r="R15" s="58">
+      <c r="R15" s="56">
         <v>190</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="S15" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24">
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18">
         <v>300</v>
       </c>
-      <c r="W15" s="59">
+      <c r="W15" s="57">
         <v>180</v>
       </c>
-      <c r="X15" s="24" t="s">
+      <c r="X15" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Y15" s="24" t="s">
+      <c r="Y15" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24" t="s">
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AB15" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="24" t="s">
+      <c r="AB15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE15" s="24" t="s">
+      <c r="AE15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AF15" s="24">
+      <c r="AF15" s="18">
         <v>10</v>
       </c>
-      <c r="AG15" s="24">
+      <c r="AG15" s="18">
         <v>20000</v>
       </c>
-      <c r="AH15" s="77" t="s">
+      <c r="AH15" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="AI15" s="78"/>
+      <c r="AI15" s="76"/>
     </row>
     <row r="16" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A16" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25">
+      <c r="A16" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="28">
         <v>1</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="28">
         <v>868</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="28">
         <f t="shared" si="3"/>
         <v>868</v>
       </c>
-      <c r="H16" s="25">
-        <v>0</v>
-      </c>
-      <c r="I16" s="25" t="s">
+      <c r="H16" s="28">
+        <v>0</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="18">
         <f t="shared" si="4"/>
         <v>8680</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="18">
         <v>28</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="18">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="18">
         <v>1.5</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="18">
         <v>125</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="O16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q16" s="24">
+      <c r="P16" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="18">
         <v>1.2</v>
       </c>
-      <c r="R16" s="58">
+      <c r="R16" s="56">
         <v>190</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="S16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24">
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18">
         <v>300</v>
       </c>
-      <c r="W16" s="59">
+      <c r="W16" s="57">
         <v>180</v>
       </c>
-      <c r="X16" s="24" t="s">
+      <c r="X16" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Y16" s="24" t="s">
+      <c r="Y16" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24" t="s">
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AB16" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="24" t="s">
+      <c r="AB16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE16" s="24" t="s">
+      <c r="AE16" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AF16" s="24">
+      <c r="AF16" s="18">
         <v>10</v>
       </c>
-      <c r="AG16" s="24">
+      <c r="AG16" s="18">
         <v>20000</v>
       </c>
-      <c r="AH16" s="77" t="s">
+      <c r="AH16" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="AI16" s="78"/>
+      <c r="AI16" s="76"/>
     </row>
     <row r="17" s="4" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A17" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="24">
+      <c r="A17" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="18">
         <v>10</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="28">
         <v>1</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="28">
         <v>869</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="28">
         <f t="shared" si="3"/>
         <v>869</v>
       </c>
-      <c r="H17" s="25">
-        <v>0</v>
-      </c>
-      <c r="I17" s="25" t="s">
+      <c r="H17" s="28">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="18">
         <f t="shared" si="4"/>
         <v>8690</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="18">
         <v>28</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="18">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="18">
         <v>1.5</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="18">
         <v>125</v>
       </c>
-      <c r="O17" s="24" t="s">
+      <c r="O17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="P17" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q17" s="24">
+      <c r="P17" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="18">
         <v>1.2</v>
       </c>
-      <c r="R17" s="58">
+      <c r="R17" s="56">
         <v>190</v>
       </c>
-      <c r="S17" s="24" t="s">
+      <c r="S17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24">
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18">
         <v>300</v>
       </c>
-      <c r="W17" s="59">
+      <c r="W17" s="57">
         <v>180</v>
       </c>
-      <c r="X17" s="24" t="s">
+      <c r="X17" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Y17" s="24" t="s">
+      <c r="Y17" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24" t="s">
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AB17" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="24" t="s">
+      <c r="AB17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE17" s="24" t="s">
+      <c r="AE17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AF17" s="24">
+      <c r="AF17" s="18">
         <v>10</v>
       </c>
-      <c r="AG17" s="24">
+      <c r="AG17" s="18">
         <v>20000</v>
       </c>
-      <c r="AH17" s="77" t="s">
+      <c r="AH17" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="AI17" s="78"/>
+      <c r="AI17" s="76"/>
     </row>
     <row r="18" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A18" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="25">
+      <c r="A18" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="28">
         <v>1</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="31">
         <v>870</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="31">
         <f t="shared" si="3"/>
         <v>870</v>
       </c>
-      <c r="H18" s="28">
-        <v>0</v>
-      </c>
-      <c r="I18" s="28" t="s">
+      <c r="H18" s="31">
+        <v>0</v>
+      </c>
+      <c r="I18" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="30">
         <f t="shared" si="4"/>
         <v>8700</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="30">
         <v>28</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="30">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="30">
         <v>1.5</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="30">
         <v>125</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="P18" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q18" s="27">
+      <c r="P18" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="30">
         <v>1.2</v>
       </c>
-      <c r="R18" s="60">
+      <c r="R18" s="58">
         <v>190</v>
       </c>
-      <c r="S18" s="27" t="s">
+      <c r="S18" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27">
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30">
         <v>300</v>
       </c>
-      <c r="W18" s="61">
+      <c r="W18" s="59">
         <v>180</v>
       </c>
-      <c r="X18" s="27" t="s">
+      <c r="X18" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="Y18" s="27" t="s">
+      <c r="Y18" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27" t="s">
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AB18" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="27" t="s">
+      <c r="AB18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="AE18" s="27" t="s">
+      <c r="AE18" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="AF18" s="27">
+      <c r="AF18" s="30">
         <v>10</v>
       </c>
-      <c r="AG18" s="27">
+      <c r="AG18" s="30">
         <v>20000</v>
       </c>
-      <c r="AH18" s="79" t="s">
+      <c r="AH18" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="AI18" s="78"/>
+      <c r="AI18" s="76"/>
     </row>
     <row r="19" s="5" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A19" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32">
+      <c r="A19" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34">
         <v>2</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="34">
         <v>863</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="34">
         <f t="shared" si="3"/>
         <v>863</v>
       </c>
-      <c r="H19" s="32">
-        <v>0</v>
-      </c>
-      <c r="I19" s="32" t="s">
+      <c r="H19" s="34">
+        <v>0</v>
+      </c>
+      <c r="I19" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="33">
         <f t="shared" si="4"/>
         <v>8630</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="33">
         <v>28</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="33">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="33">
         <v>1.5</v>
       </c>
-      <c r="N19" s="31">
+      <c r="N19" s="33">
         <v>125</v>
       </c>
-      <c r="O19" s="31" t="s">
+      <c r="O19" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="31">
+      <c r="P19" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="33">
         <v>1.2</v>
       </c>
-      <c r="R19" s="62">
+      <c r="R19" s="60">
         <v>190</v>
       </c>
-      <c r="S19" s="31" t="s">
+      <c r="S19" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31">
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33">
         <v>300</v>
       </c>
-      <c r="W19" s="63">
+      <c r="W19" s="61">
         <v>180</v>
       </c>
-      <c r="X19" s="31" t="s">
+      <c r="X19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="Y19" s="31" t="s">
+      <c r="Y19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31" t="s">
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AB19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="31" t="s">
+      <c r="AB19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AE19" s="31" t="s">
+      <c r="AE19" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AF19" s="31">
+      <c r="AF19" s="33">
         <v>10</v>
       </c>
-      <c r="AG19" s="31">
+      <c r="AG19" s="33">
         <v>20000</v>
       </c>
-      <c r="AH19" s="80" t="s">
+      <c r="AH19" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="AI19" s="81"/>
+      <c r="AI19" s="79"/>
     </row>
     <row r="20" s="5" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A20" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32">
+      <c r="A20" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34">
         <v>2</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="34">
         <v>864</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="34">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="H20" s="32">
-        <v>0</v>
-      </c>
-      <c r="I20" s="32" t="s">
+      <c r="H20" s="34">
+        <v>0</v>
+      </c>
+      <c r="I20" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="33">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="33">
         <v>28</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="33">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="33">
         <v>1.5</v>
       </c>
-      <c r="N20" s="31">
+      <c r="N20" s="33">
         <v>125</v>
       </c>
-      <c r="O20" s="31" t="s">
+      <c r="O20" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P20" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="31">
+      <c r="P20" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="33">
         <v>1.2</v>
       </c>
-      <c r="R20" s="62">
+      <c r="R20" s="60">
         <v>190</v>
       </c>
-      <c r="S20" s="31" t="s">
+      <c r="S20" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31">
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33">
         <v>300</v>
       </c>
-      <c r="W20" s="63">
+      <c r="W20" s="61">
         <v>180</v>
       </c>
-      <c r="X20" s="31" t="s">
+      <c r="X20" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="Y20" s="31" t="s">
+      <c r="Y20" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31" t="s">
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AB20" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="31" t="s">
+      <c r="AB20" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AE20" s="31" t="s">
+      <c r="AE20" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AF20" s="31">
+      <c r="AF20" s="33">
         <v>10</v>
       </c>
-      <c r="AG20" s="31">
+      <c r="AG20" s="33">
         <v>20000</v>
       </c>
-      <c r="AH20" s="80" t="s">
+      <c r="AH20" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="AI20" s="81"/>
+      <c r="AI20" s="79"/>
     </row>
     <row r="21" s="5" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A21" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32">
+      <c r="A21" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34">
         <v>2</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="34">
         <v>865</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="34">
         <f t="shared" si="3"/>
         <v>865</v>
       </c>
-      <c r="H21" s="32">
-        <v>0</v>
-      </c>
-      <c r="I21" s="32" t="s">
+      <c r="H21" s="34">
+        <v>0</v>
+      </c>
+      <c r="I21" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="33">
         <f t="shared" si="4"/>
         <v>8650</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="33">
         <v>28</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="33">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="33">
         <v>1.5</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="33">
         <v>125</v>
       </c>
-      <c r="O21" s="31" t="s">
+      <c r="O21" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q21" s="31">
+      <c r="P21" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21" s="33">
         <v>1.2</v>
       </c>
-      <c r="R21" s="62">
+      <c r="R21" s="60">
         <v>190</v>
       </c>
-      <c r="S21" s="31" t="s">
+      <c r="S21" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31">
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33">
         <v>300</v>
       </c>
-      <c r="W21" s="63">
+      <c r="W21" s="61">
         <v>180</v>
       </c>
-      <c r="X21" s="31" t="s">
+      <c r="X21" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="Y21" s="31" t="s">
+      <c r="Y21" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31" t="s">
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AB21" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="31" t="s">
+      <c r="AB21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AE21" s="31" t="s">
+      <c r="AE21" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AF21" s="31">
+      <c r="AF21" s="33">
         <v>10</v>
       </c>
-      <c r="AG21" s="31">
+      <c r="AG21" s="33">
         <v>20000</v>
       </c>
-      <c r="AH21" s="80" t="s">
+      <c r="AH21" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="AI21" s="81"/>
+      <c r="AI21" s="79"/>
     </row>
     <row r="22" s="5" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A22" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32">
+      <c r="A22" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34">
         <v>2</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="34">
         <v>866</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="34">
         <f t="shared" si="3"/>
         <v>866</v>
       </c>
-      <c r="H22" s="32">
-        <v>0</v>
-      </c>
-      <c r="I22" s="32" t="s">
+      <c r="H22" s="34">
+        <v>0</v>
+      </c>
+      <c r="I22" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="33">
         <f t="shared" si="4"/>
         <v>8660</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="33">
         <v>28</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="33">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="33">
         <v>1.5</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N22" s="33">
         <v>125</v>
       </c>
-      <c r="O22" s="31" t="s">
+      <c r="O22" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P22" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q22" s="31">
+      <c r="P22" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q22" s="33">
         <v>1.2</v>
       </c>
-      <c r="R22" s="62">
+      <c r="R22" s="60">
         <v>190</v>
       </c>
-      <c r="S22" s="31" t="s">
+      <c r="S22" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31">
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33">
         <v>300</v>
       </c>
-      <c r="W22" s="63">
+      <c r="W22" s="61">
         <v>180</v>
       </c>
-      <c r="X22" s="31" t="s">
+      <c r="X22" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="Y22" s="31" t="s">
+      <c r="Y22" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31" t="s">
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AB22" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="31" t="s">
+      <c r="AB22" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AE22" s="31" t="s">
+      <c r="AE22" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AF22" s="31">
+      <c r="AF22" s="33">
         <v>10</v>
       </c>
-      <c r="AG22" s="31">
+      <c r="AG22" s="33">
         <v>20000</v>
       </c>
-      <c r="AH22" s="80" t="s">
+      <c r="AH22" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="AI22" s="81"/>
+      <c r="AI22" s="79"/>
     </row>
     <row r="23" s="5" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A23" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32">
+      <c r="A23" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34">
         <v>2</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="34">
         <v>867</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="34">
         <f t="shared" si="3"/>
         <v>867</v>
       </c>
-      <c r="H23" s="32">
-        <v>0</v>
-      </c>
-      <c r="I23" s="32" t="s">
+      <c r="H23" s="34">
+        <v>0</v>
+      </c>
+      <c r="I23" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="33">
         <f t="shared" si="4"/>
         <v>8670</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="33">
         <v>28</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="33">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="33">
         <v>1.5</v>
       </c>
-      <c r="N23" s="31">
+      <c r="N23" s="33">
         <v>125</v>
       </c>
-      <c r="O23" s="31" t="s">
+      <c r="O23" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P23" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q23" s="31">
+      <c r="P23" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" s="33">
         <v>1.2</v>
       </c>
-      <c r="R23" s="62">
+      <c r="R23" s="60">
         <v>190</v>
       </c>
-      <c r="S23" s="31" t="s">
+      <c r="S23" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31">
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33">
         <v>300</v>
       </c>
-      <c r="W23" s="63">
+      <c r="W23" s="61">
         <v>180</v>
       </c>
-      <c r="X23" s="31" t="s">
+      <c r="X23" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="Y23" s="31" t="s">
+      <c r="Y23" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31" t="s">
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AB23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="31" t="s">
+      <c r="AB23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AE23" s="31" t="s">
+      <c r="AE23" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AF23" s="31">
+      <c r="AF23" s="33">
         <v>10</v>
       </c>
-      <c r="AG23" s="31">
+      <c r="AG23" s="33">
         <v>20000</v>
       </c>
-      <c r="AH23" s="80" t="s">
+      <c r="AH23" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="AI23" s="81"/>
+      <c r="AI23" s="79"/>
     </row>
     <row r="24" s="5" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A24" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32">
+      <c r="A24" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34">
         <v>2</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="34">
         <v>868</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="34">
         <f t="shared" si="3"/>
         <v>868</v>
       </c>
-      <c r="H24" s="32">
-        <v>0</v>
-      </c>
-      <c r="I24" s="32" t="s">
+      <c r="H24" s="34">
+        <v>0</v>
+      </c>
+      <c r="I24" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="33">
         <f t="shared" si="4"/>
         <v>8680</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="33">
         <v>28</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="33">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="33">
         <v>1.5</v>
       </c>
-      <c r="N24" s="31">
+      <c r="N24" s="33">
         <v>125</v>
       </c>
-      <c r="O24" s="31" t="s">
+      <c r="O24" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P24" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q24" s="31">
+      <c r="P24" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" s="33">
         <v>1.2</v>
       </c>
-      <c r="R24" s="62">
+      <c r="R24" s="60">
         <v>190</v>
       </c>
-      <c r="S24" s="31" t="s">
+      <c r="S24" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31">
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33">
         <v>300</v>
       </c>
-      <c r="W24" s="63">
+      <c r="W24" s="61">
         <v>180</v>
       </c>
-      <c r="X24" s="31" t="s">
+      <c r="X24" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="Y24" s="31" t="s">
+      <c r="Y24" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31" t="s">
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AB24" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="31" t="s">
+      <c r="AB24" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AE24" s="31" t="s">
+      <c r="AE24" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AF24" s="31">
+      <c r="AF24" s="33">
         <v>10</v>
       </c>
-      <c r="AG24" s="31">
+      <c r="AG24" s="33">
         <v>20000</v>
       </c>
-      <c r="AH24" s="80" t="s">
+      <c r="AH24" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="AI24" s="81"/>
+      <c r="AI24" s="79"/>
     </row>
     <row r="25" s="5" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A25" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32">
+      <c r="A25" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34">
         <v>2</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="34">
         <v>869</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="34">
         <f t="shared" si="3"/>
         <v>869</v>
       </c>
-      <c r="H25" s="32">
-        <v>0</v>
-      </c>
-      <c r="I25" s="32" t="s">
+      <c r="H25" s="34">
+        <v>0</v>
+      </c>
+      <c r="I25" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="33">
         <f t="shared" si="4"/>
         <v>8690</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="33">
         <v>28</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="33">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="33">
         <v>1.5</v>
       </c>
-      <c r="N25" s="31">
+      <c r="N25" s="33">
         <v>500</v>
       </c>
-      <c r="O25" s="31" t="s">
+      <c r="O25" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P25" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q25" s="31">
+      <c r="P25" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q25" s="33">
         <v>1.2</v>
       </c>
-      <c r="R25" s="62">
+      <c r="R25" s="60">
         <v>190</v>
       </c>
-      <c r="S25" s="31" t="s">
+      <c r="S25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="T25" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31">
+      <c r="T25" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33">
         <v>300</v>
       </c>
-      <c r="W25" s="63">
+      <c r="W25" s="61">
         <v>180</v>
       </c>
-      <c r="X25" s="31" t="s">
+      <c r="X25" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="Y25" s="31" t="s">
+      <c r="Y25" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31" t="s">
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AB25" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="31" t="s">
+      <c r="AB25" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AE25" s="31" t="s">
+      <c r="AE25" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AF25" s="31">
+      <c r="AF25" s="33">
         <v>10</v>
       </c>
-      <c r="AG25" s="31">
+      <c r="AG25" s="33">
         <v>20000</v>
       </c>
-      <c r="AH25" s="80" t="s">
+      <c r="AH25" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="AI25" s="81"/>
+      <c r="AI25" s="79"/>
     </row>
     <row r="26" s="5" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A26" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32">
+      <c r="A26" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34">
         <v>2</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="34">
         <v>864</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="34">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="H26" s="32">
-        <v>0</v>
-      </c>
-      <c r="I26" s="32" t="s">
+      <c r="H26" s="34">
+        <v>0</v>
+      </c>
+      <c r="I26" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="33">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="33">
         <v>28</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="33">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="33">
         <v>1.5</v>
       </c>
-      <c r="N26" s="31">
+      <c r="N26" s="33">
         <v>125</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q26" s="31">
+      <c r="P26" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="33">
         <v>1.2</v>
       </c>
-      <c r="R26" s="62">
+      <c r="R26" s="60">
         <v>190</v>
       </c>
-      <c r="S26" s="31" t="s">
+      <c r="S26" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31">
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33">
         <v>300</v>
       </c>
-      <c r="W26" s="63">
+      <c r="W26" s="61">
         <v>180</v>
       </c>
-      <c r="X26" s="31" t="s">
+      <c r="X26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="Y26" s="31" t="s">
+      <c r="Y26" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31" t="s">
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AB26" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="31" t="s">
+      <c r="AB26" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AE26" s="31" t="s">
+      <c r="AE26" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AF26" s="31">
+      <c r="AF26" s="33">
         <v>10</v>
       </c>
-      <c r="AG26" s="31">
+      <c r="AG26" s="33">
         <v>20000</v>
       </c>
-      <c r="AH26" s="80" t="s">
+      <c r="AH26" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="AI26" s="81"/>
+      <c r="AI26" s="79"/>
     </row>
     <row r="27" s="6" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A27" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36">
+      <c r="A27" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37">
         <v>3</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="37">
         <v>863</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="37">
         <f t="shared" si="3"/>
         <v>863</v>
       </c>
-      <c r="H27" s="36">
-        <v>0</v>
-      </c>
-      <c r="I27" s="36" t="s">
+      <c r="H27" s="37">
+        <v>0</v>
+      </c>
+      <c r="I27" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="36">
         <f t="shared" si="4"/>
         <v>8630</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="36">
         <v>28</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="36">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M27" s="35">
+      <c r="M27" s="36">
         <v>1.5</v>
       </c>
-      <c r="N27" s="35">
+      <c r="N27" s="36">
         <v>125</v>
       </c>
-      <c r="O27" s="35" t="s">
+      <c r="O27" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="P27" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q27" s="35">
+      <c r="P27" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q27" s="36">
         <v>1.2</v>
       </c>
-      <c r="R27" s="64">
+      <c r="R27" s="62">
         <v>190</v>
       </c>
-      <c r="S27" s="35" t="s">
+      <c r="S27" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35">
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36">
         <v>300</v>
       </c>
-      <c r="W27" s="65">
+      <c r="W27" s="63">
         <v>180</v>
       </c>
-      <c r="X27" s="35" t="s">
+      <c r="X27" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="Y27" s="35" t="s">
+      <c r="Y27" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35" t="s">
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AB27" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="35" t="s">
+      <c r="AB27" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AE27" s="35" t="s">
+      <c r="AE27" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AF27" s="35">
+      <c r="AF27" s="36">
         <v>10</v>
       </c>
-      <c r="AG27" s="35">
+      <c r="AG27" s="36">
         <v>20000</v>
       </c>
-      <c r="AH27" s="82" t="s">
+      <c r="AH27" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AI27" s="83"/>
+      <c r="AI27" s="81"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A28" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36">
+      <c r="A28" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37">
         <v>3</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="37">
         <v>864</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="37">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="H28" s="36">
-        <v>0</v>
-      </c>
-      <c r="I28" s="36" t="s">
+      <c r="H28" s="37">
+        <v>0</v>
+      </c>
+      <c r="I28" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="36">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28" s="36">
         <v>28</v>
       </c>
-      <c r="L28" s="35">
+      <c r="L28" s="36">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M28" s="35">
+      <c r="M28" s="36">
         <v>1.5</v>
       </c>
-      <c r="N28" s="35">
+      <c r="N28" s="36">
         <v>125</v>
       </c>
-      <c r="O28" s="35" t="s">
+      <c r="O28" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="P28" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q28" s="35">
+      <c r="P28" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28" s="36">
         <v>1.2</v>
       </c>
-      <c r="R28" s="64">
+      <c r="R28" s="62">
         <v>190</v>
       </c>
-      <c r="S28" s="35" t="s">
+      <c r="S28" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35">
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36">
         <v>300</v>
       </c>
-      <c r="W28" s="65">
+      <c r="W28" s="63">
         <v>180</v>
       </c>
-      <c r="X28" s="35" t="s">
+      <c r="X28" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="Y28" s="35" t="s">
+      <c r="Y28" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35" t="s">
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AB28" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="35" t="s">
+      <c r="AB28" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AE28" s="35" t="s">
+      <c r="AE28" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AF28" s="35">
+      <c r="AF28" s="36">
         <v>10</v>
       </c>
-      <c r="AG28" s="35">
+      <c r="AG28" s="36">
         <v>20000</v>
       </c>
-      <c r="AH28" s="82" t="s">
+      <c r="AH28" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AI28" s="83"/>
+      <c r="AI28" s="81"/>
     </row>
     <row r="29" s="6" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A29" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36">
+      <c r="A29" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37">
         <v>3</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="37">
         <v>865</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="37">
         <f t="shared" si="3"/>
         <v>865</v>
       </c>
-      <c r="H29" s="36">
-        <v>0</v>
-      </c>
-      <c r="I29" s="36" t="s">
+      <c r="H29" s="37">
+        <v>0</v>
+      </c>
+      <c r="I29" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="36">
         <f t="shared" si="4"/>
         <v>8650</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="36">
         <v>28</v>
       </c>
-      <c r="L29" s="35">
+      <c r="L29" s="36">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M29" s="35">
+      <c r="M29" s="36">
         <v>1.5</v>
       </c>
-      <c r="N29" s="35">
+      <c r="N29" s="36">
         <v>125</v>
       </c>
-      <c r="O29" s="35" t="s">
+      <c r="O29" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="P29" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q29" s="35">
+      <c r="P29" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q29" s="36">
         <v>1.2</v>
       </c>
-      <c r="R29" s="64">
+      <c r="R29" s="62">
         <v>190</v>
       </c>
-      <c r="S29" s="35" t="s">
+      <c r="S29" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35">
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36">
         <v>300</v>
       </c>
-      <c r="W29" s="65">
+      <c r="W29" s="63">
         <v>180</v>
       </c>
-      <c r="X29" s="35" t="s">
+      <c r="X29" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="Y29" s="35" t="s">
+      <c r="Y29" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35" t="s">
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AB29" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="35" t="s">
+      <c r="AB29" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AE29" s="35" t="s">
+      <c r="AE29" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AF29" s="35">
+      <c r="AF29" s="36">
         <v>10</v>
       </c>
-      <c r="AG29" s="35">
+      <c r="AG29" s="36">
         <v>20000</v>
       </c>
-      <c r="AH29" s="82" t="s">
+      <c r="AH29" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AI29" s="83"/>
+      <c r="AI29" s="81"/>
     </row>
     <row r="30" s="6" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A30" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36">
+      <c r="A30" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37">
         <v>3</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="37">
         <v>866</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="37">
         <f t="shared" si="3"/>
         <v>866</v>
       </c>
-      <c r="H30" s="36">
-        <v>0</v>
-      </c>
-      <c r="I30" s="36" t="s">
+      <c r="H30" s="37">
+        <v>0</v>
+      </c>
+      <c r="I30" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="36">
         <f t="shared" si="4"/>
         <v>8660</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="36">
         <v>28</v>
       </c>
-      <c r="L30" s="35">
+      <c r="L30" s="36">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M30" s="35">
+      <c r="M30" s="36">
         <v>1.5</v>
       </c>
-      <c r="N30" s="35">
+      <c r="N30" s="36">
         <v>125</v>
       </c>
-      <c r="O30" s="35" t="s">
+      <c r="O30" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="P30" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q30" s="35">
+      <c r="P30" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30" s="36">
         <v>1.2</v>
       </c>
-      <c r="R30" s="64">
+      <c r="R30" s="62">
         <v>190</v>
       </c>
-      <c r="S30" s="35" t="s">
+      <c r="S30" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35">
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36">
         <v>300</v>
       </c>
-      <c r="W30" s="65">
+      <c r="W30" s="63">
         <v>180</v>
       </c>
-      <c r="X30" s="35" t="s">
+      <c r="X30" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="Y30" s="35" t="s">
+      <c r="Y30" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35" t="s">
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AB30" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="35" t="s">
+      <c r="AB30" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AE30" s="35" t="s">
+      <c r="AE30" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AF30" s="35">
+      <c r="AF30" s="36">
         <v>10</v>
       </c>
-      <c r="AG30" s="35">
+      <c r="AG30" s="36">
         <v>20000</v>
       </c>
-      <c r="AH30" s="82" t="s">
+      <c r="AH30" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AI30" s="83"/>
+      <c r="AI30" s="81"/>
     </row>
     <row r="31" s="6" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A31" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36">
+      <c r="A31" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37">
         <v>3</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="37">
         <v>867</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="37">
         <f t="shared" si="3"/>
         <v>867</v>
       </c>
-      <c r="H31" s="36">
-        <v>0</v>
-      </c>
-      <c r="I31" s="36" t="s">
+      <c r="H31" s="37">
+        <v>0</v>
+      </c>
+      <c r="I31" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="36">
         <f t="shared" si="4"/>
         <v>8670</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="36">
         <v>28</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31" s="36">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="36">
         <v>1.5</v>
       </c>
-      <c r="N31" s="35">
+      <c r="N31" s="36">
         <v>125</v>
       </c>
-      <c r="O31" s="35" t="s">
+      <c r="O31" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="P31" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q31" s="35">
+      <c r="P31" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q31" s="36">
         <v>1.2</v>
       </c>
-      <c r="R31" s="64">
+      <c r="R31" s="62">
         <v>190</v>
       </c>
-      <c r="S31" s="35" t="s">
+      <c r="S31" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35">
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36">
         <v>300</v>
       </c>
-      <c r="W31" s="65">
+      <c r="W31" s="63">
         <v>180</v>
       </c>
-      <c r="X31" s="35" t="s">
+      <c r="X31" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="Y31" s="35" t="s">
+      <c r="Y31" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35" t="s">
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AB31" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="35" t="s">
+      <c r="AB31" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AE31" s="35" t="s">
+      <c r="AE31" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AF31" s="35">
+      <c r="AF31" s="36">
         <v>10</v>
       </c>
-      <c r="AG31" s="35">
+      <c r="AG31" s="36">
         <v>20000</v>
       </c>
-      <c r="AH31" s="82" t="s">
+      <c r="AH31" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AI31" s="83"/>
+      <c r="AI31" s="81"/>
     </row>
     <row r="32" s="6" customFormat="1" ht="49.5" spans="1:35">
-      <c r="A32" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36">
+      <c r="A32" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37">
         <v>3</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="37">
         <v>868</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="37">
         <f t="shared" si="3"/>
         <v>868</v>
       </c>
-      <c r="H32" s="36">
-        <v>0</v>
-      </c>
-      <c r="I32" s="36" t="s">
+      <c r="H32" s="37">
+        <v>0</v>
+      </c>
+      <c r="I32" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="36">
         <f t="shared" si="4"/>
         <v>8680</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="36">
         <v>28</v>
       </c>
-      <c r="L32" s="35">
+      <c r="L32" s="36">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M32" s="35">
+      <c r="M32" s="36">
         <v>1.5</v>
       </c>
-      <c r="N32" s="35">
+      <c r="N32" s="36">
         <v>125</v>
       </c>
-      <c r="O32" s="35" t="s">
+      <c r="O32" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q32" s="35">
+      <c r="P32" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q32" s="36">
         <v>1.2</v>
       </c>
-      <c r="R32" s="64">
+      <c r="R32" s="62">
         <v>190</v>
       </c>
-      <c r="S32" s="35" t="s">
+      <c r="S32" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35">
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36">
         <v>300</v>
       </c>
-      <c r="W32" s="65">
+      <c r="W32" s="63">
         <v>180</v>
       </c>
-      <c r="X32" s="35" t="s">
+      <c r="X32" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="Y32" s="35" t="s">
+      <c r="Y32" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35" t="s">
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AB32" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="35" t="s">
+      <c r="AB32" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AE32" s="35" t="s">
+      <c r="AE32" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AF32" s="35">
+      <c r="AF32" s="36">
         <v>10</v>
       </c>
-      <c r="AG32" s="35">
+      <c r="AG32" s="36">
         <v>20000</v>
       </c>
-      <c r="AH32" s="82" t="s">
+      <c r="AH32" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AI32" s="83"/>
+      <c r="AI32" s="81"/>
     </row>
     <row r="33" s="6" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A33" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36">
+      <c r="A33" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37">
         <v>3</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="37">
         <v>869</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="37">
         <f t="shared" si="3"/>
         <v>869</v>
       </c>
-      <c r="H33" s="36">
-        <v>0</v>
-      </c>
-      <c r="I33" s="36" t="s">
+      <c r="H33" s="37">
+        <v>0</v>
+      </c>
+      <c r="I33" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="36">
         <f t="shared" si="4"/>
         <v>8690</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="36">
         <v>28</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="36">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="36">
         <v>1.5</v>
       </c>
-      <c r="N33" s="35">
+      <c r="N33" s="36">
         <v>500</v>
       </c>
-      <c r="O33" s="35" t="s">
+      <c r="O33" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="P33" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q33" s="35">
+      <c r="P33" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q33" s="36">
         <v>1.2</v>
       </c>
-      <c r="R33" s="64">
+      <c r="R33" s="62">
         <v>190</v>
       </c>
-      <c r="S33" s="35" t="s">
+      <c r="S33" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="T33" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35">
+      <c r="T33" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36">
         <v>300</v>
       </c>
-      <c r="W33" s="65">
+      <c r="W33" s="63">
         <v>180</v>
       </c>
-      <c r="X33" s="35" t="s">
+      <c r="X33" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="Y33" s="35" t="s">
+      <c r="Y33" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35" t="s">
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AB33" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="35" t="s">
+      <c r="AB33" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AE33" s="35" t="s">
+      <c r="AE33" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AF33" s="35">
+      <c r="AF33" s="36">
         <v>10</v>
       </c>
-      <c r="AG33" s="35">
+      <c r="AG33" s="36">
         <v>20000</v>
       </c>
-      <c r="AH33" s="82" t="s">
+      <c r="AH33" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AI33" s="83"/>
+      <c r="AI33" s="81"/>
     </row>
     <row r="34" s="6" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A34" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36">
+      <c r="A34" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37">
         <v>3</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="37">
         <v>864</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="37">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="H34" s="36">
-        <v>0</v>
-      </c>
-      <c r="I34" s="36" t="s">
+      <c r="H34" s="37">
+        <v>0</v>
+      </c>
+      <c r="I34" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="36">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="K34" s="35">
+      <c r="K34" s="36">
         <v>28</v>
       </c>
-      <c r="L34" s="35">
+      <c r="L34" s="36">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M34" s="35">
+      <c r="M34" s="36">
         <v>1.5</v>
       </c>
-      <c r="N34" s="35">
+      <c r="N34" s="36">
         <v>125</v>
       </c>
-      <c r="O34" s="35" t="s">
+      <c r="O34" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="P34" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q34" s="35">
+      <c r="P34" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34" s="36">
         <v>1.2</v>
       </c>
-      <c r="R34" s="64">
+      <c r="R34" s="62">
         <v>190</v>
       </c>
-      <c r="S34" s="35" t="s">
+      <c r="S34" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35">
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36">
         <v>300</v>
       </c>
-      <c r="W34" s="65">
+      <c r="W34" s="63">
         <v>180</v>
       </c>
-      <c r="X34" s="35" t="s">
+      <c r="X34" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="Y34" s="35" t="s">
+      <c r="Y34" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35" t="s">
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AB34" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="35" t="s">
+      <c r="AB34" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AE34" s="35" t="s">
+      <c r="AE34" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AF34" s="35">
+      <c r="AF34" s="36">
         <v>10</v>
       </c>
-      <c r="AG34" s="35">
+      <c r="AG34" s="36">
         <v>20000</v>
       </c>
-      <c r="AH34" s="82" t="s">
+      <c r="AH34" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AI34" s="83"/>
+      <c r="AI34" s="81"/>
     </row>
     <row r="35" s="7" customFormat="1" ht="33" spans="1:35">
-      <c r="A35" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>160</v>
+      <c r="A35" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="40">
@@ -5955,13 +5892,13 @@
       <c r="O35" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P35" s="49" t="s">
-        <v>161</v>
+      <c r="P35" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="Q35" s="39">
         <v>1.2</v>
       </c>
-      <c r="R35" s="66">
+      <c r="R35" s="64">
         <v>190</v>
       </c>
       <c r="S35" s="39" t="s">
@@ -5972,7 +5909,7 @@
       <c r="V35" s="39">
         <v>300</v>
       </c>
-      <c r="W35" s="67">
+      <c r="W35" s="65">
         <v>180</v>
       </c>
       <c r="X35" s="39" t="s">
@@ -6003,20 +5940,20 @@
       <c r="AG35" s="39">
         <v>20000</v>
       </c>
-      <c r="AH35" s="84" t="s">
+      <c r="AH35" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="AI35" s="85"/>
+      <c r="AI35" s="83"/>
     </row>
     <row r="36" s="7" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A36" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>163</v>
+      <c r="A36" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="40">
@@ -6055,13 +5992,13 @@
       <c r="O36" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P36" s="49" t="s">
-        <v>164</v>
+      <c r="P36" s="46" t="s">
+        <v>91</v>
       </c>
       <c r="Q36" s="39">
         <v>1.2</v>
       </c>
-      <c r="R36" s="66">
+      <c r="R36" s="64">
         <v>190</v>
       </c>
       <c r="S36" s="39" t="s">
@@ -6072,7 +6009,7 @@
       <c r="V36" s="39">
         <v>300</v>
       </c>
-      <c r="W36" s="67">
+      <c r="W36" s="65">
         <v>180</v>
       </c>
       <c r="X36" s="39" t="s">
@@ -6103,20 +6040,20 @@
       <c r="AG36" s="39">
         <v>20000</v>
       </c>
-      <c r="AH36" s="84" t="s">
+      <c r="AH36" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="AI36" s="85"/>
+      <c r="AI36" s="83"/>
     </row>
     <row r="37" s="7" customFormat="1" ht="33" spans="1:35">
-      <c r="A37" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>166</v>
+      <c r="A37" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="40">
@@ -6155,13 +6092,13 @@
       <c r="O37" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P37" s="49" t="s">
-        <v>167</v>
+      <c r="P37" s="46" t="s">
+        <v>149</v>
       </c>
       <c r="Q37" s="39">
         <v>1.2</v>
       </c>
-      <c r="R37" s="66">
+      <c r="R37" s="64">
         <v>190</v>
       </c>
       <c r="S37" s="39" t="s">
@@ -6172,7 +6109,7 @@
       <c r="V37" s="39">
         <v>300</v>
       </c>
-      <c r="W37" s="67">
+      <c r="W37" s="65">
         <v>180</v>
       </c>
       <c r="X37" s="39" t="s">
@@ -6203,20 +6140,20 @@
       <c r="AG37" s="39">
         <v>20000</v>
       </c>
-      <c r="AH37" s="84" t="s">
+      <c r="AH37" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="AI37" s="85"/>
+      <c r="AI37" s="83"/>
     </row>
     <row r="38" s="7" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A38" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>169</v>
+      <c r="A38" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>151</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="40">
@@ -6255,13 +6192,13 @@
       <c r="O38" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P38" s="49" t="s">
-        <v>170</v>
+      <c r="P38" s="46" t="s">
+        <v>152</v>
       </c>
       <c r="Q38" s="39">
         <v>1.2</v>
       </c>
-      <c r="R38" s="66">
+      <c r="R38" s="64">
         <v>190</v>
       </c>
       <c r="S38" s="39" t="s">
@@ -6272,7 +6209,7 @@
       <c r="V38" s="39">
         <v>300</v>
       </c>
-      <c r="W38" s="67">
+      <c r="W38" s="65">
         <v>180</v>
       </c>
       <c r="X38" s="39" t="s">
@@ -6303,20 +6240,20 @@
       <c r="AG38" s="39">
         <v>20000</v>
       </c>
-      <c r="AH38" s="84" t="s">
+      <c r="AH38" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="AI38" s="85"/>
+      <c r="AI38" s="83"/>
     </row>
     <row r="39" s="7" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A39" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>172</v>
+      <c r="A39" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="40">
@@ -6355,13 +6292,13 @@
       <c r="O39" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P39" s="49" t="s">
-        <v>173</v>
+      <c r="P39" s="46" t="s">
+        <v>155</v>
       </c>
       <c r="Q39" s="39">
         <v>1.2</v>
       </c>
-      <c r="R39" s="66">
+      <c r="R39" s="64">
         <v>190</v>
       </c>
       <c r="S39" s="39" t="s">
@@ -6372,7 +6309,7 @@
       <c r="V39" s="39">
         <v>300</v>
       </c>
-      <c r="W39" s="67">
+      <c r="W39" s="65">
         <v>180</v>
       </c>
       <c r="X39" s="39" t="s">
@@ -6403,20 +6340,20 @@
       <c r="AG39" s="39">
         <v>20000</v>
       </c>
-      <c r="AH39" s="84" t="s">
+      <c r="AH39" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="AI39" s="85"/>
+      <c r="AI39" s="83"/>
     </row>
     <row r="40" s="7" customFormat="1" ht="33" spans="1:35">
-      <c r="A40" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>160</v>
+      <c r="A40" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="40">
@@ -6455,13 +6392,13 @@
       <c r="O40" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P40" s="49" t="s">
-        <v>161</v>
+      <c r="P40" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="Q40" s="39">
         <v>1.2</v>
       </c>
-      <c r="R40" s="66">
+      <c r="R40" s="64">
         <v>190</v>
       </c>
       <c r="S40" s="39" t="s">
@@ -6472,7 +6409,7 @@
       <c r="V40" s="39">
         <v>300</v>
       </c>
-      <c r="W40" s="67">
+      <c r="W40" s="65">
         <v>180</v>
       </c>
       <c r="X40" s="39" t="s">
@@ -6503,20 +6440,20 @@
       <c r="AG40" s="39">
         <v>20000</v>
       </c>
-      <c r="AH40" s="84" t="s">
+      <c r="AH40" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="AI40" s="85"/>
+      <c r="AI40" s="83"/>
     </row>
     <row r="41" s="7" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A41" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>177</v>
+      <c r="A41" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>158</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="40">
@@ -6555,26 +6492,26 @@
       <c r="O41" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P41" s="49" t="s">
-        <v>178</v>
+      <c r="P41" s="46" t="s">
+        <v>159</v>
       </c>
       <c r="Q41" s="39">
         <v>1.2</v>
       </c>
-      <c r="R41" s="66">
+      <c r="R41" s="64">
         <v>190</v>
       </c>
       <c r="S41" s="39" t="s">
         <v>64</v>
       </c>
       <c r="T41" s="39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U41" s="39"/>
       <c r="V41" s="39">
         <v>300</v>
       </c>
-      <c r="W41" s="67">
+      <c r="W41" s="65">
         <v>180</v>
       </c>
       <c r="X41" s="39" t="s">
@@ -6605,20 +6542,20 @@
       <c r="AG41" s="39">
         <v>20000</v>
       </c>
-      <c r="AH41" s="84" t="s">
+      <c r="AH41" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="AI41" s="85"/>
+      <c r="AI41" s="83"/>
     </row>
     <row r="42" s="7" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A42" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>163</v>
+      <c r="A42" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="40">
@@ -6657,13 +6594,13 @@
       <c r="O42" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P42" s="49" t="s">
-        <v>164</v>
+      <c r="P42" s="46" t="s">
+        <v>91</v>
       </c>
       <c r="Q42" s="39">
         <v>1.2</v>
       </c>
-      <c r="R42" s="66">
+      <c r="R42" s="64">
         <v>190</v>
       </c>
       <c r="S42" s="39" t="s">
@@ -6674,7 +6611,7 @@
       <c r="V42" s="39">
         <v>300</v>
       </c>
-      <c r="W42" s="67">
+      <c r="W42" s="65">
         <v>180</v>
       </c>
       <c r="X42" s="39" t="s">
@@ -6705,10 +6642,10 @@
       <c r="AG42" s="39">
         <v>20000</v>
       </c>
-      <c r="AH42" s="84" t="s">
+      <c r="AH42" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="AI42" s="85"/>
+      <c r="AI42" s="83"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AJ3">

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="elite" sheetId="2" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="163">
   <si>
     <t>主键</t>
   </si>
@@ -43,6 +46,16 @@
   <si>
     <t>元素类型
 1火2雷3冰4风</t>
+  </si>
+  <si>
+    <t>元素克制
+1火2雷3冰4风
+5光6暗</t>
+  </si>
+  <si>
+    <t>克制元素
+1火2雷3冰4风
+5光6暗</t>
   </si>
   <si>
     <t>未计算的血量</t>
@@ -555,15 +568,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -730,7 +743,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,6 +777,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +985,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1001,6 +1020,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -1027,6 +1059,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="1" tint="0.6"/>
       </left>
@@ -1038,6 +1083,21 @@
       </top>
       <bottom style="thin">
         <color theme="1" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,7 +1363,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1315,120 +1375,120 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1468,217 +1528,226 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2072,7 +2141,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{CBC2B07A-C42A-4C42-8C07-D1723A48CB87}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{5E6A5D7E-C51E-434D-B20D-659CE2629673}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -2099,6 +2168,102 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="normal"/>
+      <sheetName val="__Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>怪物携带元素
+1火2雷3冰4风5光6暗</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>克制的元素
+</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>被克制的元素
+</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>3|0</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>4|5|6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>4|0</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>3|5|6</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>2|0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>1|5|6</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>1|0</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>2|5|6</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>1|2|3|4</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>6|0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>1|2|3|4</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>5|0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2388,12 +2553,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AL42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U11" sqref="U11"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2401,41 +2566,44 @@
     <col min="1" max="1" width="27.675" customWidth="1"/>
     <col min="2" max="3" width="23.675" style="8" customWidth="1"/>
     <col min="4" max="4" width="15.0083333333333" customWidth="1"/>
-    <col min="5" max="6" width="19.0083333333333" customWidth="1"/>
-    <col min="7" max="7" width="10.5083333333333" style="9" customWidth="1"/>
-    <col min="8" max="8" width="27.0083333333333" customWidth="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="19.0083333333333" style="10" customWidth="1"/>
-    <col min="11" max="11" width="26.8416666666667" customWidth="1"/>
-    <col min="12" max="12" width="27.3416666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="19.175" customWidth="1"/>
-    <col min="15" max="15" width="25.175" customWidth="1"/>
-    <col min="16" max="16" width="50.625" customWidth="1"/>
-    <col min="17" max="17" width="18.3416666666667" customWidth="1"/>
-    <col min="18" max="18" width="24.3416666666667" customWidth="1"/>
-    <col min="19" max="19" width="20.5083333333333" customWidth="1"/>
-    <col min="20" max="20" width="17.5" customWidth="1"/>
-    <col min="21" max="21" width="14.0083333333333" customWidth="1"/>
-    <col min="22" max="22" width="25.5083333333333" customWidth="1"/>
-    <col min="23" max="23" width="16.625" customWidth="1"/>
-    <col min="24" max="24" width="37.175" customWidth="1"/>
-    <col min="25" max="25" width="36.3416666666667" customWidth="1"/>
-    <col min="26" max="26" width="15.0083333333333" customWidth="1"/>
-    <col min="27" max="27" width="16.0083333333333" customWidth="1"/>
-    <col min="28" max="28" width="16.625" customWidth="1"/>
-    <col min="29" max="29" width="23.675" customWidth="1"/>
-    <col min="30" max="30" width="29.3416666666667" customWidth="1"/>
-    <col min="31" max="31" width="26.625" customWidth="1"/>
-    <col min="32" max="32" width="19.0083333333333" customWidth="1"/>
-    <col min="33" max="33" width="17.625" customWidth="1"/>
-    <col min="34" max="34" width="18.5083333333333" customWidth="1"/>
-    <col min="35" max="35" width="7.00833333333333" customWidth="1"/>
-    <col min="36" max="36" width="18.625" customWidth="1"/>
-    <col min="37" max="37" width="15" customWidth="1"/>
+    <col min="5" max="5" width="19.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="14.0083333333333" customWidth="1"/>
+    <col min="8" max="8" width="19.0083333333333" customWidth="1"/>
+    <col min="9" max="9" width="10.5083333333333" style="9" customWidth="1"/>
+    <col min="10" max="10" width="27.0083333333333" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="19.0083333333333" style="10" customWidth="1"/>
+    <col min="13" max="13" width="26.8416666666667" customWidth="1"/>
+    <col min="14" max="14" width="27.3416666666667" customWidth="1"/>
+    <col min="15" max="15" width="17.3416666666667" customWidth="1"/>
+    <col min="16" max="16" width="19.175" customWidth="1"/>
+    <col min="17" max="17" width="25.175" customWidth="1"/>
+    <col min="18" max="18" width="50.625" customWidth="1"/>
+    <col min="19" max="19" width="18.3416666666667" customWidth="1"/>
+    <col min="20" max="20" width="24.3416666666667" customWidth="1"/>
+    <col min="21" max="21" width="20.5083333333333" customWidth="1"/>
+    <col min="22" max="22" width="17.5" customWidth="1"/>
+    <col min="23" max="23" width="14.0083333333333" customWidth="1"/>
+    <col min="24" max="24" width="25.5083333333333" customWidth="1"/>
+    <col min="25" max="25" width="16.625" customWidth="1"/>
+    <col min="26" max="26" width="37.175" customWidth="1"/>
+    <col min="27" max="27" width="36.3416666666667" customWidth="1"/>
+    <col min="28" max="28" width="15.0083333333333" customWidth="1"/>
+    <col min="29" max="29" width="16.0083333333333" customWidth="1"/>
+    <col min="30" max="30" width="16.625" customWidth="1"/>
+    <col min="31" max="31" width="23.675" customWidth="1"/>
+    <col min="32" max="32" width="29.3416666666667" customWidth="1"/>
+    <col min="33" max="33" width="26.625" customWidth="1"/>
+    <col min="34" max="34" width="19.0083333333333" customWidth="1"/>
+    <col min="35" max="35" width="17.625" customWidth="1"/>
+    <col min="36" max="36" width="18.5083333333333" customWidth="1"/>
+    <col min="37" max="37" width="7.00833333333333" customWidth="1"/>
+    <col min="38" max="38" width="18.625" customWidth="1"/>
+    <col min="39" max="39" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="83" customHeight="1" spans="1:35">
+    <row r="1" s="1" customFormat="1" ht="83" customHeight="1" spans="1:37">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2451,23 +2619,23 @@
       <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="43" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="12" t="s">
@@ -2485,22 +2653,22 @@
       <c r="Q1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="S1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="U1" s="12"/>
-      <c r="V1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="49" t="s">
-        <v>18</v>
-      </c>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
       <c r="X1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="60" t="s">
         <v>20</v>
       </c>
       <c r="Z1" s="12" t="s">
@@ -2527,38 +2695,40 @@
       <c r="AG1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="66" t="s">
+      <c r="AH1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="67"/>
+      <c r="AI1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="70"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="48.5" customHeight="1" spans="1:35">
+    <row r="2" s="2" customFormat="1" ht="48.5" customHeight="1" spans="1:37">
       <c r="A2" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="42" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="45" t="s">
         <v>37</v>
       </c>
       <c r="M2" s="15" t="s">
@@ -2576,13 +2746,13 @@
       <c r="Q2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="15" t="s">
         <v>43</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="47" t="s">
         <v>45</v>
       </c>
       <c r="U2" s="15" t="s">
@@ -2591,22 +2761,22 @@
       <c r="V2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="51" t="s">
+      <c r="W2" s="15" t="s">
         <v>48</v>
       </c>
       <c r="X2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="15"/>
+      <c r="Z2" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="AA2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="15" t="s">
         <v>52</v>
       </c>
+      <c r="AB2" s="15"/>
       <c r="AC2" s="15" t="s">
         <v>53</v>
       </c>
@@ -2622,4033 +2792,4359 @@
       <c r="AG2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="68" t="s">
+      <c r="AH2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" s="69"/>
+      <c r="AI2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" s="72"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
+    <row r="3" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
       <c r="A3" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="19">
         <v>1</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="20">
+      <c r="F3" s="21" t="str">
+        <f>IF(ISBLANK(E3),"",VLOOKUP(E3,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G3" s="21" t="str">
+        <f>IF(ISBLANK(E3),"",VLOOKUP(E3,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H3" s="20">
         <v>15</v>
       </c>
-      <c r="G3" s="20">
-        <f t="shared" ref="G3:G10" si="0">F3</f>
+      <c r="I3" s="20">
+        <f t="shared" ref="I3:I10" si="0">H3</f>
         <v>15</v>
       </c>
-      <c r="H3" s="20">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="19">
-        <f t="shared" ref="J3:J10" si="1">G3*10</f>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="19">
+        <f t="shared" ref="L3:L10" si="1">I3*10</f>
         <v>150</v>
       </c>
-      <c r="K3" s="19">
+      <c r="M3" s="19">
         <v>1</v>
       </c>
-      <c r="L3" s="19">
-        <f t="shared" ref="L3:L10" si="2">K3</f>
+      <c r="N3" s="19">
+        <f t="shared" ref="N3:N10" si="2">M3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="19">
+      <c r="O3" s="19">
         <v>1.5</v>
       </c>
-      <c r="N3" s="19">
+      <c r="P3" s="19">
         <v>125</v>
       </c>
-      <c r="O3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="19">
         <v>1.2</v>
       </c>
-      <c r="R3" s="52">
+      <c r="T3" s="49">
         <v>170</v>
       </c>
-      <c r="S3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19">
+      <c r="U3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19">
         <v>300</v>
       </c>
-      <c r="W3" s="53">
+      <c r="Y3" s="62">
         <v>180</v>
       </c>
-      <c r="X3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z3" s="19"/>
+      <c r="Z3" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="AA3" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AF3" s="19">
+      <c r="AD3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH3" s="19">
         <v>10</v>
       </c>
-      <c r="AG3" s="19">
+      <c r="AI3" s="19">
         <v>20000</v>
       </c>
-      <c r="AH3" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="72"/>
+      <c r="AJ3" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="75"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A4" s="21" t="s">
-        <v>71</v>
+    <row r="4" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
+      <c r="A4" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="22">
+        <v>74</v>
+      </c>
+      <c r="D4" s="23">
         <v>2</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23">
+      <c r="E4" s="24"/>
+      <c r="F4" s="21" t="str">
+        <f>IF(ISBLANK(E4),"",VLOOKUP(E4,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G4" s="21" t="str">
+        <f>IF(ISBLANK(E4),"",VLOOKUP(E4,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H4" s="24">
         <v>20</v>
       </c>
-      <c r="G4" s="23">
+      <c r="I4" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="22">
+      <c r="J4" s="24">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="23">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="K4" s="22">
+      <c r="M4" s="23">
         <v>6</v>
       </c>
-      <c r="L4" s="22">
+      <c r="N4" s="23">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M4" s="22">
+      <c r="O4" s="23">
         <v>1.5</v>
       </c>
-      <c r="N4" s="22">
+      <c r="P4" s="23">
         <v>125</v>
       </c>
-      <c r="O4" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="23">
         <v>1.2</v>
       </c>
-      <c r="R4" s="54">
+      <c r="T4" s="50">
         <v>170</v>
       </c>
-      <c r="S4" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22">
+      <c r="U4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23">
         <v>300</v>
       </c>
-      <c r="W4" s="55">
+      <c r="Y4" s="63">
         <v>180</v>
       </c>
-      <c r="X4" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22" t="s">
+      <c r="Z4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="22" t="s">
+      <c r="AA4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AE4" s="22" t="s">
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AF4" s="22">
+      <c r="AD4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG4" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH4" s="23">
         <v>10</v>
       </c>
-      <c r="AG4" s="22">
+      <c r="AI4" s="23">
         <v>20000</v>
       </c>
-      <c r="AH4" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="72"/>
+      <c r="AJ4" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="75"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A5" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="22">
+    <row r="5" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
+      <c r="A5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="23">
         <v>3</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23">
+      <c r="E5" s="24"/>
+      <c r="F5" s="21" t="str">
+        <f>IF(ISBLANK(E5),"",VLOOKUP(E5,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G5" s="21" t="str">
+        <f>IF(ISBLANK(E5),"",VLOOKUP(E5,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H5" s="24">
         <v>45</v>
       </c>
-      <c r="G5" s="23">
+      <c r="I5" s="24">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H5" s="23">
-        <v>0</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="22">
+      <c r="J5" s="24">
+        <v>0</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="23">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="K5" s="22">
+      <c r="M5" s="23">
         <v>9</v>
       </c>
-      <c r="L5" s="22">
+      <c r="N5" s="23">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M5" s="22">
+      <c r="O5" s="23">
         <v>1.5</v>
       </c>
-      <c r="N5" s="22">
+      <c r="P5" s="23">
         <v>125</v>
       </c>
-      <c r="O5" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="23">
         <v>1.2</v>
       </c>
-      <c r="R5" s="54">
+      <c r="T5" s="50">
         <v>170</v>
       </c>
-      <c r="S5" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22">
+      <c r="U5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23">
         <v>300</v>
       </c>
-      <c r="W5" s="55">
+      <c r="Y5" s="63">
         <v>180</v>
       </c>
-      <c r="X5" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y5" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22" t="s">
+      <c r="Z5" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AB5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="22" t="s">
+      <c r="AA5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AE5" s="22" t="s">
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AF5" s="22">
+      <c r="AD5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH5" s="23">
         <v>10</v>
       </c>
-      <c r="AG5" s="22">
+      <c r="AI5" s="23">
         <v>20000</v>
       </c>
-      <c r="AH5" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="72"/>
+      <c r="AJ5" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="75"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A6" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="22">
+    <row r="6" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
+      <c r="A6" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="23">
         <v>4</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23">
+      <c r="E6" s="24"/>
+      <c r="F6" s="21" t="str">
+        <f>IF(ISBLANK(E6),"",VLOOKUP(E6,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G6" s="21" t="str">
+        <f>IF(ISBLANK(E6),"",VLOOKUP(E6,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H6" s="24">
         <v>100</v>
       </c>
-      <c r="G6" s="23">
+      <c r="I6" s="24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H6" s="23">
-        <v>0</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="22">
+      <c r="J6" s="24">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="23">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="K6" s="22">
+      <c r="M6" s="23">
         <v>10</v>
       </c>
-      <c r="L6" s="22">
+      <c r="N6" s="23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M6" s="22">
+      <c r="O6" s="23">
         <v>1.5</v>
       </c>
-      <c r="N6" s="22">
+      <c r="P6" s="23">
         <v>125</v>
       </c>
-      <c r="O6" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="23">
         <v>1.2</v>
       </c>
-      <c r="R6" s="54">
+      <c r="T6" s="50">
         <v>170</v>
       </c>
-      <c r="S6" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22">
+      <c r="U6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23">
         <v>300</v>
       </c>
-      <c r="W6" s="55">
+      <c r="Y6" s="63">
         <v>180</v>
       </c>
-      <c r="X6" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y6" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22" t="s">
+      <c r="Z6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AB6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="22" t="s">
+      <c r="AA6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AE6" s="22" t="s">
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AF6" s="22">
+      <c r="AD6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH6" s="23">
         <v>10</v>
       </c>
-      <c r="AG6" s="22">
+      <c r="AI6" s="23">
         <v>20000</v>
       </c>
-      <c r="AH6" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI6" s="74"/>
-      <c r="AJ6" s="72"/>
+      <c r="AJ6" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="75"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A7" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="22">
+    <row r="7" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
+      <c r="A7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="23">
         <v>5</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23">
+      <c r="E7" s="24"/>
+      <c r="F7" s="21" t="str">
+        <f>IF(ISBLANK(E7),"",VLOOKUP(E7,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G7" s="21" t="str">
+        <f>IF(ISBLANK(E7),"",VLOOKUP(E7,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H7" s="24">
         <v>250</v>
       </c>
-      <c r="G7" s="23">
+      <c r="I7" s="24">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="H7" s="23">
-        <v>0</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="22">
+      <c r="J7" s="24">
+        <v>0</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="23">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="K7" s="22">
+      <c r="M7" s="23">
         <v>20</v>
       </c>
-      <c r="L7" s="22">
+      <c r="N7" s="23">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M7" s="22">
+      <c r="O7" s="23">
         <v>1.5</v>
       </c>
-      <c r="N7" s="22">
+      <c r="P7" s="23">
         <v>125</v>
       </c>
-      <c r="O7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="23">
         <v>1.2</v>
       </c>
-      <c r="R7" s="54">
+      <c r="T7" s="50">
         <v>170</v>
       </c>
-      <c r="S7" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22">
+      <c r="U7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23">
         <v>300</v>
       </c>
-      <c r="W7" s="55">
+      <c r="Y7" s="63">
         <v>180</v>
       </c>
-      <c r="X7" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y7" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22" t="s">
+      <c r="Z7" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AB7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="22" t="s">
+      <c r="AA7" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AE7" s="22" t="s">
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AF7" s="22">
+      <c r="AD7" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH7" s="23">
         <v>10</v>
       </c>
-      <c r="AG7" s="22">
+      <c r="AI7" s="23">
         <v>20000</v>
       </c>
-      <c r="AH7" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="72"/>
+      <c r="AJ7" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="75"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A8" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="22">
+    <row r="8" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
+      <c r="A8" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="23">
         <v>6</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23">
+      <c r="E8" s="24"/>
+      <c r="F8" s="21" t="str">
+        <f>IF(ISBLANK(E8),"",VLOOKUP(E8,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G8" s="21" t="str">
+        <f>IF(ISBLANK(E8),"",VLOOKUP(E8,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H8" s="24">
         <v>371</v>
       </c>
-      <c r="G8" s="23">
+      <c r="I8" s="24">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="H8" s="23">
-        <v>0</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="22">
+      <c r="J8" s="24">
+        <v>0</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="23">
         <f t="shared" si="1"/>
         <v>3710</v>
       </c>
-      <c r="K8" s="22">
+      <c r="M8" s="23">
         <v>22</v>
       </c>
-      <c r="L8" s="22">
+      <c r="N8" s="23">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="M8" s="22">
+      <c r="O8" s="23">
         <v>1.5</v>
       </c>
-      <c r="N8" s="22">
+      <c r="P8" s="23">
         <v>125</v>
       </c>
-      <c r="O8" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="S8" s="23">
         <v>1.2</v>
       </c>
-      <c r="R8" s="54">
+      <c r="T8" s="50">
         <v>170</v>
       </c>
-      <c r="S8" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22">
+      <c r="U8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23">
         <v>300</v>
       </c>
-      <c r="W8" s="55">
+      <c r="Y8" s="63">
         <v>180</v>
       </c>
-      <c r="X8" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y8" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22" t="s">
+      <c r="Z8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AB8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="22" t="s">
+      <c r="AA8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AE8" s="22" t="s">
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AF8" s="22">
+      <c r="AD8" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG8" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH8" s="23">
         <v>10</v>
       </c>
-      <c r="AG8" s="22">
+      <c r="AI8" s="23">
         <v>20000</v>
       </c>
-      <c r="AH8" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="72"/>
+      <c r="AJ8" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="75"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A9" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="22">
+    <row r="9" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
+      <c r="A9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="23">
         <v>7</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
+      <c r="E9" s="24"/>
+      <c r="F9" s="21" t="str">
+        <f>IF(ISBLANK(E9),"",VLOOKUP(E9,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G9" s="21" t="str">
+        <f>IF(ISBLANK(E9),"",VLOOKUP(E9,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H9" s="24">
         <v>589</v>
       </c>
-      <c r="G9" s="23">
+      <c r="I9" s="24">
         <f t="shared" si="0"/>
         <v>589</v>
       </c>
-      <c r="H9" s="23">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="22">
+      <c r="J9" s="24">
+        <v>0</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="23">
         <f t="shared" si="1"/>
         <v>5890</v>
       </c>
-      <c r="K9" s="22">
+      <c r="M9" s="23">
         <v>25</v>
       </c>
-      <c r="L9" s="22">
+      <c r="N9" s="23">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="M9" s="22">
+      <c r="O9" s="23">
         <v>1.5</v>
       </c>
-      <c r="N9" s="22">
+      <c r="P9" s="23">
         <v>125</v>
       </c>
-      <c r="O9" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" s="23">
         <v>1.2</v>
       </c>
-      <c r="R9" s="54">
+      <c r="T9" s="50">
         <v>190</v>
       </c>
-      <c r="S9" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="U9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23">
         <v>300</v>
       </c>
-      <c r="W9" s="55">
+      <c r="Y9" s="63">
         <v>180</v>
       </c>
-      <c r="X9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y9" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22" t="s">
+      <c r="Z9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AB9" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="22" t="s">
+      <c r="AA9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AE9" s="22" t="s">
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AF9" s="22">
+      <c r="AD9" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH9" s="23">
         <v>10</v>
       </c>
-      <c r="AG9" s="22">
+      <c r="AI9" s="23">
         <v>20000</v>
       </c>
-      <c r="AH9" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="72"/>
+      <c r="AJ9" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="75"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="47" customHeight="1" spans="1:36">
-      <c r="A10" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="22">
+    <row r="10" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
+      <c r="A10" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="23">
         <v>8</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23">
+      <c r="E10" s="24"/>
+      <c r="F10" s="21" t="str">
+        <f>IF(ISBLANK(E10),"",VLOOKUP(E10,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G10" s="21" t="str">
+        <f>IF(ISBLANK(E10),"",VLOOKUP(E10,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H10" s="24">
         <v>862</v>
       </c>
-      <c r="G10" s="23">
+      <c r="I10" s="24">
         <f t="shared" si="0"/>
         <v>862</v>
       </c>
-      <c r="H10" s="23">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="22">
+      <c r="J10" s="24">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="23">
         <f t="shared" si="1"/>
         <v>8620</v>
       </c>
-      <c r="K10" s="22">
+      <c r="M10" s="23">
         <v>28</v>
       </c>
-      <c r="L10" s="22">
+      <c r="N10" s="23">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="M10" s="22">
+      <c r="O10" s="23">
         <v>1.5</v>
       </c>
-      <c r="N10" s="22">
+      <c r="P10" s="23">
         <v>125</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="Q10" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="T10" s="50">
+        <v>190</v>
+      </c>
+      <c r="U10" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23">
+        <v>300</v>
+      </c>
+      <c r="Y10" s="63">
+        <v>180</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG10" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH10" s="23">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="23">
+        <v>20000</v>
+      </c>
+      <c r="AJ10" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="75"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="47" customHeight="1" spans="1:37">
+      <c r="A11" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="R10" s="54">
-        <v>190</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22">
-        <v>300</v>
-      </c>
-      <c r="W10" s="55">
-        <v>180</v>
-      </c>
-      <c r="X10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y10" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB10" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE10" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF10" s="22">
-        <v>10</v>
-      </c>
-      <c r="AG10" s="22">
-        <v>20000</v>
-      </c>
-      <c r="AH10" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="72"/>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A11" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>60</v>
-      </c>
       <c r="C11" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="18">
         <v>10</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="29">
         <v>1</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="21" t="str">
+        <f>IF(ISBLANK(E11),"",VLOOKUP(E11,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>3|0</v>
+      </c>
+      <c r="G11" s="21" t="str">
+        <f>IF(ISBLANK(E11),"",VLOOKUP(E11,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>4|5|6</v>
+      </c>
+      <c r="H11" s="29">
         <v>863</v>
       </c>
-      <c r="G11" s="28">
-        <f t="shared" ref="G11:G42" si="3">F11</f>
+      <c r="I11" s="29">
+        <f t="shared" ref="I11:I42" si="3">H11</f>
         <v>863</v>
       </c>
-      <c r="H11" s="28">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="shared" ref="J11:J42" si="4">G11*10</f>
+      <c r="J11" s="29">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" ref="L11:L42" si="4">I11*10</f>
         <v>8630</v>
       </c>
-      <c r="K11" s="18">
+      <c r="M11" s="18">
         <v>28</v>
       </c>
-      <c r="L11" s="18">
-        <f t="shared" ref="L11:L42" si="5">K11</f>
+      <c r="N11" s="18">
+        <f t="shared" ref="N11:N42" si="5">M11</f>
         <v>28</v>
       </c>
-      <c r="M11" s="18">
+      <c r="O11" s="18">
         <v>1.5</v>
       </c>
-      <c r="N11" s="18">
+      <c r="P11" s="18">
         <v>125</v>
       </c>
-      <c r="O11" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="18">
         <v>1.2</v>
       </c>
-      <c r="R11" s="56">
+      <c r="T11" s="54">
         <v>190</v>
       </c>
-      <c r="S11" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18">
+      <c r="U11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18">
         <v>300</v>
       </c>
-      <c r="W11" s="57">
+      <c r="Y11" s="64">
         <v>180</v>
       </c>
-      <c r="X11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y11" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z11" s="18"/>
+      <c r="Z11" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="AA11" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE11" s="18" t="s">
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AF11" s="18">
+      <c r="AD11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH11" s="18">
         <v>10</v>
       </c>
-      <c r="AG11" s="18">
+      <c r="AI11" s="18">
         <v>20000</v>
       </c>
-      <c r="AH11" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI11" s="76"/>
+      <c r="AJ11" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK11" s="79"/>
     </row>
-    <row r="12" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A12" s="27" t="s">
-        <v>93</v>
+    <row r="12" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:37">
+      <c r="A12" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="28">
+      <c r="E12" s="29">
         <v>1</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="21" t="str">
+        <f>IF(ISBLANK(E12),"",VLOOKUP(E12,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>3|0</v>
+      </c>
+      <c r="G12" s="21" t="str">
+        <f>IF(ISBLANK(E12),"",VLOOKUP(E12,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>4|5|6</v>
+      </c>
+      <c r="H12" s="29">
         <v>864</v>
       </c>
-      <c r="G12" s="28">
+      <c r="I12" s="29">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="H12" s="28">
-        <v>0</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="18">
+      <c r="J12" s="29">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="18">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="K12" s="18">
+      <c r="M12" s="18">
         <v>28</v>
       </c>
-      <c r="L12" s="18">
+      <c r="N12" s="18">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M12" s="18">
+      <c r="O12" s="18">
         <v>1.5</v>
       </c>
-      <c r="N12" s="18">
+      <c r="P12" s="18">
         <v>125</v>
       </c>
-      <c r="O12" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="S12" s="18">
         <v>1.2</v>
       </c>
-      <c r="R12" s="56">
+      <c r="T12" s="54">
         <v>190</v>
       </c>
-      <c r="S12" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18">
+      <c r="U12" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18">
         <v>300</v>
       </c>
-      <c r="W12" s="57">
+      <c r="Y12" s="64">
         <v>180</v>
       </c>
-      <c r="X12" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y12" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z12" s="18"/>
+      <c r="Z12" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="AA12" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE12" s="18" t="s">
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AF12" s="18">
+      <c r="AD12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH12" s="18">
         <v>10</v>
       </c>
-      <c r="AG12" s="18">
+      <c r="AI12" s="18">
         <v>20000</v>
       </c>
-      <c r="AH12" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI12" s="76"/>
+      <c r="AJ12" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK12" s="79"/>
     </row>
-    <row r="13" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A13" s="27" t="s">
-        <v>94</v>
+    <row r="13" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:37">
+      <c r="A13" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="28">
+      <c r="E13" s="29">
         <v>1</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="21" t="str">
+        <f>IF(ISBLANK(E13),"",VLOOKUP(E13,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>3|0</v>
+      </c>
+      <c r="G13" s="21" t="str">
+        <f>IF(ISBLANK(E13),"",VLOOKUP(E13,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>4|5|6</v>
+      </c>
+      <c r="H13" s="29">
         <v>865</v>
       </c>
-      <c r="G13" s="28">
+      <c r="I13" s="29">
         <f t="shared" si="3"/>
         <v>865</v>
       </c>
-      <c r="H13" s="28">
-        <v>0</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="18">
+      <c r="J13" s="29">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="18">
         <f t="shared" si="4"/>
         <v>8650</v>
       </c>
-      <c r="K13" s="18">
+      <c r="M13" s="18">
         <v>28</v>
       </c>
-      <c r="L13" s="18">
+      <c r="N13" s="18">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M13" s="18">
+      <c r="O13" s="18">
         <v>1.5</v>
       </c>
-      <c r="N13" s="18">
+      <c r="P13" s="18">
         <v>500</v>
       </c>
-      <c r="O13" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="18">
         <v>1.2</v>
       </c>
-      <c r="R13" s="56">
+      <c r="T13" s="54">
         <v>190</v>
       </c>
-      <c r="S13" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="T13" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18">
+      <c r="U13" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="V13" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18">
         <v>300</v>
       </c>
-      <c r="W13" s="57">
+      <c r="Y13" s="64">
         <v>180</v>
       </c>
-      <c r="X13" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y13" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z13" s="18"/>
+      <c r="Z13" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="AA13" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE13" s="18" t="s">
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AF13" s="18">
+      <c r="AD13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH13" s="18">
         <v>10</v>
       </c>
-      <c r="AG13" s="18">
+      <c r="AI13" s="18">
         <v>20000</v>
       </c>
-      <c r="AH13" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI13" s="76"/>
+      <c r="AJ13" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK13" s="79"/>
     </row>
-    <row r="14" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A14" s="27" t="s">
-        <v>98</v>
+    <row r="14" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:37">
+      <c r="A14" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="28">
+      <c r="E14" s="29">
         <v>1</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="21" t="str">
+        <f>IF(ISBLANK(E14),"",VLOOKUP(E14,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>3|0</v>
+      </c>
+      <c r="G14" s="21" t="str">
+        <f>IF(ISBLANK(E14),"",VLOOKUP(E14,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>4|5|6</v>
+      </c>
+      <c r="H14" s="29">
         <v>866</v>
       </c>
-      <c r="G14" s="28">
+      <c r="I14" s="29">
         <f t="shared" si="3"/>
         <v>866</v>
       </c>
-      <c r="H14" s="28">
-        <v>0</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="18">
+      <c r="J14" s="29">
+        <v>0</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="18">
         <f t="shared" si="4"/>
         <v>8660</v>
       </c>
-      <c r="K14" s="18">
+      <c r="M14" s="18">
         <v>28</v>
       </c>
-      <c r="L14" s="18">
+      <c r="N14" s="18">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M14" s="18">
+      <c r="O14" s="18">
         <v>1.5</v>
       </c>
-      <c r="N14" s="18">
+      <c r="P14" s="18">
         <v>125</v>
       </c>
-      <c r="O14" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" s="18">
         <v>1.2</v>
       </c>
-      <c r="R14" s="56">
+      <c r="T14" s="54">
         <v>190</v>
       </c>
-      <c r="S14" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18">
+      <c r="U14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18">
         <v>300</v>
       </c>
-      <c r="W14" s="57">
+      <c r="Y14" s="64">
         <v>180</v>
       </c>
-      <c r="X14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y14" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z14" s="18"/>
+      <c r="Z14" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="AA14" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE14" s="18" t="s">
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AF14" s="18">
+      <c r="AD14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH14" s="18">
         <v>10</v>
       </c>
-      <c r="AG14" s="18">
+      <c r="AI14" s="18">
         <v>20000</v>
       </c>
-      <c r="AH14" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI14" s="76"/>
+      <c r="AJ14" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK14" s="79"/>
     </row>
-    <row r="15" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A15" s="27" t="s">
-        <v>101</v>
+    <row r="15" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:37">
+      <c r="A15" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D15" s="18"/>
-      <c r="E15" s="28">
+      <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="21" t="str">
+        <f>IF(ISBLANK(E15),"",VLOOKUP(E15,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>3|0</v>
+      </c>
+      <c r="G15" s="21" t="str">
+        <f>IF(ISBLANK(E15),"",VLOOKUP(E15,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>4|5|6</v>
+      </c>
+      <c r="H15" s="29">
         <v>867</v>
       </c>
-      <c r="G15" s="28">
+      <c r="I15" s="29">
         <f t="shared" si="3"/>
         <v>867</v>
       </c>
-      <c r="H15" s="28">
-        <v>0</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="18">
+      <c r="J15" s="29">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="18">
         <f t="shared" si="4"/>
         <v>8670</v>
       </c>
-      <c r="K15" s="18">
+      <c r="M15" s="18">
         <v>28</v>
       </c>
-      <c r="L15" s="18">
+      <c r="N15" s="18">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M15" s="18">
+      <c r="O15" s="18">
         <v>1.5</v>
       </c>
-      <c r="N15" s="18">
+      <c r="P15" s="18">
         <v>125</v>
       </c>
-      <c r="O15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="S15" s="18">
         <v>1.2</v>
       </c>
-      <c r="R15" s="56">
+      <c r="T15" s="54">
         <v>190</v>
       </c>
-      <c r="S15" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18">
+      <c r="U15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18">
         <v>300</v>
       </c>
-      <c r="W15" s="57">
+      <c r="Y15" s="64">
         <v>180</v>
       </c>
-      <c r="X15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z15" s="18"/>
+      <c r="Z15" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="AA15" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB15" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE15" s="18" t="s">
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AF15" s="18">
+      <c r="AD15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH15" s="18">
         <v>10</v>
       </c>
-      <c r="AG15" s="18">
+      <c r="AI15" s="18">
         <v>20000</v>
       </c>
-      <c r="AH15" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI15" s="76"/>
+      <c r="AJ15" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK15" s="79"/>
     </row>
-    <row r="16" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A16" s="27" t="s">
-        <v>104</v>
+    <row r="16" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:37">
+      <c r="A16" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="28">
+      <c r="E16" s="29">
         <v>1</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="21" t="str">
+        <f>IF(ISBLANK(E16),"",VLOOKUP(E16,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>3|0</v>
+      </c>
+      <c r="G16" s="21" t="str">
+        <f>IF(ISBLANK(E16),"",VLOOKUP(E16,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>4|5|6</v>
+      </c>
+      <c r="H16" s="29">
         <v>868</v>
       </c>
-      <c r="G16" s="28">
+      <c r="I16" s="29">
         <f t="shared" si="3"/>
         <v>868</v>
       </c>
-      <c r="H16" s="28">
-        <v>0</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="18">
+      <c r="J16" s="29">
+        <v>0</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="18">
         <f t="shared" si="4"/>
         <v>8680</v>
       </c>
-      <c r="K16" s="18">
+      <c r="M16" s="18">
         <v>28</v>
       </c>
-      <c r="L16" s="18">
+      <c r="N16" s="18">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M16" s="18">
+      <c r="O16" s="18">
         <v>1.5</v>
       </c>
-      <c r="N16" s="18">
+      <c r="P16" s="18">
         <v>125</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="Q16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="S16" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="T16" s="54">
+        <v>190</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18">
+        <v>300</v>
+      </c>
+      <c r="Y16" s="64">
+        <v>180</v>
+      </c>
+      <c r="Z16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG16" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH16" s="18">
+        <v>10</v>
+      </c>
+      <c r="AI16" s="18">
+        <v>20000</v>
+      </c>
+      <c r="AJ16" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK16" s="79"/>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="47" customHeight="1" spans="1:37">
+      <c r="A17" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q16" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="R16" s="56">
-        <v>190</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18">
-        <v>300</v>
-      </c>
-      <c r="W16" s="57">
-        <v>180</v>
-      </c>
-      <c r="X16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y16" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF16" s="18">
-        <v>10</v>
-      </c>
-      <c r="AG16" s="18">
-        <v>20000</v>
-      </c>
-      <c r="AH16" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI16" s="76"/>
-    </row>
-    <row r="17" s="4" customFormat="1" ht="47" customHeight="1" spans="1:35">
-      <c r="A17" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>60</v>
-      </c>
       <c r="C17" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" s="18">
         <v>10</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="29">
         <v>1</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="21" t="str">
+        <f>IF(ISBLANK(E17),"",VLOOKUP(E17,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>3|0</v>
+      </c>
+      <c r="G17" s="21" t="str">
+        <f>IF(ISBLANK(E17),"",VLOOKUP(E17,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>4|5|6</v>
+      </c>
+      <c r="H17" s="29">
         <v>869</v>
       </c>
-      <c r="G17" s="28">
+      <c r="I17" s="29">
         <f t="shared" si="3"/>
         <v>869</v>
       </c>
-      <c r="H17" s="28">
-        <v>0</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="18">
+      <c r="J17" s="29">
+        <v>0</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="18">
         <f t="shared" si="4"/>
         <v>8690</v>
       </c>
-      <c r="K17" s="18">
+      <c r="M17" s="18">
         <v>28</v>
       </c>
-      <c r="L17" s="18">
+      <c r="N17" s="18">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M17" s="18">
+      <c r="O17" s="18">
         <v>1.5</v>
       </c>
-      <c r="N17" s="18">
+      <c r="P17" s="18">
         <v>125</v>
       </c>
-      <c r="O17" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="S17" s="18">
         <v>1.2</v>
       </c>
-      <c r="R17" s="56">
+      <c r="T17" s="54">
         <v>190</v>
       </c>
-      <c r="S17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18">
+      <c r="U17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18">
         <v>300</v>
       </c>
-      <c r="W17" s="57">
+      <c r="Y17" s="64">
         <v>180</v>
       </c>
-      <c r="X17" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y17" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z17" s="18"/>
+      <c r="Z17" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="AA17" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE17" s="18" t="s">
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AF17" s="18">
+      <c r="AD17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH17" s="18">
         <v>10</v>
       </c>
-      <c r="AG17" s="18">
+      <c r="AI17" s="18">
         <v>20000</v>
       </c>
-      <c r="AH17" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI17" s="76"/>
+      <c r="AJ17" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK17" s="79"/>
     </row>
-    <row r="18" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
-      <c r="A18" s="29" t="s">
-        <v>108</v>
+    <row r="18" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:37">
+      <c r="A18" s="30" t="s">
+        <v>110</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="28">
+        <v>74</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="21" t="str">
+        <f>IF(ISBLANK(E18),"",VLOOKUP(E18,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>3|0</v>
+      </c>
+      <c r="G18" s="21" t="str">
+        <f>IF(ISBLANK(E18),"",VLOOKUP(E18,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>4|5|6</v>
+      </c>
+      <c r="H18" s="32">
         <v>870</v>
       </c>
-      <c r="G18" s="31">
+      <c r="I18" s="32">
         <f t="shared" si="3"/>
         <v>870</v>
       </c>
-      <c r="H18" s="31">
-        <v>0</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="30">
+      <c r="J18" s="32">
+        <v>0</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="31">
         <f t="shared" si="4"/>
         <v>8700</v>
       </c>
-      <c r="K18" s="30">
+      <c r="M18" s="31">
         <v>28</v>
       </c>
-      <c r="L18" s="30">
+      <c r="N18" s="31">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M18" s="30">
+      <c r="O18" s="31">
         <v>1.5</v>
       </c>
-      <c r="N18" s="30">
+      <c r="P18" s="31">
         <v>125</v>
       </c>
-      <c r="O18" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="S18" s="31">
         <v>1.2</v>
       </c>
-      <c r="R18" s="58">
+      <c r="T18" s="56">
         <v>190</v>
       </c>
-      <c r="S18" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30">
+      <c r="U18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31">
         <v>300</v>
       </c>
-      <c r="W18" s="59">
+      <c r="Y18" s="65">
         <v>180</v>
       </c>
-      <c r="X18" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y18" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30" t="s">
+      <c r="Z18" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="AB18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="30" t="s">
+      <c r="AA18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AE18" s="30" t="s">
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="AF18" s="30">
+      <c r="AD18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG18" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH18" s="31">
         <v>10</v>
       </c>
-      <c r="AG18" s="30">
+      <c r="AI18" s="31">
         <v>20000</v>
       </c>
-      <c r="AH18" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI18" s="76"/>
+      <c r="AJ18" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK18" s="79"/>
     </row>
-    <row r="19" s="5" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A19" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34">
+    <row r="19" s="5" customFormat="1" ht="39" customHeight="1" spans="1:37">
+      <c r="A19" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35">
         <v>2</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="21" t="str">
+        <f>IF(ISBLANK(E19),"",VLOOKUP(E19,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>4|0</v>
+      </c>
+      <c r="G19" s="21" t="str">
+        <f>IF(ISBLANK(E19),"",VLOOKUP(E19,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>3|5|6</v>
+      </c>
+      <c r="H19" s="35">
         <v>863</v>
       </c>
-      <c r="G19" s="34">
+      <c r="I19" s="35">
         <f t="shared" si="3"/>
         <v>863</v>
       </c>
-      <c r="H19" s="34">
-        <v>0</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="33">
+      <c r="J19" s="35">
+        <v>0</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="34">
         <f t="shared" si="4"/>
         <v>8630</v>
       </c>
-      <c r="K19" s="33">
+      <c r="M19" s="34">
         <v>28</v>
       </c>
-      <c r="L19" s="33">
+      <c r="N19" s="34">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M19" s="33">
+      <c r="O19" s="34">
         <v>1.5</v>
       </c>
-      <c r="N19" s="33">
+      <c r="P19" s="34">
         <v>125</v>
       </c>
-      <c r="O19" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="S19" s="34">
         <v>1.2</v>
       </c>
-      <c r="R19" s="60">
+      <c r="T19" s="57">
         <v>190</v>
       </c>
-      <c r="S19" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33">
+      <c r="U19" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34">
         <v>300</v>
       </c>
-      <c r="W19" s="61">
+      <c r="Y19" s="66">
         <v>180</v>
       </c>
-      <c r="X19" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y19" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33" t="s">
+      <c r="Z19" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AB19" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="33" t="s">
+      <c r="AA19" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="AE19" s="33" t="s">
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AF19" s="33">
+      <c r="AD19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG19" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH19" s="34">
         <v>10</v>
       </c>
-      <c r="AG19" s="33">
+      <c r="AI19" s="34">
         <v>20000</v>
       </c>
-      <c r="AH19" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI19" s="79"/>
+      <c r="AJ19" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK19" s="82"/>
     </row>
-    <row r="20" s="5" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A20" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34">
+    <row r="20" s="5" customFormat="1" ht="39" customHeight="1" spans="1:37">
+      <c r="A20" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35">
         <v>2</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="21" t="str">
+        <f>IF(ISBLANK(E20),"",VLOOKUP(E20,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>4|0</v>
+      </c>
+      <c r="G20" s="21" t="str">
+        <f>IF(ISBLANK(E20),"",VLOOKUP(E20,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>3|5|6</v>
+      </c>
+      <c r="H20" s="35">
         <v>864</v>
       </c>
-      <c r="G20" s="34">
+      <c r="I20" s="35">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="H20" s="34">
-        <v>0</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="33">
+      <c r="J20" s="35">
+        <v>0</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="34">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="K20" s="33">
+      <c r="M20" s="34">
         <v>28</v>
       </c>
-      <c r="L20" s="33">
+      <c r="N20" s="34">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M20" s="33">
+      <c r="O20" s="34">
         <v>1.5</v>
       </c>
-      <c r="N20" s="33">
+      <c r="P20" s="34">
         <v>125</v>
       </c>
-      <c r="O20" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="R20" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" s="34">
         <v>1.2</v>
       </c>
-      <c r="R20" s="60">
+      <c r="T20" s="57">
         <v>190</v>
       </c>
-      <c r="S20" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33">
+      <c r="U20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34">
         <v>300</v>
       </c>
-      <c r="W20" s="61">
+      <c r="Y20" s="66">
         <v>180</v>
       </c>
-      <c r="X20" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y20" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33" t="s">
+      <c r="Z20" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AB20" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="33" t="s">
+      <c r="AA20" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="AE20" s="33" t="s">
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AF20" s="33">
+      <c r="AD20" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG20" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH20" s="34">
         <v>10</v>
       </c>
-      <c r="AG20" s="33">
+      <c r="AI20" s="34">
         <v>20000</v>
       </c>
-      <c r="AH20" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI20" s="79"/>
+      <c r="AJ20" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK20" s="82"/>
     </row>
-    <row r="21" s="5" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A21" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34">
+    <row r="21" s="5" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A21" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35">
         <v>2</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="21" t="str">
+        <f>IF(ISBLANK(E21),"",VLOOKUP(E21,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>4|0</v>
+      </c>
+      <c r="G21" s="21" t="str">
+        <f>IF(ISBLANK(E21),"",VLOOKUP(E21,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>3|5|6</v>
+      </c>
+      <c r="H21" s="35">
         <v>865</v>
       </c>
-      <c r="G21" s="34">
+      <c r="I21" s="35">
         <f t="shared" si="3"/>
         <v>865</v>
       </c>
-      <c r="H21" s="34">
-        <v>0</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="33">
+      <c r="J21" s="35">
+        <v>0</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="34">
         <f t="shared" si="4"/>
         <v>8650</v>
       </c>
-      <c r="K21" s="33">
+      <c r="M21" s="34">
         <v>28</v>
       </c>
-      <c r="L21" s="33">
+      <c r="N21" s="34">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M21" s="33">
+      <c r="O21" s="34">
         <v>1.5</v>
       </c>
-      <c r="N21" s="33">
+      <c r="P21" s="34">
         <v>125</v>
       </c>
-      <c r="O21" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q21" s="33">
+      <c r="Q21" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="R21" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="S21" s="34">
         <v>1.2</v>
       </c>
-      <c r="R21" s="60">
+      <c r="T21" s="57">
         <v>190</v>
       </c>
-      <c r="S21" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33">
+      <c r="U21" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34">
         <v>300</v>
       </c>
-      <c r="W21" s="61">
+      <c r="Y21" s="66">
         <v>180</v>
       </c>
-      <c r="X21" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y21" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33" t="s">
+      <c r="Z21" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AB21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="33" t="s">
+      <c r="AA21" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="AE21" s="33" t="s">
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AF21" s="33">
+      <c r="AD21" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG21" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH21" s="34">
         <v>10</v>
       </c>
-      <c r="AG21" s="33">
+      <c r="AI21" s="34">
         <v>20000</v>
       </c>
-      <c r="AH21" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI21" s="79"/>
+      <c r="AJ21" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK21" s="82"/>
     </row>
-    <row r="22" s="5" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A22" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34">
+    <row r="22" s="5" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A22" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35">
         <v>2</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="21" t="str">
+        <f>IF(ISBLANK(E22),"",VLOOKUP(E22,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>4|0</v>
+      </c>
+      <c r="G22" s="21" t="str">
+        <f>IF(ISBLANK(E22),"",VLOOKUP(E22,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>3|5|6</v>
+      </c>
+      <c r="H22" s="35">
         <v>866</v>
       </c>
-      <c r="G22" s="34">
+      <c r="I22" s="35">
         <f t="shared" si="3"/>
         <v>866</v>
       </c>
-      <c r="H22" s="34">
-        <v>0</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="33">
+      <c r="J22" s="35">
+        <v>0</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="34">
         <f t="shared" si="4"/>
         <v>8660</v>
       </c>
-      <c r="K22" s="33">
+      <c r="M22" s="34">
         <v>28</v>
       </c>
-      <c r="L22" s="33">
+      <c r="N22" s="34">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M22" s="33">
+      <c r="O22" s="34">
         <v>1.5</v>
       </c>
-      <c r="N22" s="33">
+      <c r="P22" s="34">
         <v>125</v>
       </c>
-      <c r="O22" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P22" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q22" s="33">
+      <c r="Q22" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="S22" s="34">
         <v>1.2</v>
       </c>
-      <c r="R22" s="60">
+      <c r="T22" s="57">
         <v>190</v>
       </c>
-      <c r="S22" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33">
+      <c r="U22" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34">
         <v>300</v>
       </c>
-      <c r="W22" s="61">
+      <c r="Y22" s="66">
         <v>180</v>
       </c>
-      <c r="X22" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y22" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33" t="s">
+      <c r="Z22" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AB22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="33" t="s">
+      <c r="AA22" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="AE22" s="33" t="s">
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AF22" s="33">
+      <c r="AD22" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG22" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH22" s="34">
         <v>10</v>
       </c>
-      <c r="AG22" s="33">
+      <c r="AI22" s="34">
         <v>20000</v>
       </c>
-      <c r="AH22" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI22" s="79"/>
+      <c r="AJ22" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK22" s="82"/>
     </row>
-    <row r="23" s="5" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A23" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34">
+    <row r="23" s="5" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35">
         <v>2</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="21" t="str">
+        <f>IF(ISBLANK(E23),"",VLOOKUP(E23,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>4|0</v>
+      </c>
+      <c r="G23" s="21" t="str">
+        <f>IF(ISBLANK(E23),"",VLOOKUP(E23,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>3|5|6</v>
+      </c>
+      <c r="H23" s="35">
         <v>867</v>
       </c>
-      <c r="G23" s="34">
+      <c r="I23" s="35">
         <f t="shared" si="3"/>
         <v>867</v>
       </c>
-      <c r="H23" s="34">
-        <v>0</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="33">
+      <c r="J23" s="35">
+        <v>0</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="34">
         <f t="shared" si="4"/>
         <v>8670</v>
       </c>
-      <c r="K23" s="33">
+      <c r="M23" s="34">
         <v>28</v>
       </c>
-      <c r="L23" s="33">
+      <c r="N23" s="34">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M23" s="33">
+      <c r="O23" s="34">
         <v>1.5</v>
       </c>
-      <c r="N23" s="33">
+      <c r="P23" s="34">
         <v>125</v>
       </c>
-      <c r="O23" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P23" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q23" s="33">
+      <c r="Q23" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="R23" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23" s="34">
         <v>1.2</v>
       </c>
-      <c r="R23" s="60">
+      <c r="T23" s="57">
         <v>190</v>
       </c>
-      <c r="S23" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33">
+      <c r="U23" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34">
         <v>300</v>
       </c>
-      <c r="W23" s="61">
+      <c r="Y23" s="66">
         <v>180</v>
       </c>
-      <c r="X23" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y23" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33" t="s">
+      <c r="Z23" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AB23" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="33" t="s">
+      <c r="AA23" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="AE23" s="33" t="s">
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AF23" s="33">
+      <c r="AD23" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH23" s="34">
         <v>10</v>
       </c>
-      <c r="AG23" s="33">
+      <c r="AI23" s="34">
         <v>20000</v>
       </c>
-      <c r="AH23" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI23" s="79"/>
+      <c r="AJ23" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK23" s="82"/>
     </row>
-    <row r="24" s="5" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A24" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34">
+    <row r="24" s="5" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A24" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35">
         <v>2</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="21" t="str">
+        <f>IF(ISBLANK(E24),"",VLOOKUP(E24,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>4|0</v>
+      </c>
+      <c r="G24" s="21" t="str">
+        <f>IF(ISBLANK(E24),"",VLOOKUP(E24,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>3|5|6</v>
+      </c>
+      <c r="H24" s="35">
         <v>868</v>
       </c>
-      <c r="G24" s="34">
+      <c r="I24" s="35">
         <f t="shared" si="3"/>
         <v>868</v>
       </c>
-      <c r="H24" s="34">
-        <v>0</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="33">
+      <c r="J24" s="35">
+        <v>0</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="34">
         <f t="shared" si="4"/>
         <v>8680</v>
       </c>
-      <c r="K24" s="33">
+      <c r="M24" s="34">
         <v>28</v>
       </c>
-      <c r="L24" s="33">
+      <c r="N24" s="34">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M24" s="33">
+      <c r="O24" s="34">
         <v>1.5</v>
       </c>
-      <c r="N24" s="33">
+      <c r="P24" s="34">
         <v>125</v>
       </c>
-      <c r="O24" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q24" s="33">
+      <c r="Q24" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="R24" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="S24" s="34">
         <v>1.2</v>
       </c>
-      <c r="R24" s="60">
+      <c r="T24" s="57">
         <v>190</v>
       </c>
-      <c r="S24" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33">
+      <c r="U24" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34">
         <v>300</v>
       </c>
-      <c r="W24" s="61">
+      <c r="Y24" s="66">
         <v>180</v>
       </c>
-      <c r="X24" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y24" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33" t="s">
+      <c r="Z24" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AB24" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="33" t="s">
+      <c r="AA24" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="AE24" s="33" t="s">
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AF24" s="33">
+      <c r="AD24" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG24" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH24" s="34">
         <v>10</v>
       </c>
-      <c r="AG24" s="33">
+      <c r="AI24" s="34">
         <v>20000</v>
       </c>
-      <c r="AH24" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI24" s="79"/>
+      <c r="AJ24" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK24" s="82"/>
     </row>
-    <row r="25" s="5" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A25" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34">
+    <row r="25" s="5" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A25" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35">
         <v>2</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="21" t="str">
+        <f>IF(ISBLANK(E25),"",VLOOKUP(E25,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>4|0</v>
+      </c>
+      <c r="G25" s="21" t="str">
+        <f>IF(ISBLANK(E25),"",VLOOKUP(E25,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>3|5|6</v>
+      </c>
+      <c r="H25" s="35">
         <v>869</v>
       </c>
-      <c r="G25" s="34">
+      <c r="I25" s="35">
         <f t="shared" si="3"/>
         <v>869</v>
       </c>
-      <c r="H25" s="34">
-        <v>0</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="J25" s="33">
+      <c r="J25" s="35">
+        <v>0</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="34">
         <f t="shared" si="4"/>
         <v>8690</v>
       </c>
-      <c r="K25" s="33">
+      <c r="M25" s="34">
         <v>28</v>
       </c>
-      <c r="L25" s="33">
+      <c r="N25" s="34">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M25" s="33">
+      <c r="O25" s="34">
         <v>1.5</v>
       </c>
-      <c r="N25" s="33">
+      <c r="P25" s="34">
         <v>500</v>
       </c>
-      <c r="O25" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q25" s="33">
+      <c r="Q25" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="R25" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="S25" s="34">
         <v>1.2</v>
       </c>
-      <c r="R25" s="60">
+      <c r="T25" s="57">
         <v>190</v>
       </c>
-      <c r="S25" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="T25" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33">
+      <c r="U25" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="V25" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34">
         <v>300</v>
       </c>
-      <c r="W25" s="61">
+      <c r="Y25" s="66">
         <v>180</v>
       </c>
-      <c r="X25" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y25" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33" t="s">
+      <c r="Z25" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AB25" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="33" t="s">
+      <c r="AA25" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="AE25" s="33" t="s">
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AF25" s="33">
+      <c r="AD25" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG25" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH25" s="34">
         <v>10</v>
       </c>
-      <c r="AG25" s="33">
+      <c r="AI25" s="34">
         <v>20000</v>
       </c>
-      <c r="AH25" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI25" s="79"/>
+      <c r="AJ25" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK25" s="82"/>
     </row>
-    <row r="26" s="5" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A26" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34">
+    <row r="26" s="5" customFormat="1" ht="39" customHeight="1" spans="1:37">
+      <c r="A26" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35">
         <v>2</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="21" t="str">
+        <f>IF(ISBLANK(E26),"",VLOOKUP(E26,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>4|0</v>
+      </c>
+      <c r="G26" s="21" t="str">
+        <f>IF(ISBLANK(E26),"",VLOOKUP(E26,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>3|5|6</v>
+      </c>
+      <c r="H26" s="35">
         <v>864</v>
       </c>
-      <c r="G26" s="34">
+      <c r="I26" s="35">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="H26" s="34">
-        <v>0</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="J26" s="33">
+      <c r="J26" s="35">
+        <v>0</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="34">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="K26" s="33">
+      <c r="M26" s="34">
         <v>28</v>
       </c>
-      <c r="L26" s="33">
+      <c r="N26" s="34">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M26" s="33">
+      <c r="O26" s="34">
         <v>1.5</v>
       </c>
-      <c r="N26" s="33">
+      <c r="P26" s="34">
         <v>125</v>
       </c>
-      <c r="O26" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q26" s="33">
+      <c r="Q26" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="R26" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="S26" s="34">
         <v>1.2</v>
       </c>
-      <c r="R26" s="60">
+      <c r="T26" s="57">
         <v>190</v>
       </c>
-      <c r="S26" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33">
+      <c r="U26" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34">
         <v>300</v>
       </c>
-      <c r="W26" s="61">
+      <c r="Y26" s="66">
         <v>180</v>
       </c>
-      <c r="X26" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y26" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33" t="s">
+      <c r="Z26" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AB26" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="33" t="s">
+      <c r="AA26" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="AE26" s="33" t="s">
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AF26" s="33">
+      <c r="AD26" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG26" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH26" s="34">
         <v>10</v>
       </c>
-      <c r="AG26" s="33">
+      <c r="AI26" s="34">
         <v>20000</v>
       </c>
-      <c r="AH26" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI26" s="79"/>
+      <c r="AJ26" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK26" s="82"/>
     </row>
-    <row r="27" s="6" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A27" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37">
+    <row r="27" s="6" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A27" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38">
         <v>3</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="21" t="str">
+        <f>IF(ISBLANK(E27),"",VLOOKUP(E27,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>2|0</v>
+      </c>
+      <c r="G27" s="21" t="str">
+        <f>IF(ISBLANK(E27),"",VLOOKUP(E27,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>1|5|6</v>
+      </c>
+      <c r="H27" s="38">
         <v>863</v>
       </c>
-      <c r="G27" s="37">
+      <c r="I27" s="38">
         <f t="shared" si="3"/>
         <v>863</v>
       </c>
-      <c r="H27" s="37">
-        <v>0</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="36">
+      <c r="J27" s="38">
+        <v>0</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="37">
         <f t="shared" si="4"/>
         <v>8630</v>
       </c>
-      <c r="K27" s="36">
+      <c r="M27" s="37">
         <v>28</v>
       </c>
-      <c r="L27" s="36">
+      <c r="N27" s="37">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M27" s="36">
+      <c r="O27" s="37">
         <v>1.5</v>
       </c>
-      <c r="N27" s="36">
+      <c r="P27" s="37">
         <v>125</v>
       </c>
-      <c r="O27" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q27" s="36">
+      <c r="Q27" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="R27" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="S27" s="37">
         <v>1.2</v>
       </c>
-      <c r="R27" s="62">
+      <c r="T27" s="58">
         <v>190</v>
       </c>
-      <c r="S27" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36">
+      <c r="U27" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37">
         <v>300</v>
       </c>
-      <c r="W27" s="63">
+      <c r="Y27" s="67">
         <v>180</v>
       </c>
-      <c r="X27" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y27" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36" t="s">
+      <c r="Z27" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AB27" s="36">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="36">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="36" t="s">
+      <c r="AA27" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AE27" s="36" t="s">
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AF27" s="36">
+      <c r="AD27" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG27" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH27" s="37">
         <v>10</v>
       </c>
-      <c r="AG27" s="36">
+      <c r="AI27" s="37">
         <v>20000</v>
       </c>
-      <c r="AH27" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI27" s="81"/>
+      <c r="AJ27" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK27" s="84"/>
     </row>
-    <row r="28" s="6" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A28" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37">
+    <row r="28" s="6" customFormat="1" ht="39" customHeight="1" spans="1:37">
+      <c r="A28" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38">
         <v>3</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="21" t="str">
+        <f>IF(ISBLANK(E28),"",VLOOKUP(E28,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>2|0</v>
+      </c>
+      <c r="G28" s="21" t="str">
+        <f>IF(ISBLANK(E28),"",VLOOKUP(E28,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>1|5|6</v>
+      </c>
+      <c r="H28" s="38">
         <v>864</v>
       </c>
-      <c r="G28" s="37">
+      <c r="I28" s="38">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="H28" s="37">
-        <v>0</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28" s="36">
+      <c r="J28" s="38">
+        <v>0</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="37">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="K28" s="36">
+      <c r="M28" s="37">
         <v>28</v>
       </c>
-      <c r="L28" s="36">
+      <c r="N28" s="37">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M28" s="36">
+      <c r="O28" s="37">
         <v>1.5</v>
       </c>
-      <c r="N28" s="36">
+      <c r="P28" s="37">
         <v>125</v>
       </c>
-      <c r="O28" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P28" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="S28" s="37">
         <v>1.2</v>
       </c>
-      <c r="R28" s="62">
+      <c r="T28" s="58">
         <v>190</v>
       </c>
-      <c r="S28" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36">
+      <c r="U28" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37">
         <v>300</v>
       </c>
-      <c r="W28" s="63">
+      <c r="Y28" s="67">
         <v>180</v>
       </c>
-      <c r="X28" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y28" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36" t="s">
+      <c r="Z28" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AB28" s="36">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="36">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="36" t="s">
+      <c r="AA28" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AE28" s="36" t="s">
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AF28" s="36">
+      <c r="AD28" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG28" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH28" s="37">
         <v>10</v>
       </c>
-      <c r="AG28" s="36">
+      <c r="AI28" s="37">
         <v>20000</v>
       </c>
-      <c r="AH28" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI28" s="81"/>
+      <c r="AJ28" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK28" s="84"/>
     </row>
-    <row r="29" s="6" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A29" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37">
+    <row r="29" s="6" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A29" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38">
         <v>3</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="21" t="str">
+        <f>IF(ISBLANK(E29),"",VLOOKUP(E29,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>2|0</v>
+      </c>
+      <c r="G29" s="21" t="str">
+        <f>IF(ISBLANK(E29),"",VLOOKUP(E29,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>1|5|6</v>
+      </c>
+      <c r="H29" s="38">
         <v>865</v>
       </c>
-      <c r="G29" s="37">
+      <c r="I29" s="38">
         <f t="shared" si="3"/>
         <v>865</v>
       </c>
-      <c r="H29" s="37">
-        <v>0</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="36">
+      <c r="J29" s="38">
+        <v>0</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="37">
         <f t="shared" si="4"/>
         <v>8650</v>
       </c>
-      <c r="K29" s="36">
+      <c r="M29" s="37">
         <v>28</v>
       </c>
-      <c r="L29" s="36">
+      <c r="N29" s="37">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M29" s="36">
+      <c r="O29" s="37">
         <v>1.5</v>
       </c>
-      <c r="N29" s="36">
+      <c r="P29" s="37">
         <v>125</v>
       </c>
-      <c r="O29" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P29" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q29" s="36">
+      <c r="Q29" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="R29" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="S29" s="37">
         <v>1.2</v>
       </c>
-      <c r="R29" s="62">
+      <c r="T29" s="58">
         <v>190</v>
       </c>
-      <c r="S29" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36">
+      <c r="U29" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37">
         <v>300</v>
       </c>
-      <c r="W29" s="63">
+      <c r="Y29" s="67">
         <v>180</v>
       </c>
-      <c r="X29" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y29" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36" t="s">
+      <c r="Z29" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AB29" s="36">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="36">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="36" t="s">
+      <c r="AA29" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AE29" s="36" t="s">
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AF29" s="36">
+      <c r="AD29" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG29" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH29" s="37">
         <v>10</v>
       </c>
-      <c r="AG29" s="36">
+      <c r="AI29" s="37">
         <v>20000</v>
       </c>
-      <c r="AH29" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI29" s="81"/>
+      <c r="AJ29" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK29" s="84"/>
     </row>
-    <row r="30" s="6" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A30" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37">
+    <row r="30" s="6" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A30" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38">
         <v>3</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="21" t="str">
+        <f>IF(ISBLANK(E30),"",VLOOKUP(E30,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>2|0</v>
+      </c>
+      <c r="G30" s="21" t="str">
+        <f>IF(ISBLANK(E30),"",VLOOKUP(E30,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>1|5|6</v>
+      </c>
+      <c r="H30" s="38">
         <v>866</v>
       </c>
-      <c r="G30" s="37">
+      <c r="I30" s="38">
         <f t="shared" si="3"/>
         <v>866</v>
       </c>
-      <c r="H30" s="37">
-        <v>0</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="36">
+      <c r="J30" s="38">
+        <v>0</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="37">
         <f t="shared" si="4"/>
         <v>8660</v>
       </c>
-      <c r="K30" s="36">
+      <c r="M30" s="37">
         <v>28</v>
       </c>
-      <c r="L30" s="36">
+      <c r="N30" s="37">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M30" s="36">
+      <c r="O30" s="37">
         <v>1.5</v>
       </c>
-      <c r="N30" s="36">
+      <c r="P30" s="37">
         <v>125</v>
       </c>
-      <c r="O30" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P30" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q30" s="36">
+      <c r="Q30" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="R30" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="S30" s="37">
         <v>1.2</v>
       </c>
-      <c r="R30" s="62">
+      <c r="T30" s="58">
         <v>190</v>
       </c>
-      <c r="S30" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36">
+      <c r="U30" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37">
         <v>300</v>
       </c>
-      <c r="W30" s="63">
+      <c r="Y30" s="67">
         <v>180</v>
       </c>
-      <c r="X30" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y30" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36" t="s">
+      <c r="Z30" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AB30" s="36">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="36">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="36" t="s">
+      <c r="AA30" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AE30" s="36" t="s">
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AF30" s="36">
+      <c r="AD30" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG30" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH30" s="37">
         <v>10</v>
       </c>
-      <c r="AG30" s="36">
+      <c r="AI30" s="37">
         <v>20000</v>
       </c>
-      <c r="AH30" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI30" s="81"/>
+      <c r="AJ30" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK30" s="84"/>
     </row>
-    <row r="31" s="6" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A31" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37">
+    <row r="31" s="6" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A31" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38">
         <v>3</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="21" t="str">
+        <f>IF(ISBLANK(E31),"",VLOOKUP(E31,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>2|0</v>
+      </c>
+      <c r="G31" s="21" t="str">
+        <f>IF(ISBLANK(E31),"",VLOOKUP(E31,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>1|5|6</v>
+      </c>
+      <c r="H31" s="38">
         <v>867</v>
       </c>
-      <c r="G31" s="37">
+      <c r="I31" s="38">
         <f t="shared" si="3"/>
         <v>867</v>
       </c>
-      <c r="H31" s="37">
-        <v>0</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="36">
+      <c r="J31" s="38">
+        <v>0</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="37">
         <f t="shared" si="4"/>
         <v>8670</v>
       </c>
-      <c r="K31" s="36">
+      <c r="M31" s="37">
         <v>28</v>
       </c>
-      <c r="L31" s="36">
+      <c r="N31" s="37">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M31" s="36">
+      <c r="O31" s="37">
         <v>1.5</v>
       </c>
-      <c r="N31" s="36">
+      <c r="P31" s="37">
         <v>125</v>
       </c>
-      <c r="O31" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P31" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="R31" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="S31" s="37">
         <v>1.2</v>
       </c>
-      <c r="R31" s="62">
+      <c r="T31" s="58">
         <v>190</v>
       </c>
-      <c r="S31" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36">
+      <c r="U31" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37">
         <v>300</v>
       </c>
-      <c r="W31" s="63">
+      <c r="Y31" s="67">
         <v>180</v>
       </c>
-      <c r="X31" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y31" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36" t="s">
+      <c r="Z31" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AB31" s="36">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="36">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="36" t="s">
+      <c r="AA31" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AE31" s="36" t="s">
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AF31" s="36">
+      <c r="AD31" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG31" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH31" s="37">
         <v>10</v>
       </c>
-      <c r="AG31" s="36">
+      <c r="AI31" s="37">
         <v>20000</v>
       </c>
-      <c r="AH31" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI31" s="81"/>
+      <c r="AJ31" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK31" s="84"/>
     </row>
-    <row r="32" s="6" customFormat="1" ht="49.5" spans="1:35">
-      <c r="A32" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37">
+    <row r="32" s="6" customFormat="1" ht="50.25" spans="1:37">
+      <c r="A32" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38">
         <v>3</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="21" t="str">
+        <f>IF(ISBLANK(E32),"",VLOOKUP(E32,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>2|0</v>
+      </c>
+      <c r="G32" s="21" t="str">
+        <f>IF(ISBLANK(E32),"",VLOOKUP(E32,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>1|5|6</v>
+      </c>
+      <c r="H32" s="38">
         <v>868</v>
       </c>
-      <c r="G32" s="37">
+      <c r="I32" s="38">
         <f t="shared" si="3"/>
         <v>868</v>
       </c>
-      <c r="H32" s="37">
-        <v>0</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J32" s="36">
+      <c r="J32" s="38">
+        <v>0</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" s="37">
         <f t="shared" si="4"/>
         <v>8680</v>
       </c>
-      <c r="K32" s="36">
+      <c r="M32" s="37">
         <v>28</v>
       </c>
-      <c r="L32" s="36">
+      <c r="N32" s="37">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M32" s="36">
+      <c r="O32" s="37">
         <v>1.5</v>
       </c>
-      <c r="N32" s="36">
+      <c r="P32" s="37">
         <v>125</v>
       </c>
-      <c r="O32" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P32" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q32" s="36">
+      <c r="Q32" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="S32" s="37">
         <v>1.2</v>
       </c>
-      <c r="R32" s="62">
+      <c r="T32" s="58">
         <v>190</v>
       </c>
-      <c r="S32" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36">
+      <c r="U32" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37">
         <v>300</v>
       </c>
-      <c r="W32" s="63">
+      <c r="Y32" s="67">
         <v>180</v>
       </c>
-      <c r="X32" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y32" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36" t="s">
+      <c r="Z32" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AB32" s="36">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="36">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="36" t="s">
+      <c r="AA32" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AE32" s="36" t="s">
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AF32" s="36">
+      <c r="AD32" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG32" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH32" s="37">
         <v>10</v>
       </c>
-      <c r="AG32" s="36">
+      <c r="AI32" s="37">
         <v>20000</v>
       </c>
-      <c r="AH32" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI32" s="81"/>
+      <c r="AJ32" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK32" s="84"/>
     </row>
-    <row r="33" s="6" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A33" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37">
+    <row r="33" s="6" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A33" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38">
         <v>3</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="21" t="str">
+        <f>IF(ISBLANK(E33),"",VLOOKUP(E33,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>2|0</v>
+      </c>
+      <c r="G33" s="21" t="str">
+        <f>IF(ISBLANK(E33),"",VLOOKUP(E33,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>1|5|6</v>
+      </c>
+      <c r="H33" s="38">
         <v>869</v>
       </c>
-      <c r="G33" s="37">
+      <c r="I33" s="38">
         <f t="shared" si="3"/>
         <v>869</v>
       </c>
-      <c r="H33" s="37">
-        <v>0</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="36">
+      <c r="J33" s="38">
+        <v>0</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="37">
         <f t="shared" si="4"/>
         <v>8690</v>
       </c>
-      <c r="K33" s="36">
+      <c r="M33" s="37">
         <v>28</v>
       </c>
-      <c r="L33" s="36">
+      <c r="N33" s="37">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M33" s="36">
+      <c r="O33" s="37">
         <v>1.5</v>
       </c>
-      <c r="N33" s="36">
+      <c r="P33" s="37">
         <v>500</v>
       </c>
-      <c r="O33" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q33" s="36">
+      <c r="Q33" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="R33" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="S33" s="37">
         <v>1.2</v>
       </c>
-      <c r="R33" s="62">
+      <c r="T33" s="58">
         <v>190</v>
       </c>
-      <c r="S33" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="T33" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36">
+      <c r="U33" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="V33" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37">
         <v>300</v>
       </c>
-      <c r="W33" s="63">
+      <c r="Y33" s="67">
         <v>180</v>
       </c>
-      <c r="X33" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y33" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36" t="s">
+      <c r="Z33" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AB33" s="36">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="36">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="36" t="s">
+      <c r="AA33" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AE33" s="36" t="s">
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AF33" s="36">
+      <c r="AD33" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG33" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH33" s="37">
         <v>10</v>
       </c>
-      <c r="AG33" s="36">
+      <c r="AI33" s="37">
         <v>20000</v>
       </c>
-      <c r="AH33" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI33" s="81"/>
+      <c r="AJ33" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK33" s="84"/>
     </row>
-    <row r="34" s="6" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A34" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37">
+    <row r="34" s="6" customFormat="1" ht="39" customHeight="1" spans="1:37">
+      <c r="A34" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38">
         <v>3</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="21" t="str">
+        <f>IF(ISBLANK(E34),"",VLOOKUP(E34,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>2|0</v>
+      </c>
+      <c r="G34" s="21" t="str">
+        <f>IF(ISBLANK(E34),"",VLOOKUP(E34,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>1|5|6</v>
+      </c>
+      <c r="H34" s="38">
         <v>864</v>
       </c>
-      <c r="G34" s="37">
+      <c r="I34" s="38">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="H34" s="37">
-        <v>0</v>
-      </c>
-      <c r="I34" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J34" s="36">
+      <c r="J34" s="38">
+        <v>0</v>
+      </c>
+      <c r="K34" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L34" s="37">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="K34" s="36">
+      <c r="M34" s="37">
         <v>28</v>
       </c>
-      <c r="L34" s="36">
+      <c r="N34" s="37">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M34" s="36">
+      <c r="O34" s="37">
         <v>1.5</v>
       </c>
-      <c r="N34" s="36">
+      <c r="P34" s="37">
         <v>125</v>
       </c>
-      <c r="O34" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q34" s="36">
+      <c r="Q34" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="R34" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="S34" s="37">
         <v>1.2</v>
       </c>
-      <c r="R34" s="62">
+      <c r="T34" s="58">
         <v>190</v>
       </c>
-      <c r="S34" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36">
+      <c r="U34" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37">
         <v>300</v>
       </c>
-      <c r="W34" s="63">
+      <c r="Y34" s="67">
         <v>180</v>
       </c>
-      <c r="X34" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y34" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36" t="s">
+      <c r="Z34" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AB34" s="36">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="36">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="36" t="s">
+      <c r="AA34" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AE34" s="36" t="s">
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AF34" s="36">
+      <c r="AD34" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG34" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH34" s="37">
         <v>10</v>
       </c>
-      <c r="AG34" s="36">
+      <c r="AI34" s="37">
         <v>20000</v>
       </c>
-      <c r="AH34" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI34" s="81"/>
+      <c r="AJ34" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK34" s="84"/>
     </row>
-    <row r="35" s="7" customFormat="1" ht="33" spans="1:35">
-      <c r="A35" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40">
+    <row r="35" s="7" customFormat="1" ht="33" spans="1:37">
+      <c r="A35" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41">
         <v>4</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="21" t="str">
+        <f>IF(ISBLANK(E35),"",VLOOKUP(E35,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>1|0</v>
+      </c>
+      <c r="G35" s="21" t="str">
+        <f>IF(ISBLANK(E35),"",VLOOKUP(E35,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>2|5|6</v>
+      </c>
+      <c r="H35" s="41">
         <v>863</v>
       </c>
-      <c r="G35" s="40">
+      <c r="I35" s="41">
         <f t="shared" si="3"/>
         <v>863</v>
       </c>
-      <c r="H35" s="40">
-        <v>0</v>
-      </c>
-      <c r="I35" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J35" s="39">
+      <c r="J35" s="41">
+        <v>0</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="40">
         <f t="shared" si="4"/>
         <v>8630</v>
       </c>
-      <c r="K35" s="39">
+      <c r="M35" s="40">
         <v>28</v>
       </c>
-      <c r="L35" s="39">
+      <c r="N35" s="40">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M35" s="39">
+      <c r="O35" s="40">
         <v>1.5</v>
       </c>
-      <c r="N35" s="39">
+      <c r="P35" s="40">
         <v>125</v>
       </c>
-      <c r="O35" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P35" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q35" s="39">
+      <c r="Q35" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="R35" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="S35" s="40">
         <v>1.2</v>
       </c>
-      <c r="R35" s="64">
+      <c r="T35" s="59">
         <v>190</v>
       </c>
-      <c r="S35" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39">
+      <c r="U35" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40">
         <v>300</v>
       </c>
-      <c r="W35" s="65">
+      <c r="Y35" s="68">
         <v>180</v>
       </c>
-      <c r="X35" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y35" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39" t="s">
+      <c r="Z35" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AB35" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="39" t="s">
+      <c r="AA35" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AE35" s="39" t="s">
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AF35" s="39">
+      <c r="AD35" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG35" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH35" s="40">
         <v>10</v>
       </c>
-      <c r="AG35" s="39">
+      <c r="AI35" s="40">
         <v>20000</v>
       </c>
-      <c r="AH35" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI35" s="83"/>
+      <c r="AJ35" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK35" s="86"/>
     </row>
-    <row r="36" s="7" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A36" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40">
+    <row r="36" s="7" customFormat="1" ht="39" customHeight="1" spans="1:37">
+      <c r="A36" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41">
         <v>4</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="21" t="str">
+        <f>IF(ISBLANK(E36),"",VLOOKUP(E36,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>1|0</v>
+      </c>
+      <c r="G36" s="21" t="str">
+        <f>IF(ISBLANK(E36),"",VLOOKUP(E36,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>2|5|6</v>
+      </c>
+      <c r="H36" s="41">
         <v>864</v>
       </c>
-      <c r="G36" s="40">
+      <c r="I36" s="41">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="H36" s="40">
-        <v>0</v>
-      </c>
-      <c r="I36" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J36" s="39">
+      <c r="J36" s="41">
+        <v>0</v>
+      </c>
+      <c r="K36" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" s="40">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="K36" s="39">
+      <c r="M36" s="40">
         <v>28</v>
       </c>
-      <c r="L36" s="39">
+      <c r="N36" s="40">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M36" s="39">
+      <c r="O36" s="40">
         <v>1.5</v>
       </c>
-      <c r="N36" s="39">
+      <c r="P36" s="40">
         <v>125</v>
       </c>
-      <c r="O36" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P36" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q36" s="39">
+      <c r="Q36" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="R36" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="S36" s="40">
         <v>1.2</v>
       </c>
-      <c r="R36" s="64">
+      <c r="T36" s="59">
         <v>190</v>
       </c>
-      <c r="S36" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39">
+      <c r="U36" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40">
         <v>300</v>
       </c>
-      <c r="W36" s="65">
+      <c r="Y36" s="68">
         <v>180</v>
       </c>
-      <c r="X36" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y36" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39" t="s">
+      <c r="Z36" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AB36" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="39" t="s">
+      <c r="AA36" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AE36" s="39" t="s">
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AF36" s="39">
+      <c r="AD36" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG36" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH36" s="40">
         <v>10</v>
       </c>
-      <c r="AG36" s="39">
+      <c r="AI36" s="40">
         <v>20000</v>
       </c>
-      <c r="AH36" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI36" s="83"/>
+      <c r="AJ36" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK36" s="86"/>
     </row>
-    <row r="37" s="7" customFormat="1" ht="33" spans="1:35">
-      <c r="A37" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40">
+    <row r="37" s="7" customFormat="1" ht="33" spans="1:37">
+      <c r="A37" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41">
         <v>4</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="21" t="str">
+        <f>IF(ISBLANK(E37),"",VLOOKUP(E37,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>1|0</v>
+      </c>
+      <c r="G37" s="21" t="str">
+        <f>IF(ISBLANK(E37),"",VLOOKUP(E37,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>2|5|6</v>
+      </c>
+      <c r="H37" s="41">
         <v>865</v>
       </c>
-      <c r="G37" s="40">
+      <c r="I37" s="41">
         <f t="shared" si="3"/>
         <v>865</v>
       </c>
-      <c r="H37" s="40">
-        <v>0</v>
-      </c>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="39">
+      <c r="J37" s="41">
+        <v>0</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" s="40">
         <f t="shared" si="4"/>
         <v>8650</v>
       </c>
-      <c r="K37" s="39">
+      <c r="M37" s="40">
         <v>28</v>
       </c>
-      <c r="L37" s="39">
+      <c r="N37" s="40">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M37" s="39">
+      <c r="O37" s="40">
         <v>1.5</v>
       </c>
-      <c r="N37" s="39">
+      <c r="P37" s="40">
         <v>125</v>
       </c>
-      <c r="O37" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P37" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q37" s="39">
+      <c r="Q37" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="R37" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="S37" s="40">
         <v>1.2</v>
       </c>
-      <c r="R37" s="64">
+      <c r="T37" s="59">
         <v>190</v>
       </c>
-      <c r="S37" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39">
+      <c r="U37" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40">
         <v>300</v>
       </c>
-      <c r="W37" s="65">
+      <c r="Y37" s="68">
         <v>180</v>
       </c>
-      <c r="X37" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y37" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39" t="s">
+      <c r="Z37" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AB37" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="39" t="s">
+      <c r="AA37" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AE37" s="39" t="s">
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AF37" s="39">
+      <c r="AD37" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG37" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH37" s="40">
         <v>10</v>
       </c>
-      <c r="AG37" s="39">
+      <c r="AI37" s="40">
         <v>20000</v>
       </c>
-      <c r="AH37" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI37" s="83"/>
+      <c r="AJ37" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK37" s="86"/>
     </row>
-    <row r="38" s="7" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A38" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40">
+    <row r="38" s="7" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A38" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41">
         <v>4</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F38" s="21" t="str">
+        <f>IF(ISBLANK(E38),"",VLOOKUP(E38,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>1|0</v>
+      </c>
+      <c r="G38" s="21" t="str">
+        <f>IF(ISBLANK(E38),"",VLOOKUP(E38,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>2|5|6</v>
+      </c>
+      <c r="H38" s="41">
         <v>866</v>
       </c>
-      <c r="G38" s="40">
+      <c r="I38" s="41">
         <f t="shared" si="3"/>
         <v>866</v>
       </c>
-      <c r="H38" s="40">
-        <v>0</v>
-      </c>
-      <c r="I38" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J38" s="39">
+      <c r="J38" s="41">
+        <v>0</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" s="40">
         <f t="shared" si="4"/>
         <v>8660</v>
       </c>
-      <c r="K38" s="39">
+      <c r="M38" s="40">
         <v>28</v>
       </c>
-      <c r="L38" s="39">
+      <c r="N38" s="40">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M38" s="39">
+      <c r="O38" s="40">
         <v>1.5</v>
       </c>
-      <c r="N38" s="39">
+      <c r="P38" s="40">
         <v>125</v>
       </c>
-      <c r="O38" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P38" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q38" s="39">
+      <c r="Q38" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="R38" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="S38" s="40">
         <v>1.2</v>
       </c>
-      <c r="R38" s="64">
+      <c r="T38" s="59">
         <v>190</v>
       </c>
-      <c r="S38" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39">
+      <c r="U38" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40">
         <v>300</v>
       </c>
-      <c r="W38" s="65">
+      <c r="Y38" s="68">
         <v>180</v>
       </c>
-      <c r="X38" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y38" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="39" t="s">
+      <c r="Z38" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AB38" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="39" t="s">
+      <c r="AA38" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AE38" s="39" t="s">
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AF38" s="39">
+      <c r="AD38" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG38" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH38" s="40">
         <v>10</v>
       </c>
-      <c r="AG38" s="39">
+      <c r="AI38" s="40">
         <v>20000</v>
       </c>
-      <c r="AH38" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI38" s="83"/>
+      <c r="AJ38" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK38" s="86"/>
     </row>
-    <row r="39" s="7" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A39" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40">
+    <row r="39" s="7" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A39" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41">
         <v>4</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="21" t="str">
+        <f>IF(ISBLANK(E39),"",VLOOKUP(E39,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>1|0</v>
+      </c>
+      <c r="G39" s="21" t="str">
+        <f>IF(ISBLANK(E39),"",VLOOKUP(E39,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>2|5|6</v>
+      </c>
+      <c r="H39" s="41">
         <v>867</v>
       </c>
-      <c r="G39" s="40">
+      <c r="I39" s="41">
         <f t="shared" si="3"/>
         <v>867</v>
       </c>
-      <c r="H39" s="40">
-        <v>0</v>
-      </c>
-      <c r="I39" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J39" s="39">
+      <c r="J39" s="41">
+        <v>0</v>
+      </c>
+      <c r="K39" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="40">
         <f t="shared" si="4"/>
         <v>8670</v>
       </c>
-      <c r="K39" s="39">
+      <c r="M39" s="40">
         <v>28</v>
       </c>
-      <c r="L39" s="39">
+      <c r="N39" s="40">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M39" s="39">
+      <c r="O39" s="40">
         <v>1.5</v>
       </c>
-      <c r="N39" s="39">
+      <c r="P39" s="40">
         <v>125</v>
       </c>
-      <c r="O39" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P39" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q39" s="39">
+      <c r="Q39" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="R39" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="S39" s="40">
         <v>1.2</v>
       </c>
-      <c r="R39" s="64">
+      <c r="T39" s="59">
         <v>190</v>
       </c>
-      <c r="S39" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39">
+      <c r="U39" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40">
         <v>300</v>
       </c>
-      <c r="W39" s="65">
+      <c r="Y39" s="68">
         <v>180</v>
       </c>
-      <c r="X39" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y39" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39" t="s">
+      <c r="Z39" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AB39" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="39" t="s">
+      <c r="AA39" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AE39" s="39" t="s">
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AF39" s="39">
+      <c r="AD39" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG39" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH39" s="40">
         <v>10</v>
       </c>
-      <c r="AG39" s="39">
+      <c r="AI39" s="40">
         <v>20000</v>
       </c>
-      <c r="AH39" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI39" s="83"/>
+      <c r="AJ39" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK39" s="86"/>
     </row>
-    <row r="40" s="7" customFormat="1" ht="33" spans="1:35">
-      <c r="A40" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40">
+    <row r="40" s="7" customFormat="1" ht="33" spans="1:37">
+      <c r="A40" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41">
         <v>4</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="21" t="str">
+        <f>IF(ISBLANK(E40),"",VLOOKUP(E40,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>1|0</v>
+      </c>
+      <c r="G40" s="21" t="str">
+        <f>IF(ISBLANK(E40),"",VLOOKUP(E40,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>2|5|6</v>
+      </c>
+      <c r="H40" s="41">
         <v>868</v>
       </c>
-      <c r="G40" s="40">
+      <c r="I40" s="41">
         <f t="shared" si="3"/>
         <v>868</v>
       </c>
-      <c r="H40" s="40">
-        <v>0</v>
-      </c>
-      <c r="I40" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J40" s="39">
+      <c r="J40" s="41">
+        <v>0</v>
+      </c>
+      <c r="K40" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="40">
         <f t="shared" si="4"/>
         <v>8680</v>
       </c>
-      <c r="K40" s="39">
+      <c r="M40" s="40">
         <v>28</v>
       </c>
-      <c r="L40" s="39">
+      <c r="N40" s="40">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M40" s="39">
+      <c r="O40" s="40">
         <v>1.5</v>
       </c>
-      <c r="N40" s="39">
+      <c r="P40" s="40">
         <v>125</v>
       </c>
-      <c r="O40" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P40" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q40" s="39">
+      <c r="Q40" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="R40" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="S40" s="40">
         <v>1.2</v>
       </c>
-      <c r="R40" s="64">
+      <c r="T40" s="59">
         <v>190</v>
       </c>
-      <c r="S40" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39">
+      <c r="U40" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40">
         <v>300</v>
       </c>
-      <c r="W40" s="65">
+      <c r="Y40" s="68">
         <v>180</v>
       </c>
-      <c r="X40" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y40" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z40" s="39"/>
-      <c r="AA40" s="39" t="s">
+      <c r="Z40" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AB40" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="39" t="s">
+      <c r="AA40" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AE40" s="39" t="s">
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AF40" s="39">
+      <c r="AD40" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG40" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH40" s="40">
         <v>10</v>
       </c>
-      <c r="AG40" s="39">
+      <c r="AI40" s="40">
         <v>20000</v>
       </c>
-      <c r="AH40" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI40" s="83"/>
+      <c r="AJ40" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK40" s="86"/>
     </row>
-    <row r="41" s="7" customFormat="1" ht="16.5" spans="1:35">
-      <c r="A41" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40">
+    <row r="41" s="7" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A41" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41">
         <v>4</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="21" t="str">
+        <f>IF(ISBLANK(E41),"",VLOOKUP(E41,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>1|0</v>
+      </c>
+      <c r="G41" s="21" t="str">
+        <f>IF(ISBLANK(E41),"",VLOOKUP(E41,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>2|5|6</v>
+      </c>
+      <c r="H41" s="41">
         <v>869</v>
       </c>
-      <c r="G41" s="40">
+      <c r="I41" s="41">
         <f t="shared" si="3"/>
         <v>869</v>
       </c>
-      <c r="H41" s="40">
-        <v>0</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J41" s="39">
+      <c r="J41" s="41">
+        <v>0</v>
+      </c>
+      <c r="K41" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L41" s="40">
         <f t="shared" si="4"/>
         <v>8690</v>
       </c>
-      <c r="K41" s="39">
+      <c r="M41" s="40">
         <v>28</v>
       </c>
-      <c r="L41" s="39">
+      <c r="N41" s="40">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M41" s="39">
+      <c r="O41" s="40">
         <v>1.5</v>
       </c>
-      <c r="N41" s="39">
+      <c r="P41" s="40">
         <v>500</v>
       </c>
-      <c r="O41" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P41" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q41" s="39">
+      <c r="Q41" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="R41" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="S41" s="40">
         <v>1.2</v>
       </c>
-      <c r="R41" s="64">
+      <c r="T41" s="59">
         <v>190</v>
       </c>
-      <c r="S41" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="T41" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39">
+      <c r="U41" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="V41" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40">
         <v>300</v>
       </c>
-      <c r="W41" s="65">
+      <c r="Y41" s="68">
         <v>180</v>
       </c>
-      <c r="X41" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y41" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39" t="s">
+      <c r="Z41" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AB41" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="39" t="s">
+      <c r="AA41" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AE41" s="39" t="s">
+      <c r="AB41" s="40"/>
+      <c r="AC41" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AF41" s="39">
+      <c r="AD41" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG41" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH41" s="40">
         <v>10</v>
       </c>
-      <c r="AG41" s="39">
+      <c r="AI41" s="40">
         <v>20000</v>
       </c>
-      <c r="AH41" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI41" s="83"/>
+      <c r="AJ41" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK41" s="86"/>
     </row>
-    <row r="42" s="7" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A42" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40">
+    <row r="42" s="7" customFormat="1" ht="39" customHeight="1" spans="1:37">
+      <c r="A42" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41">
         <v>4</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F42" s="21" t="str">
+        <f>IF(ISBLANK(E42),"",VLOOKUP(E42,[1]__Sheet1!$A:$C,2,FALSE))</f>
+        <v>1|0</v>
+      </c>
+      <c r="G42" s="21" t="str">
+        <f>IF(ISBLANK(E42),"",VLOOKUP(E42,[1]__Sheet1!$A:$C,3,FALSE))</f>
+        <v>2|5|6</v>
+      </c>
+      <c r="H42" s="41">
         <v>864</v>
       </c>
-      <c r="G42" s="40">
+      <c r="I42" s="41">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="H42" s="40">
-        <v>0</v>
-      </c>
-      <c r="I42" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J42" s="39">
+      <c r="J42" s="41">
+        <v>0</v>
+      </c>
+      <c r="K42" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L42" s="40">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="K42" s="39">
+      <c r="M42" s="40">
         <v>28</v>
       </c>
-      <c r="L42" s="39">
+      <c r="N42" s="40">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="M42" s="39">
+      <c r="O42" s="40">
         <v>1.5</v>
       </c>
-      <c r="N42" s="39">
+      <c r="P42" s="40">
         <v>125</v>
       </c>
-      <c r="O42" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P42" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q42" s="39">
+      <c r="Q42" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="R42" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="S42" s="40">
         <v>1.2</v>
       </c>
-      <c r="R42" s="64">
+      <c r="T42" s="59">
         <v>190</v>
       </c>
-      <c r="S42" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39">
+      <c r="U42" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40">
         <v>300</v>
       </c>
-      <c r="W42" s="65">
+      <c r="Y42" s="68">
         <v>180</v>
       </c>
-      <c r="X42" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y42" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z42" s="39"/>
-      <c r="AA42" s="39" t="s">
+      <c r="Z42" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AB42" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="39" t="s">
+      <c r="AA42" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AE42" s="39" t="s">
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AF42" s="39">
+      <c r="AD42" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG42" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH42" s="40">
         <v>10</v>
       </c>
-      <c r="AG42" s="39">
+      <c r="AI42" s="40">
         <v>20000</v>
       </c>
-      <c r="AH42" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI42" s="83"/>
+      <c r="AJ42" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK42" s="86"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AJ3">
+  <conditionalFormatting sqref="AL3">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -49,13 +49,11 @@
   </si>
   <si>
     <t>元素克制
-1火2雷3冰4风
-5光6暗</t>
+1火2冰3雷4风5光6暗</t>
   </si>
   <si>
     <t>克制元素
-1火2雷3冰4风
-5光6暗</t>
+1火2冰3雷4风5光6暗</t>
   </si>
   <si>
     <t>未计算的血量</t>
@@ -2141,7 +2139,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{5E6A5D7E-C51E-434D-B20D-659CE2629673}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{E742C67B-2EF1-4977-BBC1-70881F90B7D8}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -2183,7 +2181,7 @@
         <row r="1">
           <cell r="A1" t="str">
             <v>怪物携带元素
-1火2雷3冰4风5光6暗</v>
+1火2冰3雷4风5光6暗</v>
           </cell>
           <cell r="B1" t="str">
             <v>克制的元素
@@ -2199,7 +2197,7 @@
             <v>1</v>
           </cell>
           <cell r="B2" t="str">
-            <v>3|0</v>
+            <v>2|0</v>
           </cell>
           <cell r="C2" t="str">
             <v>4|5|6</v>
@@ -2210,10 +2208,10 @@
             <v>2</v>
           </cell>
           <cell r="B3" t="str">
-            <v>4|0</v>
+            <v>3|0</v>
           </cell>
           <cell r="C3" t="str">
-            <v>3|5|6</v>
+            <v>1|5|6</v>
           </cell>
         </row>
         <row r="4">
@@ -2221,10 +2219,10 @@
             <v>3</v>
           </cell>
           <cell r="B4" t="str">
-            <v>2|0</v>
+            <v>4|0</v>
           </cell>
           <cell r="C4" t="str">
-            <v>1|5|6</v>
+            <v>2|5|6</v>
           </cell>
         </row>
         <row r="5">
@@ -2235,7 +2233,7 @@
             <v>1|0</v>
           </cell>
           <cell r="C5" t="str">
-            <v>2|5|6</v>
+            <v>3|5|6</v>
           </cell>
         </row>
         <row r="6">
@@ -2555,10 +2553,10 @@
   <sheetPr/>
   <dimension ref="A1:AL42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+      <selection pane="topRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3693,7 +3691,7 @@
       </c>
       <c r="F11" s="21" t="str">
         <f>IF(ISBLANK(E11),"",VLOOKUP(E11,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="G11" s="21" t="str">
         <f>IF(ISBLANK(E11),"",VLOOKUP(E11,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -3801,7 +3799,7 @@
       </c>
       <c r="F12" s="21" t="str">
         <f>IF(ISBLANK(E12),"",VLOOKUP(E12,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="G12" s="21" t="str">
         <f>IF(ISBLANK(E12),"",VLOOKUP(E12,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -3909,7 +3907,7 @@
       </c>
       <c r="F13" s="21" t="str">
         <f>IF(ISBLANK(E13),"",VLOOKUP(E13,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="G13" s="21" t="str">
         <f>IF(ISBLANK(E13),"",VLOOKUP(E13,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -4019,7 +4017,7 @@
       </c>
       <c r="F14" s="21" t="str">
         <f>IF(ISBLANK(E14),"",VLOOKUP(E14,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="G14" s="21" t="str">
         <f>IF(ISBLANK(E14),"",VLOOKUP(E14,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -4127,7 +4125,7 @@
       </c>
       <c r="F15" s="21" t="str">
         <f>IF(ISBLANK(E15),"",VLOOKUP(E15,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="G15" s="21" t="str">
         <f>IF(ISBLANK(E15),"",VLOOKUP(E15,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -4235,7 +4233,7 @@
       </c>
       <c r="F16" s="21" t="str">
         <f>IF(ISBLANK(E16),"",VLOOKUP(E16,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="G16" s="21" t="str">
         <f>IF(ISBLANK(E16),"",VLOOKUP(E16,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -4345,7 +4343,7 @@
       </c>
       <c r="F17" s="21" t="str">
         <f>IF(ISBLANK(E17),"",VLOOKUP(E17,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="G17" s="21" t="str">
         <f>IF(ISBLANK(E17),"",VLOOKUP(E17,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -4453,7 +4451,7 @@
       </c>
       <c r="F18" s="21" t="str">
         <f>IF(ISBLANK(E18),"",VLOOKUP(E18,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="G18" s="21" t="str">
         <f>IF(ISBLANK(E18),"",VLOOKUP(E18,[1]__Sheet1!$A:$C,3,FALSE))</f>
@@ -4561,11 +4559,11 @@
       </c>
       <c r="F19" s="21" t="str">
         <f>IF(ISBLANK(E19),"",VLOOKUP(E19,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G19" s="21" t="str">
         <f>IF(ISBLANK(E19),"",VLOOKUP(E19,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H19" s="35">
         <v>863</v>
@@ -4669,11 +4667,11 @@
       </c>
       <c r="F20" s="21" t="str">
         <f>IF(ISBLANK(E20),"",VLOOKUP(E20,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G20" s="21" t="str">
         <f>IF(ISBLANK(E20),"",VLOOKUP(E20,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H20" s="35">
         <v>864</v>
@@ -4777,11 +4775,11 @@
       </c>
       <c r="F21" s="21" t="str">
         <f>IF(ISBLANK(E21),"",VLOOKUP(E21,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G21" s="21" t="str">
         <f>IF(ISBLANK(E21),"",VLOOKUP(E21,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H21" s="35">
         <v>865</v>
@@ -4885,11 +4883,11 @@
       </c>
       <c r="F22" s="21" t="str">
         <f>IF(ISBLANK(E22),"",VLOOKUP(E22,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G22" s="21" t="str">
         <f>IF(ISBLANK(E22),"",VLOOKUP(E22,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H22" s="35">
         <v>866</v>
@@ -4993,11 +4991,11 @@
       </c>
       <c r="F23" s="21" t="str">
         <f>IF(ISBLANK(E23),"",VLOOKUP(E23,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G23" s="21" t="str">
         <f>IF(ISBLANK(E23),"",VLOOKUP(E23,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H23" s="35">
         <v>867</v>
@@ -5101,11 +5099,11 @@
       </c>
       <c r="F24" s="21" t="str">
         <f>IF(ISBLANK(E24),"",VLOOKUP(E24,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G24" s="21" t="str">
         <f>IF(ISBLANK(E24),"",VLOOKUP(E24,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H24" s="35">
         <v>868</v>
@@ -5209,11 +5207,11 @@
       </c>
       <c r="F25" s="21" t="str">
         <f>IF(ISBLANK(E25),"",VLOOKUP(E25,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G25" s="21" t="str">
         <f>IF(ISBLANK(E25),"",VLOOKUP(E25,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H25" s="35">
         <v>869</v>
@@ -5319,11 +5317,11 @@
       </c>
       <c r="F26" s="21" t="str">
         <f>IF(ISBLANK(E26),"",VLOOKUP(E26,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G26" s="21" t="str">
         <f>IF(ISBLANK(E26),"",VLOOKUP(E26,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H26" s="35">
         <v>864</v>
@@ -5427,11 +5425,11 @@
       </c>
       <c r="F27" s="21" t="str">
         <f>IF(ISBLANK(E27),"",VLOOKUP(E27,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G27" s="21" t="str">
         <f>IF(ISBLANK(E27),"",VLOOKUP(E27,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H27" s="38">
         <v>863</v>
@@ -5535,11 +5533,11 @@
       </c>
       <c r="F28" s="21" t="str">
         <f>IF(ISBLANK(E28),"",VLOOKUP(E28,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G28" s="21" t="str">
         <f>IF(ISBLANK(E28),"",VLOOKUP(E28,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H28" s="38">
         <v>864</v>
@@ -5643,11 +5641,11 @@
       </c>
       <c r="F29" s="21" t="str">
         <f>IF(ISBLANK(E29),"",VLOOKUP(E29,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G29" s="21" t="str">
         <f>IF(ISBLANK(E29),"",VLOOKUP(E29,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H29" s="38">
         <v>865</v>
@@ -5751,11 +5749,11 @@
       </c>
       <c r="F30" s="21" t="str">
         <f>IF(ISBLANK(E30),"",VLOOKUP(E30,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G30" s="21" t="str">
         <f>IF(ISBLANK(E30),"",VLOOKUP(E30,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H30" s="38">
         <v>866</v>
@@ -5859,11 +5857,11 @@
       </c>
       <c r="F31" s="21" t="str">
         <f>IF(ISBLANK(E31),"",VLOOKUP(E31,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G31" s="21" t="str">
         <f>IF(ISBLANK(E31),"",VLOOKUP(E31,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H31" s="38">
         <v>867</v>
@@ -5967,11 +5965,11 @@
       </c>
       <c r="F32" s="21" t="str">
         <f>IF(ISBLANK(E32),"",VLOOKUP(E32,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G32" s="21" t="str">
         <f>IF(ISBLANK(E32),"",VLOOKUP(E32,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H32" s="38">
         <v>868</v>
@@ -6075,11 +6073,11 @@
       </c>
       <c r="F33" s="21" t="str">
         <f>IF(ISBLANK(E33),"",VLOOKUP(E33,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G33" s="21" t="str">
         <f>IF(ISBLANK(E33),"",VLOOKUP(E33,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H33" s="38">
         <v>869</v>
@@ -6185,11 +6183,11 @@
       </c>
       <c r="F34" s="21" t="str">
         <f>IF(ISBLANK(E34),"",VLOOKUP(E34,[1]__Sheet1!$A:$C,2,FALSE))</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G34" s="21" t="str">
         <f>IF(ISBLANK(E34),"",VLOOKUP(E34,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H34" s="38">
         <v>864</v>
@@ -6277,7 +6275,7 @@
       </c>
       <c r="AK34" s="84"/>
     </row>
-    <row r="35" s="7" customFormat="1" ht="33" spans="1:37">
+    <row r="35" s="7" customFormat="1" ht="33.75" spans="1:37">
       <c r="A35" s="39" t="s">
         <v>147</v>
       </c>
@@ -6297,7 +6295,7 @@
       </c>
       <c r="G35" s="21" t="str">
         <f>IF(ISBLANK(E35),"",VLOOKUP(E35,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H35" s="41">
         <v>863</v>
@@ -6405,7 +6403,7 @@
       </c>
       <c r="G36" s="21" t="str">
         <f>IF(ISBLANK(E36),"",VLOOKUP(E36,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H36" s="41">
         <v>864</v>
@@ -6493,7 +6491,7 @@
       </c>
       <c r="AK36" s="86"/>
     </row>
-    <row r="37" s="7" customFormat="1" ht="33" spans="1:37">
+    <row r="37" s="7" customFormat="1" ht="33.75" spans="1:37">
       <c r="A37" s="39" t="s">
         <v>149</v>
       </c>
@@ -6513,7 +6511,7 @@
       </c>
       <c r="G37" s="21" t="str">
         <f>IF(ISBLANK(E37),"",VLOOKUP(E37,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H37" s="41">
         <v>865</v>
@@ -6621,7 +6619,7 @@
       </c>
       <c r="G38" s="21" t="str">
         <f>IF(ISBLANK(E38),"",VLOOKUP(E38,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H38" s="41">
         <v>866</v>
@@ -6729,7 +6727,7 @@
       </c>
       <c r="G39" s="21" t="str">
         <f>IF(ISBLANK(E39),"",VLOOKUP(E39,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H39" s="41">
         <v>867</v>
@@ -6817,7 +6815,7 @@
       </c>
       <c r="AK39" s="86"/>
     </row>
-    <row r="40" s="7" customFormat="1" ht="33" spans="1:37">
+    <row r="40" s="7" customFormat="1" ht="33.75" spans="1:37">
       <c r="A40" s="39" t="s">
         <v>158</v>
       </c>
@@ -6837,7 +6835,7 @@
       </c>
       <c r="G40" s="21" t="str">
         <f>IF(ISBLANK(E40),"",VLOOKUP(E40,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H40" s="41">
         <v>868</v>
@@ -6945,7 +6943,7 @@
       </c>
       <c r="G41" s="21" t="str">
         <f>IF(ISBLANK(E41),"",VLOOKUP(E41,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H41" s="41">
         <v>869</v>
@@ -7055,7 +7053,7 @@
       </c>
       <c r="G42" s="21" t="str">
         <f>IF(ISBLANK(E42),"",VLOOKUP(E42,[1]__Sheet1!$A:$C,3,FALSE))</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H42" s="41">
         <v>864</v>

--- a/excels/units/monster/elite.xlsx
+++ b/excels/units/monster/elite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="elite" sheetId="2" r:id="rId1"/>
@@ -741,7 +741,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,6 +781,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,7 +1373,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1385,16 +1397,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1403,90 +1415,90 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1544,87 +1556,93 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1697,19 +1715,19 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2139,7 +2157,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{E742C67B-2EF1-4977-BBC1-70881F90B7D8}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{1E92A20E-E6AF-4C5C-AB7F-8E001EE8C5D6}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
@@ -2553,10 +2571,10 @@
   <sheetPr/>
   <dimension ref="A1:AL42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H36" sqref="H36"/>
+      <selection pane="topRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2626,14 +2644,14 @@
       <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="39" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="12" t="s">
@@ -2657,7 +2675,7 @@
       <c r="S1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="48" t="s">
         <v>18</v>
       </c>
       <c r="U1" s="12"/>
@@ -2666,7 +2684,7 @@
       <c r="X1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="62" t="s">
         <v>20</v>
       </c>
       <c r="Z1" s="12" t="s">
@@ -2699,10 +2717,10 @@
       <c r="AI1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="69" t="s">
+      <c r="AJ1" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="70"/>
+      <c r="AK1" s="72"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="48.5" customHeight="1" spans="1:37">
       <c r="A2" s="14" t="s">
@@ -2719,14 +2737,14 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="41" t="s">
         <v>37</v>
       </c>
       <c r="M2" s="15" t="s">
@@ -2750,7 +2768,7 @@
       <c r="S2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="47" t="s">
+      <c r="T2" s="49" t="s">
         <v>45</v>
       </c>
       <c r="U2" s="15" t="s">
@@ -2765,7 +2783,7 @@
       <c r="X2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="61" t="s">
+      <c r="Y2" s="63" t="s">
         <v>50</v>
       </c>
       <c r="Z2" s="15" t="s">
@@ -2796,10 +2814,10 @@
       <c r="AI2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AJ2" s="71" t="s">
+      <c r="AJ2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="AK2" s="72"/>
+      <c r="AK2" s="74"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
       <c r="A3" s="17" t="s">
@@ -2812,7 +2830,7 @@
         <v>62</v>
       </c>
       <c r="D3" s="19">
-        <v>1</v>
+        <v>2511</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="21" t="str">
@@ -2836,79 +2854,79 @@
       <c r="K3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="42">
         <f t="shared" ref="L3:L10" si="1">I3*10</f>
         <v>150</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="42">
         <v>1</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="42">
         <f t="shared" ref="N3:N10" si="2">M3</f>
         <v>1</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="42">
         <v>1.5</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="42">
         <v>125</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="42">
         <v>1.2</v>
       </c>
-      <c r="T3" s="49">
+      <c r="T3" s="51">
         <v>170</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19">
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42">
         <v>300</v>
       </c>
-      <c r="Y3" s="62">
+      <c r="Y3" s="64">
         <v>180</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="Z3" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19" t="s">
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AD3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="19" t="s">
+      <c r="AD3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="AG3" s="19" t="s">
+      <c r="AG3" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AH3" s="19">
+      <c r="AH3" s="42">
         <v>10</v>
       </c>
-      <c r="AI3" s="19">
+      <c r="AI3" s="42">
         <v>20000</v>
       </c>
-      <c r="AJ3" s="73" t="s">
+      <c r="AJ3" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="75"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="77"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
       <c r="A4" s="22" t="s">
@@ -2921,7 +2939,7 @@
         <v>74</v>
       </c>
       <c r="D4" s="23">
-        <v>2</v>
+        <v>2901</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="21" t="str">
@@ -2945,79 +2963,79 @@
       <c r="K4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="43">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="43">
         <v>6</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="43">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="43">
         <v>1.5</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="43">
         <v>125</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="43">
         <v>1.2</v>
       </c>
-      <c r="T4" s="50">
+      <c r="T4" s="52">
         <v>170</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="U4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23">
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43">
         <v>300</v>
       </c>
-      <c r="Y4" s="63">
+      <c r="Y4" s="65">
         <v>180</v>
       </c>
-      <c r="Z4" s="23" t="s">
+      <c r="Z4" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23" t="s">
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="23" t="s">
+      <c r="AD4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="AG4" s="23" t="s">
+      <c r="AG4" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AH4" s="23">
+      <c r="AH4" s="43">
         <v>10</v>
       </c>
-      <c r="AI4" s="23">
+      <c r="AI4" s="43">
         <v>20000</v>
       </c>
-      <c r="AJ4" s="76" t="s">
+      <c r="AJ4" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="75"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="77"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
       <c r="A5" s="22" t="s">
@@ -3029,8 +3047,8 @@
       <c r="C5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="23">
-        <v>3</v>
+      <c r="D5" s="19">
+        <v>2524</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="21" t="str">
@@ -3054,79 +3072,79 @@
       <c r="K5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="43">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="43">
         <v>9</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="43">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="43">
         <v>1.5</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="43">
         <v>125</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="51" t="s">
+      <c r="R5" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="43">
         <v>1.2</v>
       </c>
-      <c r="T5" s="50">
+      <c r="T5" s="52">
         <v>170</v>
       </c>
-      <c r="U5" s="23" t="s">
+      <c r="U5" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23">
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43">
         <v>300</v>
       </c>
-      <c r="Y5" s="63">
+      <c r="Y5" s="65">
         <v>180</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="Z5" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="AA5" s="23" t="s">
+      <c r="AA5" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23" t="s">
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AD5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="23" t="s">
+      <c r="AD5" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="AG5" s="23" t="s">
+      <c r="AG5" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AH5" s="23">
+      <c r="AH5" s="43">
         <v>10</v>
       </c>
-      <c r="AI5" s="23">
+      <c r="AI5" s="43">
         <v>20000</v>
       </c>
-      <c r="AJ5" s="76" t="s">
+      <c r="AJ5" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="75"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="77"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
       <c r="A6" s="22" t="s">
@@ -3138,8 +3156,8 @@
       <c r="C6" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="23">
-        <v>4</v>
+      <c r="D6" s="19">
+        <v>2906</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="21" t="str">
@@ -3163,79 +3181,79 @@
       <c r="K6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="43">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="43">
         <v>10</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="43">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="43">
         <v>1.5</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="43">
         <v>125</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="51" t="s">
+      <c r="R6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="43">
         <v>1.2</v>
       </c>
-      <c r="T6" s="50">
+      <c r="T6" s="52">
         <v>170</v>
       </c>
-      <c r="U6" s="23" t="s">
+      <c r="U6" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23">
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43">
         <v>300</v>
       </c>
-      <c r="Y6" s="63">
+      <c r="Y6" s="65">
         <v>180</v>
       </c>
-      <c r="Z6" s="23" t="s">
+      <c r="Z6" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="AA6" s="23" t="s">
+      <c r="AA6" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23" t="s">
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AD6" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="23" t="s">
+      <c r="AD6" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="AG6" s="23" t="s">
+      <c r="AG6" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AH6" s="23">
+      <c r="AH6" s="43">
         <v>10</v>
       </c>
-      <c r="AI6" s="23">
+      <c r="AI6" s="43">
         <v>20000</v>
       </c>
-      <c r="AJ6" s="76" t="s">
+      <c r="AJ6" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="75"/>
+      <c r="AK6" s="79"/>
+      <c r="AL6" s="77"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
       <c r="A7" s="22" t="s">
@@ -3247,8 +3265,8 @@
       <c r="C7" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="23">
-        <v>5</v>
+      <c r="D7" s="19">
+        <v>2538</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="21" t="str">
@@ -3272,79 +3290,79 @@
       <c r="K7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="43">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="43">
         <v>20</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="43">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="43">
         <v>1.5</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="43">
         <v>125</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="Q7" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="52" t="s">
+      <c r="R7" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="43">
         <v>1.2</v>
       </c>
-      <c r="T7" s="50">
+      <c r="T7" s="52">
         <v>170</v>
       </c>
-      <c r="U7" s="23" t="s">
+      <c r="U7" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23">
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43">
         <v>300</v>
       </c>
-      <c r="Y7" s="63">
+      <c r="Y7" s="65">
         <v>180</v>
       </c>
-      <c r="Z7" s="23" t="s">
+      <c r="Z7" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="AA7" s="23" t="s">
+      <c r="AA7" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23" t="s">
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AD7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="23" t="s">
+      <c r="AD7" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="AG7" s="23" t="s">
+      <c r="AG7" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AH7" s="23">
+      <c r="AH7" s="43">
         <v>10</v>
       </c>
-      <c r="AI7" s="23">
+      <c r="AI7" s="43">
         <v>20000</v>
       </c>
-      <c r="AJ7" s="76" t="s">
+      <c r="AJ7" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="75"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="77"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
       <c r="A8" s="22" t="s">
@@ -3357,7 +3375,7 @@
         <v>86</v>
       </c>
       <c r="D8" s="23">
-        <v>6</v>
+        <v>2539</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="21" t="str">
@@ -3381,79 +3399,79 @@
       <c r="K8" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="43">
         <f t="shared" si="1"/>
         <v>3710</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="43">
         <v>22</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="43">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="43">
         <v>1.5</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="43">
         <v>125</v>
       </c>
-      <c r="Q8" s="23" t="s">
+      <c r="Q8" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="R8" s="52" t="s">
+      <c r="R8" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="43">
         <v>1.2</v>
       </c>
-      <c r="T8" s="50">
+      <c r="T8" s="52">
         <v>170</v>
       </c>
-      <c r="U8" s="23" t="s">
+      <c r="U8" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23">
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43">
         <v>300</v>
       </c>
-      <c r="Y8" s="63">
+      <c r="Y8" s="65">
         <v>180</v>
       </c>
-      <c r="Z8" s="23" t="s">
+      <c r="Z8" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="AA8" s="23" t="s">
+      <c r="AA8" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23" t="s">
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AD8" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="23" t="s">
+      <c r="AD8" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="AG8" s="23" t="s">
+      <c r="AG8" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AH8" s="23">
+      <c r="AH8" s="43">
         <v>10</v>
       </c>
-      <c r="AI8" s="23">
+      <c r="AI8" s="43">
         <v>20000</v>
       </c>
-      <c r="AJ8" s="76" t="s">
+      <c r="AJ8" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="AK8" s="77"/>
-      <c r="AL8" s="75"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="77"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
       <c r="A9" s="22" t="s">
@@ -3466,7 +3484,7 @@
         <v>89</v>
       </c>
       <c r="D9" s="23">
-        <v>7</v>
+        <v>2553</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="21" t="str">
@@ -3490,79 +3508,79 @@
       <c r="K9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="43">
         <f t="shared" si="1"/>
         <v>5890</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="43">
         <v>25</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="43">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="43">
         <v>1.5</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="43">
         <v>125</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="Q9" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="53" t="s">
+      <c r="R9" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="43">
         <v>1.2</v>
       </c>
-      <c r="T9" s="50">
+      <c r="T9" s="52">
         <v>190</v>
       </c>
-      <c r="U9" s="23" t="s">
+      <c r="U9" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23">
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43">
         <v>300</v>
       </c>
-      <c r="Y9" s="63">
+      <c r="Y9" s="65">
         <v>180</v>
       </c>
-      <c r="Z9" s="23" t="s">
+      <c r="Z9" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="AA9" s="23" t="s">
+      <c r="AA9" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23" t="s">
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AD9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="23" t="s">
+      <c r="AD9" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="AG9" s="23" t="s">
+      <c r="AG9" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AH9" s="23">
+      <c r="AH9" s="43">
         <v>10</v>
       </c>
-      <c r="AI9" s="23">
+      <c r="AI9" s="43">
         <v>20000</v>
       </c>
-      <c r="AJ9" s="76" t="s">
+      <c r="AJ9" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="AK9" s="74"/>
-      <c r="AL9" s="75"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="77"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="47" customHeight="1" spans="1:38">
       <c r="A10" s="22" t="s">
@@ -3574,8 +3592,8 @@
       <c r="C10" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="23">
-        <v>8</v>
+      <c r="D10" s="19">
+        <v>2554</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="21" t="str">
@@ -3599,79 +3617,79 @@
       <c r="K10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="43">
         <f t="shared" si="1"/>
         <v>8620</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="43">
         <v>28</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="43">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="43">
         <v>1.5</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="43">
         <v>125</v>
       </c>
-      <c r="Q10" s="23" t="s">
+      <c r="Q10" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="53" t="s">
+      <c r="R10" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="43">
         <v>1.2</v>
       </c>
-      <c r="T10" s="50">
+      <c r="T10" s="52">
         <v>190</v>
       </c>
-      <c r="U10" s="23" t="s">
+      <c r="U10" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23">
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43">
         <v>300</v>
       </c>
-      <c r="Y10" s="63">
+      <c r="Y10" s="65">
         <v>180</v>
       </c>
-      <c r="Z10" s="23" t="s">
+      <c r="Z10" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="AA10" s="23" t="s">
+      <c r="AA10" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23" t="s">
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AD10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="23" t="s">
+      <c r="AD10" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="AG10" s="23" t="s">
+      <c r="AG10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AH10" s="23">
+      <c r="AH10" s="43">
         <v>10</v>
       </c>
-      <c r="AI10" s="23">
+      <c r="AI10" s="43">
         <v>20000</v>
       </c>
-      <c r="AJ10" s="76" t="s">
+      <c r="AJ10" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="75"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="77"/>
     </row>
     <row r="11" s="4" customFormat="1" ht="47" customHeight="1" spans="1:37">
       <c r="A11" s="28" t="s">
@@ -3683,8 +3701,8 @@
       <c r="C11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="18">
-        <v>10</v>
+      <c r="D11" s="19">
+        <v>2511</v>
       </c>
       <c r="E11" s="29">
         <v>1</v>
@@ -3730,13 +3748,13 @@
       <c r="Q11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="48" t="s">
+      <c r="R11" s="50" t="s">
         <v>65</v>
       </c>
       <c r="S11" s="18">
         <v>1.2</v>
       </c>
-      <c r="T11" s="54">
+      <c r="T11" s="56">
         <v>190</v>
       </c>
       <c r="U11" s="18" t="s">
@@ -3747,7 +3765,7 @@
       <c r="X11" s="18">
         <v>300</v>
       </c>
-      <c r="Y11" s="64">
+      <c r="Y11" s="66">
         <v>180</v>
       </c>
       <c r="Z11" s="18" t="s">
@@ -3778,10 +3796,10 @@
       <c r="AI11" s="18">
         <v>20000</v>
       </c>
-      <c r="AJ11" s="78" t="s">
+      <c r="AJ11" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="AK11" s="79"/>
+      <c r="AK11" s="81"/>
     </row>
     <row r="12" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:37">
       <c r="A12" s="28" t="s">
@@ -3793,7 +3811,9 @@
       <c r="C12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="23">
+        <v>2901</v>
+      </c>
       <c r="E12" s="29">
         <v>1</v>
       </c>
@@ -3838,13 +3858,13 @@
       <c r="Q12" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="R12" s="48" t="s">
+      <c r="R12" s="50" t="s">
         <v>75</v>
       </c>
       <c r="S12" s="18">
         <v>1.2</v>
       </c>
-      <c r="T12" s="54">
+      <c r="T12" s="56">
         <v>190</v>
       </c>
       <c r="U12" s="18" t="s">
@@ -3855,7 +3875,7 @@
       <c r="X12" s="18">
         <v>300</v>
       </c>
-      <c r="Y12" s="64">
+      <c r="Y12" s="66">
         <v>180</v>
       </c>
       <c r="Z12" s="18" t="s">
@@ -3886,10 +3906,10 @@
       <c r="AI12" s="18">
         <v>20000</v>
       </c>
-      <c r="AJ12" s="78" t="s">
+      <c r="AJ12" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="AK12" s="79"/>
+      <c r="AK12" s="81"/>
     </row>
     <row r="13" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:37">
       <c r="A13" s="28" t="s">
@@ -3901,7 +3921,9 @@
       <c r="C13" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="23">
+        <v>2512</v>
+      </c>
       <c r="E13" s="29">
         <v>1</v>
       </c>
@@ -3946,13 +3968,13 @@
       <c r="Q13" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="R13" s="48" t="s">
+      <c r="R13" s="50" t="s">
         <v>98</v>
       </c>
       <c r="S13" s="18">
         <v>1.2</v>
       </c>
-      <c r="T13" s="54">
+      <c r="T13" s="56">
         <v>190</v>
       </c>
       <c r="U13" s="18" t="s">
@@ -3965,7 +3987,7 @@
       <c r="X13" s="18">
         <v>300</v>
       </c>
-      <c r="Y13" s="64">
+      <c r="Y13" s="66">
         <v>180</v>
       </c>
       <c r="Z13" s="18" t="s">
@@ -3996,10 +4018,10 @@
       <c r="AI13" s="18">
         <v>20000</v>
       </c>
-      <c r="AJ13" s="78" t="s">
+      <c r="AJ13" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="AK13" s="79"/>
+      <c r="AK13" s="81"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:37">
       <c r="A14" s="28" t="s">
@@ -4011,7 +4033,9 @@
       <c r="C14" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="23">
+        <v>2010</v>
+      </c>
       <c r="E14" s="29">
         <v>1</v>
       </c>
@@ -4056,13 +4080,13 @@
       <c r="Q14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="R14" s="48" t="s">
+      <c r="R14" s="50" t="s">
         <v>102</v>
       </c>
       <c r="S14" s="18">
         <v>1.2</v>
       </c>
-      <c r="T14" s="54">
+      <c r="T14" s="56">
         <v>190</v>
       </c>
       <c r="U14" s="18" t="s">
@@ -4073,7 +4097,7 @@
       <c r="X14" s="18">
         <v>300</v>
       </c>
-      <c r="Y14" s="64">
+      <c r="Y14" s="66">
         <v>180</v>
       </c>
       <c r="Z14" s="18" t="s">
@@ -4104,10 +4128,10 @@
       <c r="AI14" s="18">
         <v>20000</v>
       </c>
-      <c r="AJ14" s="78" t="s">
+      <c r="AJ14" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="AK14" s="79"/>
+      <c r="AK14" s="81"/>
     </row>
     <row r="15" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:37">
       <c r="A15" s="28" t="s">
@@ -4119,7 +4143,9 @@
       <c r="C15" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="19">
+        <v>2513</v>
+      </c>
       <c r="E15" s="29">
         <v>1</v>
       </c>
@@ -4164,13 +4190,13 @@
       <c r="Q15" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="48" t="s">
+      <c r="R15" s="50" t="s">
         <v>105</v>
       </c>
       <c r="S15" s="18">
         <v>1.2</v>
       </c>
-      <c r="T15" s="54">
+      <c r="T15" s="56">
         <v>190</v>
       </c>
       <c r="U15" s="18" t="s">
@@ -4181,7 +4207,7 @@
       <c r="X15" s="18">
         <v>300</v>
       </c>
-      <c r="Y15" s="64">
+      <c r="Y15" s="66">
         <v>180</v>
       </c>
       <c r="Z15" s="18" t="s">
@@ -4212,10 +4238,10 @@
       <c r="AI15" s="18">
         <v>20000</v>
       </c>
-      <c r="AJ15" s="78" t="s">
+      <c r="AJ15" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="AK15" s="79"/>
+      <c r="AK15" s="81"/>
     </row>
     <row r="16" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:37">
       <c r="A16" s="28" t="s">
@@ -4227,7 +4253,9 @@
       <c r="C16" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="23">
+        <v>2514</v>
+      </c>
       <c r="E16" s="29">
         <v>1</v>
       </c>
@@ -4272,13 +4300,13 @@
       <c r="Q16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="R16" s="48" t="s">
+      <c r="R16" s="50" t="s">
         <v>108</v>
       </c>
       <c r="S16" s="18">
         <v>1.2</v>
       </c>
-      <c r="T16" s="54">
+      <c r="T16" s="56">
         <v>190</v>
       </c>
       <c r="U16" s="18" t="s">
@@ -4289,7 +4317,7 @@
       <c r="X16" s="18">
         <v>300</v>
       </c>
-      <c r="Y16" s="64">
+      <c r="Y16" s="66">
         <v>180</v>
       </c>
       <c r="Z16" s="18" t="s">
@@ -4320,10 +4348,10 @@
       <c r="AI16" s="18">
         <v>20000</v>
       </c>
-      <c r="AJ16" s="78" t="s">
+      <c r="AJ16" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="AK16" s="79"/>
+      <c r="AK16" s="81"/>
     </row>
     <row r="17" s="4" customFormat="1" ht="47" customHeight="1" spans="1:37">
       <c r="A17" s="28" t="s">
@@ -4335,8 +4363,8 @@
       <c r="C17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="18">
-        <v>10</v>
+      <c r="D17" s="19">
+        <v>2511</v>
       </c>
       <c r="E17" s="29">
         <v>1</v>
@@ -4382,13 +4410,13 @@
       <c r="Q17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="R17" s="48" t="s">
+      <c r="R17" s="50" t="s">
         <v>65</v>
       </c>
       <c r="S17" s="18">
         <v>1.2</v>
       </c>
-      <c r="T17" s="54">
+      <c r="T17" s="56">
         <v>190</v>
       </c>
       <c r="U17" s="18" t="s">
@@ -4399,7 +4427,7 @@
       <c r="X17" s="18">
         <v>300</v>
       </c>
-      <c r="Y17" s="64">
+      <c r="Y17" s="66">
         <v>180</v>
       </c>
       <c r="Z17" s="18" t="s">
@@ -4430,10 +4458,10 @@
       <c r="AI17" s="18">
         <v>20000</v>
       </c>
-      <c r="AJ17" s="78" t="s">
+      <c r="AJ17" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="AK17" s="79"/>
+      <c r="AK17" s="81"/>
     </row>
     <row r="18" s="4" customFormat="1" ht="30.5" customHeight="1" spans="1:37">
       <c r="A18" s="30" t="s">
@@ -4445,7 +4473,9 @@
       <c r="C18" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="23">
+        <v>2901</v>
+      </c>
       <c r="E18" s="29">
         <v>1</v>
       </c>
@@ -4457,94 +4487,94 @@
         <f>IF(ISBLANK(E18),"",VLOOKUP(E18,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>4|5|6</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <v>870</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="31">
         <f t="shared" si="3"/>
         <v>870</v>
       </c>
-      <c r="J18" s="32">
-        <v>0</v>
-      </c>
-      <c r="K18" s="32" t="s">
+      <c r="J18" s="31">
+        <v>0</v>
+      </c>
+      <c r="K18" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="44">
         <f t="shared" si="4"/>
         <v>8700</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="44">
         <v>28</v>
       </c>
-      <c r="N18" s="31">
+      <c r="N18" s="44">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O18" s="31">
+      <c r="O18" s="44">
         <v>1.5</v>
       </c>
-      <c r="P18" s="31">
+      <c r="P18" s="44">
         <v>125</v>
       </c>
-      <c r="Q18" s="31" t="s">
+      <c r="Q18" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="R18" s="55" t="s">
+      <c r="R18" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="S18" s="31">
+      <c r="S18" s="44">
         <v>1.2</v>
       </c>
-      <c r="T18" s="56">
+      <c r="T18" s="58">
         <v>190</v>
       </c>
-      <c r="U18" s="31" t="s">
+      <c r="U18" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31">
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44">
         <v>300</v>
       </c>
-      <c r="Y18" s="65">
+      <c r="Y18" s="67">
         <v>180</v>
       </c>
-      <c r="Z18" s="31" t="s">
+      <c r="Z18" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AA18" s="31" t="s">
+      <c r="AA18" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31" t="s">
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="AD18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="31" t="s">
+      <c r="AD18" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="AG18" s="31" t="s">
+      <c r="AG18" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AH18" s="31">
+      <c r="AH18" s="44">
         <v>10</v>
       </c>
-      <c r="AI18" s="31">
+      <c r="AI18" s="44">
         <v>20000</v>
       </c>
-      <c r="AJ18" s="80" t="s">
+      <c r="AJ18" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="AK18" s="79"/>
+      <c r="AK18" s="81"/>
     </row>
     <row r="19" s="5" customFormat="1" ht="39" customHeight="1" spans="1:37">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -4553,8 +4583,10 @@
       <c r="C19" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35">
+      <c r="D19" s="19">
+        <v>2524</v>
+      </c>
+      <c r="E19" s="33">
         <v>2</v>
       </c>
       <c r="F19" s="21" t="str">
@@ -4565,94 +4597,94 @@
         <f>IF(ISBLANK(E19),"",VLOOKUP(E19,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="33">
         <v>863</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="33">
         <f t="shared" si="3"/>
         <v>863</v>
       </c>
-      <c r="J19" s="35">
-        <v>0</v>
-      </c>
-      <c r="K19" s="35" t="s">
+      <c r="J19" s="33">
+        <v>0</v>
+      </c>
+      <c r="K19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="45">
         <f t="shared" si="4"/>
         <v>8630</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="45">
         <v>28</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="45">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="45">
         <v>1.5</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="45">
         <v>125</v>
       </c>
-      <c r="Q19" s="34" t="s">
+      <c r="Q19" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R19" s="51" t="s">
+      <c r="R19" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S19" s="45">
         <v>1.2</v>
       </c>
-      <c r="T19" s="57">
+      <c r="T19" s="59">
         <v>190</v>
       </c>
-      <c r="U19" s="34" t="s">
+      <c r="U19" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34">
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45">
         <v>300</v>
       </c>
-      <c r="Y19" s="66">
+      <c r="Y19" s="68">
         <v>180</v>
       </c>
-      <c r="Z19" s="34" t="s">
+      <c r="Z19" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AA19" s="34" t="s">
+      <c r="AA19" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34" t="s">
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="AD19" s="34">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="34">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="34" t="s">
+      <c r="AD19" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AG19" s="34" t="s">
+      <c r="AG19" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AH19" s="34">
+      <c r="AH19" s="45">
         <v>10</v>
       </c>
-      <c r="AI19" s="34">
+      <c r="AI19" s="45">
         <v>20000</v>
       </c>
-      <c r="AJ19" s="81" t="s">
+      <c r="AJ19" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="AK19" s="82"/>
+      <c r="AK19" s="84"/>
     </row>
     <row r="20" s="5" customFormat="1" ht="39" customHeight="1" spans="1:37">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -4661,8 +4693,10 @@
       <c r="C20" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35">
+      <c r="D20" s="19">
+        <v>2906</v>
+      </c>
+      <c r="E20" s="33">
         <v>2</v>
       </c>
       <c r="F20" s="21" t="str">
@@ -4673,94 +4707,94 @@
         <f>IF(ISBLANK(E20),"",VLOOKUP(E20,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="33">
         <v>864</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="33">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="J20" s="35">
-        <v>0</v>
-      </c>
-      <c r="K20" s="35" t="s">
+      <c r="J20" s="33">
+        <v>0</v>
+      </c>
+      <c r="K20" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="45">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="45">
         <v>28</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="45">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="45">
         <v>1.5</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="45">
         <v>125</v>
       </c>
-      <c r="Q20" s="34" t="s">
+      <c r="Q20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R20" s="51" t="s">
+      <c r="R20" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="S20" s="34">
+      <c r="S20" s="45">
         <v>1.2</v>
       </c>
-      <c r="T20" s="57">
+      <c r="T20" s="59">
         <v>190</v>
       </c>
-      <c r="U20" s="34" t="s">
+      <c r="U20" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34">
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45">
         <v>300</v>
       </c>
-      <c r="Y20" s="66">
+      <c r="Y20" s="68">
         <v>180</v>
       </c>
-      <c r="Z20" s="34" t="s">
+      <c r="Z20" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AA20" s="34" t="s">
+      <c r="AA20" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34" t="s">
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="AD20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="34" t="s">
+      <c r="AD20" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AG20" s="34" t="s">
+      <c r="AG20" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AH20" s="34">
+      <c r="AH20" s="45">
         <v>10</v>
       </c>
-      <c r="AI20" s="34">
+      <c r="AI20" s="45">
         <v>20000</v>
       </c>
-      <c r="AJ20" s="81" t="s">
+      <c r="AJ20" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="AK20" s="82"/>
+      <c r="AK20" s="84"/>
     </row>
     <row r="21" s="5" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -4769,8 +4803,10 @@
       <c r="C21" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35">
+      <c r="D21" s="23">
+        <v>2525</v>
+      </c>
+      <c r="E21" s="33">
         <v>2</v>
       </c>
       <c r="F21" s="21" t="str">
@@ -4781,94 +4817,94 @@
         <f>IF(ISBLANK(E21),"",VLOOKUP(E21,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="33">
         <v>865</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="33">
         <f t="shared" si="3"/>
         <v>865</v>
       </c>
-      <c r="J21" s="35">
-        <v>0</v>
-      </c>
-      <c r="K21" s="35" t="s">
+      <c r="J21" s="33">
+        <v>0</v>
+      </c>
+      <c r="K21" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="45">
         <f t="shared" si="4"/>
         <v>8650</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="45">
         <v>28</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="45">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="45">
         <v>1.5</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="45">
         <v>125</v>
       </c>
-      <c r="Q21" s="34" t="s">
+      <c r="Q21" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R21" s="51" t="s">
+      <c r="R21" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="S21" s="34">
+      <c r="S21" s="45">
         <v>1.2</v>
       </c>
-      <c r="T21" s="57">
+      <c r="T21" s="59">
         <v>190</v>
       </c>
-      <c r="U21" s="34" t="s">
+      <c r="U21" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34">
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45">
         <v>300</v>
       </c>
-      <c r="Y21" s="66">
+      <c r="Y21" s="68">
         <v>180</v>
       </c>
-      <c r="Z21" s="34" t="s">
+      <c r="Z21" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AA21" s="34" t="s">
+      <c r="AA21" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34" t="s">
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="AD21" s="34">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="34">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="34" t="s">
+      <c r="AD21" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AG21" s="34" t="s">
+      <c r="AG21" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AH21" s="34">
+      <c r="AH21" s="45">
         <v>10</v>
       </c>
-      <c r="AI21" s="34">
+      <c r="AI21" s="45">
         <v>20000</v>
       </c>
-      <c r="AJ21" s="81" t="s">
+      <c r="AJ21" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="AK21" s="82"/>
+      <c r="AK21" s="84"/>
     </row>
     <row r="22" s="5" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>116</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -4877,8 +4913,10 @@
       <c r="C22" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35">
+      <c r="D22" s="19">
+        <v>2526</v>
+      </c>
+      <c r="E22" s="33">
         <v>2</v>
       </c>
       <c r="F22" s="21" t="str">
@@ -4889,94 +4927,94 @@
         <f>IF(ISBLANK(E22),"",VLOOKUP(E22,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="33">
         <v>866</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="33">
         <f t="shared" si="3"/>
         <v>866</v>
       </c>
-      <c r="J22" s="35">
-        <v>0</v>
-      </c>
-      <c r="K22" s="35" t="s">
+      <c r="J22" s="33">
+        <v>0</v>
+      </c>
+      <c r="K22" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="45">
         <f t="shared" si="4"/>
         <v>8660</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22" s="45">
         <v>28</v>
       </c>
-      <c r="N22" s="34">
+      <c r="N22" s="45">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O22" s="34">
+      <c r="O22" s="45">
         <v>1.5</v>
       </c>
-      <c r="P22" s="34">
+      <c r="P22" s="45">
         <v>125</v>
       </c>
-      <c r="Q22" s="34" t="s">
+      <c r="Q22" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R22" s="51" t="s">
+      <c r="R22" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="S22" s="34">
+      <c r="S22" s="45">
         <v>1.2</v>
       </c>
-      <c r="T22" s="57">
+      <c r="T22" s="59">
         <v>190</v>
       </c>
-      <c r="U22" s="34" t="s">
+      <c r="U22" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34">
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45">
         <v>300</v>
       </c>
-      <c r="Y22" s="66">
+      <c r="Y22" s="68">
         <v>180</v>
       </c>
-      <c r="Z22" s="34" t="s">
+      <c r="Z22" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AA22" s="34" t="s">
+      <c r="AA22" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34" t="s">
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="AD22" s="34">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="34">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="34" t="s">
+      <c r="AD22" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AG22" s="34" t="s">
+      <c r="AG22" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AH22" s="34">
+      <c r="AH22" s="45">
         <v>10</v>
       </c>
-      <c r="AI22" s="34">
+      <c r="AI22" s="45">
         <v>20000</v>
       </c>
-      <c r="AJ22" s="81" t="s">
+      <c r="AJ22" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="AK22" s="82"/>
+      <c r="AK22" s="84"/>
     </row>
     <row r="23" s="5" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>119</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -4985,8 +5023,10 @@
       <c r="C23" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35">
+      <c r="D23" s="23">
+        <v>2527</v>
+      </c>
+      <c r="E23" s="33">
         <v>2</v>
       </c>
       <c r="F23" s="21" t="str">
@@ -4997,94 +5037,94 @@
         <f>IF(ISBLANK(E23),"",VLOOKUP(E23,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="33">
         <v>867</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="33">
         <f t="shared" si="3"/>
         <v>867</v>
       </c>
-      <c r="J23" s="35">
-        <v>0</v>
-      </c>
-      <c r="K23" s="35" t="s">
+      <c r="J23" s="33">
+        <v>0</v>
+      </c>
+      <c r="K23" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="45">
         <f t="shared" si="4"/>
         <v>8670</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="45">
         <v>28</v>
       </c>
-      <c r="N23" s="34">
+      <c r="N23" s="45">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O23" s="34">
+      <c r="O23" s="45">
         <v>1.5</v>
       </c>
-      <c r="P23" s="34">
+      <c r="P23" s="45">
         <v>125</v>
       </c>
-      <c r="Q23" s="34" t="s">
+      <c r="Q23" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R23" s="51" t="s">
+      <c r="R23" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="S23" s="34">
+      <c r="S23" s="45">
         <v>1.2</v>
       </c>
-      <c r="T23" s="57">
+      <c r="T23" s="59">
         <v>190</v>
       </c>
-      <c r="U23" s="34" t="s">
+      <c r="U23" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34">
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45">
         <v>300</v>
       </c>
-      <c r="Y23" s="66">
+      <c r="Y23" s="68">
         <v>180</v>
       </c>
-      <c r="Z23" s="34" t="s">
+      <c r="Z23" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AA23" s="34" t="s">
+      <c r="AA23" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34" t="s">
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="AD23" s="34">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="34">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="34" t="s">
+      <c r="AD23" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AG23" s="34" t="s">
+      <c r="AG23" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AH23" s="34">
+      <c r="AH23" s="45">
         <v>10</v>
       </c>
-      <c r="AI23" s="34">
+      <c r="AI23" s="45">
         <v>20000</v>
       </c>
-      <c r="AJ23" s="81" t="s">
+      <c r="AJ23" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="AK23" s="82"/>
+      <c r="AK23" s="84"/>
     </row>
     <row r="24" s="5" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>122</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -5093,8 +5133,10 @@
       <c r="C24" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35">
+      <c r="D24" s="19">
+        <v>2528</v>
+      </c>
+      <c r="E24" s="33">
         <v>2</v>
       </c>
       <c r="F24" s="21" t="str">
@@ -5105,94 +5147,94 @@
         <f>IF(ISBLANK(E24),"",VLOOKUP(E24,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="33">
         <v>868</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="33">
         <f t="shared" si="3"/>
         <v>868</v>
       </c>
-      <c r="J24" s="35">
-        <v>0</v>
-      </c>
-      <c r="K24" s="35" t="s">
+      <c r="J24" s="33">
+        <v>0</v>
+      </c>
+      <c r="K24" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="45">
         <f t="shared" si="4"/>
         <v>8680</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24" s="45">
         <v>28</v>
       </c>
-      <c r="N24" s="34">
+      <c r="N24" s="45">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O24" s="34">
+      <c r="O24" s="45">
         <v>1.5</v>
       </c>
-      <c r="P24" s="34">
+      <c r="P24" s="45">
         <v>125</v>
       </c>
-      <c r="Q24" s="34" t="s">
+      <c r="Q24" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R24" s="51" t="s">
+      <c r="R24" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="S24" s="34">
+      <c r="S24" s="45">
         <v>1.2</v>
       </c>
-      <c r="T24" s="57">
+      <c r="T24" s="59">
         <v>190</v>
       </c>
-      <c r="U24" s="34" t="s">
+      <c r="U24" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34">
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45">
         <v>300</v>
       </c>
-      <c r="Y24" s="66">
+      <c r="Y24" s="68">
         <v>180</v>
       </c>
-      <c r="Z24" s="34" t="s">
+      <c r="Z24" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AA24" s="34" t="s">
+      <c r="AA24" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34" t="s">
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="AD24" s="34">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="34">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="34" t="s">
+      <c r="AD24" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AG24" s="34" t="s">
+      <c r="AG24" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AH24" s="34">
+      <c r="AH24" s="45">
         <v>10</v>
       </c>
-      <c r="AI24" s="34">
+      <c r="AI24" s="45">
         <v>20000</v>
       </c>
-      <c r="AJ24" s="81" t="s">
+      <c r="AJ24" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="AK24" s="82"/>
+      <c r="AK24" s="84"/>
     </row>
     <row r="25" s="5" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>125</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -5201,8 +5243,10 @@
       <c r="C25" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35">
+      <c r="D25" s="23">
+        <v>2529</v>
+      </c>
+      <c r="E25" s="33">
         <v>2</v>
       </c>
       <c r="F25" s="21" t="str">
@@ -5213,96 +5257,96 @@
         <f>IF(ISBLANK(E25),"",VLOOKUP(E25,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="33">
         <v>869</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="33">
         <f t="shared" si="3"/>
         <v>869</v>
       </c>
-      <c r="J25" s="35">
-        <v>0</v>
-      </c>
-      <c r="K25" s="35" t="s">
+      <c r="J25" s="33">
+        <v>0</v>
+      </c>
+      <c r="K25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="45">
         <f t="shared" si="4"/>
         <v>8690</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25" s="45">
         <v>28</v>
       </c>
-      <c r="N25" s="34">
+      <c r="N25" s="45">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O25" s="34">
+      <c r="O25" s="45">
         <v>1.5</v>
       </c>
-      <c r="P25" s="34">
+      <c r="P25" s="45">
         <v>500</v>
       </c>
-      <c r="Q25" s="34" t="s">
+      <c r="Q25" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R25" s="51" t="s">
+      <c r="R25" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="S25" s="34">
+      <c r="S25" s="45">
         <v>1.2</v>
       </c>
-      <c r="T25" s="57">
+      <c r="T25" s="59">
         <v>190</v>
       </c>
-      <c r="U25" s="34" t="s">
+      <c r="U25" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="V25" s="34" t="s">
+      <c r="V25" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34">
+      <c r="W25" s="45"/>
+      <c r="X25" s="45">
         <v>300</v>
       </c>
-      <c r="Y25" s="66">
+      <c r="Y25" s="68">
         <v>180</v>
       </c>
-      <c r="Z25" s="34" t="s">
+      <c r="Z25" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AA25" s="34" t="s">
+      <c r="AA25" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34" t="s">
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="AD25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="34" t="s">
+      <c r="AD25" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AG25" s="34" t="s">
+      <c r="AG25" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AH25" s="34">
+      <c r="AH25" s="45">
         <v>10</v>
       </c>
-      <c r="AI25" s="34">
+      <c r="AI25" s="45">
         <v>20000</v>
       </c>
-      <c r="AJ25" s="81" t="s">
+      <c r="AJ25" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="AK25" s="82"/>
+      <c r="AK25" s="84"/>
     </row>
     <row r="26" s="5" customFormat="1" ht="39" customHeight="1" spans="1:37">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>128</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -5311,8 +5355,10 @@
       <c r="C26" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35">
+      <c r="D26" s="19">
+        <v>2906</v>
+      </c>
+      <c r="E26" s="33">
         <v>2</v>
       </c>
       <c r="F26" s="21" t="str">
@@ -5323,94 +5369,94 @@
         <f>IF(ISBLANK(E26),"",VLOOKUP(E26,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>1|5|6</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="33">
         <v>864</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="33">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="J26" s="35">
-        <v>0</v>
-      </c>
-      <c r="K26" s="35" t="s">
+      <c r="J26" s="33">
+        <v>0</v>
+      </c>
+      <c r="K26" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="45">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26" s="45">
         <v>28</v>
       </c>
-      <c r="N26" s="34">
+      <c r="N26" s="45">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O26" s="34">
+      <c r="O26" s="45">
         <v>1.5</v>
       </c>
-      <c r="P26" s="34">
+      <c r="P26" s="45">
         <v>125</v>
       </c>
-      <c r="Q26" s="34" t="s">
+      <c r="Q26" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R26" s="51" t="s">
+      <c r="R26" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="S26" s="34">
+      <c r="S26" s="45">
         <v>1.2</v>
       </c>
-      <c r="T26" s="57">
+      <c r="T26" s="59">
         <v>190</v>
       </c>
-      <c r="U26" s="34" t="s">
+      <c r="U26" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34">
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45">
         <v>300</v>
       </c>
-      <c r="Y26" s="66">
+      <c r="Y26" s="68">
         <v>180</v>
       </c>
-      <c r="Z26" s="34" t="s">
+      <c r="Z26" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AA26" s="34" t="s">
+      <c r="AA26" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34" t="s">
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="AD26" s="34">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="34">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="34" t="s">
+      <c r="AD26" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AG26" s="34" t="s">
+      <c r="AG26" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AH26" s="34">
+      <c r="AH26" s="45">
         <v>10</v>
       </c>
-      <c r="AI26" s="34">
+      <c r="AI26" s="45">
         <v>20000</v>
       </c>
-      <c r="AJ26" s="81" t="s">
+      <c r="AJ26" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="AK26" s="82"/>
+      <c r="AK26" s="84"/>
     </row>
     <row r="27" s="6" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>129</v>
       </c>
       <c r="B27" s="26" t="s">
@@ -5419,8 +5465,10 @@
       <c r="C27" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38">
+      <c r="D27" s="19">
+        <v>2538</v>
+      </c>
+      <c r="E27" s="35">
         <v>3</v>
       </c>
       <c r="F27" s="21" t="str">
@@ -5431,94 +5479,94 @@
         <f>IF(ISBLANK(E27),"",VLOOKUP(E27,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="35">
         <v>863</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="35">
         <f t="shared" si="3"/>
         <v>863</v>
       </c>
-      <c r="J27" s="38">
-        <v>0</v>
-      </c>
-      <c r="K27" s="38" t="s">
+      <c r="J27" s="35">
+        <v>0</v>
+      </c>
+      <c r="K27" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L27" s="46">
         <f t="shared" si="4"/>
         <v>8630</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="46">
         <v>28</v>
       </c>
-      <c r="N27" s="37">
+      <c r="N27" s="46">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O27" s="37">
+      <c r="O27" s="46">
         <v>1.5</v>
       </c>
-      <c r="P27" s="37">
+      <c r="P27" s="46">
         <v>125</v>
       </c>
-      <c r="Q27" s="37" t="s">
+      <c r="Q27" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="R27" s="52" t="s">
+      <c r="R27" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="S27" s="37">
+      <c r="S27" s="46">
         <v>1.2</v>
       </c>
-      <c r="T27" s="58">
+      <c r="T27" s="60">
         <v>190</v>
       </c>
-      <c r="U27" s="37" t="s">
+      <c r="U27" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37">
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46">
         <v>300</v>
       </c>
-      <c r="Y27" s="67">
+      <c r="Y27" s="69">
         <v>180</v>
       </c>
-      <c r="Z27" s="37" t="s">
+      <c r="Z27" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AA27" s="37" t="s">
+      <c r="AA27" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37" t="s">
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD27" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="37" t="s">
+      <c r="AD27" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AG27" s="37" t="s">
+      <c r="AG27" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AH27" s="37">
+      <c r="AH27" s="46">
         <v>10</v>
       </c>
-      <c r="AI27" s="37">
+      <c r="AI27" s="46">
         <v>20000</v>
       </c>
-      <c r="AJ27" s="83" t="s">
+      <c r="AJ27" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="AK27" s="84"/>
+      <c r="AK27" s="86"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="39" customHeight="1" spans="1:37">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B28" s="26" t="s">
@@ -5527,8 +5575,10 @@
       <c r="C28" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38">
+      <c r="D28" s="23">
+        <v>2539</v>
+      </c>
+      <c r="E28" s="35">
         <v>3</v>
       </c>
       <c r="F28" s="21" t="str">
@@ -5539,94 +5589,94 @@
         <f>IF(ISBLANK(E28),"",VLOOKUP(E28,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="35">
         <v>864</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="35">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="J28" s="38">
-        <v>0</v>
-      </c>
-      <c r="K28" s="38" t="s">
+      <c r="J28" s="35">
+        <v>0</v>
+      </c>
+      <c r="K28" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="46">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="46">
         <v>28</v>
       </c>
-      <c r="N28" s="37">
+      <c r="N28" s="46">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="46">
         <v>1.5</v>
       </c>
-      <c r="P28" s="37">
+      <c r="P28" s="46">
         <v>125</v>
       </c>
-      <c r="Q28" s="37" t="s">
+      <c r="Q28" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="R28" s="52" t="s">
+      <c r="R28" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="S28" s="37">
+      <c r="S28" s="46">
         <v>1.2</v>
       </c>
-      <c r="T28" s="58">
+      <c r="T28" s="60">
         <v>190</v>
       </c>
-      <c r="U28" s="37" t="s">
+      <c r="U28" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37">
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46">
         <v>300</v>
       </c>
-      <c r="Y28" s="67">
+      <c r="Y28" s="69">
         <v>180</v>
       </c>
-      <c r="Z28" s="37" t="s">
+      <c r="Z28" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AA28" s="37" t="s">
+      <c r="AA28" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37" t="s">
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD28" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="37" t="s">
+      <c r="AD28" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AG28" s="37" t="s">
+      <c r="AG28" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AH28" s="37">
+      <c r="AH28" s="46">
         <v>10</v>
       </c>
-      <c r="AI28" s="37">
+      <c r="AI28" s="46">
         <v>20000</v>
       </c>
-      <c r="AJ28" s="83" t="s">
+      <c r="AJ28" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="AK28" s="84"/>
+      <c r="AK28" s="86"/>
     </row>
     <row r="29" s="6" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>131</v>
       </c>
       <c r="B29" s="26" t="s">
@@ -5635,8 +5685,10 @@
       <c r="C29" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38">
+      <c r="D29" s="19">
+        <v>2540</v>
+      </c>
+      <c r="E29" s="35">
         <v>3</v>
       </c>
       <c r="F29" s="21" t="str">
@@ -5647,94 +5699,94 @@
         <f>IF(ISBLANK(E29),"",VLOOKUP(E29,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="35">
         <v>865</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="35">
         <f t="shared" si="3"/>
         <v>865</v>
       </c>
-      <c r="J29" s="38">
-        <v>0</v>
-      </c>
-      <c r="K29" s="38" t="s">
+      <c r="J29" s="35">
+        <v>0</v>
+      </c>
+      <c r="K29" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="46">
         <f t="shared" si="4"/>
         <v>8650</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="46">
         <v>28</v>
       </c>
-      <c r="N29" s="37">
+      <c r="N29" s="46">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O29" s="37">
+      <c r="O29" s="46">
         <v>1.5</v>
       </c>
-      <c r="P29" s="37">
+      <c r="P29" s="46">
         <v>125</v>
       </c>
-      <c r="Q29" s="37" t="s">
+      <c r="Q29" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="R29" s="52" t="s">
+      <c r="R29" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="S29" s="37">
+      <c r="S29" s="46">
         <v>1.2</v>
       </c>
-      <c r="T29" s="58">
+      <c r="T29" s="60">
         <v>190</v>
       </c>
-      <c r="U29" s="37" t="s">
+      <c r="U29" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37">
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46">
         <v>300</v>
       </c>
-      <c r="Y29" s="67">
+      <c r="Y29" s="69">
         <v>180</v>
       </c>
-      <c r="Z29" s="37" t="s">
+      <c r="Z29" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AA29" s="37" t="s">
+      <c r="AA29" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37" t="s">
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD29" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="37" t="s">
+      <c r="AD29" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AG29" s="37" t="s">
+      <c r="AG29" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AH29" s="37">
+      <c r="AH29" s="46">
         <v>10</v>
       </c>
-      <c r="AI29" s="37">
+      <c r="AI29" s="46">
         <v>20000</v>
       </c>
-      <c r="AJ29" s="83" t="s">
+      <c r="AJ29" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="AK29" s="84"/>
+      <c r="AK29" s="86"/>
     </row>
     <row r="30" s="6" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="34" t="s">
         <v>134</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5743,8 +5795,10 @@
       <c r="C30" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38">
+      <c r="D30" s="23">
+        <v>2541</v>
+      </c>
+      <c r="E30" s="35">
         <v>3</v>
       </c>
       <c r="F30" s="21" t="str">
@@ -5755,94 +5809,94 @@
         <f>IF(ISBLANK(E30),"",VLOOKUP(E30,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="35">
         <v>866</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="35">
         <f t="shared" si="3"/>
         <v>866</v>
       </c>
-      <c r="J30" s="38">
-        <v>0</v>
-      </c>
-      <c r="K30" s="38" t="s">
+      <c r="J30" s="35">
+        <v>0</v>
+      </c>
+      <c r="K30" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30" s="46">
         <f t="shared" si="4"/>
         <v>8660</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="46">
         <v>28</v>
       </c>
-      <c r="N30" s="37">
+      <c r="N30" s="46">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O30" s="37">
+      <c r="O30" s="46">
         <v>1.5</v>
       </c>
-      <c r="P30" s="37">
+      <c r="P30" s="46">
         <v>125</v>
       </c>
-      <c r="Q30" s="37" t="s">
+      <c r="Q30" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="R30" s="52" t="s">
+      <c r="R30" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="S30" s="37">
+      <c r="S30" s="46">
         <v>1.2</v>
       </c>
-      <c r="T30" s="58">
+      <c r="T30" s="60">
         <v>190</v>
       </c>
-      <c r="U30" s="37" t="s">
+      <c r="U30" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37">
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46">
         <v>300</v>
       </c>
-      <c r="Y30" s="67">
+      <c r="Y30" s="69">
         <v>180</v>
       </c>
-      <c r="Z30" s="37" t="s">
+      <c r="Z30" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AA30" s="37" t="s">
+      <c r="AA30" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37" t="s">
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD30" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="37" t="s">
+      <c r="AD30" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AG30" s="37" t="s">
+      <c r="AG30" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AH30" s="37">
+      <c r="AH30" s="46">
         <v>10</v>
       </c>
-      <c r="AI30" s="37">
+      <c r="AI30" s="46">
         <v>20000</v>
       </c>
-      <c r="AJ30" s="83" t="s">
+      <c r="AJ30" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="AK30" s="84"/>
+      <c r="AK30" s="86"/>
     </row>
     <row r="31" s="6" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="34" t="s">
         <v>137</v>
       </c>
       <c r="B31" s="26" t="s">
@@ -5851,8 +5905,10 @@
       <c r="C31" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38">
+      <c r="D31" s="19">
+        <v>2542</v>
+      </c>
+      <c r="E31" s="35">
         <v>3</v>
       </c>
       <c r="F31" s="21" t="str">
@@ -5863,94 +5919,94 @@
         <f>IF(ISBLANK(E31),"",VLOOKUP(E31,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="35">
         <v>867</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="35">
         <f t="shared" si="3"/>
         <v>867</v>
       </c>
-      <c r="J31" s="38">
-        <v>0</v>
-      </c>
-      <c r="K31" s="38" t="s">
+      <c r="J31" s="35">
+        <v>0</v>
+      </c>
+      <c r="K31" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="46">
         <f t="shared" si="4"/>
         <v>8670</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="46">
         <v>28</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="46">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O31" s="37">
+      <c r="O31" s="46">
         <v>1.5</v>
       </c>
-      <c r="P31" s="37">
+      <c r="P31" s="46">
         <v>125</v>
       </c>
-      <c r="Q31" s="37" t="s">
+      <c r="Q31" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="R31" s="52" t="s">
+      <c r="R31" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="S31" s="37">
+      <c r="S31" s="46">
         <v>1.2</v>
       </c>
-      <c r="T31" s="58">
+      <c r="T31" s="60">
         <v>190</v>
       </c>
-      <c r="U31" s="37" t="s">
+      <c r="U31" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37">
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46">
         <v>300</v>
       </c>
-      <c r="Y31" s="67">
+      <c r="Y31" s="69">
         <v>180</v>
       </c>
-      <c r="Z31" s="37" t="s">
+      <c r="Z31" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AA31" s="37" t="s">
+      <c r="AA31" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37" t="s">
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD31" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="37" t="s">
+      <c r="AD31" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AG31" s="37" t="s">
+      <c r="AG31" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AH31" s="37">
+      <c r="AH31" s="46">
         <v>10</v>
       </c>
-      <c r="AI31" s="37">
+      <c r="AI31" s="46">
         <v>20000</v>
       </c>
-      <c r="AJ31" s="83" t="s">
+      <c r="AJ31" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="AK31" s="84"/>
+      <c r="AK31" s="86"/>
     </row>
     <row r="32" s="6" customFormat="1" ht="50.25" spans="1:37">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="34" t="s">
         <v>140</v>
       </c>
       <c r="B32" s="26" t="s">
@@ -5959,8 +6015,10 @@
       <c r="C32" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38">
+      <c r="D32" s="23">
+        <v>2535</v>
+      </c>
+      <c r="E32" s="35">
         <v>3</v>
       </c>
       <c r="F32" s="21" t="str">
@@ -5971,94 +6029,94 @@
         <f>IF(ISBLANK(E32),"",VLOOKUP(E32,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="35">
         <v>868</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="35">
         <f t="shared" si="3"/>
         <v>868</v>
       </c>
-      <c r="J32" s="38">
-        <v>0</v>
-      </c>
-      <c r="K32" s="38" t="s">
+      <c r="J32" s="35">
+        <v>0</v>
+      </c>
+      <c r="K32" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="46">
         <f t="shared" si="4"/>
         <v>8680</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="46">
         <v>28</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="46">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O32" s="37">
+      <c r="O32" s="46">
         <v>1.5</v>
       </c>
-      <c r="P32" s="37">
+      <c r="P32" s="46">
         <v>125</v>
       </c>
-      <c r="Q32" s="37" t="s">
+      <c r="Q32" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="R32" s="52" t="s">
+      <c r="R32" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="S32" s="37">
+      <c r="S32" s="46">
         <v>1.2</v>
       </c>
-      <c r="T32" s="58">
+      <c r="T32" s="60">
         <v>190</v>
       </c>
-      <c r="U32" s="37" t="s">
+      <c r="U32" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37">
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46">
         <v>300</v>
       </c>
-      <c r="Y32" s="67">
+      <c r="Y32" s="69">
         <v>180</v>
       </c>
-      <c r="Z32" s="37" t="s">
+      <c r="Z32" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AA32" s="37" t="s">
+      <c r="AA32" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37" t="s">
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD32" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="37" t="s">
+      <c r="AD32" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AG32" s="37" t="s">
+      <c r="AG32" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AH32" s="37">
+      <c r="AH32" s="46">
         <v>10</v>
       </c>
-      <c r="AI32" s="37">
+      <c r="AI32" s="46">
         <v>20000</v>
       </c>
-      <c r="AJ32" s="83" t="s">
+      <c r="AJ32" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="AK32" s="84"/>
+      <c r="AK32" s="86"/>
     </row>
     <row r="33" s="6" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="34" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="26" t="s">
@@ -6067,8 +6125,10 @@
       <c r="C33" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38">
+      <c r="D33" s="23">
+        <v>2543</v>
+      </c>
+      <c r="E33" s="35">
         <v>3</v>
       </c>
       <c r="F33" s="21" t="str">
@@ -6079,96 +6139,96 @@
         <f>IF(ISBLANK(E33),"",VLOOKUP(E33,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="35">
         <v>869</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="35">
         <f t="shared" si="3"/>
         <v>869</v>
       </c>
-      <c r="J33" s="38">
-        <v>0</v>
-      </c>
-      <c r="K33" s="38" t="s">
+      <c r="J33" s="35">
+        <v>0</v>
+      </c>
+      <c r="K33" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L33" s="46">
         <f t="shared" si="4"/>
         <v>8690</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M33" s="46">
         <v>28</v>
       </c>
-      <c r="N33" s="37">
+      <c r="N33" s="46">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O33" s="37">
+      <c r="O33" s="46">
         <v>1.5</v>
       </c>
-      <c r="P33" s="37">
+      <c r="P33" s="46">
         <v>500</v>
       </c>
-      <c r="Q33" s="37" t="s">
+      <c r="Q33" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="R33" s="52" t="s">
+      <c r="R33" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="S33" s="37">
+      <c r="S33" s="46">
         <v>1.2</v>
       </c>
-      <c r="T33" s="58">
+      <c r="T33" s="60">
         <v>190</v>
       </c>
-      <c r="U33" s="37" t="s">
+      <c r="U33" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="V33" s="37" t="s">
+      <c r="V33" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37">
+      <c r="W33" s="46"/>
+      <c r="X33" s="46">
         <v>300</v>
       </c>
-      <c r="Y33" s="67">
+      <c r="Y33" s="69">
         <v>180</v>
       </c>
-      <c r="Z33" s="37" t="s">
+      <c r="Z33" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AA33" s="37" t="s">
+      <c r="AA33" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37" t="s">
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD33" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="37" t="s">
+      <c r="AD33" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AG33" s="37" t="s">
+      <c r="AG33" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AH33" s="37">
+      <c r="AH33" s="46">
         <v>10</v>
       </c>
-      <c r="AI33" s="37">
+      <c r="AI33" s="46">
         <v>20000</v>
       </c>
-      <c r="AJ33" s="83" t="s">
+      <c r="AJ33" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="AK33" s="84"/>
+      <c r="AK33" s="86"/>
     </row>
     <row r="34" s="6" customFormat="1" ht="39" customHeight="1" spans="1:37">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="34" t="s">
         <v>146</v>
       </c>
       <c r="B34" s="26" t="s">
@@ -6177,8 +6237,10 @@
       <c r="C34" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38">
+      <c r="D34" s="23">
+        <v>2539</v>
+      </c>
+      <c r="E34" s="35">
         <v>3</v>
       </c>
       <c r="F34" s="21" t="str">
@@ -6189,94 +6251,94 @@
         <f>IF(ISBLANK(E34),"",VLOOKUP(E34,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>2|5|6</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="35">
         <v>864</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="35">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="J34" s="38">
-        <v>0</v>
-      </c>
-      <c r="K34" s="38" t="s">
+      <c r="J34" s="35">
+        <v>0</v>
+      </c>
+      <c r="K34" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="46">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="M34" s="37">
+      <c r="M34" s="46">
         <v>28</v>
       </c>
-      <c r="N34" s="37">
+      <c r="N34" s="46">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O34" s="37">
+      <c r="O34" s="46">
         <v>1.5</v>
       </c>
-      <c r="P34" s="37">
+      <c r="P34" s="46">
         <v>125</v>
       </c>
-      <c r="Q34" s="37" t="s">
+      <c r="Q34" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="R34" s="52" t="s">
+      <c r="R34" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="S34" s="37">
+      <c r="S34" s="46">
         <v>1.2</v>
       </c>
-      <c r="T34" s="58">
+      <c r="T34" s="60">
         <v>190</v>
       </c>
-      <c r="U34" s="37" t="s">
+      <c r="U34" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37">
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46">
         <v>300</v>
       </c>
-      <c r="Y34" s="67">
+      <c r="Y34" s="69">
         <v>180</v>
       </c>
-      <c r="Z34" s="37" t="s">
+      <c r="Z34" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AA34" s="37" t="s">
+      <c r="AA34" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37" t="s">
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD34" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="37" t="s">
+      <c r="AD34" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AG34" s="37" t="s">
+      <c r="AG34" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AH34" s="37">
+      <c r="AH34" s="46">
         <v>10</v>
       </c>
-      <c r="AI34" s="37">
+      <c r="AI34" s="46">
         <v>20000</v>
       </c>
-      <c r="AJ34" s="83" t="s">
+      <c r="AJ34" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="AK34" s="84"/>
+      <c r="AK34" s="86"/>
     </row>
     <row r="35" s="7" customFormat="1" ht="33.75" spans="1:37">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="36" t="s">
         <v>147</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -6285,8 +6347,10 @@
       <c r="C35" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41">
+      <c r="D35" s="23">
+        <v>2553</v>
+      </c>
+      <c r="E35" s="37">
         <v>4</v>
       </c>
       <c r="F35" s="21" t="str">
@@ -6297,94 +6361,94 @@
         <f>IF(ISBLANK(E35),"",VLOOKUP(E35,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>3|5|6</v>
       </c>
-      <c r="H35" s="41">
+      <c r="H35" s="37">
         <v>863</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I35" s="37">
         <f t="shared" si="3"/>
         <v>863</v>
       </c>
-      <c r="J35" s="41">
-        <v>0</v>
-      </c>
-      <c r="K35" s="41" t="s">
+      <c r="J35" s="37">
+        <v>0</v>
+      </c>
+      <c r="K35" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="L35" s="40">
+      <c r="L35" s="47">
         <f t="shared" si="4"/>
         <v>8630</v>
       </c>
-      <c r="M35" s="40">
+      <c r="M35" s="47">
         <v>28</v>
       </c>
-      <c r="N35" s="40">
+      <c r="N35" s="47">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O35" s="40">
+      <c r="O35" s="47">
         <v>1.5</v>
       </c>
-      <c r="P35" s="40">
+      <c r="P35" s="47">
         <v>125</v>
       </c>
-      <c r="Q35" s="40" t="s">
+      <c r="Q35" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R35" s="53" t="s">
+      <c r="R35" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="S35" s="40">
+      <c r="S35" s="47">
         <v>1.2</v>
       </c>
-      <c r="T35" s="59">
+      <c r="T35" s="61">
         <v>190</v>
       </c>
-      <c r="U35" s="40" t="s">
+      <c r="U35" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40">
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47">
         <v>300</v>
       </c>
-      <c r="Y35" s="68">
+      <c r="Y35" s="70">
         <v>180</v>
       </c>
-      <c r="Z35" s="40" t="s">
+      <c r="Z35" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AA35" s="40" t="s">
+      <c r="AA35" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="40" t="s">
+      <c r="AB35" s="47"/>
+      <c r="AC35" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AD35" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="40" t="s">
+      <c r="AD35" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AG35" s="40" t="s">
+      <c r="AG35" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AH35" s="40">
+      <c r="AH35" s="47">
         <v>10</v>
       </c>
-      <c r="AI35" s="40">
+      <c r="AI35" s="47">
         <v>20000</v>
       </c>
-      <c r="AJ35" s="85" t="s">
+      <c r="AJ35" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AK35" s="86"/>
+      <c r="AK35" s="88"/>
     </row>
     <row r="36" s="7" customFormat="1" ht="39" customHeight="1" spans="1:37">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="36" t="s">
         <v>148</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -6393,8 +6457,10 @@
       <c r="C36" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41">
+      <c r="D36" s="19">
+        <v>2554</v>
+      </c>
+      <c r="E36" s="37">
         <v>4</v>
       </c>
       <c r="F36" s="21" t="str">
@@ -6405,94 +6471,94 @@
         <f>IF(ISBLANK(E36),"",VLOOKUP(E36,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>3|5|6</v>
       </c>
-      <c r="H36" s="41">
+      <c r="H36" s="37">
         <v>864</v>
       </c>
-      <c r="I36" s="41">
+      <c r="I36" s="37">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="J36" s="41">
-        <v>0</v>
-      </c>
-      <c r="K36" s="41" t="s">
+      <c r="J36" s="37">
+        <v>0</v>
+      </c>
+      <c r="K36" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="47">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="M36" s="40">
+      <c r="M36" s="47">
         <v>28</v>
       </c>
-      <c r="N36" s="40">
+      <c r="N36" s="47">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O36" s="40">
+      <c r="O36" s="47">
         <v>1.5</v>
       </c>
-      <c r="P36" s="40">
+      <c r="P36" s="47">
         <v>125</v>
       </c>
-      <c r="Q36" s="40" t="s">
+      <c r="Q36" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R36" s="53" t="s">
+      <c r="R36" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="S36" s="40">
+      <c r="S36" s="47">
         <v>1.2</v>
       </c>
-      <c r="T36" s="59">
+      <c r="T36" s="61">
         <v>190</v>
       </c>
-      <c r="U36" s="40" t="s">
+      <c r="U36" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40">
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47">
         <v>300</v>
       </c>
-      <c r="Y36" s="68">
+      <c r="Y36" s="70">
         <v>180</v>
       </c>
-      <c r="Z36" s="40" t="s">
+      <c r="Z36" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AA36" s="40" t="s">
+      <c r="AA36" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AB36" s="40"/>
-      <c r="AC36" s="40" t="s">
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AD36" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="40" t="s">
+      <c r="AD36" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AG36" s="40" t="s">
+      <c r="AG36" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AH36" s="40">
+      <c r="AH36" s="47">
         <v>10</v>
       </c>
-      <c r="AI36" s="40">
+      <c r="AI36" s="47">
         <v>20000</v>
       </c>
-      <c r="AJ36" s="85" t="s">
+      <c r="AJ36" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AK36" s="86"/>
+      <c r="AK36" s="88"/>
     </row>
     <row r="37" s="7" customFormat="1" ht="33.75" spans="1:37">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="36" t="s">
         <v>149</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -6501,8 +6567,10 @@
       <c r="C37" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41">
+      <c r="D37" s="23">
+        <v>2555</v>
+      </c>
+      <c r="E37" s="37">
         <v>4</v>
       </c>
       <c r="F37" s="21" t="str">
@@ -6513,94 +6581,94 @@
         <f>IF(ISBLANK(E37),"",VLOOKUP(E37,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>3|5|6</v>
       </c>
-      <c r="H37" s="41">
+      <c r="H37" s="37">
         <v>865</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I37" s="37">
         <f t="shared" si="3"/>
         <v>865</v>
       </c>
-      <c r="J37" s="41">
-        <v>0</v>
-      </c>
-      <c r="K37" s="41" t="s">
+      <c r="J37" s="37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="L37" s="40">
+      <c r="L37" s="47">
         <f t="shared" si="4"/>
         <v>8650</v>
       </c>
-      <c r="M37" s="40">
+      <c r="M37" s="47">
         <v>28</v>
       </c>
-      <c r="N37" s="40">
+      <c r="N37" s="47">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O37" s="40">
+      <c r="O37" s="47">
         <v>1.5</v>
       </c>
-      <c r="P37" s="40">
+      <c r="P37" s="47">
         <v>125</v>
       </c>
-      <c r="Q37" s="40" t="s">
+      <c r="Q37" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R37" s="53" t="s">
+      <c r="R37" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="S37" s="40">
+      <c r="S37" s="47">
         <v>1.2</v>
       </c>
-      <c r="T37" s="59">
+      <c r="T37" s="61">
         <v>190</v>
       </c>
-      <c r="U37" s="40" t="s">
+      <c r="U37" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40">
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47">
         <v>300</v>
       </c>
-      <c r="Y37" s="68">
+      <c r="Y37" s="70">
         <v>180</v>
       </c>
-      <c r="Z37" s="40" t="s">
+      <c r="Z37" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AA37" s="40" t="s">
+      <c r="AA37" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AB37" s="40"/>
-      <c r="AC37" s="40" t="s">
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AD37" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="40" t="s">
+      <c r="AD37" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AG37" s="40" t="s">
+      <c r="AG37" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AH37" s="40">
+      <c r="AH37" s="47">
         <v>10</v>
       </c>
-      <c r="AI37" s="40">
+      <c r="AI37" s="47">
         <v>20000</v>
       </c>
-      <c r="AJ37" s="85" t="s">
+      <c r="AJ37" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AK37" s="86"/>
+      <c r="AK37" s="88"/>
     </row>
     <row r="38" s="7" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="36" t="s">
         <v>152</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -6609,8 +6677,10 @@
       <c r="C38" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41">
+      <c r="D38" s="19">
+        <v>2556</v>
+      </c>
+      <c r="E38" s="37">
         <v>4</v>
       </c>
       <c r="F38" s="21" t="str">
@@ -6621,94 +6691,94 @@
         <f>IF(ISBLANK(E38),"",VLOOKUP(E38,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>3|5|6</v>
       </c>
-      <c r="H38" s="41">
+      <c r="H38" s="37">
         <v>866</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I38" s="37">
         <f t="shared" si="3"/>
         <v>866</v>
       </c>
-      <c r="J38" s="41">
-        <v>0</v>
-      </c>
-      <c r="K38" s="41" t="s">
+      <c r="J38" s="37">
+        <v>0</v>
+      </c>
+      <c r="K38" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="L38" s="40">
+      <c r="L38" s="47">
         <f t="shared" si="4"/>
         <v>8660</v>
       </c>
-      <c r="M38" s="40">
+      <c r="M38" s="47">
         <v>28</v>
       </c>
-      <c r="N38" s="40">
+      <c r="N38" s="47">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O38" s="40">
+      <c r="O38" s="47">
         <v>1.5</v>
       </c>
-      <c r="P38" s="40">
+      <c r="P38" s="47">
         <v>125</v>
       </c>
-      <c r="Q38" s="40" t="s">
+      <c r="Q38" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R38" s="53" t="s">
+      <c r="R38" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="S38" s="40">
+      <c r="S38" s="47">
         <v>1.2</v>
       </c>
-      <c r="T38" s="59">
+      <c r="T38" s="61">
         <v>190</v>
       </c>
-      <c r="U38" s="40" t="s">
+      <c r="U38" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40">
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47">
         <v>300</v>
       </c>
-      <c r="Y38" s="68">
+      <c r="Y38" s="70">
         <v>180</v>
       </c>
-      <c r="Z38" s="40" t="s">
+      <c r="Z38" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AA38" s="40" t="s">
+      <c r="AA38" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40" t="s">
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AD38" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="40" t="s">
+      <c r="AD38" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AG38" s="40" t="s">
+      <c r="AG38" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AH38" s="40">
+      <c r="AH38" s="47">
         <v>10</v>
       </c>
-      <c r="AI38" s="40">
+      <c r="AI38" s="47">
         <v>20000</v>
       </c>
-      <c r="AJ38" s="85" t="s">
+      <c r="AJ38" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AK38" s="86"/>
+      <c r="AK38" s="88"/>
     </row>
     <row r="39" s="7" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="36" t="s">
         <v>155</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -6717,8 +6787,10 @@
       <c r="C39" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41">
+      <c r="D39" s="23">
+        <v>2557</v>
+      </c>
+      <c r="E39" s="37">
         <v>4</v>
       </c>
       <c r="F39" s="21" t="str">
@@ -6729,94 +6801,94 @@
         <f>IF(ISBLANK(E39),"",VLOOKUP(E39,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>3|5|6</v>
       </c>
-      <c r="H39" s="41">
+      <c r="H39" s="37">
         <v>867</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39" s="37">
         <f t="shared" si="3"/>
         <v>867</v>
       </c>
-      <c r="J39" s="41">
-        <v>0</v>
-      </c>
-      <c r="K39" s="41" t="s">
+      <c r="J39" s="37">
+        <v>0</v>
+      </c>
+      <c r="K39" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="L39" s="40">
+      <c r="L39" s="47">
         <f t="shared" si="4"/>
         <v>8670</v>
       </c>
-      <c r="M39" s="40">
+      <c r="M39" s="47">
         <v>28</v>
       </c>
-      <c r="N39" s="40">
+      <c r="N39" s="47">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O39" s="40">
+      <c r="O39" s="47">
         <v>1.5</v>
       </c>
-      <c r="P39" s="40">
+      <c r="P39" s="47">
         <v>125</v>
       </c>
-      <c r="Q39" s="40" t="s">
+      <c r="Q39" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R39" s="53" t="s">
+      <c r="R39" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="S39" s="40">
+      <c r="S39" s="47">
         <v>1.2</v>
       </c>
-      <c r="T39" s="59">
+      <c r="T39" s="61">
         <v>190</v>
       </c>
-      <c r="U39" s="40" t="s">
+      <c r="U39" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40">
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47">
         <v>300</v>
       </c>
-      <c r="Y39" s="68">
+      <c r="Y39" s="70">
         <v>180</v>
       </c>
-      <c r="Z39" s="40" t="s">
+      <c r="Z39" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AA39" s="40" t="s">
+      <c r="AA39" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AB39" s="40"/>
-      <c r="AC39" s="40" t="s">
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AD39" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="40" t="s">
+      <c r="AD39" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AG39" s="40" t="s">
+      <c r="AG39" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AH39" s="40">
+      <c r="AH39" s="47">
         <v>10</v>
       </c>
-      <c r="AI39" s="40">
+      <c r="AI39" s="47">
         <v>20000</v>
       </c>
-      <c r="AJ39" s="85" t="s">
+      <c r="AJ39" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AK39" s="86"/>
+      <c r="AK39" s="88"/>
     </row>
     <row r="40" s="7" customFormat="1" ht="33.75" spans="1:37">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="36" t="s">
         <v>158</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -6825,8 +6897,10 @@
       <c r="C40" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41">
+      <c r="D40" s="23">
+        <v>2553</v>
+      </c>
+      <c r="E40" s="37">
         <v>4</v>
       </c>
       <c r="F40" s="21" t="str">
@@ -6837,94 +6911,94 @@
         <f>IF(ISBLANK(E40),"",VLOOKUP(E40,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>3|5|6</v>
       </c>
-      <c r="H40" s="41">
+      <c r="H40" s="37">
         <v>868</v>
       </c>
-      <c r="I40" s="41">
+      <c r="I40" s="37">
         <f t="shared" si="3"/>
         <v>868</v>
       </c>
-      <c r="J40" s="41">
-        <v>0</v>
-      </c>
-      <c r="K40" s="41" t="s">
+      <c r="J40" s="37">
+        <v>0</v>
+      </c>
+      <c r="K40" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="L40" s="40">
+      <c r="L40" s="47">
         <f t="shared" si="4"/>
         <v>8680</v>
       </c>
-      <c r="M40" s="40">
+      <c r="M40" s="47">
         <v>28</v>
       </c>
-      <c r="N40" s="40">
+      <c r="N40" s="47">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O40" s="40">
+      <c r="O40" s="47">
         <v>1.5</v>
       </c>
-      <c r="P40" s="40">
+      <c r="P40" s="47">
         <v>125</v>
       </c>
-      <c r="Q40" s="40" t="s">
+      <c r="Q40" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R40" s="53" t="s">
+      <c r="R40" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="S40" s="40">
+      <c r="S40" s="47">
         <v>1.2</v>
       </c>
-      <c r="T40" s="59">
+      <c r="T40" s="61">
         <v>190</v>
       </c>
-      <c r="U40" s="40" t="s">
+      <c r="U40" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40">
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47">
         <v>300</v>
       </c>
-      <c r="Y40" s="68">
+      <c r="Y40" s="70">
         <v>180</v>
       </c>
-      <c r="Z40" s="40" t="s">
+      <c r="Z40" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AA40" s="40" t="s">
+      <c r="AA40" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AB40" s="40"/>
-      <c r="AC40" s="40" t="s">
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AD40" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="40" t="s">
+      <c r="AD40" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AG40" s="40" t="s">
+      <c r="AG40" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AH40" s="40">
+      <c r="AH40" s="47">
         <v>10</v>
       </c>
-      <c r="AI40" s="40">
+      <c r="AI40" s="47">
         <v>20000</v>
       </c>
-      <c r="AJ40" s="85" t="s">
+      <c r="AJ40" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AK40" s="86"/>
+      <c r="AK40" s="88"/>
     </row>
     <row r="41" s="7" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="36" t="s">
         <v>159</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -6933,8 +7007,10 @@
       <c r="C41" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41">
+      <c r="D41" s="19">
+        <v>2558</v>
+      </c>
+      <c r="E41" s="37">
         <v>4</v>
       </c>
       <c r="F41" s="21" t="str">
@@ -6945,96 +7021,96 @@
         <f>IF(ISBLANK(E41),"",VLOOKUP(E41,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>3|5|6</v>
       </c>
-      <c r="H41" s="41">
+      <c r="H41" s="37">
         <v>869</v>
       </c>
-      <c r="I41" s="41">
+      <c r="I41" s="37">
         <f t="shared" si="3"/>
         <v>869</v>
       </c>
-      <c r="J41" s="41">
-        <v>0</v>
-      </c>
-      <c r="K41" s="41" t="s">
+      <c r="J41" s="37">
+        <v>0</v>
+      </c>
+      <c r="K41" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="L41" s="40">
+      <c r="L41" s="47">
         <f t="shared" si="4"/>
         <v>8690</v>
       </c>
-      <c r="M41" s="40">
+      <c r="M41" s="47">
         <v>28</v>
       </c>
-      <c r="N41" s="40">
+      <c r="N41" s="47">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O41" s="40">
+      <c r="O41" s="47">
         <v>1.5</v>
       </c>
-      <c r="P41" s="40">
+      <c r="P41" s="47">
         <v>500</v>
       </c>
-      <c r="Q41" s="40" t="s">
+      <c r="Q41" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R41" s="53" t="s">
+      <c r="R41" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="S41" s="40">
+      <c r="S41" s="47">
         <v>1.2</v>
       </c>
-      <c r="T41" s="59">
+      <c r="T41" s="61">
         <v>190</v>
       </c>
-      <c r="U41" s="40" t="s">
+      <c r="U41" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="V41" s="40" t="s">
+      <c r="V41" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40">
+      <c r="W41" s="47"/>
+      <c r="X41" s="47">
         <v>300</v>
       </c>
-      <c r="Y41" s="68">
+      <c r="Y41" s="70">
         <v>180</v>
       </c>
-      <c r="Z41" s="40" t="s">
+      <c r="Z41" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AA41" s="40" t="s">
+      <c r="AA41" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AB41" s="40"/>
-      <c r="AC41" s="40" t="s">
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AD41" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="40" t="s">
+      <c r="AD41" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AG41" s="40" t="s">
+      <c r="AG41" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AH41" s="40">
+      <c r="AH41" s="47">
         <v>10</v>
       </c>
-      <c r="AI41" s="40">
+      <c r="AI41" s="47">
         <v>20000</v>
       </c>
-      <c r="AJ41" s="85" t="s">
+      <c r="AJ41" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AK41" s="86"/>
+      <c r="AK41" s="88"/>
     </row>
     <row r="42" s="7" customFormat="1" ht="39" customHeight="1" spans="1:37">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="36" t="s">
         <v>162</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -7043,8 +7119,10 @@
       <c r="C42" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41">
+      <c r="D42" s="19">
+        <v>2554</v>
+      </c>
+      <c r="E42" s="37">
         <v>4</v>
       </c>
       <c r="F42" s="21" t="str">
@@ -7055,91 +7133,91 @@
         <f>IF(ISBLANK(E42),"",VLOOKUP(E42,[1]__Sheet1!$A:$C,3,FALSE))</f>
         <v>3|5|6</v>
       </c>
-      <c r="H42" s="41">
+      <c r="H42" s="37">
         <v>864</v>
       </c>
-      <c r="I42" s="41">
+      <c r="I42" s="37">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="J42" s="41">
-        <v>0</v>
-      </c>
-      <c r="K42" s="41" t="s">
+      <c r="J42" s="37">
+        <v>0</v>
+      </c>
+      <c r="K42" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="L42" s="40">
+      <c r="L42" s="47">
         <f t="shared" si="4"/>
         <v>8640</v>
       </c>
-      <c r="M42" s="40">
+      <c r="M42" s="47">
         <v>28</v>
       </c>
-      <c r="N42" s="40">
+      <c r="N42" s="47">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="O42" s="40">
+      <c r="O42" s="47">
         <v>1.5</v>
       </c>
-      <c r="P42" s="40">
+      <c r="P42" s="47">
         <v>125</v>
       </c>
-      <c r="Q42" s="40" t="s">
+      <c r="Q42" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R42" s="53" t="s">
+      <c r="R42" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="S42" s="40">
+      <c r="S42" s="47">
         <v>1.2</v>
       </c>
-      <c r="T42" s="59">
+      <c r="T42" s="61">
         <v>190</v>
       </c>
-      <c r="U42" s="40" t="s">
+      <c r="U42" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40">
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="47">
         <v>300</v>
       </c>
-      <c r="Y42" s="68">
+      <c r="Y42" s="70">
         <v>180</v>
       </c>
-      <c r="Z42" s="40" t="s">
+      <c r="Z42" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AA42" s="40" t="s">
+      <c r="AA42" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="40" t="s">
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AD42" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="40" t="s">
+      <c r="AD42" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AG42" s="40" t="s">
+      <c r="AG42" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AH42" s="40">
+      <c r="AH42" s="47">
         <v>10</v>
       </c>
-      <c r="AI42" s="40">
+      <c r="AI42" s="47">
         <v>20000</v>
       </c>
-      <c r="AJ42" s="85" t="s">
+      <c r="AJ42" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AK42" s="86"/>
+      <c r="AK42" s="88"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AL3">
